--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF825BE-ABAE-4666-BE84-B85B3A02712E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10942A7-4A2C-4C3F-8084-141A98D7F884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{369D53F0-7860-4566-A341-53E379050634}"/>
   </bookViews>
@@ -151,12 +151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,18 +474,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A405A5-29DB-404C-A31E-104283C569AD}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -507,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -515,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -523,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -531,7 +537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -539,25 +545,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>44061</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>44062</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>44063</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>44064</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -574,7 +579,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -591,1003 +596,1051 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44038</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44045</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44052</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44038</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44045</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44052</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>158</v>
+      </c>
+      <c r="D14">
+        <v>354</v>
+      </c>
+      <c r="E14">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B14)</f>
         <v>117</v>
       </c>
-      <c r="C15">
-        <v>158</v>
-      </c>
-      <c r="D15">
-        <v>354</v>
-      </c>
-      <c r="E15">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
       <c r="C16">
-        <v>13</v>
+        <f>SUM(B14:C14)</f>
+        <v>275</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <f>SUM(B14:D14)</f>
+        <v>629</v>
       </c>
       <c r="E16">
-        <v>130</v>
+        <f>SUM(B14:E14)</f>
+        <v>1583</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <f>SUM(B15)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <f>SUM(B15:C15)</f>
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <f>SUM(B15:D15)</f>
-        <v>629</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <f>SUM(B15:E15)</f>
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <f>SUM(B16)</f>
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <f>SUM(B16:C16)</f>
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <f>SUM(B16:D16)</f>
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <f>SUM(B16:E16)</f>
         <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44047</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44048</v>
+      </c>
+      <c r="E19" s="6">
+        <v>44049</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44050</v>
+      </c>
+      <c r="G19" s="6">
+        <v>44051</v>
+      </c>
+      <c r="H19" s="6">
+        <v>44052</v>
+      </c>
+      <c r="I19" s="6">
+        <v>44053</v>
+      </c>
+      <c r="J19" s="6">
+        <v>44054</v>
+      </c>
+      <c r="K19" s="6">
+        <v>44055</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" ref="L19:T19" si="0">K19+1</f>
+        <v>44056</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>44058</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="0"/>
+        <v>44059</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>44060</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="0"/>
+        <v>44061</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>44062</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="0"/>
+        <v>44063</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="0"/>
+        <v>44064</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44046</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44047</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44048</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44049</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44050</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44051</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44052</v>
-      </c>
-      <c r="I20" s="2">
-        <v>44053</v>
-      </c>
-      <c r="J20" s="2">
-        <v>44054</v>
-      </c>
-      <c r="K20" s="2">
-        <v>44055</v>
-      </c>
-      <c r="L20" s="2">
-        <f>K20+1</f>
-        <v>44056</v>
-      </c>
-      <c r="M20" s="2">
-        <f>L20+1</f>
-        <v>44057</v>
-      </c>
-      <c r="N20" s="2">
-        <f>M20+1</f>
-        <v>44058</v>
-      </c>
-      <c r="O20" s="2">
-        <f>N20+1</f>
-        <v>44059</v>
-      </c>
-      <c r="P20" s="2">
-        <f>O20+1</f>
-        <v>44060</v>
-      </c>
-      <c r="Q20" s="2">
-        <f>P20+1</f>
-        <v>44061</v>
-      </c>
-      <c r="R20" s="2">
-        <f>Q20+1</f>
-        <v>44062</v>
-      </c>
-      <c r="S20" s="2">
-        <f>R20+1</f>
-        <v>44063</v>
-      </c>
-      <c r="T20" s="2">
-        <f>S20+1</f>
-        <v>44064</v>
-      </c>
-      <c r="U20" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>198</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>41</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <v>123</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>420</v>
+      </c>
+      <c r="Q20">
+        <v>355</v>
+      </c>
+      <c r="R20">
+        <v>493</v>
+      </c>
+      <c r="S20">
+        <v>256</v>
+      </c>
+      <c r="T20">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>198</v>
-      </c>
       <c r="J21">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="Q21">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="R21">
-        <v>493</v>
+        <v>76</v>
       </c>
       <c r="S21">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="T21">
-        <v>202</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
         <v>6</v>
       </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>9</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>16</v>
-      </c>
-      <c r="P22">
-        <v>98</v>
-      </c>
-      <c r="Q22">
-        <v>80</v>
-      </c>
-      <c r="R22">
-        <v>76</v>
-      </c>
-      <c r="S22">
-        <v>23</v>
-      </c>
-      <c r="T22">
-        <v>24</v>
-      </c>
+      <c r="B22" s="4">
+        <f>SUM(B20)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUM(B20:C20)</f>
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM($B$20:D20)</f>
+        <v>20</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUM($B$20:E20)</f>
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <f>SUM($B$20:F20)</f>
+        <v>29</v>
+      </c>
+      <c r="G22" s="4">
+        <f>SUM($B$20:G20)</f>
+        <v>39</v>
+      </c>
+      <c r="H22" s="4">
+        <f>SUM($B$20:H20)</f>
+        <v>46</v>
+      </c>
+      <c r="I22" s="4">
+        <f>SUM($B$20:I20)</f>
+        <v>244</v>
+      </c>
+      <c r="J22" s="4">
+        <f>SUM($B$20:J20)</f>
+        <v>262</v>
+      </c>
+      <c r="K22" s="4">
+        <f>SUM($B$20:K20)</f>
+        <v>303</v>
+      </c>
+      <c r="L22" s="4">
+        <f>SUM($B$20:L20)</f>
+        <v>345</v>
+      </c>
+      <c r="M22" s="4">
+        <f>SUM($B$20:M20)</f>
+        <v>468</v>
+      </c>
+      <c r="N22" s="4">
+        <f>SUM($B$20:N20)</f>
+        <v>479</v>
+      </c>
+      <c r="O22" s="4">
+        <f>SUM($B$20:O20)</f>
+        <v>509</v>
+      </c>
+      <c r="P22" s="4">
+        <f>SUM($B$20:P20)</f>
+        <v>929</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>SUM($B$20:Q20)</f>
+        <v>1284</v>
+      </c>
+      <c r="R22" s="4">
+        <f>SUM($B$20:R20)</f>
+        <v>1777</v>
+      </c>
+      <c r="S22" s="4">
+        <f>SUM($B$20:S20)</f>
+        <v>2033</v>
+      </c>
+      <c r="T22" s="4">
+        <f>SUM($B$20:T20)</f>
+        <v>2235</v>
+      </c>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
         <f>SUM(B21)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f>SUM(B21:C21)</f>
-        <v>13</v>
+        <f>SUM($B$21:C21)</f>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
         <f>SUM($B$21:D21)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4">
         <f>SUM($B$21:E21)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <f>SUM($B$21:F21)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <f>SUM($B$21:G21)</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>SUM($B$21:H21)</f>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
         <f>SUM($B$21:I21)</f>
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="J23" s="4">
         <f>SUM($B$21:J21)</f>
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="K23" s="4">
         <f>SUM($B$21:K21)</f>
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="L23" s="4">
         <f>SUM($B$21:L21)</f>
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="M23" s="4">
         <f>SUM($B$21:M21)</f>
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="N23" s="4">
         <f>SUM($B$21:N21)</f>
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="O23" s="4">
         <f>SUM($B$21:O21)</f>
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="P23" s="4">
         <f>SUM($B$21:P21)</f>
-        <v>929</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="4">
         <f>SUM($B$21:Q21)</f>
-        <v>1284</v>
+        <v>249</v>
       </c>
       <c r="R23" s="4">
         <f>SUM($B$21:R21)</f>
-        <v>1777</v>
+        <v>325</v>
       </c>
       <c r="S23" s="4">
         <f>SUM($B$21:S21)</f>
-        <v>2033</v>
+        <v>348</v>
       </c>
       <c r="T23" s="4">
         <f>SUM($B$21:T21)</f>
-        <v>2235</v>
+        <v>372</v>
       </c>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4">
-        <f>SUM(B22)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <f>SUM($B$22:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <f>SUM($B$22:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <f>SUM($B$22:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <f>SUM($B$22:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <f>SUM($B$22:G22)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <f>SUM($B$22:H22)</f>
-        <v>3</v>
-      </c>
-      <c r="I24" s="4">
-        <f>SUM($B$22:I22)</f>
-        <v>9</v>
-      </c>
-      <c r="J24" s="4">
-        <f>SUM($B$22:J22)</f>
-        <v>14</v>
-      </c>
-      <c r="K24" s="4">
-        <f>SUM($B$22:K22)</f>
-        <v>23</v>
-      </c>
-      <c r="L24" s="4">
-        <f>SUM($B$22:L22)</f>
-        <v>37</v>
-      </c>
-      <c r="M24" s="4">
-        <f>SUM($B$22:M22)</f>
-        <v>51</v>
-      </c>
-      <c r="N24" s="4">
-        <f>SUM($B$22:N22)</f>
-        <v>55</v>
-      </c>
-      <c r="O24" s="4">
-        <f>SUM($B$22:O22)</f>
-        <v>71</v>
-      </c>
-      <c r="P24" s="4">
-        <f>SUM($B$22:P22)</f>
-        <v>169</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>SUM($B$22:Q22)</f>
-        <v>249</v>
-      </c>
-      <c r="R24" s="4">
-        <f>SUM($B$22:R22)</f>
-        <v>325</v>
-      </c>
-      <c r="S24" s="4">
-        <f>SUM($B$22:S22)</f>
-        <v>348</v>
-      </c>
-      <c r="T24" s="4">
-        <f>SUM($B$22:T22)</f>
-        <v>372</v>
-      </c>
-      <c r="U24" s="4"/>
+    <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44056</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44063</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44056</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44063</v>
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <f>SUM(B26)</f>
+        <v>236</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
+        <f>SUM($B$26:C26)</f>
+        <v>319</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <f>SUM(B27)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <f>SUM($B$27:C27)</f>
-        <v>319</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <f>SUM(B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <f>SUM($B$28:C28)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44044</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:T31" si="1">B31+1</f>
+        <v>44045</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>44046</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
+        <v>44047</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>44048</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>44049</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>44050</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="1"/>
+        <v>44051</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="1"/>
+        <v>44052</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="1"/>
+        <v>44053</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
+        <v>44054</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="1"/>
+        <v>44055</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="1"/>
+        <v>44056</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="1"/>
+        <v>44057</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="1"/>
+        <v>44058</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="1"/>
+        <v>44059</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="1"/>
+        <v>44060</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="1"/>
+        <v>44061</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="1"/>
+        <v>44062</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44044</v>
-      </c>
-      <c r="C32" s="2">
-        <f>B32+1</f>
-        <v>44045</v>
-      </c>
-      <c r="D32" s="2">
-        <f>C32+1</f>
-        <v>44046</v>
-      </c>
-      <c r="E32" s="2">
-        <f>D32+1</f>
-        <v>44047</v>
-      </c>
-      <c r="F32" s="2">
-        <f>E32+1</f>
-        <v>44048</v>
-      </c>
-      <c r="G32" s="2">
-        <f>F32+1</f>
-        <v>44049</v>
-      </c>
-      <c r="H32" s="2">
-        <f>G32+1</f>
-        <v>44050</v>
-      </c>
-      <c r="I32" s="2">
-        <f>H32+1</f>
-        <v>44051</v>
-      </c>
-      <c r="J32" s="2">
-        <f>I32+1</f>
-        <v>44052</v>
-      </c>
-      <c r="K32" s="2">
-        <f>J32+1</f>
-        <v>44053</v>
-      </c>
-      <c r="L32" s="2">
-        <f>K32+1</f>
-        <v>44054</v>
-      </c>
-      <c r="M32" s="2">
-        <f>L32+1</f>
-        <v>44055</v>
-      </c>
-      <c r="N32" s="2">
-        <f>M32+1</f>
-        <v>44056</v>
-      </c>
-      <c r="O32" s="2">
-        <f>N32+1</f>
-        <v>44057</v>
-      </c>
-      <c r="P32" s="2">
-        <f>O32+1</f>
-        <v>44058</v>
-      </c>
-      <c r="Q32" s="2">
-        <f>P32+1</f>
-        <v>44059</v>
-      </c>
-      <c r="R32" s="2">
-        <f>Q32+1</f>
-        <v>44060</v>
-      </c>
-      <c r="S32" s="2">
-        <f>R32+1</f>
-        <v>44061</v>
-      </c>
-      <c r="T32" s="2">
-        <f>S32+1</f>
-        <v>44062</v>
-      </c>
-      <c r="U32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>299</v>
+      </c>
+      <c r="F32">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>103</v>
+      </c>
+      <c r="M32">
+        <v>276</v>
+      </c>
+      <c r="N32">
+        <v>114</v>
+      </c>
+      <c r="O32">
+        <v>85</v>
+      </c>
+      <c r="P32">
+        <v>109</v>
+      </c>
+      <c r="Q32">
+        <v>97</v>
+      </c>
+      <c r="R32">
+        <v>92</v>
+      </c>
+      <c r="S32">
+        <v>103</v>
+      </c>
+      <c r="T32">
+        <v>258</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-      <c r="E33">
-        <v>299</v>
-      </c>
-      <c r="F33">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <v>45</v>
-      </c>
-      <c r="H33">
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>11</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>103</v>
-      </c>
-      <c r="M33">
-        <v>276</v>
-      </c>
-      <c r="N33">
-        <v>114</v>
-      </c>
-      <c r="O33">
-        <v>85</v>
-      </c>
-      <c r="P33">
-        <v>109</v>
-      </c>
-      <c r="Q33">
-        <v>97</v>
-      </c>
-      <c r="R33">
-        <v>92</v>
-      </c>
       <c r="S33">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <f>SUM(B32)</f>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>SUM($B$32:C32)</f>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <f>SUM($B$32:D32)</f>
+        <v>47</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <f>SUM($B$32:E32)</f>
+        <v>346</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <f>SUM($B$32:F32)</f>
+        <v>401</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <f>SUM($B$32:G32)</f>
+        <v>446</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <f>SUM($B$32:H32)</f>
+        <v>447</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <f>SUM($B$32:I32)</f>
+        <v>447</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <f>SUM($B$32:J32)</f>
+        <v>458</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <f>SUM($B$32:K32)</f>
+        <v>458</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <f>SUM($B$32:L32)</f>
+        <v>561</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <f>SUM($B$32:M32)</f>
+        <v>837</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <f>SUM($B$32:N32)</f>
+        <v>951</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <f>SUM($B$32:O32)</f>
+        <v>1036</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <f>SUM($B$32:P32)</f>
+        <v>1145</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <f>SUM($B$32:Q32)</f>
+        <v>1242</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <f>SUM($B$32:R32)</f>
+        <v>1334</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <f>SUM($B$32:S32)</f>
+        <v>1437</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <f>SUM($B$32:T32)</f>
+        <v>1695</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <f>SUM(B33)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f>SUM($B$33:C33)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>SUM($B$33:D33)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f>SUM($B$33:E33)</f>
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f>SUM($B$33:F33)</f>
-        <v>401</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <f>SUM($B$33:G33)</f>
-        <v>446</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <f>SUM($B$33:H33)</f>
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <f>SUM($B$33:I33)</f>
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <f>SUM($B$33:J33)</f>
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="K35">
         <f>SUM($B$33:K33)</f>
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <f>SUM($B$33:L33)</f>
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="M35">
         <f>SUM($B$33:M33)</f>
-        <v>837</v>
+        <v>4</v>
       </c>
       <c r="N35">
         <f>SUM($B$33:N33)</f>
-        <v>951</v>
+        <v>6</v>
       </c>
       <c r="O35">
         <f>SUM($B$33:O33)</f>
-        <v>1036</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <f>SUM($B$33:P33)</f>
-        <v>1145</v>
+        <v>10</v>
       </c>
       <c r="Q35">
         <f>SUM($B$33:Q33)</f>
-        <v>1242</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <f>SUM($B$33:R33)</f>
-        <v>1334</v>
+        <v>13</v>
       </c>
       <c r="S35">
         <f>SUM($B$33:S33)</f>
-        <v>1437</v>
+        <v>13</v>
       </c>
       <c r="T35">
         <f>SUM($B$33:T33)</f>
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <f>SUM(B34)</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f>SUM($B$34:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f>SUM($B$34:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>SUM($B$34:E34)</f>
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <f>SUM($B$34:F34)</f>
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <f>SUM($B$34:G34)</f>
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <f>SUM($B$34:H34)</f>
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <f>SUM($B$34:I34)</f>
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <f>SUM($B$34:J34)</f>
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <f>SUM($B$34:K34)</f>
-        <v>4</v>
-      </c>
-      <c r="L36">
-        <f>SUM($B$34:L34)</f>
-        <v>4</v>
-      </c>
-      <c r="M36">
-        <f>SUM($B$34:M34)</f>
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <f>SUM($B$34:N34)</f>
-        <v>6</v>
-      </c>
-      <c r="O36">
-        <f>SUM($B$34:O34)</f>
-        <v>7</v>
-      </c>
-      <c r="P36">
-        <f>SUM($B$34:P34)</f>
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <f>SUM($B$34:Q34)</f>
-        <v>12</v>
-      </c>
-      <c r="R36">
-        <f>SUM($B$34:R34)</f>
         <v>13</v>
       </c>
-      <c r="S36">
-        <f>SUM($B$34:S34)</f>
-        <v>13</v>
-      </c>
-      <c r="T36">
-        <f>SUM($B$34:T34)</f>
-        <v>13</v>
+    </row>
+    <row r="37" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44058</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44058</v>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f>5854+516</f>
+        <v>6370</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <f>5854+516</f>
-        <v>6370</v>
+        <f>15</f>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <f>15</f>
-        <v>15</v>
+        <f>B38</f>
+        <v>6370</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <f>B39</f>
-        <v>6370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <f>B40</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44050</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:P43" si="2">B43+1</f>
+        <v>44051</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="2"/>
+        <v>44052</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="2"/>
+        <v>44053</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>44054</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="2"/>
+        <v>44055</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="2"/>
+        <v>44056</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="2"/>
+        <v>44057</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="2"/>
+        <v>44058</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
+        <v>44059</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="2"/>
+        <v>44060</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="2"/>
+        <v>44061</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="2"/>
+        <v>44062</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="2"/>
+        <v>44063</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="2"/>
+        <v>44064</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44050</v>
-      </c>
-      <c r="C44" s="2">
-        <f>B44+1</f>
-        <v>44051</v>
-      </c>
-      <c r="D44" s="2">
-        <f>C44+1</f>
-        <v>44052</v>
-      </c>
-      <c r="E44" s="2">
-        <f>D44+1</f>
-        <v>44053</v>
-      </c>
-      <c r="F44" s="2">
-        <f>E44+1</f>
-        <v>44054</v>
-      </c>
-      <c r="G44" s="2">
-        <f>F44+1</f>
-        <v>44055</v>
-      </c>
-      <c r="H44" s="2">
-        <f>G44+1</f>
-        <v>44056</v>
-      </c>
-      <c r="I44" s="2">
-        <f>H44+1</f>
-        <v>44057</v>
-      </c>
-      <c r="J44" s="2">
-        <f>I44+1</f>
-        <v>44058</v>
-      </c>
-      <c r="K44" s="2">
-        <f>J44+1</f>
-        <v>44059</v>
-      </c>
-      <c r="L44" s="2">
-        <f>K44+1</f>
-        <v>44060</v>
-      </c>
-      <c r="M44" s="2">
-        <f>L44+1</f>
-        <v>44061</v>
-      </c>
-      <c r="N44" s="2">
-        <f>M44+1</f>
-        <v>44062</v>
-      </c>
-      <c r="O44" s="2">
-        <f>N44+1</f>
-        <v>44063</v>
-      </c>
-      <c r="P44" s="2">
-        <f>O44+1</f>
-        <v>44064</v>
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>210</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>219</v>
+      </c>
+      <c r="G44">
+        <v>48</v>
+      </c>
+      <c r="H44">
+        <v>246</v>
+      </c>
+      <c r="I44">
+        <v>578</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>645</v>
+      </c>
+      <c r="N44">
+        <v>582</v>
+      </c>
+      <c r="O44">
+        <v>831</v>
+      </c>
+      <c r="P44">
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1596,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -1617,195 +1670,145 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>645</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>831</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>1016</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f>SUM(B44)</f>
+        <v>210</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <f>SUM($B$44:C44)</f>
+        <v>219</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f>SUM($B$44:D44)</f>
+        <v>219</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <f>SUM($B$44:E44)</f>
+        <v>219</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <f>SUM($B$44:F44)</f>
+        <v>438</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <f>SUM($B$44:G44)</f>
+        <v>486</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <f>SUM($B$44:H44)</f>
+        <v>732</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <f>SUM($B$44:I44)</f>
+        <v>1310</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <f>SUM($B$44:J44)</f>
+        <v>1310</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <f>SUM($B$44:K44)</f>
+        <v>1310</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <f>SUM($B$44:L44)</f>
+        <v>1310</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <f>SUM($B$44:M44)</f>
+        <v>1955</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <f>SUM($B$44:N44)</f>
+        <v>2537</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <f>SUM($B$44:O44)</f>
+        <v>3368</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <f>SUM($B$44:P44)</f>
+        <v>4384</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <f>SUM(B45)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f>SUM($B$45:C45)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f>SUM($B$45:D45)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f>SUM($B$45:E45)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f>SUM($B$45:F45)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f>SUM($B$45:G45)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f>SUM($B$45:H45)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f>SUM($B$45:I45)</f>
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <f>SUM($B$45:J45)</f>
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <f>SUM($B$45:K45)</f>
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <f>SUM($B$45:L45)</f>
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <f>SUM($B$45:M45)</f>
-        <v>1955</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <f>SUM($B$45:N45)</f>
-        <v>2537</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <f>SUM($B$45:O45)</f>
-        <v>3368</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <f>SUM($B$45:P45)</f>
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <f>SUM(B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>SUM($B$46:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <f>SUM($B$46:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f>SUM($B$46:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>SUM($B$46:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f>SUM($B$46:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f>SUM($B$46:H46)</f>
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <f>SUM($B$46:I46)</f>
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <f>SUM($B$46:J46)</f>
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <f>SUM($B$46:K46)</f>
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <f>SUM($B$46:L46)</f>
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <f>SUM($B$46:M46)</f>
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <f>SUM($B$46:N46)</f>
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <f>SUM($B$46:O46)</f>
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <f>SUM($B$46:P46)</f>
         <v>5</v>
       </c>
     </row>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neang/Documents/university-covid19-tracking/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10942A7-4A2C-4C3F-8084-141A98D7F884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF781B5-49BB-2D49-9E70-4EAB8E684B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{369D53F0-7860-4566-A341-53E379050634}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{369D53F0-7860-4566-A341-53E379050634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,19 +477,19 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -537,7 +537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -562,7 +562,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +579,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,7 +596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -647,7 +647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -689,7 +689,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -884,7 +884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="U23" s="4"/>
     </row>
-    <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1581,8 +1581,11 @@
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q43" s="6">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1631,8 +1634,11 @@
       <c r="P44">
         <v>1016</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1681,8 +1687,11 @@
       <c r="P45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -1746,8 +1755,12 @@
         <f>SUM($B$44:P44)</f>
         <v>4384</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <f>SUM($B$44:Q44)</f>
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1809,6 +1822,10 @@
       </c>
       <c r="P47">
         <f>SUM($B$45:P45)</f>
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f>SUM($B$45:Q45)</f>
         <v>5</v>
       </c>
     </row>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7212A-336C-4030-ADF1-738E85D83BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C1432-8269-4CBA-B4EC-C4E135D6FCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -126,13 +126,34 @@
   </si>
   <si>
     <t>https://coronavirus.utexas.edu/ut-austin-covid-19-dashboard</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Test Students?</t>
+  </si>
+  <si>
+    <t>Test Staff?</t>
+  </si>
+  <si>
+    <t># Students</t>
+  </si>
+  <si>
+    <t># Staff</t>
+  </si>
+  <si>
+    <t>Test Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,6 +177,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -188,6 +216,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,16 +600,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ76"/>
+  <dimension ref="A1:CQ77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="5" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="8" width="9.5546875" customWidth="1"/>
     <col min="9" max="16" width="9.6640625" customWidth="1"/>
     <col min="17" max="20" width="9.5546875" customWidth="1"/>
@@ -598,1320 +628,1304 @@
     <col min="92" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>30101</v>
+      </c>
+      <c r="E2">
+        <f>3696+8287</f>
+        <v>11983</v>
+      </c>
+      <c r="F2">
+        <f>B2*D2+C2*E2</f>
+        <v>42084</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>44061</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>44062</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>44063</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>44064</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>44065</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1566</v>
-      </c>
-      <c r="C14">
-        <v>1705</v>
-      </c>
-      <c r="D14">
-        <v>2211</v>
-      </c>
-      <c r="E14">
-        <v>2510</v>
-      </c>
-      <c r="F14">
-        <v>2510</v>
-      </c>
-      <c r="G14">
-        <v>3031</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1566</v>
+      </c>
+      <c r="C15">
+        <v>1705</v>
+      </c>
+      <c r="D15">
+        <v>2211</v>
+      </c>
+      <c r="E15">
+        <v>2510</v>
+      </c>
+      <c r="F15">
+        <v>2510</v>
+      </c>
+      <c r="G15">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>25</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>78</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>78</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
         <v>44038</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>44045</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>44052</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>44059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>117</v>
-      </c>
-      <c r="C18">
-        <v>158</v>
-      </c>
-      <c r="D18">
-        <v>354</v>
-      </c>
-      <c r="E18">
-        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E19">
-        <v>130</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <f>SUM(B18)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <f>SUM(B18:C18)</f>
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <f>SUM(B18:D18)</f>
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <f>SUM(B18:E18)</f>
-        <v>1583</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <f>SUM(B19)</f>
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <f>SUM(B19:C19)</f>
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="D21">
         <f>SUM(B19:D19)</f>
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="E21">
         <f>SUM(B19:E19)</f>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B20)</f>
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>SUM(B20:C20)</f>
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <f>SUM(B20:D20)</f>
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <f>SUM(B20:E20)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>44046</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>44047</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>44048</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>44049</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>44050</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>44051</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>44052</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>44053</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="3">
         <v>44054</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K24" s="3">
         <v>44055</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" ref="L23:T23" si="0">K23+1</f>
+      <c r="L24" s="3">
+        <f t="shared" ref="L24:T24" si="0">K24+1</f>
         <v>44056</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N24" s="3">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O24" s="3">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P24" s="3">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q24" s="3">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R24" s="3">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S24" s="3">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T24" s="3">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U24" s="3">
         <v>44065</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V24" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>198</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
-      </c>
-      <c r="K24">
-        <v>41</v>
-      </c>
-      <c r="L24">
-        <v>42</v>
-      </c>
-      <c r="M24">
-        <v>123</v>
-      </c>
-      <c r="N24">
-        <v>11</v>
-      </c>
-      <c r="O24">
-        <v>30</v>
-      </c>
-      <c r="P24">
-        <v>420</v>
-      </c>
-      <c r="Q24">
-        <v>355</v>
-      </c>
-      <c r="R24">
-        <v>493</v>
-      </c>
-      <c r="S24">
-        <v>256</v>
-      </c>
-      <c r="T24">
-        <v>202</v>
-      </c>
-      <c r="U24">
-        <v>104</v>
-      </c>
-      <c r="V24">
-        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K25">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O25">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P25">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="R25">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="S25">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="T25">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="U25">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="V25">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
         <v>14</v>
       </c>
-      <c r="B26" s="5">
-        <f>SUM(B24)</f>
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <f>SUM(B24:C24)</f>
-        <v>13</v>
-      </c>
-      <c r="D26" s="5">
-        <f>SUM($B$24:D24)</f>
-        <v>20</v>
-      </c>
-      <c r="E26" s="5">
-        <f>SUM($B$24:E24)</f>
-        <v>26</v>
-      </c>
-      <c r="F26" s="5">
-        <f>SUM($B$24:F24)</f>
-        <v>29</v>
-      </c>
-      <c r="G26" s="5">
-        <f>SUM($B$24:G24)</f>
-        <v>39</v>
-      </c>
-      <c r="H26" s="5">
-        <f>SUM($B$24:H24)</f>
-        <v>46</v>
-      </c>
-      <c r="I26" s="5">
-        <f>SUM($B$24:I24)</f>
-        <v>244</v>
-      </c>
-      <c r="J26" s="5">
-        <f>SUM($B$24:J24)</f>
-        <v>262</v>
-      </c>
-      <c r="K26" s="5">
-        <f>SUM($B$24:K24)</f>
-        <v>303</v>
-      </c>
-      <c r="L26" s="5">
-        <f>SUM($B$24:L24)</f>
-        <v>345</v>
-      </c>
-      <c r="M26" s="5">
-        <f>SUM($B$24:M24)</f>
-        <v>468</v>
-      </c>
-      <c r="N26" s="5">
-        <f>SUM($B$24:N24)</f>
-        <v>479</v>
-      </c>
-      <c r="O26" s="5">
-        <f>SUM($B$24:O24)</f>
-        <v>509</v>
-      </c>
-      <c r="P26" s="5">
-        <f>SUM($B$24:P24)</f>
-        <v>929</v>
-      </c>
-      <c r="Q26" s="5">
-        <f>SUM($B$24:Q24)</f>
-        <v>1284</v>
-      </c>
-      <c r="R26" s="5">
-        <f>SUM($B$24:R24)</f>
-        <v>1777</v>
-      </c>
-      <c r="S26" s="5">
-        <f>SUM($B$24:S24)</f>
-        <v>2033</v>
-      </c>
-      <c r="T26" s="5">
-        <f>SUM($B$24:T24)</f>
-        <v>2235</v>
-      </c>
-      <c r="U26" s="5">
-        <f>SUM($B$24:U24)</f>
-        <v>2339</v>
-      </c>
-      <c r="V26" s="5">
-        <f>SUM($B$24:V24)</f>
-        <v>2698</v>
+      <c r="M26">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>98</v>
+      </c>
+      <c r="Q26">
+        <v>80</v>
+      </c>
+      <c r="R26">
+        <v>76</v>
+      </c>
+      <c r="S26">
+        <v>23</v>
+      </c>
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <v>19</v>
+      </c>
+      <c r="V26">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5">
         <f>SUM(B25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5">
-        <f>SUM($B$25:C25)</f>
-        <v>0</v>
+        <f>SUM(B25:C25)</f>
+        <v>13</v>
       </c>
       <c r="D27" s="5">
         <f>SUM($B$25:D25)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5">
         <f>SUM($B$25:E25)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5">
         <f>SUM($B$25:F25)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G27" s="5">
         <f>SUM($B$25:G25)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H27" s="5">
         <f>SUM($B$25:H25)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I27" s="5">
         <f>SUM($B$25:I25)</f>
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="J27" s="5">
         <f>SUM($B$25:J25)</f>
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K27" s="5">
         <f>SUM($B$25:K25)</f>
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="L27" s="5">
         <f>SUM($B$25:L25)</f>
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="M27" s="5">
         <f>SUM($B$25:M25)</f>
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="N27" s="5">
         <f>SUM($B$25:N25)</f>
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="O27" s="5">
         <f>SUM($B$25:O25)</f>
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="P27" s="5">
         <f>SUM($B$25:P25)</f>
-        <v>169</v>
+        <v>929</v>
       </c>
       <c r="Q27" s="5">
         <f>SUM($B$25:Q25)</f>
-        <v>249</v>
+        <v>1284</v>
       </c>
       <c r="R27" s="5">
         <f>SUM($B$25:R25)</f>
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="S27" s="5">
         <f>SUM($B$25:S25)</f>
-        <v>348</v>
+        <v>2033</v>
       </c>
       <c r="T27" s="5">
         <f>SUM($B$25:T25)</f>
-        <v>372</v>
+        <v>2235</v>
       </c>
       <c r="U27" s="5">
         <f>SUM($B$25:U25)</f>
-        <v>391</v>
+        <v>2339</v>
       </c>
       <c r="V27" s="5">
         <f>SUM($B$25:V25)</f>
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUM(B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUM($B$26:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f>SUM($B$26:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM($B$26:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f>SUM($B$26:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM($B$26:G26)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <f>SUM($B$26:H26)</f>
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <f>SUM($B$26:I26)</f>
+        <v>9</v>
+      </c>
+      <c r="J28" s="5">
+        <f>SUM($B$26:J26)</f>
+        <v>14</v>
+      </c>
+      <c r="K28" s="5">
+        <f>SUM($B$26:K26)</f>
+        <v>23</v>
+      </c>
+      <c r="L28" s="5">
+        <f>SUM($B$26:L26)</f>
+        <v>37</v>
+      </c>
+      <c r="M28" s="5">
+        <f>SUM($B$26:M26)</f>
+        <v>51</v>
+      </c>
+      <c r="N28" s="5">
+        <f>SUM($B$26:N26)</f>
+        <v>55</v>
+      </c>
+      <c r="O28" s="5">
+        <f>SUM($B$26:O26)</f>
+        <v>71</v>
+      </c>
+      <c r="P28" s="5">
+        <f>SUM($B$26:P26)</f>
+        <v>169</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>SUM($B$26:Q26)</f>
+        <v>249</v>
+      </c>
+      <c r="R28" s="5">
+        <f>SUM($B$26:R26)</f>
+        <v>325</v>
+      </c>
+      <c r="S28" s="5">
+        <f>SUM($B$26:S26)</f>
+        <v>348</v>
+      </c>
+      <c r="T28" s="5">
+        <f>SUM($B$26:T26)</f>
+        <v>372</v>
+      </c>
+      <c r="U28" s="5">
+        <f>SUM($B$26:U26)</f>
+        <v>391</v>
+      </c>
+      <c r="V28" s="5">
+        <f>SUM($B$26:V26)</f>
         <v>421</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>44056</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>44063</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>236</v>
-      </c>
-      <c r="C30">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <f>SUM(B30)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>SUM($B$30:C30)</f>
-        <v>319</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <f>SUM(B31)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C33">
         <f>SUM($B$31:C31)</f>
+        <v>319</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>SUM($B$32:C32)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>44044</v>
       </c>
-      <c r="C35" s="3">
-        <f t="shared" ref="C35:T35" si="1">B35+1</f>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:T36" si="1">B36+1</f>
         <v>44045</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="3">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="3">
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J36" s="3">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L36" s="3">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M36" s="3">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N36" s="3">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O36" s="3">
         <f t="shared" si="1"/>
         <v>44057</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P36" s="3">
         <f t="shared" si="1"/>
         <v>44058</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q36" s="3">
         <f t="shared" si="1"/>
         <v>44059</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R36" s="3">
         <f t="shared" si="1"/>
         <v>44060</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S36" s="3">
         <f t="shared" si="1"/>
         <v>44061</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T36" s="3">
         <f t="shared" si="1"/>
         <v>44062</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U36" s="3">
         <v>44063</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V36" s="3">
         <v>44064</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W36" s="3">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>27</v>
-      </c>
-      <c r="E36">
-        <v>299</v>
-      </c>
-      <c r="F36">
-        <v>55</v>
-      </c>
-      <c r="G36">
-        <v>45</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>103</v>
-      </c>
-      <c r="M36">
-        <v>276</v>
-      </c>
-      <c r="N36">
-        <v>114</v>
-      </c>
-      <c r="O36">
-        <v>202</v>
-      </c>
-      <c r="P36">
-        <v>133</v>
-      </c>
-      <c r="Q36">
-        <v>98</v>
-      </c>
-      <c r="R36">
-        <v>211</v>
-      </c>
-      <c r="S36">
-        <v>213</v>
-      </c>
-      <c r="T36">
-        <v>367</v>
-      </c>
-      <c r="U36">
-        <v>257</v>
-      </c>
-      <c r="V36">
-        <v>347</v>
-      </c>
-      <c r="W36">
-        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="F37">
+        <v>55</v>
+      </c>
+      <c r="G37">
+        <v>45</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R37">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="V37">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>9</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>9</v>
+      </c>
+      <c r="V38">
         <v>14</v>
       </c>
-      <c r="B38">
-        <f>SUM(B36)</f>
+      <c r="W38">
         <v>3</v>
-      </c>
-      <c r="C38">
-        <f>SUM($B$36:C36)</f>
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <f>SUM($B$36:D36)</f>
-        <v>47</v>
-      </c>
-      <c r="E38">
-        <f>SUM($B$36:E36)</f>
-        <v>346</v>
-      </c>
-      <c r="F38">
-        <f>SUM($B$36:F36)</f>
-        <v>401</v>
-      </c>
-      <c r="G38">
-        <f>SUM($B$36:G36)</f>
-        <v>446</v>
-      </c>
-      <c r="H38">
-        <f>SUM($B$36:H36)</f>
-        <v>447</v>
-      </c>
-      <c r="I38">
-        <f>SUM($B$36:I36)</f>
-        <v>447</v>
-      </c>
-      <c r="J38">
-        <f>SUM($B$36:J36)</f>
-        <v>458</v>
-      </c>
-      <c r="K38">
-        <f>SUM($B$36:K36)</f>
-        <v>458</v>
-      </c>
-      <c r="L38">
-        <f>SUM($B$36:L36)</f>
-        <v>561</v>
-      </c>
-      <c r="M38">
-        <f>SUM($B$36:M36)</f>
-        <v>837</v>
-      </c>
-      <c r="N38">
-        <f>SUM($B$36:N36)</f>
-        <v>951</v>
-      </c>
-      <c r="O38">
-        <f>SUM($B$36:O36)</f>
-        <v>1153</v>
-      </c>
-      <c r="P38">
-        <f>SUM($B$36:P36)</f>
-        <v>1286</v>
-      </c>
-      <c r="Q38">
-        <f>SUM($B$36:Q36)</f>
-        <v>1384</v>
-      </c>
-      <c r="R38">
-        <f>SUM($B$36:R36)</f>
-        <v>1595</v>
-      </c>
-      <c r="S38">
-        <f>SUM($B$36:S36)</f>
-        <v>1808</v>
-      </c>
-      <c r="T38">
-        <f>SUM($B$36:T36)</f>
-        <v>2175</v>
-      </c>
-      <c r="U38" s="5">
-        <f>SUM($B$36:U36)</f>
-        <v>2432</v>
-      </c>
-      <c r="V38" s="5">
-        <f>SUM($B$36:V36)</f>
-        <v>2779</v>
-      </c>
-      <c r="W38" s="5">
-        <f>SUM($B$36:W36)</f>
-        <v>2947</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <f>SUM(B37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <f>SUM($B$37:C37)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <f>SUM($B$37:D37)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <f>SUM($B$37:E37)</f>
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F39">
         <f>SUM($B$37:F37)</f>
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="G39">
         <f>SUM($B$37:G37)</f>
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="H39">
         <f>SUM($B$37:H37)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="I39">
         <f>SUM($B$37:I37)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="J39">
         <f>SUM($B$37:J37)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="K39">
         <f>SUM($B$37:K37)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="L39">
         <f>SUM($B$37:L37)</f>
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M39">
         <f>SUM($B$37:M37)</f>
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="N39">
         <f>SUM($B$37:N37)</f>
-        <v>6</v>
+        <v>951</v>
       </c>
       <c r="O39">
         <f>SUM($B$37:O37)</f>
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="P39">
         <f>SUM($B$37:P37)</f>
-        <v>11</v>
+        <v>1286</v>
       </c>
       <c r="Q39">
         <f>SUM($B$37:Q37)</f>
-        <v>13</v>
+        <v>1384</v>
       </c>
       <c r="R39">
         <f>SUM($B$37:R37)</f>
-        <v>22</v>
+        <v>1595</v>
       </c>
       <c r="S39">
         <f>SUM($B$37:S37)</f>
-        <v>22</v>
+        <v>1808</v>
       </c>
       <c r="T39">
         <f>SUM($B$37:T37)</f>
-        <v>26</v>
+        <v>2175</v>
       </c>
       <c r="U39" s="5">
         <f>SUM($B$37:U37)</f>
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="V39" s="5">
         <f>SUM($B$37:V37)</f>
-        <v>49</v>
+        <v>2779</v>
       </c>
       <c r="W39" s="5">
         <f>SUM($B$37:W37)</f>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>SUM($B$38:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>SUM($B$38:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>SUM($B$38:E38)</f>
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f>SUM($B$38:F38)</f>
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f>SUM($B$38:G38)</f>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f>SUM($B$38:H38)</f>
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <f>SUM($B$38:I38)</f>
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f>SUM($B$38:J38)</f>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f>SUM($B$38:K38)</f>
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <f>SUM($B$38:L38)</f>
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <f>SUM($B$38:M38)</f>
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <f>SUM($B$38:N38)</f>
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <f>SUM($B$38:O38)</f>
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <f>SUM($B$38:P38)</f>
+        <v>11</v>
+      </c>
+      <c r="Q40">
+        <f>SUM($B$38:Q38)</f>
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <f>SUM($B$38:R38)</f>
+        <v>22</v>
+      </c>
+      <c r="S40">
+        <f>SUM($B$38:S38)</f>
+        <v>22</v>
+      </c>
+      <c r="T40">
+        <f>SUM($B$38:T38)</f>
+        <v>26</v>
+      </c>
+      <c r="U40" s="5">
+        <f>SUM($B$38:U38)</f>
+        <v>35</v>
+      </c>
+      <c r="V40" s="5">
+        <f>SUM($B$38:V38)</f>
+        <v>49</v>
+      </c>
+      <c r="W40" s="5">
+        <f>SUM($B$38:W38)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>44058</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>44064</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <f>5854+516</f>
         <v>6370</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>5028</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44">
-        <f>B42</f>
-        <v>6370</v>
-      </c>
-      <c r="C44">
-        <f>SUM($B$42:C42)</f>
-        <v>11398</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <f>B43</f>
-        <v>15</v>
+        <v>6370</v>
       </c>
       <c r="C45">
         <f>SUM($B$43:C43)</f>
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <f>B44</f>
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <f>SUM($B$44:C44)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>44050</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:P47" si="2">B47+1</f>
+      <c r="C48" s="3">
+        <f t="shared" ref="C48:P48" si="2">B48+1</f>
         <v>44051</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="3">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="3">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J48" s="3">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K48" s="3">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="3">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="3">
         <f t="shared" si="2"/>
         <v>44061</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <f t="shared" si="2"/>
         <v>44062</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O48" s="3">
         <f t="shared" si="2"/>
         <v>44063</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="3">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q48" s="3">
         <v>44065</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R48" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>210</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>219</v>
-      </c>
-      <c r="G48">
-        <v>48</v>
-      </c>
-      <c r="H48">
-        <v>246</v>
-      </c>
-      <c r="I48">
-        <v>578</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>645</v>
-      </c>
-      <c r="N48">
-        <v>582</v>
-      </c>
-      <c r="O48">
-        <v>831</v>
-      </c>
-      <c r="P48">
-        <v>1016</v>
-      </c>
-      <c r="Q48">
-        <v>1002</v>
-      </c>
-      <c r="R48">
-        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1920,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1941,1260 +1955,1316 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="P49">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <f>SUM(B48)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <f>SUM($B$48:C48)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f>SUM($B$48:D48)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <f>SUM($B$48:E48)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <f>SUM($B$48:F48)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <f>SUM($B$48:G48)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <f>SUM($B$48:H48)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <f>SUM($B$48:I48)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <f>SUM($B$48:J48)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <f>SUM($B$48:K48)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <f>SUM($B$48:L48)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <f>SUM($B$48:M48)</f>
-        <v>1955</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <f>SUM($B$48:N48)</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <f>SUM($B$48:O48)</f>
-        <v>3368</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <f>SUM($B$48:P48)</f>
-        <v>4384</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <f>SUM($B$48:Q48)</f>
-        <v>5386</v>
-      </c>
-      <c r="R50" s="5">
-        <f>SUM($B$48:R48)</f>
-        <v>6053</v>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <f>SUM(B49)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C51">
         <f>SUM($B$49:C49)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D51">
         <f>SUM($B$49:D49)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <f>SUM($B$49:E49)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F51">
         <f>SUM($B$49:F49)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G51">
         <f>SUM($B$49:G49)</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H51">
         <f>SUM($B$49:H49)</f>
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="I51">
         <f>SUM($B$49:I49)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="J51">
         <f>SUM($B$49:J49)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="K51">
         <f>SUM($B$49:K49)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="L51">
         <f>SUM($B$49:L49)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="M51">
         <f>SUM($B$49:M49)</f>
-        <v>2</v>
+        <v>1955</v>
       </c>
       <c r="N51">
         <f>SUM($B$49:N49)</f>
-        <v>2</v>
+        <v>2537</v>
       </c>
       <c r="O51">
         <f>SUM($B$49:O49)</f>
-        <v>3</v>
+        <v>3368</v>
       </c>
       <c r="P51">
         <f>SUM($B$49:P49)</f>
-        <v>5</v>
+        <v>4384</v>
       </c>
       <c r="Q51">
         <f>SUM($B$49:Q49)</f>
-        <v>5</v>
+        <v>5386</v>
       </c>
       <c r="R51" s="5">
         <f>SUM($B$49:R49)</f>
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>SUM(B50)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>SUM($B$50:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>SUM($B$50:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>SUM($B$50:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>SUM($B$50:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>SUM($B$50:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>SUM($B$50:H50)</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f>SUM($B$50:I50)</f>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f>SUM($B$50:J50)</f>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f>SUM($B$50:K50)</f>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f>SUM($B$50:L50)</f>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f>SUM($B$50:M50)</f>
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <f>SUM($B$50:N50)</f>
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <f>SUM($B$50:O50)</f>
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <f>SUM($B$50:P50)</f>
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <f>SUM($B$50:Q50)</f>
+        <v>5</v>
+      </c>
+      <c r="R52" s="5">
+        <f>SUM($B$50:R50)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="3">
-        <v>44049</v>
-      </c>
-      <c r="C53" s="3">
-        <v>44054</v>
-      </c>
-      <c r="D53" s="3">
-        <v>44061</v>
-      </c>
-      <c r="E53" s="3">
-        <v>44064</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44054</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44061</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44064</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="5">
-        <f>SUM($B$54:B54)</f>
+        <v>17</v>
+      </c>
+      <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <f>SUM($B$54:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <f>SUM($B$54:D54)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="5">
-        <f>SUM($B$54:E54)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="5">
+        <f>SUM($B$55:B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$55:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <f>SUM($B$55:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <f>SUM($B$55:E55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="5">
-        <f>SUM($B$54:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="5">
-        <f>SUM($B$54:C55)</f>
+      <c r="B58" s="5">
+        <f>SUM($B$55:B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <f>SUM($B$55:C56)</f>
         <v>3</v>
       </c>
-      <c r="D57" s="5">
-        <f>SUM($B$54:D55)</f>
+      <c r="D58" s="5">
+        <f>SUM($B$55:D56)</f>
         <v>5</v>
       </c>
-      <c r="E57" s="5">
-        <f>SUM($B$54:E55)</f>
+      <c r="E58" s="5">
+        <f>SUM($B$55:E56)</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="3">
-        <v>44052</v>
-      </c>
-      <c r="C59" s="3">
-        <v>44062</v>
-      </c>
-      <c r="D59" s="3">
-        <v>44063</v>
-      </c>
-      <c r="E59" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F59" s="3">
-        <v>44065</v>
-      </c>
-      <c r="G59" s="3">
-        <v>44066</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <v>333</v>
-      </c>
-      <c r="C60">
-        <v>809</v>
-      </c>
-      <c r="D60">
-        <v>1408</v>
-      </c>
-      <c r="E60">
-        <v>852</v>
-      </c>
-      <c r="F60">
-        <v>763</v>
-      </c>
-      <c r="G60">
-        <v>518</v>
+        <v>24</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44062</v>
+      </c>
+      <c r="D60" s="3">
+        <v>44063</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44065</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44066</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1408</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>763</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="5">
-        <f>SUM($B$60:B60)</f>
-        <v>333</v>
-      </c>
-      <c r="C62" s="5">
-        <f>SUM($B$60:C60)</f>
-        <v>1142</v>
-      </c>
-      <c r="D62" s="5">
-        <f>SUM($B$60:D60)</f>
-        <v>2550</v>
-      </c>
-      <c r="E62" s="5">
-        <f>SUM($B$60:E60)</f>
-        <v>3402</v>
-      </c>
-      <c r="F62" s="5">
-        <f>SUM($B$60:F60)</f>
-        <v>4165</v>
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
       <c r="G62">
-        <f>SUM($B$60:G60)</f>
-        <v>4683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="5">
         <f>SUM($B$61:B61)</f>
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C63" s="5">
         <f>SUM($B$61:C61)</f>
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D63" s="5">
         <f>SUM($B$61:D61)</f>
-        <v>5</v>
+        <v>2550</v>
       </c>
       <c r="E63" s="5">
         <f>SUM($B$61:E61)</f>
-        <v>5</v>
+        <v>3402</v>
       </c>
       <c r="F63" s="5">
         <f>SUM($B$61:F61)</f>
+        <v>4165</v>
+      </c>
+      <c r="G63">
+        <f>SUM($B$61:G61)</f>
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="5">
+        <f>SUM($B$62:B62)</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <f>SUM($B$62:C62)</f>
+        <v>3</v>
+      </c>
+      <c r="D64" s="5">
+        <f>SUM($B$62:D62)</f>
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <f>SUM($B$62:E62)</f>
+        <v>5</v>
+      </c>
+      <c r="F64" s="5">
+        <f>SUM($B$62:F62)</f>
         <v>6</v>
       </c>
-      <c r="G63" s="5">
-        <f>SUM($B$61:G61)</f>
+      <c r="G64" s="5">
+        <f>SUM($B$62:G62)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B66" s="3">
         <v>43898</v>
       </c>
-      <c r="C65" s="3">
-        <f t="shared" ref="C65:Z65" si="3">B65+7</f>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:Z66" si="3">B66+7</f>
         <v>43905</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="3">
         <f t="shared" si="3"/>
         <v>43912</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="3">
         <f t="shared" si="3"/>
         <v>43919</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <f t="shared" si="3"/>
         <v>43926</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="3">
         <f t="shared" si="3"/>
         <v>43933</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H66" s="3">
         <f t="shared" si="3"/>
         <v>43940</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I66" s="3">
         <f t="shared" si="3"/>
         <v>43947</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J66" s="3">
         <f t="shared" si="3"/>
         <v>43954</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K66" s="3">
         <f t="shared" si="3"/>
         <v>43961</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L66" s="3">
         <f t="shared" si="3"/>
         <v>43968</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M66" s="3">
         <f t="shared" si="3"/>
         <v>43975</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N66" s="3">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O66" s="3">
         <f t="shared" si="3"/>
         <v>43989</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P66" s="3">
         <f t="shared" si="3"/>
         <v>43996</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q66" s="3">
         <f t="shared" si="3"/>
         <v>44003</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R66" s="3">
         <f t="shared" si="3"/>
         <v>44010</v>
       </c>
-      <c r="S65" s="3">
+      <c r="S66" s="3">
         <f t="shared" si="3"/>
         <v>44017</v>
       </c>
-      <c r="T65" s="3">
+      <c r="T66" s="3">
         <f t="shared" si="3"/>
         <v>44024</v>
       </c>
-      <c r="U65" s="3">
+      <c r="U66" s="3">
         <f t="shared" si="3"/>
         <v>44031</v>
       </c>
-      <c r="V65" s="3">
+      <c r="V66" s="3">
         <f t="shared" si="3"/>
         <v>44038</v>
       </c>
-      <c r="W65" s="3">
+      <c r="W66" s="3">
         <f t="shared" si="3"/>
         <v>44045</v>
       </c>
-      <c r="X65" s="3">
+      <c r="X66" s="3">
         <f t="shared" si="3"/>
         <v>44052</v>
       </c>
-      <c r="Y65" s="3">
+      <c r="Y66" s="3">
         <f t="shared" si="3"/>
         <v>44059</v>
       </c>
-      <c r="Z65" s="3">
+      <c r="Z66" s="3">
         <f t="shared" si="3"/>
         <v>44066</v>
       </c>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-    </row>
-    <row r="66" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66">
-        <v>36</v>
-      </c>
-      <c r="C66">
-        <v>273</v>
-      </c>
-      <c r="D66">
-        <v>179</v>
-      </c>
-      <c r="E66">
-        <v>120</v>
-      </c>
-      <c r="F66">
-        <v>106</v>
-      </c>
-      <c r="G66">
-        <v>86</v>
-      </c>
-      <c r="H66">
-        <v>124</v>
-      </c>
-      <c r="I66">
-        <v>129</v>
-      </c>
-      <c r="J66">
-        <v>163</v>
-      </c>
-      <c r="K66">
-        <v>162</v>
-      </c>
-      <c r="L66">
-        <v>160</v>
-      </c>
-      <c r="M66">
-        <v>156</v>
-      </c>
-      <c r="N66">
-        <v>199</v>
-      </c>
-      <c r="O66">
-        <v>329</v>
-      </c>
-      <c r="P66">
-        <v>439</v>
-      </c>
-      <c r="Q66">
-        <v>346</v>
-      </c>
-      <c r="R66">
-        <v>395</v>
-      </c>
-      <c r="S66">
-        <v>570</v>
-      </c>
-      <c r="T66">
-        <v>521</v>
-      </c>
-      <c r="U66">
-        <v>460</v>
-      </c>
-      <c r="V66">
-        <v>559</v>
-      </c>
-      <c r="W66">
-        <v>1018</v>
-      </c>
-      <c r="X66">
-        <v>865</v>
-      </c>
-      <c r="Y66">
-        <v>846</v>
-      </c>
-      <c r="Z66">
-        <v>11</v>
-      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>0.19400000000000001</v>
+        <v>36</v>
       </c>
       <c r="C67">
-        <v>0.125</v>
+        <v>273</v>
       </c>
       <c r="D67">
-        <v>0.223</v>
+        <v>179</v>
       </c>
       <c r="E67">
-        <v>0.16700000000000001</v>
+        <v>120</v>
       </c>
       <c r="F67">
-        <v>8.5000000000000006E-2</v>
+        <v>106</v>
       </c>
       <c r="G67">
-        <v>4.7E-2</v>
+        <v>86</v>
       </c>
       <c r="H67">
-        <v>0.04</v>
+        <v>124</v>
       </c>
       <c r="I67">
-        <v>8.0000000000000002E-3</v>
+        <v>129</v>
       </c>
       <c r="J67">
-        <v>2.5000000000000001E-2</v>
+        <v>163</v>
       </c>
       <c r="K67">
-        <v>6.0000000000000001E-3</v>
+        <v>162</v>
       </c>
       <c r="L67">
-        <v>1.9E-2</v>
+        <v>160</v>
       </c>
       <c r="M67">
-        <v>6.0000000000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="N67">
-        <v>5.0000000000000001E-3</v>
+        <v>199</v>
       </c>
       <c r="O67">
-        <v>1.4999999999999999E-2</v>
+        <v>329</v>
       </c>
       <c r="P67">
-        <v>4.8000000000000001E-2</v>
+        <v>439</v>
       </c>
       <c r="Q67">
-        <v>2.9000000000000001E-2</v>
+        <v>346</v>
       </c>
       <c r="R67">
-        <v>2.5000000000000001E-2</v>
+        <v>395</v>
       </c>
       <c r="S67">
-        <v>2.3E-2</v>
+        <v>570</v>
       </c>
       <c r="T67">
-        <v>3.1E-2</v>
+        <v>521</v>
       </c>
       <c r="U67">
-        <v>4.5999999999999999E-2</v>
+        <v>460</v>
       </c>
       <c r="V67">
-        <v>3.9E-2</v>
+        <v>559</v>
       </c>
       <c r="W67">
-        <v>1.6E-2</v>
+        <v>1018</v>
       </c>
       <c r="X67">
-        <v>0.01</v>
+        <v>865</v>
       </c>
       <c r="Y67">
-        <v>8.9999999999999993E-3</v>
+        <v>846</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.125</v>
+      </c>
+      <c r="D68">
+        <v>0.223</v>
+      </c>
+      <c r="E68">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F68">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G68">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H68">
+        <v>0.04</v>
+      </c>
+      <c r="I68">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J68">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L68">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O68">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P68">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q68">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R68">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S68">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T68">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U68">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V68">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W68">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X68">
+        <v>0.01</v>
+      </c>
+      <c r="Y68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B68">
-        <f>ROUND(B67*B66,0)</f>
+      <c r="B69">
+        <f>ROUND(B68*B67,0)</f>
         <v>7</v>
       </c>
-      <c r="C68" s="5">
-        <f t="shared" ref="C68:Z68" si="4">ROUND(C67*C66,0)</f>
+      <c r="C69" s="5">
+        <f t="shared" ref="C69:Z69" si="4">ROUND(C68*C67,0)</f>
         <v>34</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I69" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J69" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K69" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M69" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N69" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O69" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P69" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q68" s="5">
+      <c r="Q69" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R68" s="5">
+      <c r="R69" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S68" s="5">
+      <c r="S69" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T68" s="5">
+      <c r="T69" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="U68" s="5">
+      <c r="U69" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V69" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W69" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X68" s="5">
+      <c r="X69" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Y68" s="5">
+      <c r="Y69" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z68" s="5">
+      <c r="Z69" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="5">
-        <f>SUM($B$66:B66)</f>
-        <v>36</v>
-      </c>
-      <c r="C69">
-        <f>SUM($B$66:C66)</f>
-        <v>309</v>
-      </c>
-      <c r="D69" s="5">
-        <f>SUM($B$66:D66)</f>
-        <v>488</v>
-      </c>
-      <c r="E69" s="5">
-        <f>SUM($B$66:E66)</f>
-        <v>608</v>
-      </c>
-      <c r="F69" s="5">
-        <f>SUM($B$66:F66)</f>
-        <v>714</v>
-      </c>
-      <c r="G69" s="5">
-        <f>SUM($B$66:G66)</f>
-        <v>800</v>
-      </c>
-      <c r="H69" s="5">
-        <f>SUM($B$66:H66)</f>
-        <v>924</v>
-      </c>
-      <c r="I69" s="5">
-        <f>SUM($B$66:I66)</f>
-        <v>1053</v>
-      </c>
-      <c r="J69" s="5">
-        <f>SUM($B$66:J66)</f>
-        <v>1216</v>
-      </c>
-      <c r="K69" s="5">
-        <f>SUM($B$66:K66)</f>
-        <v>1378</v>
-      </c>
-      <c r="L69" s="5">
-        <f>SUM($B$66:L66)</f>
-        <v>1538</v>
-      </c>
-      <c r="M69" s="5">
-        <f>SUM($B$66:M66)</f>
-        <v>1694</v>
-      </c>
-      <c r="N69" s="5">
-        <f>SUM($B$66:N66)</f>
-        <v>1893</v>
-      </c>
-      <c r="O69" s="5">
-        <f>SUM($B$66:O66)</f>
-        <v>2222</v>
-      </c>
-      <c r="P69" s="5">
-        <f>SUM($B$66:P66)</f>
-        <v>2661</v>
-      </c>
-      <c r="Q69" s="5">
-        <f>SUM($B$66:Q66)</f>
-        <v>3007</v>
-      </c>
-      <c r="R69" s="5">
-        <f>SUM($B$66:R66)</f>
-        <v>3402</v>
-      </c>
-      <c r="S69" s="5">
-        <f>SUM($B$66:S66)</f>
-        <v>3972</v>
-      </c>
-      <c r="T69" s="5">
-        <f>SUM($B$66:T66)</f>
-        <v>4493</v>
-      </c>
-      <c r="U69" s="5">
-        <f>SUM($B$66:U66)</f>
-        <v>4953</v>
-      </c>
-      <c r="V69" s="5">
-        <f>SUM($B$66:V66)</f>
-        <v>5512</v>
-      </c>
-      <c r="W69" s="5">
-        <f>SUM($B$66:W66)</f>
-        <v>6530</v>
-      </c>
-      <c r="X69" s="5">
-        <f>SUM($B$66:X66)</f>
-        <v>7395</v>
-      </c>
-      <c r="Y69" s="5">
-        <f>SUM($B$66:Y66)</f>
-        <v>8241</v>
-      </c>
-      <c r="Z69" s="5">
-        <f>SUM($B$66:Z66)</f>
-        <v>8252</v>
       </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" s="5">
         <f>SUM($B$67:B67)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C70" s="5">
+        <v>36</v>
+      </c>
+      <c r="C70">
         <f>SUM($B$67:C67)</f>
-        <v>0.31900000000000001</v>
+        <v>309</v>
       </c>
       <c r="D70" s="5">
         <f>SUM($B$67:D67)</f>
-        <v>0.54200000000000004</v>
+        <v>488</v>
       </c>
       <c r="E70" s="5">
         <f>SUM($B$67:E67)</f>
-        <v>0.70900000000000007</v>
+        <v>608</v>
       </c>
       <c r="F70" s="5">
         <f>SUM($B$67:F67)</f>
-        <v>0.79400000000000004</v>
+        <v>714</v>
       </c>
       <c r="G70" s="5">
         <f>SUM($B$67:G67)</f>
-        <v>0.84100000000000008</v>
+        <v>800</v>
       </c>
       <c r="H70" s="5">
         <f>SUM($B$67:H67)</f>
-        <v>0.88100000000000012</v>
+        <v>924</v>
       </c>
       <c r="I70" s="5">
         <f>SUM($B$67:I67)</f>
-        <v>0.88900000000000012</v>
+        <v>1053</v>
       </c>
       <c r="J70" s="5">
         <f>SUM($B$67:J67)</f>
-        <v>0.91400000000000015</v>
+        <v>1216</v>
       </c>
       <c r="K70" s="5">
         <f>SUM($B$67:K67)</f>
-        <v>0.92000000000000015</v>
+        <v>1378</v>
       </c>
       <c r="L70" s="5">
         <f>SUM($B$67:L67)</f>
-        <v>0.93900000000000017</v>
+        <v>1538</v>
       </c>
       <c r="M70" s="5">
         <f>SUM($B$67:M67)</f>
-        <v>0.94500000000000017</v>
+        <v>1694</v>
       </c>
       <c r="N70" s="5">
         <f>SUM($B$67:N67)</f>
-        <v>0.95000000000000018</v>
+        <v>1893</v>
       </c>
       <c r="O70" s="5">
         <f>SUM($B$67:O67)</f>
-        <v>0.96500000000000019</v>
+        <v>2222</v>
       </c>
       <c r="P70" s="5">
         <f>SUM($B$67:P67)</f>
-        <v>1.0130000000000001</v>
+        <v>2661</v>
       </c>
       <c r="Q70" s="5">
         <f>SUM($B$67:Q67)</f>
-        <v>1.042</v>
+        <v>3007</v>
       </c>
       <c r="R70" s="5">
         <f>SUM($B$67:R67)</f>
-        <v>1.0669999999999999</v>
+        <v>3402</v>
       </c>
       <c r="S70" s="5">
         <f>SUM($B$67:S67)</f>
-        <v>1.0899999999999999</v>
+        <v>3972</v>
       </c>
       <c r="T70" s="5">
         <f>SUM($B$67:T67)</f>
-        <v>1.1209999999999998</v>
+        <v>4493</v>
       </c>
       <c r="U70" s="5">
         <f>SUM($B$67:U67)</f>
-        <v>1.1669999999999998</v>
+        <v>4953</v>
       </c>
       <c r="V70" s="5">
         <f>SUM($B$67:V67)</f>
-        <v>1.2059999999999997</v>
+        <v>5512</v>
       </c>
       <c r="W70" s="5">
         <f>SUM($B$67:W67)</f>
-        <v>1.2219999999999998</v>
+        <v>6530</v>
       </c>
       <c r="X70" s="5">
         <f>SUM($B$67:X67)</f>
-        <v>1.2319999999999998</v>
+        <v>7395</v>
       </c>
       <c r="Y70" s="5">
         <f>SUM($B$67:Y67)</f>
-        <v>1.2409999999999997</v>
+        <v>8241</v>
       </c>
       <c r="Z70" s="5">
         <f>SUM($B$67:Z67)</f>
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="5">
+        <f>SUM($B$68:B68)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C71" s="5">
+        <f>SUM($B$68:C68)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D71" s="5">
+        <f>SUM($B$68:D68)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E71" s="5">
+        <f>SUM($B$68:E68)</f>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F71" s="5">
+        <f>SUM($B$68:F68)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G71" s="5">
+        <f>SUM($B$68:G68)</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H71" s="5">
+        <f>SUM($B$68:H68)</f>
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="I71" s="5">
+        <f>SUM($B$68:I68)</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="J71" s="5">
+        <f>SUM($B$68:J68)</f>
+        <v>0.91400000000000015</v>
+      </c>
+      <c r="K71" s="5">
+        <f>SUM($B$68:K68)</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="L71" s="5">
+        <f>SUM($B$68:L68)</f>
+        <v>0.93900000000000017</v>
+      </c>
+      <c r="M71" s="5">
+        <f>SUM($B$68:M68)</f>
+        <v>0.94500000000000017</v>
+      </c>
+      <c r="N71" s="5">
+        <f>SUM($B$68:N68)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="O71" s="5">
+        <f>SUM($B$68:O68)</f>
+        <v>0.96500000000000019</v>
+      </c>
+      <c r="P71" s="5">
+        <f>SUM($B$68:P68)</f>
+        <v>1.0130000000000001</v>
+      </c>
+      <c r="Q71" s="5">
+        <f>SUM($B$68:Q68)</f>
+        <v>1.042</v>
+      </c>
+      <c r="R71" s="5">
+        <f>SUM($B$68:R68)</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="S71" s="5">
+        <f>SUM($B$68:S68)</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T71" s="5">
+        <f>SUM($B$68:T68)</f>
+        <v>1.1209999999999998</v>
+      </c>
+      <c r="U71" s="5">
+        <f>SUM($B$68:U68)</f>
+        <v>1.1669999999999998</v>
+      </c>
+      <c r="V71" s="5">
+        <f>SUM($B$68:V68)</f>
+        <v>1.2059999999999997</v>
+      </c>
+      <c r="W71" s="5">
+        <f>SUM($B$68:W68)</f>
+        <v>1.2219999999999998</v>
+      </c>
+      <c r="X71" s="5">
+        <f>SUM($B$68:X68)</f>
+        <v>1.2319999999999998</v>
+      </c>
+      <c r="Y71" s="5">
+        <f>SUM($B$68:Y68)</f>
         <v>1.2409999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="Z71" s="5">
+        <f>SUM($B$68:Z68)</f>
+        <v>1.2409999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>43989</v>
       </c>
-      <c r="C72" s="3">
-        <f>B72+7</f>
+      <c r="C73" s="3">
+        <f>B73+7</f>
         <v>43996</v>
       </c>
-      <c r="D72" s="3">
-        <f>C72+7</f>
+      <c r="D73" s="3">
+        <f>C73+7</f>
         <v>44003</v>
       </c>
-      <c r="E72" s="3">
-        <f>D72+7</f>
+      <c r="E73" s="3">
+        <f>D73+7</f>
         <v>44010</v>
       </c>
-      <c r="F72" s="3">
-        <f>E72+7</f>
+      <c r="F73" s="3">
+        <f>E73+7</f>
         <v>44017</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <v>44031</v>
       </c>
-      <c r="H72" s="3">
-        <f t="shared" ref="H72:K72" si="5">G72+7</f>
+      <c r="H73" s="3">
+        <f t="shared" ref="H73:K73" si="5">G73+7</f>
         <v>44038</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I73" s="3">
         <f t="shared" si="5"/>
         <v>44045</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <f t="shared" si="5"/>
         <v>44052</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <f t="shared" si="5"/>
         <v>44059</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
-      <c r="AK72" s="3"/>
-      <c r="AL72" s="3"/>
-      <c r="AM72" s="3"/>
-      <c r="AN72" s="3"/>
-      <c r="AO72" s="3"/>
-      <c r="AP72" s="3"/>
-      <c r="AQ72" s="3"/>
-      <c r="AR72" s="3"/>
-      <c r="AS72" s="3"/>
-      <c r="AT72" s="3"/>
-      <c r="AU72" s="3"/>
-      <c r="AV72" s="3"/>
-      <c r="AW72" s="3"/>
-      <c r="AX72" s="3"/>
-      <c r="AY72" s="3"/>
-      <c r="AZ72" s="3"/>
-      <c r="BA72" s="3"/>
-      <c r="BB72" s="3"/>
-      <c r="BC72" s="3"/>
-      <c r="BD72" s="3"/>
-      <c r="BE72" s="3"/>
-      <c r="BF72" s="3"/>
-      <c r="BG72" s="3"/>
-      <c r="BH72" s="3"/>
-      <c r="BI72" s="3"/>
-      <c r="BJ72" s="3"/>
-      <c r="BK72" s="3"/>
-      <c r="BL72" s="3"/>
-      <c r="BM72" s="3"/>
-      <c r="BN72" s="3"/>
-      <c r="BO72" s="3"/>
-      <c r="BP72" s="3"/>
-      <c r="BQ72" s="3"/>
-      <c r="BR72" s="3"/>
-      <c r="BS72" s="3"/>
-      <c r="BT72" s="3"/>
-      <c r="BU72" s="3"/>
-      <c r="BV72" s="3"/>
-      <c r="BW72" s="3"/>
-      <c r="BX72" s="3"/>
-      <c r="BY72" s="3"/>
-      <c r="BZ72" s="3"/>
-      <c r="CA72" s="3"/>
-      <c r="CB72" s="3"/>
-      <c r="CC72" s="3"/>
-      <c r="CD72" s="3"/>
-      <c r="CE72" s="3"/>
-      <c r="CF72" s="3"/>
-      <c r="CG72" s="3"/>
-      <c r="CH72" s="3"/>
-      <c r="CI72" s="3"/>
-      <c r="CJ72" s="3"/>
-      <c r="CK72" s="3"/>
-      <c r="CL72" s="3"/>
-      <c r="CM72" s="3"/>
-      <c r="CN72" s="3"/>
-      <c r="CO72" s="3"/>
-      <c r="CP72" s="3"/>
-      <c r="CQ72" s="3"/>
-    </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73">
-        <v>85</v>
-      </c>
-      <c r="C73">
-        <v>168</v>
-      </c>
-      <c r="D73">
-        <v>51</v>
-      </c>
-      <c r="E73">
-        <v>42</v>
-      </c>
-      <c r="F73">
-        <v>46</v>
-      </c>
-      <c r="G73">
-        <v>82</v>
-      </c>
-      <c r="H73">
-        <v>319</v>
-      </c>
-      <c r="I73">
-        <v>78</v>
-      </c>
-      <c r="J73">
-        <v>210</v>
-      </c>
-      <c r="K73">
-        <v>222</v>
-      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+      <c r="AQ73" s="3"/>
+      <c r="AR73" s="3"/>
+      <c r="AS73" s="3"/>
+      <c r="AT73" s="3"/>
+      <c r="AU73" s="3"/>
+      <c r="AV73" s="3"/>
+      <c r="AW73" s="3"/>
+      <c r="AX73" s="3"/>
+      <c r="AY73" s="3"/>
+      <c r="AZ73" s="3"/>
+      <c r="BA73" s="3"/>
+      <c r="BB73" s="3"/>
+      <c r="BC73" s="3"/>
+      <c r="BD73" s="3"/>
+      <c r="BE73" s="3"/>
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+      <c r="BI73" s="3"/>
+      <c r="BJ73" s="3"/>
+      <c r="BK73" s="3"/>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="3"/>
+      <c r="BN73" s="3"/>
+      <c r="BO73" s="3"/>
+      <c r="BP73" s="3"/>
+      <c r="BQ73" s="3"/>
+      <c r="BR73" s="3"/>
+      <c r="BS73" s="3"/>
+      <c r="BT73" s="3"/>
+      <c r="BU73" s="3"/>
+      <c r="BV73" s="3"/>
+      <c r="BW73" s="3"/>
+      <c r="BX73" s="3"/>
+      <c r="BY73" s="3"/>
+      <c r="BZ73" s="3"/>
+      <c r="CA73" s="3"/>
+      <c r="CB73" s="3"/>
+      <c r="CC73" s="3"/>
+      <c r="CD73" s="3"/>
+      <c r="CE73" s="3"/>
+      <c r="CF73" s="3"/>
+      <c r="CG73" s="3"/>
+      <c r="CH73" s="3"/>
+      <c r="CI73" s="3"/>
+      <c r="CJ73" s="3"/>
+      <c r="CK73" s="3"/>
+      <c r="CL73" s="3"/>
+      <c r="CM73" s="3"/>
+      <c r="CN73" s="3"/>
+      <c r="CO73" s="3"/>
+      <c r="CP73" s="3"/>
+      <c r="CQ73" s="3"/>
     </row>
     <row r="74" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="5">
-        <f>SUM($B73:B73)</f>
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
       </c>
       <c r="C75">
-        <f>SUM($B73:C73)</f>
-        <v>253</v>
-      </c>
-      <c r="D75" s="5">
-        <f>SUM($B73:D73)</f>
-        <v>304</v>
-      </c>
-      <c r="E75" s="5">
-        <f>SUM($B73:E73)</f>
-        <v>346</v>
-      </c>
-      <c r="F75" s="5">
-        <f>SUM($B73:F73)</f>
-        <v>392</v>
-      </c>
-      <c r="G75" s="5">
-        <f>SUM($B73:G73)</f>
-        <v>474</v>
-      </c>
-      <c r="H75" s="5">
-        <f>SUM($B73:H73)</f>
-        <v>793</v>
-      </c>
-      <c r="I75" s="5">
-        <f>SUM($B73:I73)</f>
-        <v>871</v>
-      </c>
-      <c r="J75" s="5">
-        <f>SUM($B73:J73)</f>
-        <v>1081</v>
-      </c>
-      <c r="K75" s="5">
-        <f>SUM($B73:K73)</f>
-        <v>1303</v>
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="5">
         <f>SUM($B74:B74)</f>
-        <v>3</v>
-      </c>
-      <c r="C76" s="5">
+        <v>85</v>
+      </c>
+      <c r="C76">
         <f>SUM($B74:C74)</f>
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D76" s="5">
         <f>SUM($B74:D74)</f>
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="E76" s="5">
         <f>SUM($B74:E74)</f>
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="F76" s="5">
         <f>SUM($B74:F74)</f>
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="G76" s="5">
         <f>SUM($B74:G74)</f>
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="H76" s="5">
         <f>SUM($B74:H74)</f>
-        <v>21</v>
+        <v>793</v>
       </c>
       <c r="I76" s="5">
         <f>SUM($B74:I74)</f>
-        <v>21</v>
+        <v>871</v>
       </c>
       <c r="J76" s="5">
         <f>SUM($B74:J74)</f>
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="K76" s="5">
         <f>SUM($B74:K74)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="5">
+        <f>SUM($B75:B75)</f>
+        <v>3</v>
+      </c>
+      <c r="C77" s="5">
+        <f>SUM($B75:C75)</f>
+        <v>17</v>
+      </c>
+      <c r="D77" s="5">
+        <f>SUM($B75:D75)</f>
+        <v>20</v>
+      </c>
+      <c r="E77" s="5">
+        <f>SUM($B75:E75)</f>
+        <v>20</v>
+      </c>
+      <c r="F77" s="5">
+        <f>SUM($B75:F75)</f>
+        <v>21</v>
+      </c>
+      <c r="G77" s="5">
+        <f>SUM($B75:G75)</f>
+        <v>21</v>
+      </c>
+      <c r="H77" s="5">
+        <f>SUM($B75:H75)</f>
+        <v>21</v>
+      </c>
+      <c r="I77" s="5">
+        <f>SUM($B75:I75)</f>
+        <v>21</v>
+      </c>
+      <c r="J77" s="5">
+        <f>SUM($B75:J75)</f>
+        <v>21</v>
+      </c>
+      <c r="K77" s="5">
+        <f>SUM($B75:K75)</f>
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{B9B804B5-EEBA-44B9-9BCD-FCE4B82EF109}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{70B9572E-6476-4A71-A002-798C5304CA81}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{00964D12-76B2-40D1-8EAA-437B78CA47E6}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{39AF576B-3B56-47BD-80CD-F90C4B49504E}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{B9B804B5-EEBA-44B9-9BCD-FCE4B82EF109}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{70B9572E-6476-4A71-A002-798C5304CA81}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00964D12-76B2-40D1-8EAA-437B78CA47E6}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{39AF576B-3B56-47BD-80CD-F90C4B49504E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C1432-8269-4CBA-B4EC-C4E135D6FCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FEE253-85D1-4FED-B420-AEFD38D838A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,45 +651,50 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>30101</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <f>3696+8287</f>
         <v>11983</v>
       </c>
-      <c r="F2">
-        <f>B2*D2+C2*E2</f>
+      <c r="F3">
+        <f>B3*D3+C3*E3</f>
         <v>42084</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2191,6 +2196,9 @@
       <c r="E54" s="3">
         <v>44064</v>
       </c>
+      <c r="F54" s="3">
+        <v>44067</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -2213,6 +2221,9 @@
       <c r="E56">
         <v>5</v>
       </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
@@ -2234,6 +2245,10 @@
         <f>SUM($B$55:E55)</f>
         <v>0</v>
       </c>
+      <c r="F57" s="5">
+        <f>SUM($B$55:F55)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -2255,6 +2270,10 @@
         <f>SUM($B$55:E56)</f>
         <v>10</v>
       </c>
+      <c r="F58" s="5">
+        <f>SUM($B$55:F56)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -2278,6 +2297,9 @@
       <c r="G60" s="3">
         <v>44066</v>
       </c>
+      <c r="H60" s="3">
+        <v>44067</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -2301,6 +2323,9 @@
       <c r="G61">
         <v>518</v>
       </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -2324,6 +2349,9 @@
       <c r="G62">
         <v>1</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -2353,6 +2381,10 @@
         <f>SUM($B$61:G61)</f>
         <v>4683</v>
       </c>
+      <c r="H63" s="5">
+        <f>SUM($B$61:H61)</f>
+        <v>4689</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -2380,6 +2412,10 @@
       </c>
       <c r="G64" s="5">
         <f>SUM($B$62:G62)</f>
+        <v>7</v>
+      </c>
+      <c r="H64" s="5">
+        <f>SUM($B$62:H62)</f>
         <v>7</v>
       </c>
     </row>
@@ -3252,17 +3288,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{B9B804B5-EEBA-44B9-9BCD-FCE4B82EF109}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{70B9572E-6476-4A71-A002-798C5304CA81}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{00964D12-76B2-40D1-8EAA-437B78CA47E6}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{39AF576B-3B56-47BD-80CD-F90C4B49504E}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{B9B804B5-EEBA-44B9-9BCD-FCE4B82EF109}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{70B9572E-6476-4A71-A002-798C5304CA81}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00964D12-76B2-40D1-8EAA-437B78CA47E6}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{39AF576B-3B56-47BD-80CD-F90C4B49504E}"/>
+    <hyperlink ref="G2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FEE253-85D1-4FED-B420-AEFD38D838A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA1BCB-0357-422E-AE05-414F5D279023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Test Population</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>https://health.gatech.edu/surveillance-testing-program-results?utm_campaign=daily-digest&amp;utm_medium=email&amp;utm_source=dd-article:14682|2020-08-25</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ77"/>
+  <dimension ref="A1:CQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,1232 +767,1184 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>44061</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>44062</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>44063</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>44064</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>44065</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1566</v>
-      </c>
-      <c r="C15">
-        <v>1705</v>
-      </c>
-      <c r="D15">
-        <v>2211</v>
-      </c>
-      <c r="E15">
-        <v>2510</v>
-      </c>
-      <c r="F15">
-        <v>2510</v>
-      </c>
-      <c r="G15">
-        <v>3031</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1566</v>
+      </c>
+      <c r="C16">
+        <v>1705</v>
+      </c>
+      <c r="D16">
+        <v>2211</v>
+      </c>
+      <c r="E16">
+        <v>2510</v>
+      </c>
+      <c r="F16">
+        <v>2510</v>
+      </c>
+      <c r="G16">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>78</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>78</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
         <v>44038</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>44045</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>44052</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>44059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>117</v>
-      </c>
-      <c r="C19">
-        <v>158</v>
-      </c>
-      <c r="D19">
-        <v>354</v>
-      </c>
-      <c r="E19">
-        <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E20">
-        <v>130</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <f>SUM(B19)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <f>SUM(B19:C19)</f>
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <f>SUM(B19:D19)</f>
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <f>SUM(B19:E19)</f>
-        <v>1583</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <f>SUM(B20)</f>
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <f>SUM(B20:C20)</f>
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="D22">
         <f>SUM(B20:D20)</f>
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="E22">
         <f>SUM(B20:E20)</f>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B21)</f>
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f>SUM(B21:C21)</f>
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f>SUM(B21:D21)</f>
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <f>SUM(B21:E21)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>44046</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>44047</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>44048</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>44049</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>44050</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>44051</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>44052</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>44053</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="3">
         <v>44054</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="3">
         <v>44055</v>
       </c>
-      <c r="L24" s="3">
-        <f t="shared" ref="L24:T24" si="0">K24+1</f>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:T25" si="0">K25+1</f>
         <v>44056</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M25" s="3">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O25" s="3">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P25" s="3">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q25" s="3">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R25" s="3">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S25" s="3">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T25" s="3">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U25" s="3">
         <v>44065</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V25" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>198</v>
-      </c>
-      <c r="J25">
-        <v>18</v>
-      </c>
-      <c r="K25">
-        <v>41</v>
-      </c>
-      <c r="L25">
-        <v>42</v>
-      </c>
-      <c r="M25">
-        <v>123</v>
-      </c>
-      <c r="N25">
-        <v>11</v>
-      </c>
-      <c r="O25">
-        <v>30</v>
-      </c>
-      <c r="P25">
-        <v>420</v>
-      </c>
-      <c r="Q25">
-        <v>355</v>
-      </c>
-      <c r="R25">
-        <v>493</v>
-      </c>
-      <c r="S25">
-        <v>256</v>
-      </c>
-      <c r="T25">
-        <v>202</v>
-      </c>
-      <c r="U25">
-        <v>104</v>
-      </c>
-      <c r="V25">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P26">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="R26">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="S26">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="T26">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="U26">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="V26">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
         <v>14</v>
       </c>
-      <c r="B27" s="5">
-        <f>SUM(B25)</f>
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <f>SUM(B25:C25)</f>
-        <v>13</v>
-      </c>
-      <c r="D27" s="5">
-        <f>SUM($B$25:D25)</f>
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
-        <f>SUM($B$25:E25)</f>
-        <v>26</v>
-      </c>
-      <c r="F27" s="5">
-        <f>SUM($B$25:F25)</f>
-        <v>29</v>
-      </c>
-      <c r="G27" s="5">
-        <f>SUM($B$25:G25)</f>
-        <v>39</v>
-      </c>
-      <c r="H27" s="5">
-        <f>SUM($B$25:H25)</f>
-        <v>46</v>
-      </c>
-      <c r="I27" s="5">
-        <f>SUM($B$25:I25)</f>
-        <v>244</v>
-      </c>
-      <c r="J27" s="5">
-        <f>SUM($B$25:J25)</f>
-        <v>262</v>
-      </c>
-      <c r="K27" s="5">
-        <f>SUM($B$25:K25)</f>
-        <v>303</v>
-      </c>
-      <c r="L27" s="5">
-        <f>SUM($B$25:L25)</f>
-        <v>345</v>
-      </c>
-      <c r="M27" s="5">
-        <f>SUM($B$25:M25)</f>
-        <v>468</v>
-      </c>
-      <c r="N27" s="5">
-        <f>SUM($B$25:N25)</f>
-        <v>479</v>
-      </c>
-      <c r="O27" s="5">
-        <f>SUM($B$25:O25)</f>
-        <v>509</v>
-      </c>
-      <c r="P27" s="5">
-        <f>SUM($B$25:P25)</f>
-        <v>929</v>
-      </c>
-      <c r="Q27" s="5">
-        <f>SUM($B$25:Q25)</f>
-        <v>1284</v>
-      </c>
-      <c r="R27" s="5">
-        <f>SUM($B$25:R25)</f>
-        <v>1777</v>
-      </c>
-      <c r="S27" s="5">
-        <f>SUM($B$25:S25)</f>
-        <v>2033</v>
-      </c>
-      <c r="T27" s="5">
-        <f>SUM($B$25:T25)</f>
-        <v>2235</v>
-      </c>
-      <c r="U27" s="5">
-        <f>SUM($B$25:U25)</f>
-        <v>2339</v>
-      </c>
-      <c r="V27" s="5">
-        <f>SUM($B$25:V25)</f>
-        <v>2698</v>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>98</v>
+      </c>
+      <c r="Q27">
+        <v>80</v>
+      </c>
+      <c r="R27">
+        <v>76</v>
+      </c>
+      <c r="S27">
+        <v>23</v>
+      </c>
+      <c r="T27">
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <v>19</v>
+      </c>
+      <c r="V27">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>SUM(B26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
-        <f>SUM($B$26:C26)</f>
-        <v>0</v>
+        <f>SUM(B26:C26)</f>
+        <v>13</v>
       </c>
       <c r="D28" s="5">
         <f>SUM($B$26:D26)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5">
         <f>SUM($B$26:E26)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F28" s="5">
         <f>SUM($B$26:F26)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G28" s="5">
         <f>SUM($B$26:G26)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H28" s="5">
         <f>SUM($B$26:H26)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I28" s="5">
         <f>SUM($B$26:I26)</f>
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="J28" s="5">
         <f>SUM($B$26:J26)</f>
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K28" s="5">
         <f>SUM($B$26:K26)</f>
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="L28" s="5">
         <f>SUM($B$26:L26)</f>
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="M28" s="5">
         <f>SUM($B$26:M26)</f>
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="N28" s="5">
         <f>SUM($B$26:N26)</f>
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="O28" s="5">
         <f>SUM($B$26:O26)</f>
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="P28" s="5">
         <f>SUM($B$26:P26)</f>
-        <v>169</v>
+        <v>929</v>
       </c>
       <c r="Q28" s="5">
         <f>SUM($B$26:Q26)</f>
-        <v>249</v>
+        <v>1284</v>
       </c>
       <c r="R28" s="5">
         <f>SUM($B$26:R26)</f>
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="S28" s="5">
         <f>SUM($B$26:S26)</f>
-        <v>348</v>
+        <v>2033</v>
       </c>
       <c r="T28" s="5">
         <f>SUM($B$26:T26)</f>
-        <v>372</v>
+        <v>2235</v>
       </c>
       <c r="U28" s="5">
         <f>SUM($B$26:U26)</f>
-        <v>391</v>
+        <v>2339</v>
       </c>
       <c r="V28" s="5">
         <f>SUM($B$26:V26)</f>
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5">
+        <f>SUM(B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUM($B$27:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f>SUM($B$27:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f>SUM($B$27:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f>SUM($B$27:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM($B$27:G27)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <f>SUM($B$27:H27)</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="5">
+        <f>SUM($B$27:I27)</f>
+        <v>9</v>
+      </c>
+      <c r="J29" s="5">
+        <f>SUM($B$27:J27)</f>
+        <v>14</v>
+      </c>
+      <c r="K29" s="5">
+        <f>SUM($B$27:K27)</f>
+        <v>23</v>
+      </c>
+      <c r="L29" s="5">
+        <f>SUM($B$27:L27)</f>
+        <v>37</v>
+      </c>
+      <c r="M29" s="5">
+        <f>SUM($B$27:M27)</f>
+        <v>51</v>
+      </c>
+      <c r="N29" s="5">
+        <f>SUM($B$27:N27)</f>
+        <v>55</v>
+      </c>
+      <c r="O29" s="5">
+        <f>SUM($B$27:O27)</f>
+        <v>71</v>
+      </c>
+      <c r="P29" s="5">
+        <f>SUM($B$27:P27)</f>
+        <v>169</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>SUM($B$27:Q27)</f>
+        <v>249</v>
+      </c>
+      <c r="R29" s="5">
+        <f>SUM($B$27:R27)</f>
+        <v>325</v>
+      </c>
+      <c r="S29" s="5">
+        <f>SUM($B$27:S27)</f>
+        <v>348</v>
+      </c>
+      <c r="T29" s="5">
+        <f>SUM($B$27:T27)</f>
+        <v>372</v>
+      </c>
+      <c r="U29" s="5">
+        <f>SUM($B$27:U27)</f>
+        <v>391</v>
+      </c>
+      <c r="V29" s="5">
+        <f>SUM($B$27:V27)</f>
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>44056</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>44063</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>236</v>
-      </c>
-      <c r="C31">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <f>SUM(B31)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <f>SUM($B$31:C31)</f>
-        <v>319</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <f>SUM(B32)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C34">
         <f>SUM($B$32:C32)</f>
+        <v>319</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>SUM($B$33:C33)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>44044</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:T36" si="1">B36+1</f>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:T37" si="1">B37+1</f>
         <v>44045</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="3">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="3">
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="3">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L37" s="3">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M37" s="3">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N37" s="3">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O37" s="3">
         <f t="shared" si="1"/>
         <v>44057</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P37" s="3">
         <f t="shared" si="1"/>
         <v>44058</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q37" s="3">
         <f t="shared" si="1"/>
         <v>44059</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R37" s="3">
         <f t="shared" si="1"/>
         <v>44060</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S37" s="3">
         <f t="shared" si="1"/>
         <v>44061</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T37" s="3">
         <f t="shared" si="1"/>
         <v>44062</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U37" s="3">
         <v>44063</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V37" s="3">
         <v>44064</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W37" s="3">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>299</v>
-      </c>
-      <c r="F37">
-        <v>55</v>
-      </c>
-      <c r="G37">
-        <v>45</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>103</v>
-      </c>
-      <c r="M37">
-        <v>276</v>
-      </c>
-      <c r="N37">
-        <v>114</v>
-      </c>
-      <c r="O37">
-        <v>202</v>
-      </c>
-      <c r="P37">
-        <v>133</v>
-      </c>
-      <c r="Q37">
-        <v>98</v>
-      </c>
-      <c r="R37">
-        <v>211</v>
-      </c>
-      <c r="S37">
-        <v>213</v>
-      </c>
-      <c r="T37">
-        <v>367</v>
-      </c>
-      <c r="U37">
-        <v>257</v>
-      </c>
-      <c r="V37">
-        <v>347</v>
-      </c>
-      <c r="W37">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="F38">
+        <v>55</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="V38">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="W38">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="V39">
         <v>14</v>
       </c>
-      <c r="B39">
-        <f>SUM(B37)</f>
+      <c r="W39">
         <v>3</v>
-      </c>
-      <c r="C39">
-        <f>SUM($B$37:C37)</f>
-        <v>20</v>
-      </c>
-      <c r="D39">
-        <f>SUM($B$37:D37)</f>
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <f>SUM($B$37:E37)</f>
-        <v>346</v>
-      </c>
-      <c r="F39">
-        <f>SUM($B$37:F37)</f>
-        <v>401</v>
-      </c>
-      <c r="G39">
-        <f>SUM($B$37:G37)</f>
-        <v>446</v>
-      </c>
-      <c r="H39">
-        <f>SUM($B$37:H37)</f>
-        <v>447</v>
-      </c>
-      <c r="I39">
-        <f>SUM($B$37:I37)</f>
-        <v>447</v>
-      </c>
-      <c r="J39">
-        <f>SUM($B$37:J37)</f>
-        <v>458</v>
-      </c>
-      <c r="K39">
-        <f>SUM($B$37:K37)</f>
-        <v>458</v>
-      </c>
-      <c r="L39">
-        <f>SUM($B$37:L37)</f>
-        <v>561</v>
-      </c>
-      <c r="M39">
-        <f>SUM($B$37:M37)</f>
-        <v>837</v>
-      </c>
-      <c r="N39">
-        <f>SUM($B$37:N37)</f>
-        <v>951</v>
-      </c>
-      <c r="O39">
-        <f>SUM($B$37:O37)</f>
-        <v>1153</v>
-      </c>
-      <c r="P39">
-        <f>SUM($B$37:P37)</f>
-        <v>1286</v>
-      </c>
-      <c r="Q39">
-        <f>SUM($B$37:Q37)</f>
-        <v>1384</v>
-      </c>
-      <c r="R39">
-        <f>SUM($B$37:R37)</f>
-        <v>1595</v>
-      </c>
-      <c r="S39">
-        <f>SUM($B$37:S37)</f>
-        <v>1808</v>
-      </c>
-      <c r="T39">
-        <f>SUM($B$37:T37)</f>
-        <v>2175</v>
-      </c>
-      <c r="U39" s="5">
-        <f>SUM($B$37:U37)</f>
-        <v>2432</v>
-      </c>
-      <c r="V39" s="5">
-        <f>SUM($B$37:V37)</f>
-        <v>2779</v>
-      </c>
-      <c r="W39" s="5">
-        <f>SUM($B$37:W37)</f>
-        <v>2947</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <f>SUM(B38)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <f>SUM($B$38:C38)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <f>SUM($B$38:D38)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <f>SUM($B$38:E38)</f>
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F40">
         <f>SUM($B$38:F38)</f>
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="G40">
         <f>SUM($B$38:G38)</f>
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="H40">
         <f>SUM($B$38:H38)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="I40">
         <f>SUM($B$38:I38)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="J40">
         <f>SUM($B$38:J38)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="K40">
         <f>SUM($B$38:K38)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="L40">
         <f>SUM($B$38:L38)</f>
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M40">
         <f>SUM($B$38:M38)</f>
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="N40">
         <f>SUM($B$38:N38)</f>
-        <v>6</v>
+        <v>951</v>
       </c>
       <c r="O40">
         <f>SUM($B$38:O38)</f>
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="P40">
         <f>SUM($B$38:P38)</f>
-        <v>11</v>
+        <v>1286</v>
       </c>
       <c r="Q40">
         <f>SUM($B$38:Q38)</f>
-        <v>13</v>
+        <v>1384</v>
       </c>
       <c r="R40">
         <f>SUM($B$38:R38)</f>
-        <v>22</v>
+        <v>1595</v>
       </c>
       <c r="S40">
         <f>SUM($B$38:S38)</f>
-        <v>22</v>
+        <v>1808</v>
       </c>
       <c r="T40">
         <f>SUM($B$38:T38)</f>
-        <v>26</v>
+        <v>2175</v>
       </c>
       <c r="U40" s="5">
         <f>SUM($B$38:U38)</f>
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="V40" s="5">
         <f>SUM($B$38:V38)</f>
-        <v>49</v>
+        <v>2779</v>
       </c>
       <c r="W40" s="5">
         <f>SUM($B$38:W38)</f>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <f>SUM(B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>SUM($B$39:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>SUM($B$39:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>SUM($B$39:E39)</f>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f>SUM($B$39:F39)</f>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>SUM($B$39:G39)</f>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f>SUM($B$39:H39)</f>
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f>SUM($B$39:I39)</f>
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <f>SUM($B$39:J39)</f>
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <f>SUM($B$39:K39)</f>
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f>SUM($B$39:L39)</f>
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <f>SUM($B$39:M39)</f>
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <f>SUM($B$39:N39)</f>
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <f>SUM($B$39:O39)</f>
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <f>SUM($B$39:P39)</f>
+        <v>11</v>
+      </c>
+      <c r="Q41">
+        <f>SUM($B$39:Q39)</f>
+        <v>13</v>
+      </c>
+      <c r="R41">
+        <f>SUM($B$39:R39)</f>
+        <v>22</v>
+      </c>
+      <c r="S41">
+        <f>SUM($B$39:S39)</f>
+        <v>22</v>
+      </c>
+      <c r="T41">
+        <f>SUM($B$39:T39)</f>
+        <v>26</v>
+      </c>
+      <c r="U41" s="5">
+        <f>SUM($B$39:U39)</f>
+        <v>35</v>
+      </c>
+      <c r="V41" s="5">
+        <f>SUM($B$39:V39)</f>
+        <v>49</v>
+      </c>
+      <c r="W41" s="5">
+        <f>SUM($B$39:W39)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>44058</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="3">
         <v>44064</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f>5854+516</f>
         <v>6370</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>5028</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <f>B43</f>
-        <v>6370</v>
-      </c>
-      <c r="C45">
-        <f>SUM($B$43:C43)</f>
-        <v>11398</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <f>B44</f>
-        <v>15</v>
+        <v>6370</v>
       </c>
       <c r="C46">
         <f>SUM($B$44:C44)</f>
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <f>B45</f>
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <f>SUM($B$45:C45)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3">
         <v>44050</v>
       </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:P48" si="2">B48+1</f>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:P49" si="2">B49+1</f>
         <v>44051</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="3">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="3">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <f t="shared" si="2"/>
         <v>44061</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <f t="shared" si="2"/>
         <v>44062</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="3">
         <f t="shared" si="2"/>
         <v>44063</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="3">
         <v>44065</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>210</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>219</v>
-      </c>
-      <c r="G49">
-        <v>48</v>
-      </c>
-      <c r="H49">
-        <v>246</v>
-      </c>
-      <c r="I49">
-        <v>578</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>645</v>
-      </c>
-      <c r="N49">
-        <v>582</v>
-      </c>
-      <c r="O49">
-        <v>831</v>
-      </c>
-      <c r="P49">
-        <v>1016</v>
-      </c>
-      <c r="Q49">
-        <v>1002</v>
-      </c>
-      <c r="R49">
-        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1995,16 +1953,16 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2016,1274 +1974,1630 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="P50">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <f>SUM(B49)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <f>SUM($B$49:C49)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f>SUM($B$49:D49)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <f>SUM($B$49:E49)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f>SUM($B$49:F49)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <f>SUM($B$49:G49)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <f>SUM($B$49:H49)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <f>SUM($B$49:I49)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <f>SUM($B$49:J49)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <f>SUM($B$49:K49)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <f>SUM($B$49:L49)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <f>SUM($B$49:M49)</f>
-        <v>1955</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <f>SUM($B$49:N49)</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <f>SUM($B$49:O49)</f>
-        <v>3368</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <f>SUM($B$49:P49)</f>
-        <v>4384</v>
+        <v>2</v>
       </c>
       <c r="Q51">
-        <f>SUM($B$49:Q49)</f>
-        <v>5386</v>
-      </c>
-      <c r="R51" s="5">
-        <f>SUM($B$49:R49)</f>
-        <v>6053</v>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <f>SUM(B50)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C52">
         <f>SUM($B$50:C50)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D52">
         <f>SUM($B$50:D50)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E52">
         <f>SUM($B$50:E50)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F52">
         <f>SUM($B$50:F50)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G52">
         <f>SUM($B$50:G50)</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H52">
         <f>SUM($B$50:H50)</f>
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="I52">
         <f>SUM($B$50:I50)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="J52">
         <f>SUM($B$50:J50)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="K52">
         <f>SUM($B$50:K50)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="L52">
         <f>SUM($B$50:L50)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="M52">
         <f>SUM($B$50:M50)</f>
-        <v>2</v>
+        <v>1955</v>
       </c>
       <c r="N52">
         <f>SUM($B$50:N50)</f>
-        <v>2</v>
+        <v>2537</v>
       </c>
       <c r="O52">
         <f>SUM($B$50:O50)</f>
-        <v>3</v>
+        <v>3368</v>
       </c>
       <c r="P52">
         <f>SUM($B$50:P50)</f>
-        <v>5</v>
+        <v>4384</v>
       </c>
       <c r="Q52">
         <f>SUM($B$50:Q50)</f>
-        <v>5</v>
+        <v>5386</v>
       </c>
       <c r="R52" s="5">
         <f>SUM($B$50:R50)</f>
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>SUM($B$51:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>SUM($B$51:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>SUM($B$51:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>SUM($B$51:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>SUM($B$51:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>SUM($B$51:H51)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>SUM($B$51:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f>SUM($B$51:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f>SUM($B$51:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f>SUM($B$51:L51)</f>
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <f>SUM($B$51:M51)</f>
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <f>SUM($B$51:N51)</f>
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <f>SUM($B$51:O51)</f>
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <f>SUM($B$51:P51)</f>
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <f>SUM($B$51:Q51)</f>
+        <v>5</v>
+      </c>
+      <c r="R53" s="5">
+        <f>SUM($B$51:R51)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="3">
-        <v>44049</v>
-      </c>
-      <c r="C54" s="3">
-        <v>44054</v>
-      </c>
-      <c r="D54" s="3">
-        <v>44061</v>
-      </c>
-      <c r="E54" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44054</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44061</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F55" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="5">
-        <f>SUM($B$55:B55)</f>
+        <v>17</v>
+      </c>
+      <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <f>SUM($B$55:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="5">
-        <f>SUM($B$55:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <f>SUM($B$55:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <f>SUM($B$55:F55)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="5">
+        <f>SUM($B$56:B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$56:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <f>SUM($B$56:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <f>SUM($B$56:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <f>SUM($B$56:F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="5">
-        <f>SUM($B$55:B56)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="5">
-        <f>SUM($B$55:C56)</f>
+      <c r="B59" s="5">
+        <f>SUM($B$56:B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <f>SUM($B$56:C57)</f>
         <v>3</v>
       </c>
-      <c r="D58" s="5">
-        <f>SUM($B$55:D56)</f>
+      <c r="D59" s="5">
+        <f>SUM($B$56:D57)</f>
         <v>5</v>
       </c>
-      <c r="E58" s="5">
-        <f>SUM($B$55:E56)</f>
+      <c r="E59" s="5">
+        <f>SUM($B$56:E57)</f>
         <v>10</v>
       </c>
-      <c r="F58" s="5">
-        <f>SUM($B$55:F56)</f>
+      <c r="F59" s="5">
+        <f>SUM($B$56:F57)</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="3">
-        <v>44052</v>
-      </c>
-      <c r="C60" s="3">
-        <v>44062</v>
-      </c>
-      <c r="D60" s="3">
-        <v>44063</v>
-      </c>
-      <c r="E60" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F60" s="3">
-        <v>44065</v>
-      </c>
-      <c r="G60" s="3">
-        <v>44066</v>
-      </c>
-      <c r="H60" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <v>333</v>
-      </c>
-      <c r="C61">
-        <v>809</v>
-      </c>
-      <c r="D61">
-        <v>1408</v>
-      </c>
-      <c r="E61">
-        <v>852</v>
-      </c>
-      <c r="F61">
-        <v>763</v>
-      </c>
-      <c r="G61">
-        <v>518</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44062</v>
+      </c>
+      <c r="D61" s="3">
+        <v>44063</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44065</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44066</v>
+      </c>
+      <c r="H61" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1408</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>763</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="5">
-        <f>SUM($B$61:B61)</f>
-        <v>333</v>
-      </c>
-      <c r="C63" s="5">
-        <f>SUM($B$61:C61)</f>
-        <v>1142</v>
-      </c>
-      <c r="D63" s="5">
-        <f>SUM($B$61:D61)</f>
-        <v>2550</v>
-      </c>
-      <c r="E63" s="5">
-        <f>SUM($B$61:E61)</f>
-        <v>3402</v>
-      </c>
-      <c r="F63" s="5">
-        <f>SUM($B$61:F61)</f>
-        <v>4165</v>
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
       </c>
       <c r="G63">
-        <f>SUM($B$61:G61)</f>
-        <v>4683</v>
-      </c>
-      <c r="H63" s="5">
-        <f>SUM($B$61:H61)</f>
-        <v>4689</v>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="5">
         <f>SUM($B$62:B62)</f>
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C64" s="5">
         <f>SUM($B$62:C62)</f>
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D64" s="5">
         <f>SUM($B$62:D62)</f>
-        <v>5</v>
+        <v>2550</v>
       </c>
       <c r="E64" s="5">
         <f>SUM($B$62:E62)</f>
-        <v>5</v>
+        <v>3402</v>
       </c>
       <c r="F64" s="5">
         <f>SUM($B$62:F62)</f>
-        <v>6</v>
-      </c>
-      <c r="G64" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G64">
         <f>SUM($B$62:G62)</f>
-        <v>7</v>
+        <v>4683</v>
       </c>
       <c r="H64" s="5">
         <f>SUM($B$62:H62)</f>
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="5">
+        <f>SUM($B$63:B63)</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <f>SUM($B$63:C63)</f>
+        <v>3</v>
+      </c>
+      <c r="D65" s="5">
+        <f>SUM($B$63:D63)</f>
+        <v>5</v>
+      </c>
+      <c r="E65" s="5">
+        <f>SUM($B$63:E63)</f>
+        <v>5</v>
+      </c>
+      <c r="F65" s="5">
+        <f>SUM($B$63:F63)</f>
+        <v>6</v>
+      </c>
+      <c r="G65" s="5">
+        <f>SUM($B$63:G63)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="H65" s="5">
+        <f>SUM($B$63:H63)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B67" s="3">
         <v>43898</v>
       </c>
-      <c r="C66" s="3">
-        <f t="shared" ref="C66:Z66" si="3">B66+7</f>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:Z67" si="3">B67+7</f>
         <v>43905</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <f t="shared" si="3"/>
         <v>43912</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <f t="shared" si="3"/>
         <v>43919</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <f t="shared" si="3"/>
         <v>43926</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <f t="shared" si="3"/>
         <v>43933</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="3">
         <f t="shared" si="3"/>
         <v>43940</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I67" s="3">
         <f t="shared" si="3"/>
         <v>43947</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J67" s="3">
         <f t="shared" si="3"/>
         <v>43954</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K67" s="3">
         <f t="shared" si="3"/>
         <v>43961</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L67" s="3">
         <f t="shared" si="3"/>
         <v>43968</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M67" s="3">
         <f t="shared" si="3"/>
         <v>43975</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N67" s="3">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O67" s="3">
         <f t="shared" si="3"/>
         <v>43989</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P67" s="3">
         <f t="shared" si="3"/>
         <v>43996</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q67" s="3">
         <f t="shared" si="3"/>
         <v>44003</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R67" s="3">
         <f t="shared" si="3"/>
         <v>44010</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S67" s="3">
         <f t="shared" si="3"/>
         <v>44017</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T67" s="3">
         <f t="shared" si="3"/>
         <v>44024</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U67" s="3">
         <f t="shared" si="3"/>
         <v>44031</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V67" s="3">
         <f t="shared" si="3"/>
         <v>44038</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W67" s="3">
         <f t="shared" si="3"/>
         <v>44045</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X67" s="3">
         <f t="shared" si="3"/>
         <v>44052</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y67" s="3">
         <f t="shared" si="3"/>
         <v>44059</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z67" s="3">
         <f t="shared" si="3"/>
         <v>44066</v>
       </c>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-    </row>
-    <row r="67" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67">
-        <v>36</v>
-      </c>
-      <c r="C67">
-        <v>273</v>
-      </c>
-      <c r="D67">
-        <v>179</v>
-      </c>
-      <c r="E67">
-        <v>120</v>
-      </c>
-      <c r="F67">
-        <v>106</v>
-      </c>
-      <c r="G67">
-        <v>86</v>
-      </c>
-      <c r="H67">
-        <v>124</v>
-      </c>
-      <c r="I67">
-        <v>129</v>
-      </c>
-      <c r="J67">
-        <v>163</v>
-      </c>
-      <c r="K67">
-        <v>162</v>
-      </c>
-      <c r="L67">
-        <v>160</v>
-      </c>
-      <c r="M67">
-        <v>156</v>
-      </c>
-      <c r="N67">
-        <v>199</v>
-      </c>
-      <c r="O67">
-        <v>329</v>
-      </c>
-      <c r="P67">
-        <v>439</v>
-      </c>
-      <c r="Q67">
-        <v>346</v>
-      </c>
-      <c r="R67">
-        <v>395</v>
-      </c>
-      <c r="S67">
-        <v>570</v>
-      </c>
-      <c r="T67">
-        <v>521</v>
-      </c>
-      <c r="U67">
-        <v>460</v>
-      </c>
-      <c r="V67">
-        <v>559</v>
-      </c>
-      <c r="W67">
-        <v>1018</v>
-      </c>
-      <c r="X67">
-        <v>865</v>
-      </c>
-      <c r="Y67">
-        <v>846</v>
-      </c>
-      <c r="Z67">
-        <v>11</v>
-      </c>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>0.19400000000000001</v>
+        <v>36</v>
       </c>
       <c r="C68">
-        <v>0.125</v>
+        <v>273</v>
       </c>
       <c r="D68">
-        <v>0.223</v>
+        <v>179</v>
       </c>
       <c r="E68">
-        <v>0.16700000000000001</v>
+        <v>120</v>
       </c>
       <c r="F68">
-        <v>8.5000000000000006E-2</v>
+        <v>106</v>
       </c>
       <c r="G68">
-        <v>4.7E-2</v>
+        <v>86</v>
       </c>
       <c r="H68">
-        <v>0.04</v>
+        <v>124</v>
       </c>
       <c r="I68">
-        <v>8.0000000000000002E-3</v>
+        <v>129</v>
       </c>
       <c r="J68">
-        <v>2.5000000000000001E-2</v>
+        <v>163</v>
       </c>
       <c r="K68">
-        <v>6.0000000000000001E-3</v>
+        <v>162</v>
       </c>
       <c r="L68">
-        <v>1.9E-2</v>
+        <v>160</v>
       </c>
       <c r="M68">
-        <v>6.0000000000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="N68">
-        <v>5.0000000000000001E-3</v>
+        <v>199</v>
       </c>
       <c r="O68">
-        <v>1.4999999999999999E-2</v>
+        <v>329</v>
       </c>
       <c r="P68">
-        <v>4.8000000000000001E-2</v>
+        <v>439</v>
       </c>
       <c r="Q68">
-        <v>2.9000000000000001E-2</v>
+        <v>346</v>
       </c>
       <c r="R68">
-        <v>2.5000000000000001E-2</v>
+        <v>395</v>
       </c>
       <c r="S68">
-        <v>2.3E-2</v>
+        <v>570</v>
       </c>
       <c r="T68">
-        <v>3.1E-2</v>
+        <v>521</v>
       </c>
       <c r="U68">
-        <v>4.5999999999999999E-2</v>
+        <v>460</v>
       </c>
       <c r="V68">
-        <v>3.9E-2</v>
+        <v>559</v>
       </c>
       <c r="W68">
-        <v>1.6E-2</v>
+        <v>1018</v>
       </c>
       <c r="X68">
-        <v>0.01</v>
+        <v>865</v>
       </c>
       <c r="Y68">
-        <v>8.9999999999999993E-3</v>
+        <v>846</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.125</v>
+      </c>
+      <c r="D69">
+        <v>0.223</v>
+      </c>
+      <c r="E69">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F69">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G69">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H69">
+        <v>0.04</v>
+      </c>
+      <c r="I69">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J69">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K69">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L69">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M69">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q69">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R69">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S69">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T69">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U69">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V69">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W69">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X69">
+        <v>0.01</v>
+      </c>
+      <c r="Y69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B69">
-        <f>ROUND(B68*B67,0)</f>
+      <c r="B70">
+        <f>ROUND(B69*B68,0)</f>
         <v>7</v>
       </c>
-      <c r="C69" s="5">
-        <f t="shared" ref="C69:Z69" si="4">ROUND(C68*C67,0)</f>
+      <c r="C70" s="5">
+        <f t="shared" ref="C70:Z70" si="4">ROUND(C69*C68,0)</f>
         <v>34</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H70" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I70" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J70" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K70" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L70" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M70" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N70" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O70" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P70" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q70" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R70" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S70" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T69" s="5">
+      <c r="T70" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="U69" s="5">
+      <c r="U70" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V70" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W70" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X70" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y70" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z69" s="5">
+      <c r="Z70" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="5">
-        <f>SUM($B$67:B67)</f>
-        <v>36</v>
-      </c>
-      <c r="C70">
-        <f>SUM($B$67:C67)</f>
-        <v>309</v>
-      </c>
-      <c r="D70" s="5">
-        <f>SUM($B$67:D67)</f>
-        <v>488</v>
-      </c>
-      <c r="E70" s="5">
-        <f>SUM($B$67:E67)</f>
-        <v>608</v>
-      </c>
-      <c r="F70" s="5">
-        <f>SUM($B$67:F67)</f>
-        <v>714</v>
-      </c>
-      <c r="G70" s="5">
-        <f>SUM($B$67:G67)</f>
-        <v>800</v>
-      </c>
-      <c r="H70" s="5">
-        <f>SUM($B$67:H67)</f>
-        <v>924</v>
-      </c>
-      <c r="I70" s="5">
-        <f>SUM($B$67:I67)</f>
-        <v>1053</v>
-      </c>
-      <c r="J70" s="5">
-        <f>SUM($B$67:J67)</f>
-        <v>1216</v>
-      </c>
-      <c r="K70" s="5">
-        <f>SUM($B$67:K67)</f>
-        <v>1378</v>
-      </c>
-      <c r="L70" s="5">
-        <f>SUM($B$67:L67)</f>
-        <v>1538</v>
-      </c>
-      <c r="M70" s="5">
-        <f>SUM($B$67:M67)</f>
-        <v>1694</v>
-      </c>
-      <c r="N70" s="5">
-        <f>SUM($B$67:N67)</f>
-        <v>1893</v>
-      </c>
-      <c r="O70" s="5">
-        <f>SUM($B$67:O67)</f>
-        <v>2222</v>
-      </c>
-      <c r="P70" s="5">
-        <f>SUM($B$67:P67)</f>
-        <v>2661</v>
-      </c>
-      <c r="Q70" s="5">
-        <f>SUM($B$67:Q67)</f>
-        <v>3007</v>
-      </c>
-      <c r="R70" s="5">
-        <f>SUM($B$67:R67)</f>
-        <v>3402</v>
-      </c>
-      <c r="S70" s="5">
-        <f>SUM($B$67:S67)</f>
-        <v>3972</v>
-      </c>
-      <c r="T70" s="5">
-        <f>SUM($B$67:T67)</f>
-        <v>4493</v>
-      </c>
-      <c r="U70" s="5">
-        <f>SUM($B$67:U67)</f>
-        <v>4953</v>
-      </c>
-      <c r="V70" s="5">
-        <f>SUM($B$67:V67)</f>
-        <v>5512</v>
-      </c>
-      <c r="W70" s="5">
-        <f>SUM($B$67:W67)</f>
-        <v>6530</v>
-      </c>
-      <c r="X70" s="5">
-        <f>SUM($B$67:X67)</f>
-        <v>7395</v>
-      </c>
-      <c r="Y70" s="5">
-        <f>SUM($B$67:Y67)</f>
-        <v>8241</v>
-      </c>
-      <c r="Z70" s="5">
-        <f>SUM($B$67:Z67)</f>
-        <v>8252</v>
       </c>
     </row>
     <row r="71" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" s="5">
         <f>SUM($B$68:B68)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C71" s="5">
+        <v>36</v>
+      </c>
+      <c r="C71">
         <f>SUM($B$68:C68)</f>
-        <v>0.31900000000000001</v>
+        <v>309</v>
       </c>
       <c r="D71" s="5">
         <f>SUM($B$68:D68)</f>
-        <v>0.54200000000000004</v>
+        <v>488</v>
       </c>
       <c r="E71" s="5">
         <f>SUM($B$68:E68)</f>
-        <v>0.70900000000000007</v>
+        <v>608</v>
       </c>
       <c r="F71" s="5">
         <f>SUM($B$68:F68)</f>
-        <v>0.79400000000000004</v>
+        <v>714</v>
       </c>
       <c r="G71" s="5">
         <f>SUM($B$68:G68)</f>
-        <v>0.84100000000000008</v>
+        <v>800</v>
       </c>
       <c r="H71" s="5">
         <f>SUM($B$68:H68)</f>
-        <v>0.88100000000000012</v>
+        <v>924</v>
       </c>
       <c r="I71" s="5">
         <f>SUM($B$68:I68)</f>
-        <v>0.88900000000000012</v>
+        <v>1053</v>
       </c>
       <c r="J71" s="5">
         <f>SUM($B$68:J68)</f>
-        <v>0.91400000000000015</v>
+        <v>1216</v>
       </c>
       <c r="K71" s="5">
         <f>SUM($B$68:K68)</f>
-        <v>0.92000000000000015</v>
+        <v>1378</v>
       </c>
       <c r="L71" s="5">
         <f>SUM($B$68:L68)</f>
-        <v>0.93900000000000017</v>
+        <v>1538</v>
       </c>
       <c r="M71" s="5">
         <f>SUM($B$68:M68)</f>
-        <v>0.94500000000000017</v>
+        <v>1694</v>
       </c>
       <c r="N71" s="5">
         <f>SUM($B$68:N68)</f>
-        <v>0.95000000000000018</v>
+        <v>1893</v>
       </c>
       <c r="O71" s="5">
         <f>SUM($B$68:O68)</f>
-        <v>0.96500000000000019</v>
+        <v>2222</v>
       </c>
       <c r="P71" s="5">
         <f>SUM($B$68:P68)</f>
-        <v>1.0130000000000001</v>
+        <v>2661</v>
       </c>
       <c r="Q71" s="5">
         <f>SUM($B$68:Q68)</f>
-        <v>1.042</v>
+        <v>3007</v>
       </c>
       <c r="R71" s="5">
         <f>SUM($B$68:R68)</f>
-        <v>1.0669999999999999</v>
+        <v>3402</v>
       </c>
       <c r="S71" s="5">
         <f>SUM($B$68:S68)</f>
-        <v>1.0899999999999999</v>
+        <v>3972</v>
       </c>
       <c r="T71" s="5">
         <f>SUM($B$68:T68)</f>
-        <v>1.1209999999999998</v>
+        <v>4493</v>
       </c>
       <c r="U71" s="5">
         <f>SUM($B$68:U68)</f>
-        <v>1.1669999999999998</v>
+        <v>4953</v>
       </c>
       <c r="V71" s="5">
         <f>SUM($B$68:V68)</f>
-        <v>1.2059999999999997</v>
+        <v>5512</v>
       </c>
       <c r="W71" s="5">
         <f>SUM($B$68:W68)</f>
-        <v>1.2219999999999998</v>
+        <v>6530</v>
       </c>
       <c r="X71" s="5">
         <f>SUM($B$68:X68)</f>
-        <v>1.2319999999999998</v>
+        <v>7395</v>
       </c>
       <c r="Y71" s="5">
         <f>SUM($B$68:Y68)</f>
-        <v>1.2409999999999997</v>
+        <v>8241</v>
       </c>
       <c r="Z71" s="5">
         <f>SUM($B$68:Z68)</f>
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="5">
+        <f>SUM($B$69:B69)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C72" s="5">
+        <f>SUM($B$69:C69)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D72" s="5">
+        <f>SUM($B$69:D69)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E72" s="5">
+        <f>SUM($B$69:E69)</f>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F72" s="5">
+        <f>SUM($B$69:F69)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G72" s="5">
+        <f>SUM($B$69:G69)</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H72" s="5">
+        <f>SUM($B$69:H69)</f>
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="I72" s="5">
+        <f>SUM($B$69:I69)</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="J72" s="5">
+        <f>SUM($B$69:J69)</f>
+        <v>0.91400000000000015</v>
+      </c>
+      <c r="K72" s="5">
+        <f>SUM($B$69:K69)</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="L72" s="5">
+        <f>SUM($B$69:L69)</f>
+        <v>0.93900000000000017</v>
+      </c>
+      <c r="M72" s="5">
+        <f>SUM($B$69:M69)</f>
+        <v>0.94500000000000017</v>
+      </c>
+      <c r="N72" s="5">
+        <f>SUM($B$69:N69)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="O72" s="5">
+        <f>SUM($B$69:O69)</f>
+        <v>0.96500000000000019</v>
+      </c>
+      <c r="P72" s="5">
+        <f>SUM($B$69:P69)</f>
+        <v>1.0130000000000001</v>
+      </c>
+      <c r="Q72" s="5">
+        <f>SUM($B$69:Q69)</f>
+        <v>1.042</v>
+      </c>
+      <c r="R72" s="5">
+        <f>SUM($B$69:R69)</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="S72" s="5">
+        <f>SUM($B$69:S69)</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T72" s="5">
+        <f>SUM($B$69:T69)</f>
+        <v>1.1209999999999998</v>
+      </c>
+      <c r="U72" s="5">
+        <f>SUM($B$69:U69)</f>
+        <v>1.1669999999999998</v>
+      </c>
+      <c r="V72" s="5">
+        <f>SUM($B$69:V69)</f>
+        <v>1.2059999999999997</v>
+      </c>
+      <c r="W72" s="5">
+        <f>SUM($B$69:W69)</f>
+        <v>1.2219999999999998</v>
+      </c>
+      <c r="X72" s="5">
+        <f>SUM($B$69:X69)</f>
+        <v>1.2319999999999998</v>
+      </c>
+      <c r="Y72" s="5">
+        <f>SUM($B$69:Y69)</f>
         <v>1.2409999999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="Z72" s="5">
+        <f>SUM($B$69:Z69)</f>
+        <v>1.2409999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B74" s="3">
         <v>43989</v>
       </c>
-      <c r="C73" s="3">
-        <f>B73+7</f>
+      <c r="C74" s="3">
+        <f>B74+7</f>
         <v>43996</v>
       </c>
-      <c r="D73" s="3">
-        <f>C73+7</f>
+      <c r="D74" s="3">
+        <f>C74+7</f>
         <v>44003</v>
       </c>
-      <c r="E73" s="3">
-        <f>D73+7</f>
+      <c r="E74" s="3">
+        <f>D74+7</f>
         <v>44010</v>
       </c>
-      <c r="F73" s="3">
-        <f>E73+7</f>
+      <c r="F74" s="3">
+        <f>E74+7</f>
         <v>44017</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="3">
         <v>44031</v>
       </c>
-      <c r="H73" s="3">
-        <f t="shared" ref="H73:K73" si="5">G73+7</f>
+      <c r="H74" s="3">
+        <f t="shared" ref="H74:K74" si="5">G74+7</f>
         <v>44038</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I74" s="3">
         <f t="shared" si="5"/>
         <v>44045</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J74" s="3">
         <f t="shared" si="5"/>
         <v>44052</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K74" s="3">
         <f t="shared" si="5"/>
         <v>44059</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="3"/>
-      <c r="AK73" s="3"/>
-      <c r="AL73" s="3"/>
-      <c r="AM73" s="3"/>
-      <c r="AN73" s="3"/>
-      <c r="AO73" s="3"/>
-      <c r="AP73" s="3"/>
-      <c r="AQ73" s="3"/>
-      <c r="AR73" s="3"/>
-      <c r="AS73" s="3"/>
-      <c r="AT73" s="3"/>
-      <c r="AU73" s="3"/>
-      <c r="AV73" s="3"/>
-      <c r="AW73" s="3"/>
-      <c r="AX73" s="3"/>
-      <c r="AY73" s="3"/>
-      <c r="AZ73" s="3"/>
-      <c r="BA73" s="3"/>
-      <c r="BB73" s="3"/>
-      <c r="BC73" s="3"/>
-      <c r="BD73" s="3"/>
-      <c r="BE73" s="3"/>
-      <c r="BF73" s="3"/>
-      <c r="BG73" s="3"/>
-      <c r="BH73" s="3"/>
-      <c r="BI73" s="3"/>
-      <c r="BJ73" s="3"/>
-      <c r="BK73" s="3"/>
-      <c r="BL73" s="3"/>
-      <c r="BM73" s="3"/>
-      <c r="BN73" s="3"/>
-      <c r="BO73" s="3"/>
-      <c r="BP73" s="3"/>
-      <c r="BQ73" s="3"/>
-      <c r="BR73" s="3"/>
-      <c r="BS73" s="3"/>
-      <c r="BT73" s="3"/>
-      <c r="BU73" s="3"/>
-      <c r="BV73" s="3"/>
-      <c r="BW73" s="3"/>
-      <c r="BX73" s="3"/>
-      <c r="BY73" s="3"/>
-      <c r="BZ73" s="3"/>
-      <c r="CA73" s="3"/>
-      <c r="CB73" s="3"/>
-      <c r="CC73" s="3"/>
-      <c r="CD73" s="3"/>
-      <c r="CE73" s="3"/>
-      <c r="CF73" s="3"/>
-      <c r="CG73" s="3"/>
-      <c r="CH73" s="3"/>
-      <c r="CI73" s="3"/>
-      <c r="CJ73" s="3"/>
-      <c r="CK73" s="3"/>
-      <c r="CL73" s="3"/>
-      <c r="CM73" s="3"/>
-      <c r="CN73" s="3"/>
-      <c r="CO73" s="3"/>
-      <c r="CP73" s="3"/>
-      <c r="CQ73" s="3"/>
-    </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74">
-        <v>85</v>
-      </c>
-      <c r="C74">
-        <v>168</v>
-      </c>
-      <c r="D74">
-        <v>51</v>
-      </c>
-      <c r="E74">
-        <v>42</v>
-      </c>
-      <c r="F74">
-        <v>46</v>
-      </c>
-      <c r="G74">
-        <v>82</v>
-      </c>
-      <c r="H74">
-        <v>319</v>
-      </c>
-      <c r="I74">
-        <v>78</v>
-      </c>
-      <c r="J74">
-        <v>210</v>
-      </c>
-      <c r="K74">
-        <v>222</v>
-      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+      <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3"/>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
+      <c r="BJ74" s="3"/>
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+      <c r="BO74" s="3"/>
+      <c r="BP74" s="3"/>
+      <c r="BQ74" s="3"/>
+      <c r="BR74" s="3"/>
+      <c r="BS74" s="3"/>
+      <c r="BT74" s="3"/>
+      <c r="BU74" s="3"/>
+      <c r="BV74" s="3"/>
+      <c r="BW74" s="3"/>
+      <c r="BX74" s="3"/>
+      <c r="BY74" s="3"/>
+      <c r="BZ74" s="3"/>
+      <c r="CA74" s="3"/>
+      <c r="CB74" s="3"/>
+      <c r="CC74" s="3"/>
+      <c r="CD74" s="3"/>
+      <c r="CE74" s="3"/>
+      <c r="CF74" s="3"/>
+      <c r="CG74" s="3"/>
+      <c r="CH74" s="3"/>
+      <c r="CI74" s="3"/>
+      <c r="CJ74" s="3"/>
+      <c r="CK74" s="3"/>
+      <c r="CL74" s="3"/>
+      <c r="CM74" s="3"/>
+      <c r="CN74" s="3"/>
+      <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="5">
-        <f>SUM($B74:B74)</f>
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
       </c>
       <c r="C76">
-        <f>SUM($B74:C74)</f>
-        <v>253</v>
-      </c>
-      <c r="D76" s="5">
-        <f>SUM($B74:D74)</f>
-        <v>304</v>
-      </c>
-      <c r="E76" s="5">
-        <f>SUM($B74:E74)</f>
-        <v>346</v>
-      </c>
-      <c r="F76" s="5">
-        <f>SUM($B74:F74)</f>
-        <v>392</v>
-      </c>
-      <c r="G76" s="5">
-        <f>SUM($B74:G74)</f>
-        <v>474</v>
-      </c>
-      <c r="H76" s="5">
-        <f>SUM($B74:H74)</f>
-        <v>793</v>
-      </c>
-      <c r="I76" s="5">
-        <f>SUM($B74:I74)</f>
-        <v>871</v>
-      </c>
-      <c r="J76" s="5">
-        <f>SUM($B74:J74)</f>
-        <v>1081</v>
-      </c>
-      <c r="K76" s="5">
-        <f>SUM($B74:K74)</f>
-        <v>1303</v>
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" s="5">
         <f>SUM($B75:B75)</f>
-        <v>3</v>
-      </c>
-      <c r="C77" s="5">
+        <v>85</v>
+      </c>
+      <c r="C77">
         <f>SUM($B75:C75)</f>
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D77" s="5">
         <f>SUM($B75:D75)</f>
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="E77" s="5">
         <f>SUM($B75:E75)</f>
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="F77" s="5">
         <f>SUM($B75:F75)</f>
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="G77" s="5">
         <f>SUM($B75:G75)</f>
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="H77" s="5">
         <f>SUM($B75:H75)</f>
-        <v>21</v>
+        <v>793</v>
       </c>
       <c r="I77" s="5">
         <f>SUM($B75:I75)</f>
-        <v>21</v>
+        <v>871</v>
       </c>
       <c r="J77" s="5">
         <f>SUM($B75:J75)</f>
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="K77" s="5">
         <f>SUM($B75:K75)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="5">
+        <f>SUM($B76:B76)</f>
+        <v>3</v>
+      </c>
+      <c r="C78" s="5">
+        <f>SUM($B76:C76)</f>
+        <v>17</v>
+      </c>
+      <c r="D78" s="5">
+        <f>SUM($B76:D76)</f>
+        <v>20</v>
+      </c>
+      <c r="E78" s="5">
+        <f>SUM($B76:E76)</f>
+        <v>20</v>
+      </c>
+      <c r="F78" s="5">
+        <f>SUM($B76:F76)</f>
         <v>21</v>
+      </c>
+      <c r="G78" s="5">
+        <f>SUM($B76:G76)</f>
+        <v>21</v>
+      </c>
+      <c r="H78" s="5">
+        <f>SUM($B76:H76)</f>
+        <v>21</v>
+      </c>
+      <c r="I78" s="5">
+        <f>SUM($B76:I76)</f>
+        <v>21</v>
+      </c>
+      <c r="J78" s="5">
+        <f>SUM($B76:J76)</f>
+        <v>21</v>
+      </c>
+      <c r="K78" s="5">
+        <f>SUM($B76:K76)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C80" s="3">
+        <f>B80+1</f>
+        <v>44053</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ref="D80:P80" si="6">C80+1</f>
+        <v>44054</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="6"/>
+        <v>44055</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="6"/>
+        <v>44056</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="6"/>
+        <v>44057</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="6"/>
+        <v>44058</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="6"/>
+        <v>44059</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="6"/>
+        <v>44060</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" si="6"/>
+        <v>44061</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="6"/>
+        <v>44062</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="6"/>
+        <v>44063</v>
+      </c>
+      <c r="N80" s="3">
+        <f t="shared" si="6"/>
+        <v>44064</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="6"/>
+        <v>44065</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="6"/>
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>487.5</v>
+      </c>
+      <c r="C81">
+        <v>487.5</v>
+      </c>
+      <c r="D81">
+        <v>487.5</v>
+      </c>
+      <c r="E81">
+        <v>487.5</v>
+      </c>
+      <c r="F81">
+        <v>487.5</v>
+      </c>
+      <c r="G81">
+        <v>487.5</v>
+      </c>
+      <c r="H81">
+        <v>450</v>
+      </c>
+      <c r="I81">
+        <v>675</v>
+      </c>
+      <c r="J81">
+        <v>900</v>
+      </c>
+      <c r="K81">
+        <v>900</v>
+      </c>
+      <c r="L81">
+        <v>675</v>
+      </c>
+      <c r="M81">
+        <v>1125</v>
+      </c>
+      <c r="N81">
+        <v>1800</v>
+      </c>
+      <c r="O81">
+        <v>1350</v>
+      </c>
+      <c r="P81">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C82" s="5">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D82" s="5">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E82" s="5">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F82" s="5">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G82" s="5">
+        <f>16/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>30</v>
+      </c>
+      <c r="N82">
+        <v>30</v>
+      </c>
+      <c r="O82">
+        <v>39</v>
+      </c>
+      <c r="P82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="5">
+        <f>SUM($B$81:B81)</f>
+        <v>487.5</v>
+      </c>
+      <c r="C83">
+        <f>SUM($B$81:C81)</f>
+        <v>975</v>
+      </c>
+      <c r="D83" s="5">
+        <f>SUM($B$81:D81)</f>
+        <v>1462.5</v>
+      </c>
+      <c r="E83" s="5">
+        <f>SUM($B$81:E81)</f>
+        <v>1950</v>
+      </c>
+      <c r="F83" s="5">
+        <f>SUM($B$81:F81)</f>
+        <v>2437.5</v>
+      </c>
+      <c r="G83" s="5">
+        <f>SUM($B$81:G81)</f>
+        <v>2925</v>
+      </c>
+      <c r="H83" s="5">
+        <f>SUM($B$81:H81)</f>
+        <v>3375</v>
+      </c>
+      <c r="I83" s="5">
+        <f>SUM($B$81:I81)</f>
+        <v>4050</v>
+      </c>
+      <c r="J83" s="5">
+        <f>SUM($B$81:J81)</f>
+        <v>4950</v>
+      </c>
+      <c r="K83" s="5">
+        <f>SUM($B$81:K81)</f>
+        <v>5850</v>
+      </c>
+      <c r="L83" s="5">
+        <f>SUM($B$81:L81)</f>
+        <v>6525</v>
+      </c>
+      <c r="M83" s="5">
+        <f>SUM($B$81:M81)</f>
+        <v>7650</v>
+      </c>
+      <c r="N83" s="5">
+        <f>SUM($B$81:N81)</f>
+        <v>9450</v>
+      </c>
+      <c r="O83" s="5">
+        <f>SUM($B$81:O81)</f>
+        <v>10800</v>
+      </c>
+      <c r="P83" s="5">
+        <f>SUM($B$81:P81)</f>
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="5">
+        <f>SUM($B$82:B82)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C84">
+        <f>SUM($B$82:C82)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D84" s="5">
+        <f>SUM($B$82:D82)</f>
+        <v>8</v>
+      </c>
+      <c r="E84" s="5">
+        <f>SUM($B$82:E82)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F84" s="5">
+        <f>SUM($B$82:F82)</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="G84" s="5">
+        <f>SUM($B$82:G82)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="H84" s="5">
+        <f>SUM($B$82:H82)</f>
+        <v>17</v>
+      </c>
+      <c r="I84" s="5">
+        <f>SUM($B$82:I82)</f>
+        <v>19</v>
+      </c>
+      <c r="J84" s="5">
+        <f>SUM($B$82:J82)</f>
+        <v>21</v>
+      </c>
+      <c r="K84" s="5">
+        <f>SUM($B$82:K82)</f>
+        <v>24</v>
+      </c>
+      <c r="L84" s="5">
+        <f>SUM($B$82:L82)</f>
+        <v>28</v>
+      </c>
+      <c r="M84" s="5">
+        <f>SUM($B$82:M82)</f>
+        <v>58</v>
+      </c>
+      <c r="N84" s="5">
+        <f>SUM($B$82:N82)</f>
+        <v>88</v>
+      </c>
+      <c r="O84" s="5">
+        <f>SUM($B$82:O82)</f>
+        <v>127</v>
+      </c>
+      <c r="P84" s="5">
+        <f>SUM($B$82:P82)</f>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3299,8 +3613,9 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{00964D12-76B2-40D1-8EAA-437B78CA47E6}"/>
     <hyperlink ref="G12" r:id="rId10" xr:uid="{39AF576B-3B56-47BD-80CD-F90C4B49504E}"/>
     <hyperlink ref="G2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{CF728EDE-3809-49DF-9BA3-88CA2A358FC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1617F-16E0-44D7-9ED4-932E3DD521F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AD227-9056-4F71-9843-8596C329A1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -171,13 +171,19 @@
   </si>
   <si>
     <t>https://www2.gmu.edu/safe-return-campus/mason-covid-health-check/data-dashboard</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables#yale-testing-data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,6 +214,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -241,6 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ98"/>
+  <dimension ref="A1:CQ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,1232 +830,1184 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>44061</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>44062</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>44063</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>44064</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>44065</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>1566</v>
-      </c>
-      <c r="C19">
-        <v>1705</v>
-      </c>
-      <c r="D19">
-        <v>2211</v>
-      </c>
-      <c r="E19">
-        <v>2510</v>
-      </c>
-      <c r="F19">
-        <v>2510</v>
-      </c>
-      <c r="G19">
-        <v>3031</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>1566</v>
+      </c>
+      <c r="C20">
+        <v>1705</v>
+      </c>
+      <c r="D20">
+        <v>2211</v>
+      </c>
+      <c r="E20">
+        <v>2510</v>
+      </c>
+      <c r="F20">
+        <v>2510</v>
+      </c>
+      <c r="G20">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>25</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>78</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>78</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
         <v>44038</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>44045</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>44052</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>44059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>117</v>
-      </c>
-      <c r="C23">
-        <v>158</v>
-      </c>
-      <c r="D23">
-        <v>354</v>
-      </c>
-      <c r="E23">
-        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E24">
-        <v>130</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <f>SUM(B23)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <f>SUM(B23:C23)</f>
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <f>SUM(B23:D23)</f>
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <f>SUM(B23:E23)</f>
-        <v>1583</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <f>SUM(B24)</f>
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C26">
         <f>SUM(B24:C24)</f>
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="D26">
         <f>SUM(B24:D24)</f>
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="E26">
         <f>SUM(B24:E24)</f>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B25)</f>
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <f>SUM(B25:C25)</f>
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B25:D25)</f>
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <f>SUM(B25:E25)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>44046</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>44047</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>44048</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>44049</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>44050</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>44051</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>44052</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>44053</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <v>44054</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="3">
         <v>44055</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" ref="L28:T28" si="0">K28+1</f>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:T29" si="0">K29+1</f>
         <v>44056</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O29" s="3">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P29" s="3">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q29" s="3">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R29" s="3">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S29" s="3">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T29" s="3">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U29" s="3">
         <v>44065</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V29" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>198</v>
-      </c>
-      <c r="J29">
-        <v>18</v>
-      </c>
-      <c r="K29">
-        <v>41</v>
-      </c>
-      <c r="L29">
-        <v>42</v>
-      </c>
-      <c r="M29">
-        <v>123</v>
-      </c>
-      <c r="N29">
-        <v>11</v>
-      </c>
-      <c r="O29">
-        <v>30</v>
-      </c>
-      <c r="P29">
-        <v>420</v>
-      </c>
-      <c r="Q29">
-        <v>355</v>
-      </c>
-      <c r="R29">
-        <v>493</v>
-      </c>
-      <c r="S29">
-        <v>256</v>
-      </c>
-      <c r="T29">
-        <v>202</v>
-      </c>
-      <c r="U29">
-        <v>104</v>
-      </c>
-      <c r="V29">
-        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O30">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P30">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="R30">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="S30">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="T30">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="U30">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="V30">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
         <v>14</v>
       </c>
-      <c r="B31" s="5">
-        <f>SUM(B29)</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="5">
-        <f>SUM(B29:C29)</f>
-        <v>13</v>
-      </c>
-      <c r="D31" s="5">
-        <f>SUM($B$29:D29)</f>
-        <v>20</v>
-      </c>
-      <c r="E31" s="5">
-        <f>SUM($B$29:E29)</f>
-        <v>26</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM($B$29:F29)</f>
-        <v>29</v>
-      </c>
-      <c r="G31" s="5">
-        <f>SUM($B$29:G29)</f>
-        <v>39</v>
-      </c>
-      <c r="H31" s="5">
-        <f>SUM($B$29:H29)</f>
-        <v>46</v>
-      </c>
-      <c r="I31" s="5">
-        <f>SUM($B$29:I29)</f>
-        <v>244</v>
-      </c>
-      <c r="J31" s="5">
-        <f>SUM($B$29:J29)</f>
-        <v>262</v>
-      </c>
-      <c r="K31" s="5">
-        <f>SUM($B$29:K29)</f>
-        <v>303</v>
-      </c>
-      <c r="L31" s="5">
-        <f>SUM($B$29:L29)</f>
-        <v>345</v>
-      </c>
-      <c r="M31" s="5">
-        <f>SUM($B$29:M29)</f>
-        <v>468</v>
-      </c>
-      <c r="N31" s="5">
-        <f>SUM($B$29:N29)</f>
-        <v>479</v>
-      </c>
-      <c r="O31" s="5">
-        <f>SUM($B$29:O29)</f>
-        <v>509</v>
-      </c>
-      <c r="P31" s="5">
-        <f>SUM($B$29:P29)</f>
-        <v>929</v>
-      </c>
-      <c r="Q31" s="5">
-        <f>SUM($B$29:Q29)</f>
-        <v>1284</v>
-      </c>
-      <c r="R31" s="5">
-        <f>SUM($B$29:R29)</f>
-        <v>1777</v>
-      </c>
-      <c r="S31" s="5">
-        <f>SUM($B$29:S29)</f>
-        <v>2033</v>
-      </c>
-      <c r="T31" s="5">
-        <f>SUM($B$29:T29)</f>
-        <v>2235</v>
-      </c>
-      <c r="U31" s="5">
-        <f>SUM($B$29:U29)</f>
-        <v>2339</v>
-      </c>
-      <c r="V31" s="5">
-        <f>SUM($B$29:V29)</f>
-        <v>2698</v>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>98</v>
+      </c>
+      <c r="Q31">
+        <v>80</v>
+      </c>
+      <c r="R31">
+        <v>76</v>
+      </c>
+      <c r="S31">
+        <v>23</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>19</v>
+      </c>
+      <c r="V31">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B30)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
-        <f>SUM($B$30:C30)</f>
-        <v>0</v>
+        <f>SUM(B30:C30)</f>
+        <v>13</v>
       </c>
       <c r="D32" s="5">
         <f>SUM($B$30:D30)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
         <f>SUM($B$30:E30)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5">
         <f>SUM($B$30:F30)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G32" s="5">
         <f>SUM($B$30:G30)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H32" s="5">
         <f>SUM($B$30:H30)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I32" s="5">
         <f>SUM($B$30:I30)</f>
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="J32" s="5">
         <f>SUM($B$30:J30)</f>
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K32" s="5">
         <f>SUM($B$30:K30)</f>
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="L32" s="5">
         <f>SUM($B$30:L30)</f>
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="M32" s="5">
         <f>SUM($B$30:M30)</f>
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="N32" s="5">
         <f>SUM($B$30:N30)</f>
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="O32" s="5">
         <f>SUM($B$30:O30)</f>
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="P32" s="5">
         <f>SUM($B$30:P30)</f>
-        <v>169</v>
+        <v>929</v>
       </c>
       <c r="Q32" s="5">
         <f>SUM($B$30:Q30)</f>
-        <v>249</v>
+        <v>1284</v>
       </c>
       <c r="R32" s="5">
         <f>SUM($B$30:R30)</f>
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="S32" s="5">
         <f>SUM($B$30:S30)</f>
-        <v>348</v>
+        <v>2033</v>
       </c>
       <c r="T32" s="5">
         <f>SUM($B$30:T30)</f>
-        <v>372</v>
+        <v>2235</v>
       </c>
       <c r="U32" s="5">
         <f>SUM($B$30:U30)</f>
-        <v>391</v>
+        <v>2339</v>
       </c>
       <c r="V32" s="5">
         <f>SUM($B$30:V30)</f>
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="5">
+        <f>SUM(B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <f>SUM($B$31:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <f>SUM($B$31:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f>SUM($B$31:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <f>SUM($B$31:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f>SUM($B$31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <f>SUM($B$31:H31)</f>
+        <v>3</v>
+      </c>
+      <c r="I33" s="5">
+        <f>SUM($B$31:I31)</f>
+        <v>9</v>
+      </c>
+      <c r="J33" s="5">
+        <f>SUM($B$31:J31)</f>
+        <v>14</v>
+      </c>
+      <c r="K33" s="5">
+        <f>SUM($B$31:K31)</f>
+        <v>23</v>
+      </c>
+      <c r="L33" s="5">
+        <f>SUM($B$31:L31)</f>
+        <v>37</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM($B$31:M31)</f>
+        <v>51</v>
+      </c>
+      <c r="N33" s="5">
+        <f>SUM($B$31:N31)</f>
+        <v>55</v>
+      </c>
+      <c r="O33" s="5">
+        <f>SUM($B$31:O31)</f>
+        <v>71</v>
+      </c>
+      <c r="P33" s="5">
+        <f>SUM($B$31:P31)</f>
+        <v>169</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>SUM($B$31:Q31)</f>
+        <v>249</v>
+      </c>
+      <c r="R33" s="5">
+        <f>SUM($B$31:R31)</f>
+        <v>325</v>
+      </c>
+      <c r="S33" s="5">
+        <f>SUM($B$31:S31)</f>
+        <v>348</v>
+      </c>
+      <c r="T33" s="5">
+        <f>SUM($B$31:T31)</f>
+        <v>372</v>
+      </c>
+      <c r="U33" s="5">
+        <f>SUM($B$31:U31)</f>
+        <v>391</v>
+      </c>
+      <c r="V33" s="5">
+        <f>SUM($B$31:V31)</f>
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>44056</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>44063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>236</v>
-      </c>
-      <c r="C35">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <f>SUM(B35)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <f>SUM($B$35:C35)</f>
-        <v>319</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <f>SUM(B36)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C38">
         <f>SUM($B$36:C36)</f>
+        <v>319</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>SUM($B$37:C37)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3">
         <v>44044</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:T40" si="1">B40+1</f>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:T41" si="1">B41+1</f>
         <v>44045</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="3">
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="3">
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J41" s="3">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K41" s="3">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L41" s="3">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O41" s="3">
         <f t="shared" si="1"/>
         <v>44057</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P41" s="3">
         <f t="shared" si="1"/>
         <v>44058</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q41" s="3">
         <f t="shared" si="1"/>
         <v>44059</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R41" s="3">
         <f t="shared" si="1"/>
         <v>44060</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S41" s="3">
         <f t="shared" si="1"/>
         <v>44061</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T41" s="3">
         <f t="shared" si="1"/>
         <v>44062</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U41" s="3">
         <v>44063</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V41" s="3">
         <v>44064</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W41" s="3">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>27</v>
-      </c>
-      <c r="E41">
-        <v>299</v>
-      </c>
-      <c r="F41">
-        <v>55</v>
-      </c>
-      <c r="G41">
-        <v>45</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>11</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>103</v>
-      </c>
-      <c r="M41">
-        <v>276</v>
-      </c>
-      <c r="N41">
-        <v>114</v>
-      </c>
-      <c r="O41">
-        <v>202</v>
-      </c>
-      <c r="P41">
-        <v>133</v>
-      </c>
-      <c r="Q41">
-        <v>98</v>
-      </c>
-      <c r="R41">
-        <v>211</v>
-      </c>
-      <c r="S41">
-        <v>213</v>
-      </c>
-      <c r="T41">
-        <v>367</v>
-      </c>
-      <c r="U41">
-        <v>257</v>
-      </c>
-      <c r="V41">
-        <v>347</v>
-      </c>
-      <c r="W41">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="F42">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>45</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R42">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="V42">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="W42">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>9</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>9</v>
+      </c>
+      <c r="V43">
         <v>14</v>
       </c>
-      <c r="B43">
-        <f>SUM(B41)</f>
+      <c r="W43">
         <v>3</v>
-      </c>
-      <c r="C43">
-        <f>SUM($B$41:C41)</f>
-        <v>20</v>
-      </c>
-      <c r="D43">
-        <f>SUM($B$41:D41)</f>
-        <v>47</v>
-      </c>
-      <c r="E43">
-        <f>SUM($B$41:E41)</f>
-        <v>346</v>
-      </c>
-      <c r="F43">
-        <f>SUM($B$41:F41)</f>
-        <v>401</v>
-      </c>
-      <c r="G43">
-        <f>SUM($B$41:G41)</f>
-        <v>446</v>
-      </c>
-      <c r="H43">
-        <f>SUM($B$41:H41)</f>
-        <v>447</v>
-      </c>
-      <c r="I43">
-        <f>SUM($B$41:I41)</f>
-        <v>447</v>
-      </c>
-      <c r="J43">
-        <f>SUM($B$41:J41)</f>
-        <v>458</v>
-      </c>
-      <c r="K43">
-        <f>SUM($B$41:K41)</f>
-        <v>458</v>
-      </c>
-      <c r="L43">
-        <f>SUM($B$41:L41)</f>
-        <v>561</v>
-      </c>
-      <c r="M43">
-        <f>SUM($B$41:M41)</f>
-        <v>837</v>
-      </c>
-      <c r="N43">
-        <f>SUM($B$41:N41)</f>
-        <v>951</v>
-      </c>
-      <c r="O43">
-        <f>SUM($B$41:O41)</f>
-        <v>1153</v>
-      </c>
-      <c r="P43">
-        <f>SUM($B$41:P41)</f>
-        <v>1286</v>
-      </c>
-      <c r="Q43">
-        <f>SUM($B$41:Q41)</f>
-        <v>1384</v>
-      </c>
-      <c r="R43">
-        <f>SUM($B$41:R41)</f>
-        <v>1595</v>
-      </c>
-      <c r="S43">
-        <f>SUM($B$41:S41)</f>
-        <v>1808</v>
-      </c>
-      <c r="T43">
-        <f>SUM($B$41:T41)</f>
-        <v>2175</v>
-      </c>
-      <c r="U43" s="5">
-        <f>SUM($B$41:U41)</f>
-        <v>2432</v>
-      </c>
-      <c r="V43" s="5">
-        <f>SUM($B$41:V41)</f>
-        <v>2779</v>
-      </c>
-      <c r="W43" s="5">
-        <f>SUM($B$41:W41)</f>
-        <v>2947</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <f>SUM(B42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <f>SUM($B$42:C42)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <f>SUM($B$42:D42)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E44">
         <f>SUM($B$42:E42)</f>
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F44">
         <f>SUM($B$42:F42)</f>
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="G44">
         <f>SUM($B$42:G42)</f>
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="H44">
         <f>SUM($B$42:H42)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="I44">
         <f>SUM($B$42:I42)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="J44">
         <f>SUM($B$42:J42)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="K44">
         <f>SUM($B$42:K42)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="L44">
         <f>SUM($B$42:L42)</f>
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M44">
         <f>SUM($B$42:M42)</f>
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="N44">
         <f>SUM($B$42:N42)</f>
-        <v>6</v>
+        <v>951</v>
       </c>
       <c r="O44">
         <f>SUM($B$42:O42)</f>
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="P44">
         <f>SUM($B$42:P42)</f>
-        <v>11</v>
+        <v>1286</v>
       </c>
       <c r="Q44">
         <f>SUM($B$42:Q42)</f>
-        <v>13</v>
+        <v>1384</v>
       </c>
       <c r="R44">
         <f>SUM($B$42:R42)</f>
-        <v>22</v>
+        <v>1595</v>
       </c>
       <c r="S44">
         <f>SUM($B$42:S42)</f>
-        <v>22</v>
+        <v>1808</v>
       </c>
       <c r="T44">
         <f>SUM($B$42:T42)</f>
-        <v>26</v>
+        <v>2175</v>
       </c>
       <c r="U44" s="5">
         <f>SUM($B$42:U42)</f>
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="V44" s="5">
         <f>SUM($B$42:V42)</f>
-        <v>49</v>
+        <v>2779</v>
       </c>
       <c r="W44" s="5">
         <f>SUM($B$42:W42)</f>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>SUM($B$43:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>SUM($B$43:D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>SUM($B$43:E43)</f>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f>SUM($B$43:F43)</f>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f>SUM($B$43:G43)</f>
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f>SUM($B$43:H43)</f>
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <f>SUM($B$43:I43)</f>
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <f>SUM($B$43:J43)</f>
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <f>SUM($B$43:K43)</f>
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <f>SUM($B$43:L43)</f>
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <f>SUM($B$43:M43)</f>
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <f>SUM($B$43:N43)</f>
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <f>SUM($B$43:O43)</f>
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <f>SUM($B$43:P43)</f>
+        <v>11</v>
+      </c>
+      <c r="Q45">
+        <f>SUM($B$43:Q43)</f>
+        <v>13</v>
+      </c>
+      <c r="R45">
+        <f>SUM($B$43:R43)</f>
+        <v>22</v>
+      </c>
+      <c r="S45">
+        <f>SUM($B$43:S43)</f>
+        <v>22</v>
+      </c>
+      <c r="T45">
+        <f>SUM($B$43:T43)</f>
+        <v>26</v>
+      </c>
+      <c r="U45" s="5">
+        <f>SUM($B$43:U43)</f>
+        <v>35</v>
+      </c>
+      <c r="V45" s="5">
+        <f>SUM($B$43:V43)</f>
+        <v>49</v>
+      </c>
+      <c r="W45" s="5">
+        <f>SUM($B$43:W43)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3">
         <v>44058</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="3">
         <v>44064</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <f>5854+516</f>
         <v>6370</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>5028</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <f>B47</f>
-        <v>6370</v>
-      </c>
-      <c r="C49">
-        <f>SUM($B$47:C47)</f>
-        <v>11398</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <f>B48</f>
-        <v>15</v>
+        <v>6370</v>
       </c>
       <c r="C50">
         <f>SUM($B$48:C48)</f>
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <f>B49</f>
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <f>SUM($B$49:C49)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>44050</v>
       </c>
-      <c r="C52" s="3">
-        <f t="shared" ref="C52:P52" si="2">B52+1</f>
+      <c r="C53" s="3">
+        <f t="shared" ref="C53:P53" si="2">B53+1</f>
         <v>44051</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="3">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K53" s="3">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L53" s="3">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M53" s="3">
         <f t="shared" si="2"/>
         <v>44061</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N53" s="3">
         <f t="shared" si="2"/>
         <v>44062</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O53" s="3">
         <f t="shared" si="2"/>
         <v>44063</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P53" s="3">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q53" s="3">
         <v>44065</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R53" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53">
-        <v>210</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>219</v>
-      </c>
-      <c r="G53">
-        <v>48</v>
-      </c>
-      <c r="H53">
-        <v>246</v>
-      </c>
-      <c r="I53">
-        <v>578</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>645</v>
-      </c>
-      <c r="N53">
-        <v>582</v>
-      </c>
-      <c r="O53">
-        <v>831</v>
-      </c>
-      <c r="P53">
-        <v>1016</v>
-      </c>
-      <c r="Q53">
-        <v>1002</v>
-      </c>
-      <c r="R53">
-        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2051,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2072,2040 +2037,2129 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <f>SUM(B53)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <f>SUM($B$53:C53)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <f>SUM($B$53:D53)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <f>SUM($B$53:E53)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <f>SUM($B$53:F53)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <f>SUM($B$53:G53)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <f>SUM($B$53:H53)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f>SUM($B$53:I53)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <f>SUM($B$53:J53)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <f>SUM($B$53:K53)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <f>SUM($B$53:L53)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <f>SUM($B$53:M53)</f>
-        <v>1955</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <f>SUM($B$53:N53)</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <f>SUM($B$53:O53)</f>
-        <v>3368</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <f>SUM($B$53:P53)</f>
-        <v>4384</v>
+        <v>2</v>
       </c>
       <c r="Q55">
-        <f>SUM($B$53:Q53)</f>
-        <v>5386</v>
-      </c>
-      <c r="R55" s="5">
-        <f>SUM($B$53:R53)</f>
-        <v>6053</v>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <f>SUM(B54)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C56">
         <f>SUM($B$54:C54)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D56">
         <f>SUM($B$54:D54)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E56">
         <f>SUM($B$54:E54)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F56">
         <f>SUM($B$54:F54)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G56">
         <f>SUM($B$54:G54)</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H56">
         <f>SUM($B$54:H54)</f>
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="I56">
         <f>SUM($B$54:I54)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="J56">
         <f>SUM($B$54:J54)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="K56">
         <f>SUM($B$54:K54)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="L56">
         <f>SUM($B$54:L54)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="M56">
         <f>SUM($B$54:M54)</f>
-        <v>2</v>
+        <v>1955</v>
       </c>
       <c r="N56">
         <f>SUM($B$54:N54)</f>
-        <v>2</v>
+        <v>2537</v>
       </c>
       <c r="O56">
         <f>SUM($B$54:O54)</f>
-        <v>3</v>
+        <v>3368</v>
       </c>
       <c r="P56">
         <f>SUM($B$54:P54)</f>
-        <v>5</v>
+        <v>4384</v>
       </c>
       <c r="Q56">
         <f>SUM($B$54:Q54)</f>
-        <v>5</v>
+        <v>5386</v>
       </c>
       <c r="R56" s="5">
         <f>SUM($B$54:R54)</f>
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <f>SUM(B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$55:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>SUM($B$55:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>SUM($B$55:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>SUM($B$55:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>SUM($B$55:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>SUM($B$55:H55)</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f>SUM($B$55:I55)</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>SUM($B$55:J55)</f>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f>SUM($B$55:K55)</f>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>SUM($B$55:L55)</f>
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f>SUM($B$55:M55)</f>
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <f>SUM($B$55:N55)</f>
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <f>SUM($B$55:O55)</f>
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <f>SUM($B$55:P55)</f>
+        <v>5</v>
+      </c>
+      <c r="Q57">
+        <f>SUM($B$55:Q55)</f>
+        <v>5</v>
+      </c>
+      <c r="R57" s="5">
+        <f>SUM($B$55:R55)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="3">
-        <v>44049</v>
-      </c>
-      <c r="C58" s="3">
-        <v>44054</v>
-      </c>
-      <c r="D58" s="3">
-        <v>44061</v>
-      </c>
-      <c r="E58" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F58" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44054</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44061</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="5">
-        <f>SUM($B$59:B59)</f>
+        <v>17</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <f>SUM($B$59:C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="5">
-        <f>SUM($B$59:D59)</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
-        <f>SUM($B$59:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="5">
-        <f>SUM($B$59:F59)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="5">
+        <f>SUM($B$60:B60)</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>SUM($B$60:C60)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f>SUM($B$60:D60)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <f>SUM($B$60:E60)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <f>SUM($B$60:F60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="5">
-        <f>SUM($B$59:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C62" s="5">
-        <f>SUM($B$59:C60)</f>
+      <c r="B63" s="5">
+        <f>SUM($B$60:B61)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <f>SUM($B$60:C61)</f>
         <v>3</v>
       </c>
-      <c r="D62" s="5">
-        <f>SUM($B$59:D60)</f>
+      <c r="D63" s="5">
+        <f>SUM($B$60:D61)</f>
         <v>5</v>
       </c>
-      <c r="E62" s="5">
-        <f>SUM($B$59:E60)</f>
+      <c r="E63" s="5">
+        <f>SUM($B$60:E61)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="5">
-        <f>SUM($B$59:F60)</f>
+      <c r="F63" s="5">
+        <f>SUM($B$60:F61)</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="3">
-        <v>44052</v>
-      </c>
-      <c r="C64" s="3">
-        <v>44062</v>
-      </c>
-      <c r="D64" s="3">
-        <v>44063</v>
-      </c>
-      <c r="E64" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F64" s="3">
-        <v>44065</v>
-      </c>
-      <c r="G64" s="3">
-        <v>44066</v>
-      </c>
-      <c r="H64" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="65" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65">
-        <v>333</v>
-      </c>
-      <c r="C65">
-        <v>809</v>
-      </c>
-      <c r="D65">
-        <v>1408</v>
-      </c>
-      <c r="E65">
-        <v>852</v>
-      </c>
-      <c r="F65">
-        <v>763</v>
-      </c>
-      <c r="G65">
-        <v>518</v>
-      </c>
-      <c r="H65">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44062</v>
+      </c>
+      <c r="D65" s="3">
+        <v>44063</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44065</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44066</v>
+      </c>
+      <c r="H65" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="66" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1408</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>763</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="5">
-        <f>SUM($B$65:B65)</f>
-        <v>333</v>
-      </c>
-      <c r="C67" s="5">
-        <f>SUM($B$65:C65)</f>
-        <v>1142</v>
-      </c>
-      <c r="D67" s="5">
-        <f>SUM($B$65:D65)</f>
-        <v>2550</v>
-      </c>
-      <c r="E67" s="5">
-        <f>SUM($B$65:E65)</f>
-        <v>3402</v>
-      </c>
-      <c r="F67" s="5">
-        <f>SUM($B$65:F65)</f>
-        <v>4165</v>
+        <v>21</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
       </c>
       <c r="G67">
-        <f>SUM($B$65:G65)</f>
-        <v>4683</v>
-      </c>
-      <c r="H67" s="5">
-        <f>SUM($B$65:H65)</f>
-        <v>4689</v>
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="5">
         <f>SUM($B$66:B66)</f>
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C68" s="5">
         <f>SUM($B$66:C66)</f>
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D68" s="5">
         <f>SUM($B$66:D66)</f>
-        <v>5</v>
+        <v>2550</v>
       </c>
       <c r="E68" s="5">
         <f>SUM($B$66:E66)</f>
-        <v>5</v>
+        <v>3402</v>
       </c>
       <c r="F68" s="5">
         <f>SUM($B$66:F66)</f>
-        <v>6</v>
-      </c>
-      <c r="G68" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G68">
         <f>SUM($B$66:G66)</f>
-        <v>7</v>
+        <v>4683</v>
       </c>
       <c r="H68" s="5">
         <f>SUM($B$66:H66)</f>
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="5">
+        <f>SUM($B$67:B67)</f>
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <f>SUM($B$67:C67)</f>
+        <v>3</v>
+      </c>
+      <c r="D69" s="5">
+        <f>SUM($B$67:D67)</f>
+        <v>5</v>
+      </c>
+      <c r="E69" s="5">
+        <f>SUM($B$67:E67)</f>
+        <v>5</v>
+      </c>
+      <c r="F69" s="5">
+        <f>SUM($B$67:F67)</f>
+        <v>6</v>
+      </c>
+      <c r="G69" s="5">
+        <f>SUM($B$67:G67)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="H69" s="5">
+        <f>SUM($B$67:H67)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B71" s="3">
         <v>43898</v>
       </c>
-      <c r="C70" s="3">
-        <f t="shared" ref="C70:Z70" si="3">B70+7</f>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71:Z71" si="3">B71+7</f>
         <v>43905</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <f t="shared" si="3"/>
         <v>43912</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <f t="shared" si="3"/>
         <v>43919</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <f t="shared" si="3"/>
         <v>43926</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <f t="shared" si="3"/>
         <v>43933</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="3">
         <f t="shared" si="3"/>
         <v>43940</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I71" s="3">
         <f t="shared" si="3"/>
         <v>43947</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J71" s="3">
         <f t="shared" si="3"/>
         <v>43954</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K71" s="3">
         <f t="shared" si="3"/>
         <v>43961</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L71" s="3">
         <f t="shared" si="3"/>
         <v>43968</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M71" s="3">
         <f t="shared" si="3"/>
         <v>43975</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N71" s="3">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O71" s="3">
         <f t="shared" si="3"/>
         <v>43989</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P71" s="3">
         <f t="shared" si="3"/>
         <v>43996</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q71" s="3">
         <f t="shared" si="3"/>
         <v>44003</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R71" s="3">
         <f t="shared" si="3"/>
         <v>44010</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S71" s="3">
         <f t="shared" si="3"/>
         <v>44017</v>
       </c>
-      <c r="T70" s="3">
+      <c r="T71" s="3">
         <f t="shared" si="3"/>
         <v>44024</v>
       </c>
-      <c r="U70" s="3">
+      <c r="U71" s="3">
         <f t="shared" si="3"/>
         <v>44031</v>
       </c>
-      <c r="V70" s="3">
+      <c r="V71" s="3">
         <f t="shared" si="3"/>
         <v>44038</v>
       </c>
-      <c r="W70" s="3">
+      <c r="W71" s="3">
         <f t="shared" si="3"/>
         <v>44045</v>
       </c>
-      <c r="X70" s="3">
+      <c r="X71" s="3">
         <f t="shared" si="3"/>
         <v>44052</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Y71" s="3">
         <f t="shared" si="3"/>
         <v>44059</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="Z71" s="3">
         <f t="shared" si="3"/>
         <v>44066</v>
       </c>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-    </row>
-    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71">
-        <v>36</v>
-      </c>
-      <c r="C71">
-        <v>273</v>
-      </c>
-      <c r="D71">
-        <v>179</v>
-      </c>
-      <c r="E71">
-        <v>120</v>
-      </c>
-      <c r="F71">
-        <v>106</v>
-      </c>
-      <c r="G71">
-        <v>86</v>
-      </c>
-      <c r="H71">
-        <v>124</v>
-      </c>
-      <c r="I71">
-        <v>129</v>
-      </c>
-      <c r="J71">
-        <v>163</v>
-      </c>
-      <c r="K71">
-        <v>162</v>
-      </c>
-      <c r="L71">
-        <v>160</v>
-      </c>
-      <c r="M71">
-        <v>156</v>
-      </c>
-      <c r="N71">
-        <v>199</v>
-      </c>
-      <c r="O71">
-        <v>329</v>
-      </c>
-      <c r="P71">
-        <v>439</v>
-      </c>
-      <c r="Q71">
-        <v>346</v>
-      </c>
-      <c r="R71">
-        <v>395</v>
-      </c>
-      <c r="S71">
-        <v>570</v>
-      </c>
-      <c r="T71">
-        <v>521</v>
-      </c>
-      <c r="U71">
-        <v>460</v>
-      </c>
-      <c r="V71">
-        <v>559</v>
-      </c>
-      <c r="W71">
-        <v>1018</v>
-      </c>
-      <c r="X71">
-        <v>865</v>
-      </c>
-      <c r="Y71">
-        <v>846</v>
-      </c>
-      <c r="Z71">
-        <v>11</v>
-      </c>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>0.19400000000000001</v>
+        <v>36</v>
       </c>
       <c r="C72">
-        <v>0.125</v>
+        <v>273</v>
       </c>
       <c r="D72">
-        <v>0.223</v>
+        <v>179</v>
       </c>
       <c r="E72">
-        <v>0.16700000000000001</v>
+        <v>120</v>
       </c>
       <c r="F72">
-        <v>8.5000000000000006E-2</v>
+        <v>106</v>
       </c>
       <c r="G72">
-        <v>4.7E-2</v>
+        <v>86</v>
       </c>
       <c r="H72">
-        <v>0.04</v>
+        <v>124</v>
       </c>
       <c r="I72">
-        <v>8.0000000000000002E-3</v>
+        <v>129</v>
       </c>
       <c r="J72">
-        <v>2.5000000000000001E-2</v>
+        <v>163</v>
       </c>
       <c r="K72">
-        <v>6.0000000000000001E-3</v>
+        <v>162</v>
       </c>
       <c r="L72">
-        <v>1.9E-2</v>
+        <v>160</v>
       </c>
       <c r="M72">
-        <v>6.0000000000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="N72">
-        <v>5.0000000000000001E-3</v>
+        <v>199</v>
       </c>
       <c r="O72">
-        <v>1.4999999999999999E-2</v>
+        <v>329</v>
       </c>
       <c r="P72">
-        <v>4.8000000000000001E-2</v>
+        <v>439</v>
       </c>
       <c r="Q72">
-        <v>2.9000000000000001E-2</v>
+        <v>346</v>
       </c>
       <c r="R72">
-        <v>2.5000000000000001E-2</v>
+        <v>395</v>
       </c>
       <c r="S72">
-        <v>2.3E-2</v>
+        <v>570</v>
       </c>
       <c r="T72">
-        <v>3.1E-2</v>
+        <v>521</v>
       </c>
       <c r="U72">
-        <v>4.5999999999999999E-2</v>
+        <v>460</v>
       </c>
       <c r="V72">
-        <v>3.9E-2</v>
+        <v>559</v>
       </c>
       <c r="W72">
-        <v>1.6E-2</v>
+        <v>1018</v>
       </c>
       <c r="X72">
-        <v>0.01</v>
+        <v>865</v>
       </c>
       <c r="Y72">
-        <v>8.9999999999999993E-3</v>
+        <v>846</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.125</v>
+      </c>
+      <c r="D73">
+        <v>0.223</v>
+      </c>
+      <c r="E73">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F73">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G73">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.04</v>
+      </c>
+      <c r="I73">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J73">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L73">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O73">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P73">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q73">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R73">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S73">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T73">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U73">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V73">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W73">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X73">
+        <v>0.01</v>
+      </c>
+      <c r="Y73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B73">
-        <f>ROUND(B72*B71,0)</f>
+      <c r="B74">
+        <f>ROUND(B73*B72,0)</f>
         <v>7</v>
       </c>
-      <c r="C73" s="5">
-        <f t="shared" ref="C73:Z73" si="4">ROUND(C72*C71,0)</f>
+      <c r="C74" s="5">
+        <f t="shared" ref="C74:Z74" si="4">ROUND(C73*C72,0)</f>
         <v>34</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D74" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F74" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G74" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H74" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I74" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J74" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K74" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L74" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M74" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N74" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O74" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P73" s="5">
+      <c r="P74" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="Q74" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R73" s="5">
+      <c r="R74" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S73" s="5">
+      <c r="S74" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T73" s="5">
+      <c r="T74" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="U73" s="5">
+      <c r="U74" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="V73" s="5">
+      <c r="V74" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W73" s="5">
+      <c r="W74" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X73" s="5">
+      <c r="X74" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Y73" s="5">
+      <c r="Y74" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z73" s="5">
+      <c r="Z74" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="5">
-        <f>SUM($B$71:B71)</f>
-        <v>36</v>
-      </c>
-      <c r="C74">
-        <f>SUM($B$71:C71)</f>
-        <v>309</v>
-      </c>
-      <c r="D74" s="5">
-        <f>SUM($B$71:D71)</f>
-        <v>488</v>
-      </c>
-      <c r="E74" s="5">
-        <f>SUM($B$71:E71)</f>
-        <v>608</v>
-      </c>
-      <c r="F74" s="5">
-        <f>SUM($B$71:F71)</f>
-        <v>714</v>
-      </c>
-      <c r="G74" s="5">
-        <f>SUM($B$71:G71)</f>
-        <v>800</v>
-      </c>
-      <c r="H74" s="5">
-        <f>SUM($B$71:H71)</f>
-        <v>924</v>
-      </c>
-      <c r="I74" s="5">
-        <f>SUM($B$71:I71)</f>
-        <v>1053</v>
-      </c>
-      <c r="J74" s="5">
-        <f>SUM($B$71:J71)</f>
-        <v>1216</v>
-      </c>
-      <c r="K74" s="5">
-        <f>SUM($B$71:K71)</f>
-        <v>1378</v>
-      </c>
-      <c r="L74" s="5">
-        <f>SUM($B$71:L71)</f>
-        <v>1538</v>
-      </c>
-      <c r="M74" s="5">
-        <f>SUM($B$71:M71)</f>
-        <v>1694</v>
-      </c>
-      <c r="N74" s="5">
-        <f>SUM($B$71:N71)</f>
-        <v>1893</v>
-      </c>
-      <c r="O74" s="5">
-        <f>SUM($B$71:O71)</f>
-        <v>2222</v>
-      </c>
-      <c r="P74" s="5">
-        <f>SUM($B$71:P71)</f>
-        <v>2661</v>
-      </c>
-      <c r="Q74" s="5">
-        <f>SUM($B$71:Q71)</f>
-        <v>3007</v>
-      </c>
-      <c r="R74" s="5">
-        <f>SUM($B$71:R71)</f>
-        <v>3402</v>
-      </c>
-      <c r="S74" s="5">
-        <f>SUM($B$71:S71)</f>
-        <v>3972</v>
-      </c>
-      <c r="T74" s="5">
-        <f>SUM($B$71:T71)</f>
-        <v>4493</v>
-      </c>
-      <c r="U74" s="5">
-        <f>SUM($B$71:U71)</f>
-        <v>4953</v>
-      </c>
-      <c r="V74" s="5">
-        <f>SUM($B$71:V71)</f>
-        <v>5512</v>
-      </c>
-      <c r="W74" s="5">
-        <f>SUM($B$71:W71)</f>
-        <v>6530</v>
-      </c>
-      <c r="X74" s="5">
-        <f>SUM($B$71:X71)</f>
-        <v>7395</v>
-      </c>
-      <c r="Y74" s="5">
-        <f>SUM($B$71:Y71)</f>
-        <v>8241</v>
-      </c>
-      <c r="Z74" s="5">
-        <f>SUM($B$71:Z71)</f>
-        <v>8252</v>
       </c>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" s="5">
         <f>SUM($B$72:B72)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C75" s="5">
+        <v>36</v>
+      </c>
+      <c r="C75">
         <f>SUM($B$72:C72)</f>
-        <v>0.31900000000000001</v>
+        <v>309</v>
       </c>
       <c r="D75" s="5">
         <f>SUM($B$72:D72)</f>
-        <v>0.54200000000000004</v>
+        <v>488</v>
       </c>
       <c r="E75" s="5">
         <f>SUM($B$72:E72)</f>
-        <v>0.70900000000000007</v>
+        <v>608</v>
       </c>
       <c r="F75" s="5">
         <f>SUM($B$72:F72)</f>
-        <v>0.79400000000000004</v>
+        <v>714</v>
       </c>
       <c r="G75" s="5">
         <f>SUM($B$72:G72)</f>
-        <v>0.84100000000000008</v>
+        <v>800</v>
       </c>
       <c r="H75" s="5">
         <f>SUM($B$72:H72)</f>
-        <v>0.88100000000000012</v>
+        <v>924</v>
       </c>
       <c r="I75" s="5">
         <f>SUM($B$72:I72)</f>
-        <v>0.88900000000000012</v>
+        <v>1053</v>
       </c>
       <c r="J75" s="5">
         <f>SUM($B$72:J72)</f>
-        <v>0.91400000000000015</v>
+        <v>1216</v>
       </c>
       <c r="K75" s="5">
         <f>SUM($B$72:K72)</f>
-        <v>0.92000000000000015</v>
+        <v>1378</v>
       </c>
       <c r="L75" s="5">
         <f>SUM($B$72:L72)</f>
-        <v>0.93900000000000017</v>
+        <v>1538</v>
       </c>
       <c r="M75" s="5">
         <f>SUM($B$72:M72)</f>
-        <v>0.94500000000000017</v>
+        <v>1694</v>
       </c>
       <c r="N75" s="5">
         <f>SUM($B$72:N72)</f>
-        <v>0.95000000000000018</v>
+        <v>1893</v>
       </c>
       <c r="O75" s="5">
         <f>SUM($B$72:O72)</f>
-        <v>0.96500000000000019</v>
+        <v>2222</v>
       </c>
       <c r="P75" s="5">
         <f>SUM($B$72:P72)</f>
-        <v>1.0130000000000001</v>
+        <v>2661</v>
       </c>
       <c r="Q75" s="5">
         <f>SUM($B$72:Q72)</f>
-        <v>1.042</v>
+        <v>3007</v>
       </c>
       <c r="R75" s="5">
         <f>SUM($B$72:R72)</f>
-        <v>1.0669999999999999</v>
+        <v>3402</v>
       </c>
       <c r="S75" s="5">
         <f>SUM($B$72:S72)</f>
-        <v>1.0899999999999999</v>
+        <v>3972</v>
       </c>
       <c r="T75" s="5">
         <f>SUM($B$72:T72)</f>
-        <v>1.1209999999999998</v>
+        <v>4493</v>
       </c>
       <c r="U75" s="5">
         <f>SUM($B$72:U72)</f>
-        <v>1.1669999999999998</v>
+        <v>4953</v>
       </c>
       <c r="V75" s="5">
         <f>SUM($B$72:V72)</f>
-        <v>1.2059999999999997</v>
+        <v>5512</v>
       </c>
       <c r="W75" s="5">
         <f>SUM($B$72:W72)</f>
-        <v>1.2219999999999998</v>
+        <v>6530</v>
       </c>
       <c r="X75" s="5">
         <f>SUM($B$72:X72)</f>
-        <v>1.2319999999999998</v>
+        <v>7395</v>
       </c>
       <c r="Y75" s="5">
         <f>SUM($B$72:Y72)</f>
-        <v>1.2409999999999997</v>
+        <v>8241</v>
       </c>
       <c r="Z75" s="5">
         <f>SUM($B$72:Z72)</f>
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="5">
+        <f>SUM($B$73:B73)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C76" s="5">
+        <f>SUM($B$73:C73)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D76" s="5">
+        <f>SUM($B$73:D73)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E76" s="5">
+        <f>SUM($B$73:E73)</f>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F76" s="5">
+        <f>SUM($B$73:F73)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G76" s="5">
+        <f>SUM($B$73:G73)</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H76" s="5">
+        <f>SUM($B$73:H73)</f>
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="I76" s="5">
+        <f>SUM($B$73:I73)</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="J76" s="5">
+        <f>SUM($B$73:J73)</f>
+        <v>0.91400000000000015</v>
+      </c>
+      <c r="K76" s="5">
+        <f>SUM($B$73:K73)</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="L76" s="5">
+        <f>SUM($B$73:L73)</f>
+        <v>0.93900000000000017</v>
+      </c>
+      <c r="M76" s="5">
+        <f>SUM($B$73:M73)</f>
+        <v>0.94500000000000017</v>
+      </c>
+      <c r="N76" s="5">
+        <f>SUM($B$73:N73)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="O76" s="5">
+        <f>SUM($B$73:O73)</f>
+        <v>0.96500000000000019</v>
+      </c>
+      <c r="P76" s="5">
+        <f>SUM($B$73:P73)</f>
+        <v>1.0130000000000001</v>
+      </c>
+      <c r="Q76" s="5">
+        <f>SUM($B$73:Q73)</f>
+        <v>1.042</v>
+      </c>
+      <c r="R76" s="5">
+        <f>SUM($B$73:R73)</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="S76" s="5">
+        <f>SUM($B$73:S73)</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T76" s="5">
+        <f>SUM($B$73:T73)</f>
+        <v>1.1209999999999998</v>
+      </c>
+      <c r="U76" s="5">
+        <f>SUM($B$73:U73)</f>
+        <v>1.1669999999999998</v>
+      </c>
+      <c r="V76" s="5">
+        <f>SUM($B$73:V73)</f>
+        <v>1.2059999999999997</v>
+      </c>
+      <c r="W76" s="5">
+        <f>SUM($B$73:W73)</f>
+        <v>1.2219999999999998</v>
+      </c>
+      <c r="X76" s="5">
+        <f>SUM($B$73:X73)</f>
+        <v>1.2319999999999998</v>
+      </c>
+      <c r="Y76" s="5">
+        <f>SUM($B$73:Y73)</f>
         <v>1.2409999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="Z76" s="5">
+        <f>SUM($B$73:Z73)</f>
+        <v>1.2409999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B78" s="3">
         <v>43989</v>
       </c>
-      <c r="C77" s="3">
-        <f>B77+7</f>
+      <c r="C78" s="3">
+        <f>B78+7</f>
         <v>43996</v>
       </c>
-      <c r="D77" s="3">
-        <f>C77+7</f>
+      <c r="D78" s="3">
+        <f>C78+7</f>
         <v>44003</v>
       </c>
-      <c r="E77" s="3">
-        <f>D77+7</f>
+      <c r="E78" s="3">
+        <f>D78+7</f>
         <v>44010</v>
       </c>
-      <c r="F77" s="3">
-        <f>E77+7</f>
+      <c r="F78" s="3">
+        <f>E78+7</f>
         <v>44017</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="3">
         <v>44031</v>
       </c>
-      <c r="H77" s="3">
-        <f t="shared" ref="H77:K77" si="5">G77+7</f>
+      <c r="H78" s="3">
+        <f t="shared" ref="H78:K78" si="5">G78+7</f>
         <v>44038</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I78" s="3">
         <f t="shared" si="5"/>
         <v>44045</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J78" s="3">
         <f t="shared" si="5"/>
         <v>44052</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K78" s="3">
         <f t="shared" si="5"/>
         <v>44059</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-      <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
-      <c r="AJ77" s="3"/>
-      <c r="AK77" s="3"/>
-      <c r="AL77" s="3"/>
-      <c r="AM77" s="3"/>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
-      <c r="AP77" s="3"/>
-      <c r="AQ77" s="3"/>
-      <c r="AR77" s="3"/>
-      <c r="AS77" s="3"/>
-      <c r="AT77" s="3"/>
-      <c r="AU77" s="3"/>
-      <c r="AV77" s="3"/>
-      <c r="AW77" s="3"/>
-      <c r="AX77" s="3"/>
-      <c r="AY77" s="3"/>
-      <c r="AZ77" s="3"/>
-      <c r="BA77" s="3"/>
-      <c r="BB77" s="3"/>
-      <c r="BC77" s="3"/>
-      <c r="BD77" s="3"/>
-      <c r="BE77" s="3"/>
-      <c r="BF77" s="3"/>
-      <c r="BG77" s="3"/>
-      <c r="BH77" s="3"/>
-      <c r="BI77" s="3"/>
-      <c r="BJ77" s="3"/>
-      <c r="BK77" s="3"/>
-      <c r="BL77" s="3"/>
-      <c r="BM77" s="3"/>
-      <c r="BN77" s="3"/>
-      <c r="BO77" s="3"/>
-      <c r="BP77" s="3"/>
-      <c r="BQ77" s="3"/>
-      <c r="BR77" s="3"/>
-      <c r="BS77" s="3"/>
-      <c r="BT77" s="3"/>
-      <c r="BU77" s="3"/>
-      <c r="BV77" s="3"/>
-      <c r="BW77" s="3"/>
-      <c r="BX77" s="3"/>
-      <c r="BY77" s="3"/>
-      <c r="BZ77" s="3"/>
-      <c r="CA77" s="3"/>
-      <c r="CB77" s="3"/>
-      <c r="CC77" s="3"/>
-      <c r="CD77" s="3"/>
-      <c r="CE77" s="3"/>
-      <c r="CF77" s="3"/>
-      <c r="CG77" s="3"/>
-      <c r="CH77" s="3"/>
-      <c r="CI77" s="3"/>
-      <c r="CJ77" s="3"/>
-      <c r="CK77" s="3"/>
-      <c r="CL77" s="3"/>
-      <c r="CM77" s="3"/>
-      <c r="CN77" s="3"/>
-      <c r="CO77" s="3"/>
-      <c r="CP77" s="3"/>
-      <c r="CQ77" s="3"/>
-    </row>
-    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78">
-        <v>85</v>
-      </c>
-      <c r="C78">
-        <v>168</v>
-      </c>
-      <c r="D78">
-        <v>51</v>
-      </c>
-      <c r="E78">
-        <v>42</v>
-      </c>
-      <c r="F78">
-        <v>46</v>
-      </c>
-      <c r="G78">
-        <v>82</v>
-      </c>
-      <c r="H78">
-        <v>319</v>
-      </c>
-      <c r="I78">
-        <v>78</v>
-      </c>
-      <c r="J78">
-        <v>210</v>
-      </c>
-      <c r="K78">
-        <v>222</v>
-      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3"/>
+      <c r="AY78" s="3"/>
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="3"/>
+      <c r="BD78" s="3"/>
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3"/>
+      <c r="BH78" s="3"/>
+      <c r="BI78" s="3"/>
+      <c r="BJ78" s="3"/>
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
+      <c r="BO78" s="3"/>
+      <c r="BP78" s="3"/>
+      <c r="BQ78" s="3"/>
+      <c r="BR78" s="3"/>
+      <c r="BS78" s="3"/>
+      <c r="BT78" s="3"/>
+      <c r="BU78" s="3"/>
+      <c r="BV78" s="3"/>
+      <c r="BW78" s="3"/>
+      <c r="BX78" s="3"/>
+      <c r="BY78" s="3"/>
+      <c r="BZ78" s="3"/>
+      <c r="CA78" s="3"/>
+      <c r="CB78" s="3"/>
+      <c r="CC78" s="3"/>
+      <c r="CD78" s="3"/>
+      <c r="CE78" s="3"/>
+      <c r="CF78" s="3"/>
+      <c r="CG78" s="3"/>
+      <c r="CH78" s="3"/>
+      <c r="CI78" s="3"/>
+      <c r="CJ78" s="3"/>
+      <c r="CK78" s="3"/>
+      <c r="CL78" s="3"/>
+      <c r="CM78" s="3"/>
+      <c r="CN78" s="3"/>
+      <c r="CO78" s="3"/>
+      <c r="CP78" s="3"/>
+      <c r="CQ78" s="3"/>
     </row>
     <row r="79" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="5">
-        <f>SUM($B78:B78)</f>
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
       <c r="C80">
-        <f>SUM($B78:C78)</f>
-        <v>253</v>
-      </c>
-      <c r="D80" s="5">
-        <f>SUM($B78:D78)</f>
-        <v>304</v>
-      </c>
-      <c r="E80" s="5">
-        <f>SUM($B78:E78)</f>
-        <v>346</v>
-      </c>
-      <c r="F80" s="5">
-        <f>SUM($B78:F78)</f>
-        <v>392</v>
-      </c>
-      <c r="G80" s="5">
-        <f>SUM($B78:G78)</f>
-        <v>474</v>
-      </c>
-      <c r="H80" s="5">
-        <f>SUM($B78:H78)</f>
-        <v>793</v>
-      </c>
-      <c r="I80" s="5">
-        <f>SUM($B78:I78)</f>
-        <v>871</v>
-      </c>
-      <c r="J80" s="5">
-        <f>SUM($B78:J78)</f>
-        <v>1081</v>
-      </c>
-      <c r="K80" s="5">
-        <f>SUM($B78:K78)</f>
-        <v>1303</v>
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" s="5">
         <f>SUM($B79:B79)</f>
-        <v>3</v>
-      </c>
-      <c r="C81" s="5">
+        <v>85</v>
+      </c>
+      <c r="C81">
         <f>SUM($B79:C79)</f>
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D81" s="5">
         <f>SUM($B79:D79)</f>
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="E81" s="5">
         <f>SUM($B79:E79)</f>
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="F81" s="5">
         <f>SUM($B79:F79)</f>
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="G81" s="5">
         <f>SUM($B79:G79)</f>
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="H81" s="5">
         <f>SUM($B79:H79)</f>
-        <v>21</v>
+        <v>793</v>
       </c>
       <c r="I81" s="5">
         <f>SUM($B79:I79)</f>
-        <v>21</v>
+        <v>871</v>
       </c>
       <c r="J81" s="5">
         <f>SUM($B79:J79)</f>
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="K81" s="5">
         <f>SUM($B79:K79)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="5">
+        <f>SUM($B80:B80)</f>
+        <v>3</v>
+      </c>
+      <c r="C82" s="5">
+        <f>SUM($B80:C80)</f>
+        <v>17</v>
+      </c>
+      <c r="D82" s="5">
+        <f>SUM($B80:D80)</f>
+        <v>20</v>
+      </c>
+      <c r="E82" s="5">
+        <f>SUM($B80:E80)</f>
+        <v>20</v>
+      </c>
+      <c r="F82" s="5">
+        <f>SUM($B80:F80)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="G82" s="5">
+        <f>SUM($B80:G80)</f>
+        <v>21</v>
+      </c>
+      <c r="H82" s="5">
+        <f>SUM($B80:H80)</f>
+        <v>21</v>
+      </c>
+      <c r="I82" s="5">
+        <f>SUM($B80:I80)</f>
+        <v>21</v>
+      </c>
+      <c r="J82" s="5">
+        <f>SUM($B80:J80)</f>
+        <v>21</v>
+      </c>
+      <c r="K82" s="5">
+        <f>SUM($B80:K80)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B84" s="3">
         <v>44052</v>
       </c>
-      <c r="C83" s="3">
-        <f>B83+1</f>
+      <c r="C84" s="3">
+        <f>B84+1</f>
         <v>44053</v>
       </c>
-      <c r="D83" s="3">
-        <f t="shared" ref="D83:P83" si="6">C83+1</f>
+      <c r="D84" s="3">
+        <f t="shared" ref="D84:P84" si="6">C84+1</f>
         <v>44054</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="3">
         <f t="shared" si="6"/>
         <v>44055</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <f t="shared" si="6"/>
         <v>44056</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="3">
         <f t="shared" si="6"/>
         <v>44057</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H84" s="3">
         <f t="shared" si="6"/>
         <v>44058</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I84" s="3">
         <f t="shared" si="6"/>
         <v>44059</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J84" s="3">
         <f t="shared" si="6"/>
         <v>44060</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K84" s="3">
         <f t="shared" si="6"/>
         <v>44061</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L84" s="3">
         <f t="shared" si="6"/>
         <v>44062</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M84" s="3">
         <f t="shared" si="6"/>
         <v>44063</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N84" s="3">
         <f t="shared" si="6"/>
         <v>44064</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O84" s="3">
         <f t="shared" si="6"/>
         <v>44065</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P84" s="3">
         <f t="shared" si="6"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84">
-        <v>487.5</v>
-      </c>
-      <c r="C84">
-        <v>487.5</v>
-      </c>
-      <c r="D84">
-        <v>487.5</v>
-      </c>
-      <c r="E84">
-        <v>487.5</v>
-      </c>
-      <c r="F84">
-        <v>487.5</v>
-      </c>
-      <c r="G84">
-        <v>487.5</v>
-      </c>
-      <c r="H84">
-        <v>450</v>
-      </c>
-      <c r="I84">
-        <v>675</v>
-      </c>
-      <c r="J84">
-        <v>900</v>
-      </c>
-      <c r="K84">
-        <v>900</v>
-      </c>
-      <c r="L84">
-        <v>675</v>
-      </c>
-      <c r="M84">
-        <v>1125</v>
-      </c>
-      <c r="N84">
-        <v>1800</v>
-      </c>
-      <c r="O84">
-        <v>1350</v>
-      </c>
-      <c r="P84">
-        <v>225</v>
-      </c>
-    </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>487.5</v>
+      </c>
+      <c r="C85">
+        <v>487.5</v>
+      </c>
+      <c r="D85">
+        <v>487.5</v>
+      </c>
+      <c r="E85">
+        <v>487.5</v>
+      </c>
+      <c r="F85">
+        <v>487.5</v>
+      </c>
+      <c r="G85">
+        <v>487.5</v>
+      </c>
+      <c r="H85">
+        <v>450</v>
+      </c>
+      <c r="I85">
+        <v>675</v>
+      </c>
+      <c r="J85">
+        <v>900</v>
+      </c>
+      <c r="K85">
+        <v>900</v>
+      </c>
+      <c r="L85">
+        <v>675</v>
+      </c>
+      <c r="M85">
+        <v>1125</v>
+      </c>
+      <c r="N85">
+        <v>1800</v>
+      </c>
+      <c r="O85">
+        <v>1350</v>
+      </c>
+      <c r="P85">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B85">
-        <f t="shared" ref="B85:G85" si="7">16/6</f>
+      <c r="B86">
+        <f t="shared" ref="B86:G86" si="7">16/6</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C86" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H85">
+      <c r="H86">
         <v>1</v>
       </c>
-      <c r="I85">
+      <c r="I86">
         <v>2</v>
       </c>
-      <c r="J85">
+      <c r="J86">
         <v>2</v>
       </c>
-      <c r="K85">
+      <c r="K86">
         <v>3</v>
       </c>
-      <c r="L85">
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="M85">
+      <c r="M86">
         <v>30</v>
       </c>
-      <c r="N85">
+      <c r="N86">
         <v>30</v>
       </c>
-      <c r="O85">
+      <c r="O86">
         <v>39</v>
       </c>
-      <c r="P85">
+      <c r="P86">
         <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="5">
-        <f>SUM($B$84:B84)</f>
-        <v>487.5</v>
-      </c>
-      <c r="C86">
-        <f>SUM($B$84:C84)</f>
-        <v>975</v>
-      </c>
-      <c r="D86" s="5">
-        <f>SUM($B$84:D84)</f>
-        <v>1462.5</v>
-      </c>
-      <c r="E86" s="5">
-        <f>SUM($B$84:E84)</f>
-        <v>1950</v>
-      </c>
-      <c r="F86" s="5">
-        <f>SUM($B$84:F84)</f>
-        <v>2437.5</v>
-      </c>
-      <c r="G86" s="5">
-        <f>SUM($B$84:G84)</f>
-        <v>2925</v>
-      </c>
-      <c r="H86" s="5">
-        <f>SUM($B$84:H84)</f>
-        <v>3375</v>
-      </c>
-      <c r="I86" s="5">
-        <f>SUM($B$84:I84)</f>
-        <v>4050</v>
-      </c>
-      <c r="J86" s="5">
-        <f>SUM($B$84:J84)</f>
-        <v>4950</v>
-      </c>
-      <c r="K86" s="5">
-        <f>SUM($B$84:K84)</f>
-        <v>5850</v>
-      </c>
-      <c r="L86" s="5">
-        <f>SUM($B$84:L84)</f>
-        <v>6525</v>
-      </c>
-      <c r="M86" s="5">
-        <f>SUM($B$84:M84)</f>
-        <v>7650</v>
-      </c>
-      <c r="N86" s="5">
-        <f>SUM($B$84:N84)</f>
-        <v>9450</v>
-      </c>
-      <c r="O86" s="5">
-        <f>SUM($B$84:O84)</f>
-        <v>10800</v>
-      </c>
-      <c r="P86" s="5">
-        <f>SUM($B$84:P84)</f>
-        <v>11025</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" s="5">
         <f>SUM($B$85:B85)</f>
-        <v>2.6666666666666665</v>
+        <v>487.5</v>
       </c>
       <c r="C87">
         <f>SUM($B$85:C85)</f>
-        <v>5.333333333333333</v>
+        <v>975</v>
       </c>
       <c r="D87" s="5">
         <f>SUM($B$85:D85)</f>
-        <v>8</v>
+        <v>1462.5</v>
       </c>
       <c r="E87" s="5">
         <f>SUM($B$85:E85)</f>
-        <v>10.666666666666666</v>
+        <v>1950</v>
       </c>
       <c r="F87" s="5">
         <f>SUM($B$85:F85)</f>
-        <v>13.333333333333332</v>
+        <v>2437.5</v>
       </c>
       <c r="G87" s="5">
         <f>SUM($B$85:G85)</f>
-        <v>15.999999999999998</v>
+        <v>2925</v>
       </c>
       <c r="H87" s="5">
         <f>SUM($B$85:H85)</f>
-        <v>17</v>
+        <v>3375</v>
       </c>
       <c r="I87" s="5">
         <f>SUM($B$85:I85)</f>
-        <v>19</v>
+        <v>4050</v>
       </c>
       <c r="J87" s="5">
         <f>SUM($B$85:J85)</f>
-        <v>21</v>
+        <v>4950</v>
       </c>
       <c r="K87" s="5">
         <f>SUM($B$85:K85)</f>
-        <v>24</v>
+        <v>5850</v>
       </c>
       <c r="L87" s="5">
         <f>SUM($B$85:L85)</f>
-        <v>28</v>
+        <v>6525</v>
       </c>
       <c r="M87" s="5">
         <f>SUM($B$85:M85)</f>
-        <v>58</v>
+        <v>7650</v>
       </c>
       <c r="N87" s="5">
         <f>SUM($B$85:N85)</f>
-        <v>88</v>
+        <v>9450</v>
       </c>
       <c r="O87" s="5">
         <f>SUM($B$85:O85)</f>
-        <v>127</v>
+        <v>10800</v>
       </c>
       <c r="P87" s="5">
         <f>SUM($B$85:P85)</f>
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="5">
+        <f>SUM($B$86:B86)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C88">
+        <f>SUM($B$86:C86)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D88" s="5">
+        <f>SUM($B$86:D86)</f>
+        <v>8</v>
+      </c>
+      <c r="E88" s="5">
+        <f>SUM($B$86:E86)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F88" s="5">
+        <f>SUM($B$86:F86)</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="G88" s="5">
+        <f>SUM($B$86:G86)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="H88" s="5">
+        <f>SUM($B$86:H86)</f>
+        <v>17</v>
+      </c>
+      <c r="I88" s="5">
+        <f>SUM($B$86:I86)</f>
+        <v>19</v>
+      </c>
+      <c r="J88" s="5">
+        <f>SUM($B$86:J86)</f>
+        <v>21</v>
+      </c>
+      <c r="K88" s="5">
+        <f>SUM($B$86:K86)</f>
+        <v>24</v>
+      </c>
+      <c r="L88" s="5">
+        <f>SUM($B$86:L86)</f>
+        <v>28</v>
+      </c>
+      <c r="M88" s="5">
+        <f>SUM($B$86:M86)</f>
+        <v>58</v>
+      </c>
+      <c r="N88" s="5">
+        <f>SUM($B$86:N86)</f>
+        <v>88</v>
+      </c>
+      <c r="O88" s="5">
+        <f>SUM($B$86:O86)</f>
+        <v>127</v>
+      </c>
+      <c r="P88" s="5">
+        <f>SUM($B$86:P86)</f>
         <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90">
-        <v>5333</v>
+        <v>40</v>
+      </c>
+      <c r="B90" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="3">
-        <v>44045</v>
-      </c>
-      <c r="C93" s="3">
-        <f>B93+1</f>
-        <v>44046</v>
-      </c>
-      <c r="D93" s="3">
-        <f>C93+1</f>
-        <v>44047</v>
-      </c>
-      <c r="E93" s="3">
-        <f>D93+1</f>
-        <v>44048</v>
-      </c>
-      <c r="F93" s="3">
-        <f>E93+1</f>
-        <v>44049</v>
-      </c>
-      <c r="G93" s="3">
-        <f>F93+1</f>
-        <v>44050</v>
-      </c>
-      <c r="H93" s="3">
-        <f>G93+1</f>
-        <v>44051</v>
-      </c>
-      <c r="I93" s="3">
-        <f>H93+1</f>
-        <v>44052</v>
-      </c>
-      <c r="J93" s="3">
-        <f>I93+1</f>
-        <v>44053</v>
-      </c>
-      <c r="K93" s="3">
-        <f>J93+1</f>
-        <v>44054</v>
-      </c>
-      <c r="L93" s="3">
-        <f>K93+1</f>
-        <v>44055</v>
-      </c>
-      <c r="M93" s="3">
-        <f>L93+1</f>
-        <v>44056</v>
-      </c>
-      <c r="N93" s="3">
-        <f>M93+1</f>
-        <v>44057</v>
-      </c>
-      <c r="O93" s="3">
-        <f>N93+1</f>
-        <v>44058</v>
-      </c>
-      <c r="P93" s="3">
-        <f>O93+1</f>
-        <v>44059</v>
-      </c>
-      <c r="Q93" s="3">
-        <f>P93+1</f>
-        <v>44060</v>
-      </c>
-      <c r="R93" s="3">
-        <f>Q93+1</f>
-        <v>44061</v>
-      </c>
-      <c r="S93" s="3">
-        <f>R93+1</f>
-        <v>44062</v>
-      </c>
-      <c r="T93" s="3">
-        <f>S93+1</f>
-        <v>44063</v>
-      </c>
-      <c r="U93" s="3">
-        <f>T93+1</f>
-        <v>44064</v>
-      </c>
-      <c r="V93" s="3">
-        <f>U93+1</f>
-        <v>44065</v>
-      </c>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="3">
+        <v>44045</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" ref="C94:V94" si="8">B94+1</f>
+        <v>44046</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="8"/>
+        <v>44047</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="8"/>
+        <v>44048</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="8"/>
+        <v>44049</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="8"/>
+        <v>44050</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="8"/>
+        <v>44051</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="8"/>
+        <v>44053</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="8"/>
+        <v>44054</v>
+      </c>
+      <c r="L94" s="3">
+        <f t="shared" si="8"/>
+        <v>44055</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="8"/>
+        <v>44056</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="8"/>
+        <v>44057</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="8"/>
+        <v>44058</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="8"/>
+        <v>44059</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="8"/>
+        <v>44060</v>
+      </c>
+      <c r="R94" s="3">
+        <f t="shared" si="8"/>
+        <v>44061</v>
+      </c>
+      <c r="S94" s="3">
+        <f t="shared" si="8"/>
+        <v>44062</v>
+      </c>
+      <c r="T94" s="3">
+        <f t="shared" si="8"/>
+        <v>44063</v>
+      </c>
+      <c r="U94" s="3">
+        <f t="shared" si="8"/>
+        <v>44064</v>
+      </c>
+      <c r="V94" s="3">
+        <f t="shared" si="8"/>
+        <v>44065</v>
+      </c>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H94">
+      <c r="H95">
         <f>341+101</f>
         <v>442</v>
       </c>
-      <c r="O94">
+      <c r="O95">
         <f>101+128</f>
         <v>229</v>
       </c>
-      <c r="V94">
+      <c r="V95">
         <f>79+48</f>
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="C95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="D95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="E95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="F95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="G95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="H95" s="5">
-        <f>$H$94/7</f>
-        <v>63.142857142857146</v>
-      </c>
-      <c r="I95">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="J95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="K95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="L95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="M95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="N95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="O95" s="5">
-        <f>$O$94/7</f>
-        <v>32.714285714285715</v>
-      </c>
-      <c r="P95">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="Q95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="R95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="S95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="T95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="U95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-      <c r="V95" s="5">
-        <f>$V$94/7</f>
-        <v>18.142857142857142</v>
-      </c>
-    </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
+        <f t="shared" ref="B96:H96" si="9">$H$95/7</f>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="C96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="G96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="H96" s="5">
+        <f t="shared" si="9"/>
+        <v>63.142857142857146</v>
       </c>
       <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>2</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
+        <f t="shared" ref="I96:O96" si="10">$O$95/7</f>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="J96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="K96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="L96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="N96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="10"/>
+        <v>32.714285714285715</v>
       </c>
       <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>1</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
+        <f t="shared" ref="P96:V96" si="11">$V$95/7</f>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="Q96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="R96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="S96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="T96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="U96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+      <c r="V96" s="5">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="5">
-        <f>SUM($B$95:B95)</f>
-        <v>63.142857142857146</v>
+        <v>21</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97">
-        <f>SUM($B$95:C95)</f>
-        <v>126.28571428571429</v>
-      </c>
-      <c r="D97" s="5">
-        <f>SUM($B$95:D95)</f>
-        <v>189.42857142857144</v>
-      </c>
-      <c r="E97" s="5">
-        <f>SUM($B$95:E95)</f>
-        <v>252.57142857142858</v>
-      </c>
-      <c r="F97" s="5">
-        <f>SUM($B$95:F95)</f>
-        <v>315.71428571428572</v>
-      </c>
-      <c r="G97" s="5">
-        <f>SUM($B$95:G95)</f>
-        <v>378.85714285714289</v>
-      </c>
-      <c r="H97" s="5">
-        <f>SUM($B$95:H95)</f>
-        <v>442.00000000000006</v>
-      </c>
-      <c r="I97" s="5">
-        <f>SUM($B$95:I95)</f>
-        <v>474.71428571428578</v>
-      </c>
-      <c r="J97" s="5">
-        <f>SUM($B$95:J95)</f>
-        <v>507.4285714285715</v>
-      </c>
-      <c r="K97" s="5">
-        <f>SUM($B$95:K95)</f>
-        <v>540.14285714285722</v>
-      </c>
-      <c r="L97" s="5">
-        <f>SUM($B$95:L95)</f>
-        <v>572.85714285714289</v>
-      </c>
-      <c r="M97" s="5">
-        <f>SUM($B$95:M95)</f>
-        <v>605.57142857142856</v>
-      </c>
-      <c r="N97" s="5">
-        <f>SUM($B$95:N95)</f>
-        <v>638.28571428571422</v>
-      </c>
-      <c r="O97" s="5">
-        <f>SUM($B$95:O95)</f>
-        <v>670.99999999999989</v>
-      </c>
-      <c r="P97" s="5">
-        <f>SUM($B$95:P95)</f>
-        <v>689.142857142857</v>
-      </c>
-      <c r="Q97" s="5">
-        <f>SUM($B$95:Q95)</f>
-        <v>707.28571428571411</v>
-      </c>
-      <c r="R97" s="5">
-        <f>SUM($B$95:R95)</f>
-        <v>725.42857142857122</v>
-      </c>
-      <c r="S97" s="5">
-        <f>SUM($B$95:S95)</f>
-        <v>743.57142857142833</v>
-      </c>
-      <c r="T97" s="5">
-        <f>SUM($B$95:T95)</f>
-        <v>761.71428571428544</v>
-      </c>
-      <c r="U97" s="5">
-        <f>SUM($B$95:U95)</f>
-        <v>779.85714285714255</v>
-      </c>
-      <c r="V97" s="5">
-        <f>SUM($B$95:V95)</f>
-        <v>797.99999999999966</v>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="5">
         <f>SUM($B$96:B96)</f>
-        <v>0</v>
+        <v>63.142857142857146</v>
       </c>
       <c r="C98">
         <f>SUM($B$96:C96)</f>
-        <v>1</v>
+        <v>126.28571428571429</v>
       </c>
       <c r="D98" s="5">
         <f>SUM($B$96:D96)</f>
-        <v>1</v>
+        <v>189.42857142857144</v>
       </c>
       <c r="E98" s="5">
         <f>SUM($B$96:E96)</f>
-        <v>1</v>
+        <v>252.57142857142858</v>
       </c>
       <c r="F98" s="5">
         <f>SUM($B$96:F96)</f>
-        <v>1</v>
+        <v>315.71428571428572</v>
       </c>
       <c r="G98" s="5">
         <f>SUM($B$96:G96)</f>
-        <v>2</v>
+        <v>378.85714285714289</v>
       </c>
       <c r="H98" s="5">
         <f>SUM($B$96:H96)</f>
-        <v>2</v>
+        <v>442.00000000000006</v>
       </c>
       <c r="I98" s="5">
         <f>SUM($B$96:I96)</f>
-        <v>3</v>
+        <v>474.71428571428578</v>
       </c>
       <c r="J98" s="5">
         <f>SUM($B$96:J96)</f>
-        <v>3</v>
+        <v>507.4285714285715</v>
       </c>
       <c r="K98" s="5">
         <f>SUM($B$96:K96)</f>
-        <v>5</v>
+        <v>540.14285714285722</v>
       </c>
       <c r="L98" s="5">
         <f>SUM($B$96:L96)</f>
-        <v>5</v>
+        <v>572.85714285714289</v>
       </c>
       <c r="M98" s="5">
         <f>SUM($B$96:M96)</f>
-        <v>5</v>
+        <v>605.57142857142856</v>
       </c>
       <c r="N98" s="5">
         <f>SUM($B$96:N96)</f>
-        <v>5</v>
+        <v>638.28571428571422</v>
       </c>
       <c r="O98" s="5">
         <f>SUM($B$96:O96)</f>
-        <v>6</v>
+        <v>670.99999999999989</v>
       </c>
       <c r="P98" s="5">
         <f>SUM($B$96:P96)</f>
-        <v>6</v>
+        <v>689.142857142857</v>
       </c>
       <c r="Q98" s="5">
         <f>SUM($B$96:Q96)</f>
-        <v>6</v>
+        <v>707.28571428571411</v>
       </c>
       <c r="R98" s="5">
         <f>SUM($B$96:R96)</f>
-        <v>7</v>
+        <v>725.42857142857122</v>
       </c>
       <c r="S98" s="5">
         <f>SUM($B$96:S96)</f>
-        <v>7</v>
+        <v>743.57142857142833</v>
       </c>
       <c r="T98" s="5">
         <f>SUM($B$96:T96)</f>
-        <v>7</v>
+        <v>761.71428571428544</v>
       </c>
       <c r="U98" s="5">
         <f>SUM($B$96:U96)</f>
-        <v>7</v>
+        <v>779.85714285714255</v>
       </c>
       <c r="V98" s="5">
         <f>SUM($B$96:V96)</f>
+        <v>797.99999999999966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="5">
+        <f>SUM($B$97:B97)</f>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f>SUM($B$97:C97)</f>
+        <v>1</v>
+      </c>
+      <c r="D99" s="5">
+        <f>SUM($B$97:D97)</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <f>SUM($B$97:E97)</f>
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <f>SUM($B$97:F97)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="5">
+        <f>SUM($B$97:G97)</f>
+        <v>2</v>
+      </c>
+      <c r="H99" s="5">
+        <f>SUM($B$97:H97)</f>
+        <v>2</v>
+      </c>
+      <c r="I99" s="5">
+        <f>SUM($B$97:I97)</f>
+        <v>3</v>
+      </c>
+      <c r="J99" s="5">
+        <f>SUM($B$97:J97)</f>
+        <v>3</v>
+      </c>
+      <c r="K99" s="5">
+        <f>SUM($B$97:K97)</f>
+        <v>5</v>
+      </c>
+      <c r="L99" s="5">
+        <f>SUM($B$97:L97)</f>
+        <v>5</v>
+      </c>
+      <c r="M99" s="5">
+        <f>SUM($B$97:M97)</f>
+        <v>5</v>
+      </c>
+      <c r="N99" s="5">
+        <f>SUM($B$97:N97)</f>
+        <v>5</v>
+      </c>
+      <c r="O99" s="5">
+        <f>SUM($B$97:O97)</f>
+        <v>6</v>
+      </c>
+      <c r="P99" s="5">
+        <f>SUM($B$97:P97)</f>
+        <v>6</v>
+      </c>
+      <c r="Q99" s="5">
+        <f>SUM($B$97:Q97)</f>
+        <v>6</v>
+      </c>
+      <c r="R99" s="5">
+        <f>SUM($B$97:R97)</f>
         <v>7</v>
+      </c>
+      <c r="S99" s="5">
+        <f>SUM($B$97:S97)</f>
+        <v>7</v>
+      </c>
+      <c r="T99" s="5">
+        <f>SUM($B$97:T97)</f>
+        <v>7</v>
+      </c>
+      <c r="U99" s="5">
+        <f>SUM($B$97:U97)</f>
+        <v>7</v>
+      </c>
+      <c r="V99" s="5">
+        <f>SUM($B$97:V97)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="3">
+        <v>44054</v>
+      </c>
+      <c r="C101" s="3">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>10244</v>
+      </c>
+      <c r="C102" s="10">
+        <v>13623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>224</v>
+      </c>
+      <c r="C103">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4124,8 +4178,9 @@
     <hyperlink ref="G13" r:id="rId12" xr:uid="{CF728EDE-3809-49DF-9BA3-88CA2A358FC8}"/>
     <hyperlink ref="G14" r:id="rId13" xr:uid="{39421381-8674-4DBE-B778-3493660F7B3C}"/>
     <hyperlink ref="G15" r:id="rId14" xr:uid="{A06A454C-B5AD-4DC5-9973-C867FA993589}"/>
+    <hyperlink ref="G17" r:id="rId15" location="yale-testing-data" display="https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables - yale-testing-data" xr:uid="{8C65D6E3-9BD9-42E1-9069-B5660638BB35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AD227-9056-4F71-9843-8596C329A1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8218F00C-B07D-44FB-9089-9FE84DE2CF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables#yale-testing-data</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>https://coronavirus.rice.edu/</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ103"/>
+  <dimension ref="A1:CQ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:V110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,1232 +844,1184 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>44061</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>44062</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>44063</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>44064</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>44065</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>1566</v>
-      </c>
-      <c r="C20">
-        <v>1705</v>
-      </c>
-      <c r="D20">
-        <v>2211</v>
-      </c>
-      <c r="E20">
-        <v>2510</v>
-      </c>
-      <c r="F20">
-        <v>2510</v>
-      </c>
-      <c r="G20">
-        <v>3031</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>1566</v>
+      </c>
+      <c r="C21">
+        <v>1705</v>
+      </c>
+      <c r="D21">
+        <v>2211</v>
+      </c>
+      <c r="E21">
+        <v>2510</v>
+      </c>
+      <c r="F21">
+        <v>2510</v>
+      </c>
+      <c r="G21">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>25</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>78</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>78</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
         <v>44038</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>44045</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>44052</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>44059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>117</v>
-      </c>
-      <c r="C24">
-        <v>158</v>
-      </c>
-      <c r="D24">
-        <v>354</v>
-      </c>
-      <c r="E24">
-        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E25">
-        <v>130</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <f>SUM(B24)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <f>SUM(B24:C24)</f>
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <f>SUM(B24:D24)</f>
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <f>SUM(B24:E24)</f>
-        <v>1583</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <f>SUM(B25)</f>
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <f>SUM(B25:C25)</f>
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="D27">
         <f>SUM(B25:D25)</f>
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="E27">
         <f>SUM(B25:E25)</f>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B26)</f>
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <f>SUM(B26:C26)</f>
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f>SUM(B26:D26)</f>
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <f>SUM(B26:E26)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>44046</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>44047</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>44048</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>44049</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>44050</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>44051</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <v>44052</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="3">
         <v>44053</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="3">
         <v>44054</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K30" s="3">
         <v>44055</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" ref="L29:T29" si="0">K29+1</f>
+      <c r="L30" s="3">
+        <f t="shared" ref="L30:T30" si="0">K30+1</f>
         <v>44056</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M30" s="3">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O30" s="3">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P30" s="3">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q30" s="3">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R30" s="3">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S30" s="3">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T30" s="3">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U30" s="3">
         <v>44065</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V30" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <v>198</v>
-      </c>
-      <c r="J30">
-        <v>18</v>
-      </c>
-      <c r="K30">
-        <v>41</v>
-      </c>
-      <c r="L30">
-        <v>42</v>
-      </c>
-      <c r="M30">
-        <v>123</v>
-      </c>
-      <c r="N30">
-        <v>11</v>
-      </c>
-      <c r="O30">
-        <v>30</v>
-      </c>
-      <c r="P30">
-        <v>420</v>
-      </c>
-      <c r="Q30">
-        <v>355</v>
-      </c>
-      <c r="R30">
-        <v>493</v>
-      </c>
-      <c r="S30">
-        <v>256</v>
-      </c>
-      <c r="T30">
-        <v>202</v>
-      </c>
-      <c r="U30">
-        <v>104</v>
-      </c>
-      <c r="V30">
-        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P31">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="Q31">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="R31">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="S31">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="T31">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="U31">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="V31">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+      <c r="L32">
         <v>14</v>
       </c>
-      <c r="B32" s="5">
-        <f>SUM(B30)</f>
-        <v>3</v>
-      </c>
-      <c r="C32" s="5">
-        <f>SUM(B30:C30)</f>
-        <v>13</v>
-      </c>
-      <c r="D32" s="5">
-        <f>SUM($B$30:D30)</f>
-        <v>20</v>
-      </c>
-      <c r="E32" s="5">
-        <f>SUM($B$30:E30)</f>
-        <v>26</v>
-      </c>
-      <c r="F32" s="5">
-        <f>SUM($B$30:F30)</f>
-        <v>29</v>
-      </c>
-      <c r="G32" s="5">
-        <f>SUM($B$30:G30)</f>
-        <v>39</v>
-      </c>
-      <c r="H32" s="5">
-        <f>SUM($B$30:H30)</f>
-        <v>46</v>
-      </c>
-      <c r="I32" s="5">
-        <f>SUM($B$30:I30)</f>
-        <v>244</v>
-      </c>
-      <c r="J32" s="5">
-        <f>SUM($B$30:J30)</f>
-        <v>262</v>
-      </c>
-      <c r="K32" s="5">
-        <f>SUM($B$30:K30)</f>
-        <v>303</v>
-      </c>
-      <c r="L32" s="5">
-        <f>SUM($B$30:L30)</f>
-        <v>345</v>
-      </c>
-      <c r="M32" s="5">
-        <f>SUM($B$30:M30)</f>
-        <v>468</v>
-      </c>
-      <c r="N32" s="5">
-        <f>SUM($B$30:N30)</f>
-        <v>479</v>
-      </c>
-      <c r="O32" s="5">
-        <f>SUM($B$30:O30)</f>
-        <v>509</v>
-      </c>
-      <c r="P32" s="5">
-        <f>SUM($B$30:P30)</f>
-        <v>929</v>
-      </c>
-      <c r="Q32" s="5">
-        <f>SUM($B$30:Q30)</f>
-        <v>1284</v>
-      </c>
-      <c r="R32" s="5">
-        <f>SUM($B$30:R30)</f>
-        <v>1777</v>
-      </c>
-      <c r="S32" s="5">
-        <f>SUM($B$30:S30)</f>
-        <v>2033</v>
-      </c>
-      <c r="T32" s="5">
-        <f>SUM($B$30:T30)</f>
-        <v>2235</v>
-      </c>
-      <c r="U32" s="5">
-        <f>SUM($B$30:U30)</f>
-        <v>2339</v>
-      </c>
-      <c r="V32" s="5">
-        <f>SUM($B$30:V30)</f>
-        <v>2698</v>
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>98</v>
+      </c>
+      <c r="Q32">
+        <v>80</v>
+      </c>
+      <c r="R32">
+        <v>76</v>
+      </c>
+      <c r="S32">
+        <v>23</v>
+      </c>
+      <c r="T32">
+        <v>24</v>
+      </c>
+      <c r="U32">
+        <v>19</v>
+      </c>
+      <c r="V32">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5">
         <f>SUM(B31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="5">
-        <f>SUM($B$31:C31)</f>
-        <v>0</v>
+        <f>SUM(B31:C31)</f>
+        <v>13</v>
       </c>
       <c r="D33" s="5">
         <f>SUM($B$31:D31)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
         <f>SUM($B$31:E31)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F33" s="5">
         <f>SUM($B$31:F31)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G33" s="5">
         <f>SUM($B$31:G31)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H33" s="5">
         <f>SUM($B$31:H31)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I33" s="5">
         <f>SUM($B$31:I31)</f>
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="J33" s="5">
         <f>SUM($B$31:J31)</f>
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K33" s="5">
         <f>SUM($B$31:K31)</f>
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="L33" s="5">
         <f>SUM($B$31:L31)</f>
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="M33" s="5">
         <f>SUM($B$31:M31)</f>
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="N33" s="5">
         <f>SUM($B$31:N31)</f>
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="O33" s="5">
         <f>SUM($B$31:O31)</f>
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="P33" s="5">
         <f>SUM($B$31:P31)</f>
-        <v>169</v>
+        <v>929</v>
       </c>
       <c r="Q33" s="5">
         <f>SUM($B$31:Q31)</f>
-        <v>249</v>
+        <v>1284</v>
       </c>
       <c r="R33" s="5">
         <f>SUM($B$31:R31)</f>
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="S33" s="5">
         <f>SUM($B$31:S31)</f>
-        <v>348</v>
+        <v>2033</v>
       </c>
       <c r="T33" s="5">
         <f>SUM($B$31:T31)</f>
-        <v>372</v>
+        <v>2235</v>
       </c>
       <c r="U33" s="5">
         <f>SUM($B$31:U31)</f>
-        <v>391</v>
+        <v>2339</v>
       </c>
       <c r="V33" s="5">
         <f>SUM($B$31:V31)</f>
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5">
+        <f>SUM(B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <f>SUM($B$32:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f>SUM($B$32:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f>SUM($B$32:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <f>SUM($B$32:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <f>SUM($B$32:G32)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <f>SUM($B$32:H32)</f>
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <f>SUM($B$32:I32)</f>
+        <v>9</v>
+      </c>
+      <c r="J34" s="5">
+        <f>SUM($B$32:J32)</f>
+        <v>14</v>
+      </c>
+      <c r="K34" s="5">
+        <f>SUM($B$32:K32)</f>
+        <v>23</v>
+      </c>
+      <c r="L34" s="5">
+        <f>SUM($B$32:L32)</f>
+        <v>37</v>
+      </c>
+      <c r="M34" s="5">
+        <f>SUM($B$32:M32)</f>
+        <v>51</v>
+      </c>
+      <c r="N34" s="5">
+        <f>SUM($B$32:N32)</f>
+        <v>55</v>
+      </c>
+      <c r="O34" s="5">
+        <f>SUM($B$32:O32)</f>
+        <v>71</v>
+      </c>
+      <c r="P34" s="5">
+        <f>SUM($B$32:P32)</f>
+        <v>169</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>SUM($B$32:Q32)</f>
+        <v>249</v>
+      </c>
+      <c r="R34" s="5">
+        <f>SUM($B$32:R32)</f>
+        <v>325</v>
+      </c>
+      <c r="S34" s="5">
+        <f>SUM($B$32:S32)</f>
+        <v>348</v>
+      </c>
+      <c r="T34" s="5">
+        <f>SUM($B$32:T32)</f>
+        <v>372</v>
+      </c>
+      <c r="U34" s="5">
+        <f>SUM($B$32:U32)</f>
+        <v>391</v>
+      </c>
+      <c r="V34" s="5">
+        <f>SUM($B$32:V32)</f>
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>44056</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>44063</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>236</v>
-      </c>
-      <c r="C36">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <f>SUM(B36)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <f>SUM($B$36:C36)</f>
-        <v>319</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <f>SUM(B37)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C39">
         <f>SUM($B$37:C37)</f>
+        <v>319</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>SUM($B$38:C38)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>44044</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41:T41" si="1">B41+1</f>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:T42" si="1">B42+1</f>
         <v>44045</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="3">
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="3">
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J42" s="3">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L42" s="3">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M42" s="3">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O42" s="3">
         <f t="shared" si="1"/>
         <v>44057</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P42" s="3">
         <f t="shared" si="1"/>
         <v>44058</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q42" s="3">
         <f t="shared" si="1"/>
         <v>44059</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R42" s="3">
         <f t="shared" si="1"/>
         <v>44060</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S42" s="3">
         <f t="shared" si="1"/>
         <v>44061</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T42" s="3">
         <f t="shared" si="1"/>
         <v>44062</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U42" s="3">
         <v>44063</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V42" s="3">
         <v>44064</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W42" s="3">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>299</v>
-      </c>
-      <c r="F42">
-        <v>55</v>
-      </c>
-      <c r="G42">
-        <v>45</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>11</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>103</v>
-      </c>
-      <c r="M42">
-        <v>276</v>
-      </c>
-      <c r="N42">
-        <v>114</v>
-      </c>
-      <c r="O42">
-        <v>202</v>
-      </c>
-      <c r="P42">
-        <v>133</v>
-      </c>
-      <c r="Q42">
-        <v>98</v>
-      </c>
-      <c r="R42">
-        <v>211</v>
-      </c>
-      <c r="S42">
-        <v>213</v>
-      </c>
-      <c r="T42">
-        <v>367</v>
-      </c>
-      <c r="U42">
-        <v>257</v>
-      </c>
-      <c r="V42">
-        <v>347</v>
-      </c>
-      <c r="W42">
-        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="F43">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>45</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R43">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="U43">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="V43">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="W43">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>9</v>
+      </c>
+      <c r="V44">
         <v>14</v>
       </c>
-      <c r="B44">
-        <f>SUM(B42)</f>
+      <c r="W44">
         <v>3</v>
-      </c>
-      <c r="C44">
-        <f>SUM($B$42:C42)</f>
-        <v>20</v>
-      </c>
-      <c r="D44">
-        <f>SUM($B$42:D42)</f>
-        <v>47</v>
-      </c>
-      <c r="E44">
-        <f>SUM($B$42:E42)</f>
-        <v>346</v>
-      </c>
-      <c r="F44">
-        <f>SUM($B$42:F42)</f>
-        <v>401</v>
-      </c>
-      <c r="G44">
-        <f>SUM($B$42:G42)</f>
-        <v>446</v>
-      </c>
-      <c r="H44">
-        <f>SUM($B$42:H42)</f>
-        <v>447</v>
-      </c>
-      <c r="I44">
-        <f>SUM($B$42:I42)</f>
-        <v>447</v>
-      </c>
-      <c r="J44">
-        <f>SUM($B$42:J42)</f>
-        <v>458</v>
-      </c>
-      <c r="K44">
-        <f>SUM($B$42:K42)</f>
-        <v>458</v>
-      </c>
-      <c r="L44">
-        <f>SUM($B$42:L42)</f>
-        <v>561</v>
-      </c>
-      <c r="M44">
-        <f>SUM($B$42:M42)</f>
-        <v>837</v>
-      </c>
-      <c r="N44">
-        <f>SUM($B$42:N42)</f>
-        <v>951</v>
-      </c>
-      <c r="O44">
-        <f>SUM($B$42:O42)</f>
-        <v>1153</v>
-      </c>
-      <c r="P44">
-        <f>SUM($B$42:P42)</f>
-        <v>1286</v>
-      </c>
-      <c r="Q44">
-        <f>SUM($B$42:Q42)</f>
-        <v>1384</v>
-      </c>
-      <c r="R44">
-        <f>SUM($B$42:R42)</f>
-        <v>1595</v>
-      </c>
-      <c r="S44">
-        <f>SUM($B$42:S42)</f>
-        <v>1808</v>
-      </c>
-      <c r="T44">
-        <f>SUM($B$42:T42)</f>
-        <v>2175</v>
-      </c>
-      <c r="U44" s="5">
-        <f>SUM($B$42:U42)</f>
-        <v>2432</v>
-      </c>
-      <c r="V44" s="5">
-        <f>SUM($B$42:V42)</f>
-        <v>2779</v>
-      </c>
-      <c r="W44" s="5">
-        <f>SUM($B$42:W42)</f>
-        <v>2947</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <f>SUM(B43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <f>SUM($B$43:C43)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D45">
         <f>SUM($B$43:D43)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E45">
         <f>SUM($B$43:E43)</f>
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F45">
         <f>SUM($B$43:F43)</f>
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="G45">
         <f>SUM($B$43:G43)</f>
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="H45">
         <f>SUM($B$43:H43)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="I45">
         <f>SUM($B$43:I43)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="J45">
         <f>SUM($B$43:J43)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="K45">
         <f>SUM($B$43:K43)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="L45">
         <f>SUM($B$43:L43)</f>
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M45">
         <f>SUM($B$43:M43)</f>
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="N45">
         <f>SUM($B$43:N43)</f>
-        <v>6</v>
+        <v>951</v>
       </c>
       <c r="O45">
         <f>SUM($B$43:O43)</f>
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="P45">
         <f>SUM($B$43:P43)</f>
-        <v>11</v>
+        <v>1286</v>
       </c>
       <c r="Q45">
         <f>SUM($B$43:Q43)</f>
-        <v>13</v>
+        <v>1384</v>
       </c>
       <c r="R45">
         <f>SUM($B$43:R43)</f>
-        <v>22</v>
+        <v>1595</v>
       </c>
       <c r="S45">
         <f>SUM($B$43:S43)</f>
-        <v>22</v>
+        <v>1808</v>
       </c>
       <c r="T45">
         <f>SUM($B$43:T43)</f>
-        <v>26</v>
+        <v>2175</v>
       </c>
       <c r="U45" s="5">
         <f>SUM($B$43:U43)</f>
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="V45" s="5">
         <f>SUM($B$43:V43)</f>
-        <v>49</v>
+        <v>2779</v>
       </c>
       <c r="W45" s="5">
         <f>SUM($B$43:W43)</f>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <f>SUM(B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>SUM($B$44:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>SUM($B$44:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>SUM($B$44:E44)</f>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>SUM($B$44:F44)</f>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f>SUM($B$44:G44)</f>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f>SUM($B$44:H44)</f>
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <f>SUM($B$44:I44)</f>
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <f>SUM($B$44:J44)</f>
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <f>SUM($B$44:K44)</f>
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <f>SUM($B$44:L44)</f>
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <f>SUM($B$44:M44)</f>
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <f>SUM($B$44:N44)</f>
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <f>SUM($B$44:O44)</f>
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <f>SUM($B$44:P44)</f>
+        <v>11</v>
+      </c>
+      <c r="Q46">
+        <f>SUM($B$44:Q44)</f>
+        <v>13</v>
+      </c>
+      <c r="R46">
+        <f>SUM($B$44:R44)</f>
+        <v>22</v>
+      </c>
+      <c r="S46">
+        <f>SUM($B$44:S44)</f>
+        <v>22</v>
+      </c>
+      <c r="T46">
+        <f>SUM($B$44:T44)</f>
+        <v>26</v>
+      </c>
+      <c r="U46" s="5">
+        <f>SUM($B$44:U44)</f>
+        <v>35</v>
+      </c>
+      <c r="V46" s="5">
+        <f>SUM($B$44:V44)</f>
+        <v>49</v>
+      </c>
+      <c r="W46" s="5">
+        <f>SUM($B$44:W44)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>44058</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="3">
         <v>44064</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <f>5854+516</f>
         <v>6370</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>5028</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50">
-        <f>B48</f>
-        <v>6370</v>
-      </c>
-      <c r="C50">
-        <f>SUM($B$48:C48)</f>
-        <v>11398</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <f>B49</f>
-        <v>15</v>
+        <v>6370</v>
       </c>
       <c r="C51">
         <f>SUM($B$49:C49)</f>
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <f>B50</f>
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <f>SUM($B$50:C50)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>44050</v>
       </c>
-      <c r="C53" s="3">
-        <f t="shared" ref="C53:P53" si="2">B53+1</f>
+      <c r="C54" s="3">
+        <f t="shared" ref="C54:P54" si="2">B54+1</f>
         <v>44051</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="3">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="3">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="3">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="3">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="3">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="3">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="3">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K54" s="3">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L54" s="3">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <f t="shared" si="2"/>
         <v>44061</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="3">
         <f t="shared" si="2"/>
         <v>44062</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O54" s="3">
         <f t="shared" si="2"/>
         <v>44063</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P54" s="3">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q54" s="3">
         <v>44065</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R54" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <v>210</v>
-      </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>219</v>
-      </c>
-      <c r="G54">
-        <v>48</v>
-      </c>
-      <c r="H54">
-        <v>246</v>
-      </c>
-      <c r="I54">
-        <v>578</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>645</v>
-      </c>
-      <c r="N54">
-        <v>582</v>
-      </c>
-      <c r="O54">
-        <v>831</v>
-      </c>
-      <c r="P54">
-        <v>1016</v>
-      </c>
-      <c r="Q54">
-        <v>1002</v>
-      </c>
-      <c r="R54">
-        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2072,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2093,2073 +2051,2531 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="P55">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <f>SUM(B54)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <f>SUM($B$54:C54)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <f>SUM($B$54:D54)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <f>SUM($B$54:E54)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <f>SUM($B$54:F54)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <f>SUM($B$54:G54)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <f>SUM($B$54:H54)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <f>SUM($B$54:I54)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <f>SUM($B$54:J54)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <f>SUM($B$54:K54)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <f>SUM($B$54:L54)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <f>SUM($B$54:M54)</f>
-        <v>1955</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <f>SUM($B$54:N54)</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <f>SUM($B$54:O54)</f>
-        <v>3368</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <f>SUM($B$54:P54)</f>
-        <v>4384</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <f>SUM($B$54:Q54)</f>
-        <v>5386</v>
-      </c>
-      <c r="R56" s="5">
-        <f>SUM($B$54:R54)</f>
-        <v>6053</v>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <f>SUM(B55)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C57">
         <f>SUM($B$55:C55)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D57">
         <f>SUM($B$55:D55)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E57">
         <f>SUM($B$55:E55)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F57">
         <f>SUM($B$55:F55)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G57">
         <f>SUM($B$55:G55)</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H57">
         <f>SUM($B$55:H55)</f>
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="I57">
         <f>SUM($B$55:I55)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="J57">
         <f>SUM($B$55:J55)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="K57">
         <f>SUM($B$55:K55)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="L57">
         <f>SUM($B$55:L55)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="M57">
         <f>SUM($B$55:M55)</f>
-        <v>2</v>
+        <v>1955</v>
       </c>
       <c r="N57">
         <f>SUM($B$55:N55)</f>
-        <v>2</v>
+        <v>2537</v>
       </c>
       <c r="O57">
         <f>SUM($B$55:O55)</f>
-        <v>3</v>
+        <v>3368</v>
       </c>
       <c r="P57">
         <f>SUM($B$55:P55)</f>
-        <v>5</v>
+        <v>4384</v>
       </c>
       <c r="Q57">
         <f>SUM($B$55:Q55)</f>
-        <v>5</v>
+        <v>5386</v>
       </c>
       <c r="R57" s="5">
         <f>SUM($B$55:R55)</f>
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <f>SUM(B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$56:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>SUM($B$56:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>SUM($B$56:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>SUM($B$56:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>SUM($B$56:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>SUM($B$56:H56)</f>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f>SUM($B$56:I56)</f>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f>SUM($B$56:J56)</f>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f>SUM($B$56:K56)</f>
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f>SUM($B$56:L56)</f>
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f>SUM($B$56:M56)</f>
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <f>SUM($B$56:N56)</f>
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <f>SUM($B$56:O56)</f>
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <f>SUM($B$56:P56)</f>
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <f>SUM($B$56:Q56)</f>
+        <v>5</v>
+      </c>
+      <c r="R58" s="5">
+        <f>SUM($B$56:R56)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="3">
-        <v>44049</v>
-      </c>
-      <c r="C59" s="3">
-        <v>44054</v>
-      </c>
-      <c r="D59" s="3">
-        <v>44061</v>
-      </c>
-      <c r="E59" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F59" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44054</v>
+      </c>
+      <c r="D60" s="3">
+        <v>44061</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="5">
-        <f>SUM($B$60:B60)</f>
+        <v>17</v>
+      </c>
+      <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <f>SUM($B$60:C60)</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="5">
-        <f>SUM($B$60:D60)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="5">
-        <f>SUM($B$60:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="5">
-        <f>SUM($B$60:F60)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="5">
+        <f>SUM($B$61:B61)</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>SUM($B$61:C61)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <f>SUM($B$61:D61)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <f>SUM($B$61:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <f>SUM($B$61:F61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="5">
-        <f>SUM($B$60:B61)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="5">
-        <f>SUM($B$60:C61)</f>
+      <c r="B64" s="5">
+        <f>SUM($B$61:B62)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <f>SUM($B$61:C62)</f>
         <v>3</v>
       </c>
-      <c r="D63" s="5">
-        <f>SUM($B$60:D61)</f>
+      <c r="D64" s="5">
+        <f>SUM($B$61:D62)</f>
         <v>5</v>
       </c>
-      <c r="E63" s="5">
-        <f>SUM($B$60:E61)</f>
+      <c r="E64" s="5">
+        <f>SUM($B$61:E62)</f>
         <v>10</v>
       </c>
-      <c r="F63" s="5">
-        <f>SUM($B$60:F61)</f>
+      <c r="F64" s="5">
+        <f>SUM($B$61:F62)</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="3">
-        <v>44052</v>
-      </c>
-      <c r="C65" s="3">
-        <v>44062</v>
-      </c>
-      <c r="D65" s="3">
-        <v>44063</v>
-      </c>
-      <c r="E65" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F65" s="3">
-        <v>44065</v>
-      </c>
-      <c r="G65" s="3">
-        <v>44066</v>
-      </c>
-      <c r="H65" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="66" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66">
-        <v>333</v>
-      </c>
-      <c r="C66">
-        <v>809</v>
-      </c>
-      <c r="D66">
-        <v>1408</v>
-      </c>
-      <c r="E66">
-        <v>852</v>
-      </c>
-      <c r="F66">
-        <v>763</v>
-      </c>
-      <c r="G66">
-        <v>518</v>
-      </c>
-      <c r="H66">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44062</v>
+      </c>
+      <c r="D66" s="3">
+        <v>44063</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44065</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44066</v>
+      </c>
+      <c r="H66" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1408</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>763</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="5">
-        <f>SUM($B$66:B66)</f>
-        <v>333</v>
-      </c>
-      <c r="C68" s="5">
-        <f>SUM($B$66:C66)</f>
-        <v>1142</v>
-      </c>
-      <c r="D68" s="5">
-        <f>SUM($B$66:D66)</f>
-        <v>2550</v>
-      </c>
-      <c r="E68" s="5">
-        <f>SUM($B$66:E66)</f>
-        <v>3402</v>
-      </c>
-      <c r="F68" s="5">
-        <f>SUM($B$66:F66)</f>
-        <v>4165</v>
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
       </c>
       <c r="G68">
-        <f>SUM($B$66:G66)</f>
-        <v>4683</v>
-      </c>
-      <c r="H68" s="5">
-        <f>SUM($B$66:H66)</f>
-        <v>4689</v>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" s="5">
         <f>SUM($B$67:B67)</f>
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C69" s="5">
         <f>SUM($B$67:C67)</f>
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D69" s="5">
         <f>SUM($B$67:D67)</f>
-        <v>5</v>
+        <v>2550</v>
       </c>
       <c r="E69" s="5">
         <f>SUM($B$67:E67)</f>
-        <v>5</v>
+        <v>3402</v>
       </c>
       <c r="F69" s="5">
         <f>SUM($B$67:F67)</f>
-        <v>6</v>
-      </c>
-      <c r="G69" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G69">
         <f>SUM($B$67:G67)</f>
-        <v>7</v>
+        <v>4683</v>
       </c>
       <c r="H69" s="5">
         <f>SUM($B$67:H67)</f>
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="5">
+        <f>SUM($B$68:B68)</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <f>SUM($B$68:C68)</f>
+        <v>3</v>
+      </c>
+      <c r="D70" s="5">
+        <f>SUM($B$68:D68)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" s="5">
+        <f>SUM($B$68:E68)</f>
+        <v>5</v>
+      </c>
+      <c r="F70" s="5">
+        <f>SUM($B$68:F68)</f>
+        <v>6</v>
+      </c>
+      <c r="G70" s="5">
+        <f>SUM($B$68:G68)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="H70" s="5">
+        <f>SUM($B$68:H68)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B72" s="3">
         <v>43898</v>
       </c>
-      <c r="C71" s="3">
-        <f t="shared" ref="C71:Z71" si="3">B71+7</f>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72:Z72" si="3">B72+7</f>
         <v>43905</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <f t="shared" si="3"/>
         <v>43912</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="3">
         <f t="shared" si="3"/>
         <v>43919</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="3">
         <f t="shared" si="3"/>
         <v>43926</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="3">
         <f t="shared" si="3"/>
         <v>43933</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="3">
         <f t="shared" si="3"/>
         <v>43940</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I72" s="3">
         <f t="shared" si="3"/>
         <v>43947</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J72" s="3">
         <f t="shared" si="3"/>
         <v>43954</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K72" s="3">
         <f t="shared" si="3"/>
         <v>43961</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L72" s="3">
         <f t="shared" si="3"/>
         <v>43968</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M72" s="3">
         <f t="shared" si="3"/>
         <v>43975</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N72" s="3">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O72" s="3">
         <f t="shared" si="3"/>
         <v>43989</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P72" s="3">
         <f t="shared" si="3"/>
         <v>43996</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q72" s="3">
         <f t="shared" si="3"/>
         <v>44003</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R72" s="3">
         <f t="shared" si="3"/>
         <v>44010</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S72" s="3">
         <f t="shared" si="3"/>
         <v>44017</v>
       </c>
-      <c r="T71" s="3">
+      <c r="T72" s="3">
         <f t="shared" si="3"/>
         <v>44024</v>
       </c>
-      <c r="U71" s="3">
+      <c r="U72" s="3">
         <f t="shared" si="3"/>
         <v>44031</v>
       </c>
-      <c r="V71" s="3">
+      <c r="V72" s="3">
         <f t="shared" si="3"/>
         <v>44038</v>
       </c>
-      <c r="W71" s="3">
+      <c r="W72" s="3">
         <f t="shared" si="3"/>
         <v>44045</v>
       </c>
-      <c r="X71" s="3">
+      <c r="X72" s="3">
         <f t="shared" si="3"/>
         <v>44052</v>
       </c>
-      <c r="Y71" s="3">
+      <c r="Y72" s="3">
         <f t="shared" si="3"/>
         <v>44059</v>
       </c>
-      <c r="Z71" s="3">
+      <c r="Z72" s="3">
         <f t="shared" si="3"/>
         <v>44066</v>
       </c>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-    </row>
-    <row r="72" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72">
-        <v>36</v>
-      </c>
-      <c r="C72">
-        <v>273</v>
-      </c>
-      <c r="D72">
-        <v>179</v>
-      </c>
-      <c r="E72">
-        <v>120</v>
-      </c>
-      <c r="F72">
-        <v>106</v>
-      </c>
-      <c r="G72">
-        <v>86</v>
-      </c>
-      <c r="H72">
-        <v>124</v>
-      </c>
-      <c r="I72">
-        <v>129</v>
-      </c>
-      <c r="J72">
-        <v>163</v>
-      </c>
-      <c r="K72">
-        <v>162</v>
-      </c>
-      <c r="L72">
-        <v>160</v>
-      </c>
-      <c r="M72">
-        <v>156</v>
-      </c>
-      <c r="N72">
-        <v>199</v>
-      </c>
-      <c r="O72">
-        <v>329</v>
-      </c>
-      <c r="P72">
-        <v>439</v>
-      </c>
-      <c r="Q72">
-        <v>346</v>
-      </c>
-      <c r="R72">
-        <v>395</v>
-      </c>
-      <c r="S72">
-        <v>570</v>
-      </c>
-      <c r="T72">
-        <v>521</v>
-      </c>
-      <c r="U72">
-        <v>460</v>
-      </c>
-      <c r="V72">
-        <v>559</v>
-      </c>
-      <c r="W72">
-        <v>1018</v>
-      </c>
-      <c r="X72">
-        <v>865</v>
-      </c>
-      <c r="Y72">
-        <v>846</v>
-      </c>
-      <c r="Z72">
-        <v>11</v>
-      </c>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>0.19400000000000001</v>
+        <v>36</v>
       </c>
       <c r="C73">
-        <v>0.125</v>
+        <v>273</v>
       </c>
       <c r="D73">
-        <v>0.223</v>
+        <v>179</v>
       </c>
       <c r="E73">
-        <v>0.16700000000000001</v>
+        <v>120</v>
       </c>
       <c r="F73">
-        <v>8.5000000000000006E-2</v>
+        <v>106</v>
       </c>
       <c r="G73">
-        <v>4.7E-2</v>
+        <v>86</v>
       </c>
       <c r="H73">
-        <v>0.04</v>
+        <v>124</v>
       </c>
       <c r="I73">
-        <v>8.0000000000000002E-3</v>
+        <v>129</v>
       </c>
       <c r="J73">
-        <v>2.5000000000000001E-2</v>
+        <v>163</v>
       </c>
       <c r="K73">
-        <v>6.0000000000000001E-3</v>
+        <v>162</v>
       </c>
       <c r="L73">
-        <v>1.9E-2</v>
+        <v>160</v>
       </c>
       <c r="M73">
-        <v>6.0000000000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="N73">
-        <v>5.0000000000000001E-3</v>
+        <v>199</v>
       </c>
       <c r="O73">
-        <v>1.4999999999999999E-2</v>
+        <v>329</v>
       </c>
       <c r="P73">
-        <v>4.8000000000000001E-2</v>
+        <v>439</v>
       </c>
       <c r="Q73">
-        <v>2.9000000000000001E-2</v>
+        <v>346</v>
       </c>
       <c r="R73">
-        <v>2.5000000000000001E-2</v>
+        <v>395</v>
       </c>
       <c r="S73">
-        <v>2.3E-2</v>
+        <v>570</v>
       </c>
       <c r="T73">
-        <v>3.1E-2</v>
+        <v>521</v>
       </c>
       <c r="U73">
-        <v>4.5999999999999999E-2</v>
+        <v>460</v>
       </c>
       <c r="V73">
-        <v>3.9E-2</v>
+        <v>559</v>
       </c>
       <c r="W73">
-        <v>1.6E-2</v>
+        <v>1018</v>
       </c>
       <c r="X73">
-        <v>0.01</v>
+        <v>865</v>
       </c>
       <c r="Y73">
-        <v>8.9999999999999993E-3</v>
+        <v>846</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.125</v>
+      </c>
+      <c r="D74">
+        <v>0.223</v>
+      </c>
+      <c r="E74">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F74">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G74">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.04</v>
+      </c>
+      <c r="I74">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J74">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K74">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L74">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M74">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P74">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q74">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R74">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S74">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T74">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U74">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V74">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W74">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X74">
+        <v>0.01</v>
+      </c>
+      <c r="Y74">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B74">
-        <f>ROUND(B73*B72,0)</f>
+      <c r="B75">
+        <f>ROUND(B74*B73,0)</f>
         <v>7</v>
       </c>
-      <c r="C74" s="5">
-        <f t="shared" ref="C74:Z74" si="4">ROUND(C73*C72,0)</f>
+      <c r="C75" s="5">
+        <f t="shared" ref="C75:Z75" si="4">ROUND(C74*C73,0)</f>
         <v>34</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E75" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F75" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G75" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H75" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I75" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J75" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K75" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L75" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M75" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N75" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O75" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P75" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q74" s="5">
+      <c r="Q75" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R74" s="5">
+      <c r="R75" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S74" s="5">
+      <c r="S75" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T74" s="5">
+      <c r="T75" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="U74" s="5">
+      <c r="U75" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="V74" s="5">
+      <c r="V75" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W74" s="5">
+      <c r="W75" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X74" s="5">
+      <c r="X75" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Y74" s="5">
+      <c r="Y75" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z74" s="5">
+      <c r="Z75" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="5">
-        <f>SUM($B$72:B72)</f>
-        <v>36</v>
-      </c>
-      <c r="C75">
-        <f>SUM($B$72:C72)</f>
-        <v>309</v>
-      </c>
-      <c r="D75" s="5">
-        <f>SUM($B$72:D72)</f>
-        <v>488</v>
-      </c>
-      <c r="E75" s="5">
-        <f>SUM($B$72:E72)</f>
-        <v>608</v>
-      </c>
-      <c r="F75" s="5">
-        <f>SUM($B$72:F72)</f>
-        <v>714</v>
-      </c>
-      <c r="G75" s="5">
-        <f>SUM($B$72:G72)</f>
-        <v>800</v>
-      </c>
-      <c r="H75" s="5">
-        <f>SUM($B$72:H72)</f>
-        <v>924</v>
-      </c>
-      <c r="I75" s="5">
-        <f>SUM($B$72:I72)</f>
-        <v>1053</v>
-      </c>
-      <c r="J75" s="5">
-        <f>SUM($B$72:J72)</f>
-        <v>1216</v>
-      </c>
-      <c r="K75" s="5">
-        <f>SUM($B$72:K72)</f>
-        <v>1378</v>
-      </c>
-      <c r="L75" s="5">
-        <f>SUM($B$72:L72)</f>
-        <v>1538</v>
-      </c>
-      <c r="M75" s="5">
-        <f>SUM($B$72:M72)</f>
-        <v>1694</v>
-      </c>
-      <c r="N75" s="5">
-        <f>SUM($B$72:N72)</f>
-        <v>1893</v>
-      </c>
-      <c r="O75" s="5">
-        <f>SUM($B$72:O72)</f>
-        <v>2222</v>
-      </c>
-      <c r="P75" s="5">
-        <f>SUM($B$72:P72)</f>
-        <v>2661</v>
-      </c>
-      <c r="Q75" s="5">
-        <f>SUM($B$72:Q72)</f>
-        <v>3007</v>
-      </c>
-      <c r="R75" s="5">
-        <f>SUM($B$72:R72)</f>
-        <v>3402</v>
-      </c>
-      <c r="S75" s="5">
-        <f>SUM($B$72:S72)</f>
-        <v>3972</v>
-      </c>
-      <c r="T75" s="5">
-        <f>SUM($B$72:T72)</f>
-        <v>4493</v>
-      </c>
-      <c r="U75" s="5">
-        <f>SUM($B$72:U72)</f>
-        <v>4953</v>
-      </c>
-      <c r="V75" s="5">
-        <f>SUM($B$72:V72)</f>
-        <v>5512</v>
-      </c>
-      <c r="W75" s="5">
-        <f>SUM($B$72:W72)</f>
-        <v>6530</v>
-      </c>
-      <c r="X75" s="5">
-        <f>SUM($B$72:X72)</f>
-        <v>7395</v>
-      </c>
-      <c r="Y75" s="5">
-        <f>SUM($B$72:Y72)</f>
-        <v>8241</v>
-      </c>
-      <c r="Z75" s="5">
-        <f>SUM($B$72:Z72)</f>
-        <v>8252</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="5">
         <f>SUM($B$73:B73)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C76" s="5">
+        <v>36</v>
+      </c>
+      <c r="C76">
         <f>SUM($B$73:C73)</f>
-        <v>0.31900000000000001</v>
+        <v>309</v>
       </c>
       <c r="D76" s="5">
         <f>SUM($B$73:D73)</f>
-        <v>0.54200000000000004</v>
+        <v>488</v>
       </c>
       <c r="E76" s="5">
         <f>SUM($B$73:E73)</f>
-        <v>0.70900000000000007</v>
+        <v>608</v>
       </c>
       <c r="F76" s="5">
         <f>SUM($B$73:F73)</f>
-        <v>0.79400000000000004</v>
+        <v>714</v>
       </c>
       <c r="G76" s="5">
         <f>SUM($B$73:G73)</f>
-        <v>0.84100000000000008</v>
+        <v>800</v>
       </c>
       <c r="H76" s="5">
         <f>SUM($B$73:H73)</f>
-        <v>0.88100000000000012</v>
+        <v>924</v>
       </c>
       <c r="I76" s="5">
         <f>SUM($B$73:I73)</f>
-        <v>0.88900000000000012</v>
+        <v>1053</v>
       </c>
       <c r="J76" s="5">
         <f>SUM($B$73:J73)</f>
-        <v>0.91400000000000015</v>
+        <v>1216</v>
       </c>
       <c r="K76" s="5">
         <f>SUM($B$73:K73)</f>
-        <v>0.92000000000000015</v>
+        <v>1378</v>
       </c>
       <c r="L76" s="5">
         <f>SUM($B$73:L73)</f>
-        <v>0.93900000000000017</v>
+        <v>1538</v>
       </c>
       <c r="M76" s="5">
         <f>SUM($B$73:M73)</f>
-        <v>0.94500000000000017</v>
+        <v>1694</v>
       </c>
       <c r="N76" s="5">
         <f>SUM($B$73:N73)</f>
-        <v>0.95000000000000018</v>
+        <v>1893</v>
       </c>
       <c r="O76" s="5">
         <f>SUM($B$73:O73)</f>
-        <v>0.96500000000000019</v>
+        <v>2222</v>
       </c>
       <c r="P76" s="5">
         <f>SUM($B$73:P73)</f>
-        <v>1.0130000000000001</v>
+        <v>2661</v>
       </c>
       <c r="Q76" s="5">
         <f>SUM($B$73:Q73)</f>
-        <v>1.042</v>
+        <v>3007</v>
       </c>
       <c r="R76" s="5">
         <f>SUM($B$73:R73)</f>
-        <v>1.0669999999999999</v>
+        <v>3402</v>
       </c>
       <c r="S76" s="5">
         <f>SUM($B$73:S73)</f>
-        <v>1.0899999999999999</v>
+        <v>3972</v>
       </c>
       <c r="T76" s="5">
         <f>SUM($B$73:T73)</f>
-        <v>1.1209999999999998</v>
+        <v>4493</v>
       </c>
       <c r="U76" s="5">
         <f>SUM($B$73:U73)</f>
-        <v>1.1669999999999998</v>
+        <v>4953</v>
       </c>
       <c r="V76" s="5">
         <f>SUM($B$73:V73)</f>
-        <v>1.2059999999999997</v>
+        <v>5512</v>
       </c>
       <c r="W76" s="5">
         <f>SUM($B$73:W73)</f>
-        <v>1.2219999999999998</v>
+        <v>6530</v>
       </c>
       <c r="X76" s="5">
         <f>SUM($B$73:X73)</f>
-        <v>1.2319999999999998</v>
+        <v>7395</v>
       </c>
       <c r="Y76" s="5">
         <f>SUM($B$73:Y73)</f>
-        <v>1.2409999999999997</v>
+        <v>8241</v>
       </c>
       <c r="Z76" s="5">
         <f>SUM($B$73:Z73)</f>
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="5">
+        <f>SUM($B$74:B74)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C77" s="5">
+        <f>SUM($B$74:C74)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D77" s="5">
+        <f>SUM($B$74:D74)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E77" s="5">
+        <f>SUM($B$74:E74)</f>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F77" s="5">
+        <f>SUM($B$74:F74)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G77" s="5">
+        <f>SUM($B$74:G74)</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H77" s="5">
+        <f>SUM($B$74:H74)</f>
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="I77" s="5">
+        <f>SUM($B$74:I74)</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="J77" s="5">
+        <f>SUM($B$74:J74)</f>
+        <v>0.91400000000000015</v>
+      </c>
+      <c r="K77" s="5">
+        <f>SUM($B$74:K74)</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="L77" s="5">
+        <f>SUM($B$74:L74)</f>
+        <v>0.93900000000000017</v>
+      </c>
+      <c r="M77" s="5">
+        <f>SUM($B$74:M74)</f>
+        <v>0.94500000000000017</v>
+      </c>
+      <c r="N77" s="5">
+        <f>SUM($B$74:N74)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="O77" s="5">
+        <f>SUM($B$74:O74)</f>
+        <v>0.96500000000000019</v>
+      </c>
+      <c r="P77" s="5">
+        <f>SUM($B$74:P74)</f>
+        <v>1.0130000000000001</v>
+      </c>
+      <c r="Q77" s="5">
+        <f>SUM($B$74:Q74)</f>
+        <v>1.042</v>
+      </c>
+      <c r="R77" s="5">
+        <f>SUM($B$74:R74)</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="S77" s="5">
+        <f>SUM($B$74:S74)</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T77" s="5">
+        <f>SUM($B$74:T74)</f>
+        <v>1.1209999999999998</v>
+      </c>
+      <c r="U77" s="5">
+        <f>SUM($B$74:U74)</f>
+        <v>1.1669999999999998</v>
+      </c>
+      <c r="V77" s="5">
+        <f>SUM($B$74:V74)</f>
+        <v>1.2059999999999997</v>
+      </c>
+      <c r="W77" s="5">
+        <f>SUM($B$74:W74)</f>
+        <v>1.2219999999999998</v>
+      </c>
+      <c r="X77" s="5">
+        <f>SUM($B$74:X74)</f>
+        <v>1.2319999999999998</v>
+      </c>
+      <c r="Y77" s="5">
+        <f>SUM($B$74:Y74)</f>
         <v>1.2409999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="Z77" s="5">
+        <f>SUM($B$74:Z74)</f>
+        <v>1.2409999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B79" s="3">
         <v>43989</v>
       </c>
-      <c r="C78" s="3">
-        <f>B78+7</f>
+      <c r="C79" s="3">
+        <f>B79+7</f>
         <v>43996</v>
       </c>
-      <c r="D78" s="3">
-        <f>C78+7</f>
+      <c r="D79" s="3">
+        <f>C79+7</f>
         <v>44003</v>
       </c>
-      <c r="E78" s="3">
-        <f>D78+7</f>
+      <c r="E79" s="3">
+        <f>D79+7</f>
         <v>44010</v>
       </c>
-      <c r="F78" s="3">
-        <f>E78+7</f>
+      <c r="F79" s="3">
+        <f>E79+7</f>
         <v>44017</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>44031</v>
       </c>
-      <c r="H78" s="3">
-        <f t="shared" ref="H78:K78" si="5">G78+7</f>
+      <c r="H79" s="3">
+        <f t="shared" ref="H79:K79" si="5">G79+7</f>
         <v>44038</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I79" s="3">
         <f t="shared" si="5"/>
         <v>44045</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J79" s="3">
         <f t="shared" si="5"/>
         <v>44052</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K79" s="3">
         <f t="shared" si="5"/>
         <v>44059</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="3"/>
-      <c r="AL78" s="3"/>
-      <c r="AM78" s="3"/>
-      <c r="AN78" s="3"/>
-      <c r="AO78" s="3"/>
-      <c r="AP78" s="3"/>
-      <c r="AQ78" s="3"/>
-      <c r="AR78" s="3"/>
-      <c r="AS78" s="3"/>
-      <c r="AT78" s="3"/>
-      <c r="AU78" s="3"/>
-      <c r="AV78" s="3"/>
-      <c r="AW78" s="3"/>
-      <c r="AX78" s="3"/>
-      <c r="AY78" s="3"/>
-      <c r="AZ78" s="3"/>
-      <c r="BA78" s="3"/>
-      <c r="BB78" s="3"/>
-      <c r="BC78" s="3"/>
-      <c r="BD78" s="3"/>
-      <c r="BE78" s="3"/>
-      <c r="BF78" s="3"/>
-      <c r="BG78" s="3"/>
-      <c r="BH78" s="3"/>
-      <c r="BI78" s="3"/>
-      <c r="BJ78" s="3"/>
-      <c r="BK78" s="3"/>
-      <c r="BL78" s="3"/>
-      <c r="BM78" s="3"/>
-      <c r="BN78" s="3"/>
-      <c r="BO78" s="3"/>
-      <c r="BP78" s="3"/>
-      <c r="BQ78" s="3"/>
-      <c r="BR78" s="3"/>
-      <c r="BS78" s="3"/>
-      <c r="BT78" s="3"/>
-      <c r="BU78" s="3"/>
-      <c r="BV78" s="3"/>
-      <c r="BW78" s="3"/>
-      <c r="BX78" s="3"/>
-      <c r="BY78" s="3"/>
-      <c r="BZ78" s="3"/>
-      <c r="CA78" s="3"/>
-      <c r="CB78" s="3"/>
-      <c r="CC78" s="3"/>
-      <c r="CD78" s="3"/>
-      <c r="CE78" s="3"/>
-      <c r="CF78" s="3"/>
-      <c r="CG78" s="3"/>
-      <c r="CH78" s="3"/>
-      <c r="CI78" s="3"/>
-      <c r="CJ78" s="3"/>
-      <c r="CK78" s="3"/>
-      <c r="CL78" s="3"/>
-      <c r="CM78" s="3"/>
-      <c r="CN78" s="3"/>
-      <c r="CO78" s="3"/>
-      <c r="CP78" s="3"/>
-      <c r="CQ78" s="3"/>
-    </row>
-    <row r="79" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>168</v>
-      </c>
-      <c r="D79">
-        <v>51</v>
-      </c>
-      <c r="E79">
-        <v>42</v>
-      </c>
-      <c r="F79">
-        <v>46</v>
-      </c>
-      <c r="G79">
-        <v>82</v>
-      </c>
-      <c r="H79">
-        <v>319</v>
-      </c>
-      <c r="I79">
-        <v>78</v>
-      </c>
-      <c r="J79">
-        <v>210</v>
-      </c>
-      <c r="K79">
-        <v>222</v>
-      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="3"/>
+      <c r="AX79" s="3"/>
+      <c r="AY79" s="3"/>
+      <c r="AZ79" s="3"/>
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
+      <c r="BC79" s="3"/>
+      <c r="BD79" s="3"/>
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+      <c r="BI79" s="3"/>
+      <c r="BJ79" s="3"/>
+      <c r="BK79" s="3"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
+      <c r="BO79" s="3"/>
+      <c r="BP79" s="3"/>
+      <c r="BQ79" s="3"/>
+      <c r="BR79" s="3"/>
+      <c r="BS79" s="3"/>
+      <c r="BT79" s="3"/>
+      <c r="BU79" s="3"/>
+      <c r="BV79" s="3"/>
+      <c r="BW79" s="3"/>
+      <c r="BX79" s="3"/>
+      <c r="BY79" s="3"/>
+      <c r="BZ79" s="3"/>
+      <c r="CA79" s="3"/>
+      <c r="CB79" s="3"/>
+      <c r="CC79" s="3"/>
+      <c r="CD79" s="3"/>
+      <c r="CE79" s="3"/>
+      <c r="CF79" s="3"/>
+      <c r="CG79" s="3"/>
+      <c r="CH79" s="3"/>
+      <c r="CI79" s="3"/>
+      <c r="CJ79" s="3"/>
+      <c r="CK79" s="3"/>
+      <c r="CL79" s="3"/>
+      <c r="CM79" s="3"/>
+      <c r="CN79" s="3"/>
+      <c r="CO79" s="3"/>
+      <c r="CP79" s="3"/>
+      <c r="CQ79" s="3"/>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="5">
-        <f>SUM($B79:B79)</f>
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
       </c>
       <c r="C81">
-        <f>SUM($B79:C79)</f>
-        <v>253</v>
-      </c>
-      <c r="D81" s="5">
-        <f>SUM($B79:D79)</f>
-        <v>304</v>
-      </c>
-      <c r="E81" s="5">
-        <f>SUM($B79:E79)</f>
-        <v>346</v>
-      </c>
-      <c r="F81" s="5">
-        <f>SUM($B79:F79)</f>
-        <v>392</v>
-      </c>
-      <c r="G81" s="5">
-        <f>SUM($B79:G79)</f>
-        <v>474</v>
-      </c>
-      <c r="H81" s="5">
-        <f>SUM($B79:H79)</f>
-        <v>793</v>
-      </c>
-      <c r="I81" s="5">
-        <f>SUM($B79:I79)</f>
-        <v>871</v>
-      </c>
-      <c r="J81" s="5">
-        <f>SUM($B79:J79)</f>
-        <v>1081</v>
-      </c>
-      <c r="K81" s="5">
-        <f>SUM($B79:K79)</f>
-        <v>1303</v>
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82" s="5">
         <f>SUM($B80:B80)</f>
-        <v>3</v>
-      </c>
-      <c r="C82" s="5">
+        <v>85</v>
+      </c>
+      <c r="C82">
         <f>SUM($B80:C80)</f>
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D82" s="5">
         <f>SUM($B80:D80)</f>
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="E82" s="5">
         <f>SUM($B80:E80)</f>
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="F82" s="5">
         <f>SUM($B80:F80)</f>
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="G82" s="5">
         <f>SUM($B80:G80)</f>
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="H82" s="5">
         <f>SUM($B80:H80)</f>
-        <v>21</v>
+        <v>793</v>
       </c>
       <c r="I82" s="5">
         <f>SUM($B80:I80)</f>
-        <v>21</v>
+        <v>871</v>
       </c>
       <c r="J82" s="5">
         <f>SUM($B80:J80)</f>
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="K82" s="5">
         <f>SUM($B80:K80)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5">
+        <f>SUM($B81:B81)</f>
+        <v>3</v>
+      </c>
+      <c r="C83" s="5">
+        <f>SUM($B81:C81)</f>
+        <v>17</v>
+      </c>
+      <c r="D83" s="5">
+        <f>SUM($B81:D81)</f>
+        <v>20</v>
+      </c>
+      <c r="E83" s="5">
+        <f>SUM($B81:E81)</f>
+        <v>20</v>
+      </c>
+      <c r="F83" s="5">
+        <f>SUM($B81:F81)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="G83" s="5">
+        <f>SUM($B81:G81)</f>
+        <v>21</v>
+      </c>
+      <c r="H83" s="5">
+        <f>SUM($B81:H81)</f>
+        <v>21</v>
+      </c>
+      <c r="I83" s="5">
+        <f>SUM($B81:I81)</f>
+        <v>21</v>
+      </c>
+      <c r="J83" s="5">
+        <f>SUM($B81:J81)</f>
+        <v>21</v>
+      </c>
+      <c r="K83" s="5">
+        <f>SUM($B81:K81)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>44052</v>
       </c>
-      <c r="C84" s="3">
-        <f>B84+1</f>
+      <c r="C85" s="3">
+        <f>B85+1</f>
         <v>44053</v>
       </c>
-      <c r="D84" s="3">
-        <f t="shared" ref="D84:P84" si="6">C84+1</f>
+      <c r="D85" s="3">
+        <f t="shared" ref="D85:P85" si="6">C85+1</f>
         <v>44054</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <f t="shared" si="6"/>
         <v>44055</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <f t="shared" si="6"/>
         <v>44056</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <f t="shared" si="6"/>
         <v>44057</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H85" s="3">
         <f t="shared" si="6"/>
         <v>44058</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I85" s="3">
         <f t="shared" si="6"/>
         <v>44059</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J85" s="3">
         <f t="shared" si="6"/>
         <v>44060</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K85" s="3">
         <f t="shared" si="6"/>
         <v>44061</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L85" s="3">
         <f t="shared" si="6"/>
         <v>44062</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M85" s="3">
         <f t="shared" si="6"/>
         <v>44063</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N85" s="3">
         <f t="shared" si="6"/>
         <v>44064</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O85" s="3">
         <f t="shared" si="6"/>
         <v>44065</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P85" s="3">
         <f t="shared" si="6"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85">
-        <v>487.5</v>
-      </c>
-      <c r="C85">
-        <v>487.5</v>
-      </c>
-      <c r="D85">
-        <v>487.5</v>
-      </c>
-      <c r="E85">
-        <v>487.5</v>
-      </c>
-      <c r="F85">
-        <v>487.5</v>
-      </c>
-      <c r="G85">
-        <v>487.5</v>
-      </c>
-      <c r="H85">
-        <v>450</v>
-      </c>
-      <c r="I85">
-        <v>675</v>
-      </c>
-      <c r="J85">
-        <v>900</v>
-      </c>
-      <c r="K85">
-        <v>900</v>
-      </c>
-      <c r="L85">
-        <v>675</v>
-      </c>
-      <c r="M85">
-        <v>1125</v>
-      </c>
-      <c r="N85">
-        <v>1800</v>
-      </c>
-      <c r="O85">
-        <v>1350</v>
-      </c>
-      <c r="P85">
-        <v>225</v>
-      </c>
-    </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>487.5</v>
+      </c>
+      <c r="C86">
+        <v>487.5</v>
+      </c>
+      <c r="D86">
+        <v>487.5</v>
+      </c>
+      <c r="E86">
+        <v>487.5</v>
+      </c>
+      <c r="F86">
+        <v>487.5</v>
+      </c>
+      <c r="G86">
+        <v>487.5</v>
+      </c>
+      <c r="H86">
+        <v>450</v>
+      </c>
+      <c r="I86">
+        <v>675</v>
+      </c>
+      <c r="J86">
+        <v>900</v>
+      </c>
+      <c r="K86">
+        <v>900</v>
+      </c>
+      <c r="L86">
+        <v>675</v>
+      </c>
+      <c r="M86">
+        <v>1125</v>
+      </c>
+      <c r="N86">
+        <v>1800</v>
+      </c>
+      <c r="O86">
+        <v>1350</v>
+      </c>
+      <c r="P86">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B86">
-        <f t="shared" ref="B86:G86" si="7">16/6</f>
+      <c r="B87">
+        <f t="shared" ref="B87:G87" si="7">16/6</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C87" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G87" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H86">
+      <c r="H87">
         <v>1</v>
       </c>
-      <c r="I86">
+      <c r="I87">
         <v>2</v>
       </c>
-      <c r="J86">
+      <c r="J87">
         <v>2</v>
       </c>
-      <c r="K86">
+      <c r="K87">
         <v>3</v>
       </c>
-      <c r="L86">
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="M86">
+      <c r="M87">
         <v>30</v>
       </c>
-      <c r="N86">
+      <c r="N87">
         <v>30</v>
       </c>
-      <c r="O86">
+      <c r="O87">
         <v>39</v>
       </c>
-      <c r="P86">
+      <c r="P87">
         <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="5">
-        <f>SUM($B$85:B85)</f>
-        <v>487.5</v>
-      </c>
-      <c r="C87">
-        <f>SUM($B$85:C85)</f>
-        <v>975</v>
-      </c>
-      <c r="D87" s="5">
-        <f>SUM($B$85:D85)</f>
-        <v>1462.5</v>
-      </c>
-      <c r="E87" s="5">
-        <f>SUM($B$85:E85)</f>
-        <v>1950</v>
-      </c>
-      <c r="F87" s="5">
-        <f>SUM($B$85:F85)</f>
-        <v>2437.5</v>
-      </c>
-      <c r="G87" s="5">
-        <f>SUM($B$85:G85)</f>
-        <v>2925</v>
-      </c>
-      <c r="H87" s="5">
-        <f>SUM($B$85:H85)</f>
-        <v>3375</v>
-      </c>
-      <c r="I87" s="5">
-        <f>SUM($B$85:I85)</f>
-        <v>4050</v>
-      </c>
-      <c r="J87" s="5">
-        <f>SUM($B$85:J85)</f>
-        <v>4950</v>
-      </c>
-      <c r="K87" s="5">
-        <f>SUM($B$85:K85)</f>
-        <v>5850</v>
-      </c>
-      <c r="L87" s="5">
-        <f>SUM($B$85:L85)</f>
-        <v>6525</v>
-      </c>
-      <c r="M87" s="5">
-        <f>SUM($B$85:M85)</f>
-        <v>7650</v>
-      </c>
-      <c r="N87" s="5">
-        <f>SUM($B$85:N85)</f>
-        <v>9450</v>
-      </c>
-      <c r="O87" s="5">
-        <f>SUM($B$85:O85)</f>
-        <v>10800</v>
-      </c>
-      <c r="P87" s="5">
-        <f>SUM($B$85:P85)</f>
-        <v>11025</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" s="5">
         <f>SUM($B$86:B86)</f>
-        <v>2.6666666666666665</v>
+        <v>487.5</v>
       </c>
       <c r="C88">
         <f>SUM($B$86:C86)</f>
-        <v>5.333333333333333</v>
+        <v>975</v>
       </c>
       <c r="D88" s="5">
         <f>SUM($B$86:D86)</f>
-        <v>8</v>
+        <v>1462.5</v>
       </c>
       <c r="E88" s="5">
         <f>SUM($B$86:E86)</f>
-        <v>10.666666666666666</v>
+        <v>1950</v>
       </c>
       <c r="F88" s="5">
         <f>SUM($B$86:F86)</f>
-        <v>13.333333333333332</v>
+        <v>2437.5</v>
       </c>
       <c r="G88" s="5">
         <f>SUM($B$86:G86)</f>
-        <v>15.999999999999998</v>
+        <v>2925</v>
       </c>
       <c r="H88" s="5">
         <f>SUM($B$86:H86)</f>
-        <v>17</v>
+        <v>3375</v>
       </c>
       <c r="I88" s="5">
         <f>SUM($B$86:I86)</f>
-        <v>19</v>
+        <v>4050</v>
       </c>
       <c r="J88" s="5">
         <f>SUM($B$86:J86)</f>
-        <v>21</v>
+        <v>4950</v>
       </c>
       <c r="K88" s="5">
         <f>SUM($B$86:K86)</f>
-        <v>24</v>
+        <v>5850</v>
       </c>
       <c r="L88" s="5">
         <f>SUM($B$86:L86)</f>
-        <v>28</v>
+        <v>6525</v>
       </c>
       <c r="M88" s="5">
         <f>SUM($B$86:M86)</f>
-        <v>58</v>
+        <v>7650</v>
       </c>
       <c r="N88" s="5">
         <f>SUM($B$86:N86)</f>
-        <v>88</v>
+        <v>9450</v>
       </c>
       <c r="O88" s="5">
         <f>SUM($B$86:O86)</f>
-        <v>127</v>
+        <v>10800</v>
       </c>
       <c r="P88" s="5">
         <f>SUM($B$86:P86)</f>
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5">
+        <f>SUM($B$87:B87)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C89">
+        <f>SUM($B$87:C87)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D89" s="5">
+        <f>SUM($B$87:D87)</f>
+        <v>8</v>
+      </c>
+      <c r="E89" s="5">
+        <f>SUM($B$87:E87)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F89" s="5">
+        <f>SUM($B$87:F87)</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="G89" s="5">
+        <f>SUM($B$87:G87)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="H89" s="5">
+        <f>SUM($B$87:H87)</f>
+        <v>17</v>
+      </c>
+      <c r="I89" s="5">
+        <f>SUM($B$87:I87)</f>
+        <v>19</v>
+      </c>
+      <c r="J89" s="5">
+        <f>SUM($B$87:J87)</f>
+        <v>21</v>
+      </c>
+      <c r="K89" s="5">
+        <f>SUM($B$87:K87)</f>
+        <v>24</v>
+      </c>
+      <c r="L89" s="5">
+        <f>SUM($B$87:L87)</f>
+        <v>28</v>
+      </c>
+      <c r="M89" s="5">
+        <f>SUM($B$87:M87)</f>
+        <v>58</v>
+      </c>
+      <c r="N89" s="5">
+        <f>SUM($B$87:N87)</f>
+        <v>88</v>
+      </c>
+      <c r="O89" s="5">
+        <f>SUM($B$87:O87)</f>
+        <v>127</v>
+      </c>
+      <c r="P89" s="5">
+        <f>SUM($B$87:P87)</f>
         <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91">
-        <v>5333</v>
+        <v>40</v>
+      </c>
+      <c r="B91" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B95" s="3">
         <v>44045</v>
       </c>
-      <c r="C94" s="3">
-        <f t="shared" ref="C94:V94" si="8">B94+1</f>
+      <c r="C95" s="3">
+        <f t="shared" ref="C95:V95" si="8">B95+1</f>
         <v>44046</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <f t="shared" si="8"/>
         <v>44047</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E95" s="3">
         <f t="shared" si="8"/>
         <v>44048</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F95" s="3">
         <f t="shared" si="8"/>
         <v>44049</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G95" s="3">
         <f t="shared" si="8"/>
         <v>44050</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H95" s="3">
         <f t="shared" si="8"/>
         <v>44051</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I95" s="3">
         <f t="shared" si="8"/>
         <v>44052</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J95" s="3">
         <f t="shared" si="8"/>
         <v>44053</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K95" s="3">
         <f t="shared" si="8"/>
         <v>44054</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L95" s="3">
         <f t="shared" si="8"/>
         <v>44055</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M95" s="3">
         <f t="shared" si="8"/>
         <v>44056</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N95" s="3">
         <f t="shared" si="8"/>
         <v>44057</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O95" s="3">
         <f t="shared" si="8"/>
         <v>44058</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P95" s="3">
         <f t="shared" si="8"/>
         <v>44059</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q95" s="3">
         <f t="shared" si="8"/>
         <v>44060</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R95" s="3">
         <f t="shared" si="8"/>
         <v>44061</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S95" s="3">
         <f t="shared" si="8"/>
         <v>44062</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T95" s="3">
         <f t="shared" si="8"/>
         <v>44063</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U95" s="3">
         <f t="shared" si="8"/>
         <v>44064</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V95" s="3">
         <f t="shared" si="8"/>
         <v>44065</v>
       </c>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H95">
+      <c r="H96">
         <f>341+101</f>
         <v>442</v>
       </c>
-      <c r="O95">
+      <c r="O96">
         <f>101+128</f>
         <v>229</v>
       </c>
-      <c r="V95">
+      <c r="V96">
         <f>79+48</f>
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B96">
-        <f t="shared" ref="B96:H96" si="9">$H$95/7</f>
+      <c r="B97">
+        <f t="shared" ref="B97:H97" si="9">$H$96/7</f>
         <v>63.142857142857146</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H97" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="I96">
-        <f t="shared" ref="I96:O96" si="10">$O$95/7</f>
+      <c r="I97">
+        <f t="shared" ref="I97:O97" si="10">$O$96/7</f>
         <v>32.714285714285715</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="N96" s="5">
+      <c r="N97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O97" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="P96">
-        <f t="shared" ref="P96:V96" si="11">$V$95/7</f>
+      <c r="P97">
+        <f t="shared" ref="P97:V97" si="11">$V$96/7</f>
         <v>18.142857142857142</v>
       </c>
-      <c r="Q96" s="5">
+      <c r="Q97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="R96" s="5">
+      <c r="R97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="S96" s="5">
+      <c r="S97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="T96" s="5">
+      <c r="T97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="U96" s="5">
+      <c r="U97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="V96" s="5">
+      <c r="V97" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>2</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>1</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-    </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="5">
-        <f>SUM($B$96:B96)</f>
-        <v>63.142857142857146</v>
+        <v>21</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98">
-        <f>SUM($B$96:C96)</f>
-        <v>126.28571428571429</v>
-      </c>
-      <c r="D98" s="5">
-        <f>SUM($B$96:D96)</f>
-        <v>189.42857142857144</v>
-      </c>
-      <c r="E98" s="5">
-        <f>SUM($B$96:E96)</f>
-        <v>252.57142857142858</v>
-      </c>
-      <c r="F98" s="5">
-        <f>SUM($B$96:F96)</f>
-        <v>315.71428571428572</v>
-      </c>
-      <c r="G98" s="5">
-        <f>SUM($B$96:G96)</f>
-        <v>378.85714285714289</v>
-      </c>
-      <c r="H98" s="5">
-        <f>SUM($B$96:H96)</f>
-        <v>442.00000000000006</v>
-      </c>
-      <c r="I98" s="5">
-        <f>SUM($B$96:I96)</f>
-        <v>474.71428571428578</v>
-      </c>
-      <c r="J98" s="5">
-        <f>SUM($B$96:J96)</f>
-        <v>507.4285714285715</v>
-      </c>
-      <c r="K98" s="5">
-        <f>SUM($B$96:K96)</f>
-        <v>540.14285714285722</v>
-      </c>
-      <c r="L98" s="5">
-        <f>SUM($B$96:L96)</f>
-        <v>572.85714285714289</v>
-      </c>
-      <c r="M98" s="5">
-        <f>SUM($B$96:M96)</f>
-        <v>605.57142857142856</v>
-      </c>
-      <c r="N98" s="5">
-        <f>SUM($B$96:N96)</f>
-        <v>638.28571428571422</v>
-      </c>
-      <c r="O98" s="5">
-        <f>SUM($B$96:O96)</f>
-        <v>670.99999999999989</v>
-      </c>
-      <c r="P98" s="5">
-        <f>SUM($B$96:P96)</f>
-        <v>689.142857142857</v>
-      </c>
-      <c r="Q98" s="5">
-        <f>SUM($B$96:Q96)</f>
-        <v>707.28571428571411</v>
-      </c>
-      <c r="R98" s="5">
-        <f>SUM($B$96:R96)</f>
-        <v>725.42857142857122</v>
-      </c>
-      <c r="S98" s="5">
-        <f>SUM($B$96:S96)</f>
-        <v>743.57142857142833</v>
-      </c>
-      <c r="T98" s="5">
-        <f>SUM($B$96:T96)</f>
-        <v>761.71428571428544</v>
-      </c>
-      <c r="U98" s="5">
-        <f>SUM($B$96:U96)</f>
-        <v>779.85714285714255</v>
-      </c>
-      <c r="V98" s="5">
-        <f>SUM($B$96:V96)</f>
-        <v>797.99999999999966</v>
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99" s="5">
         <f>SUM($B$97:B97)</f>
-        <v>0</v>
+        <v>63.142857142857146</v>
       </c>
       <c r="C99">
         <f>SUM($B$97:C97)</f>
-        <v>1</v>
+        <v>126.28571428571429</v>
       </c>
       <c r="D99" s="5">
         <f>SUM($B$97:D97)</f>
-        <v>1</v>
+        <v>189.42857142857144</v>
       </c>
       <c r="E99" s="5">
         <f>SUM($B$97:E97)</f>
-        <v>1</v>
+        <v>252.57142857142858</v>
       </c>
       <c r="F99" s="5">
         <f>SUM($B$97:F97)</f>
-        <v>1</v>
+        <v>315.71428571428572</v>
       </c>
       <c r="G99" s="5">
         <f>SUM($B$97:G97)</f>
-        <v>2</v>
+        <v>378.85714285714289</v>
       </c>
       <c r="H99" s="5">
         <f>SUM($B$97:H97)</f>
-        <v>2</v>
+        <v>442.00000000000006</v>
       </c>
       <c r="I99" s="5">
         <f>SUM($B$97:I97)</f>
-        <v>3</v>
+        <v>474.71428571428578</v>
       </c>
       <c r="J99" s="5">
         <f>SUM($B$97:J97)</f>
-        <v>3</v>
+        <v>507.4285714285715</v>
       </c>
       <c r="K99" s="5">
         <f>SUM($B$97:K97)</f>
-        <v>5</v>
+        <v>540.14285714285722</v>
       </c>
       <c r="L99" s="5">
         <f>SUM($B$97:L97)</f>
-        <v>5</v>
+        <v>572.85714285714289</v>
       </c>
       <c r="M99" s="5">
         <f>SUM($B$97:M97)</f>
-        <v>5</v>
+        <v>605.57142857142856</v>
       </c>
       <c r="N99" s="5">
         <f>SUM($B$97:N97)</f>
-        <v>5</v>
+        <v>638.28571428571422</v>
       </c>
       <c r="O99" s="5">
         <f>SUM($B$97:O97)</f>
-        <v>6</v>
+        <v>670.99999999999989</v>
       </c>
       <c r="P99" s="5">
         <f>SUM($B$97:P97)</f>
-        <v>6</v>
+        <v>689.142857142857</v>
       </c>
       <c r="Q99" s="5">
         <f>SUM($B$97:Q97)</f>
-        <v>6</v>
+        <v>707.28571428571411</v>
       </c>
       <c r="R99" s="5">
         <f>SUM($B$97:R97)</f>
-        <v>7</v>
+        <v>725.42857142857122</v>
       </c>
       <c r="S99" s="5">
         <f>SUM($B$97:S97)</f>
-        <v>7</v>
+        <v>743.57142857142833</v>
       </c>
       <c r="T99" s="5">
         <f>SUM($B$97:T97)</f>
-        <v>7</v>
+        <v>761.71428571428544</v>
       </c>
       <c r="U99" s="5">
         <f>SUM($B$97:U97)</f>
-        <v>7</v>
+        <v>779.85714285714255</v>
       </c>
       <c r="V99" s="5">
         <f>SUM($B$97:V97)</f>
+        <v>797.99999999999966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="5">
+        <f>SUM($B$98:B98)</f>
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f>SUM($B$98:C98)</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="5">
+        <f>SUM($B$98:D98)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <f>SUM($B$98:E98)</f>
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <f>SUM($B$98:F98)</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="5">
+        <f>SUM($B$98:G98)</f>
+        <v>2</v>
+      </c>
+      <c r="H100" s="5">
+        <f>SUM($B$98:H98)</f>
+        <v>2</v>
+      </c>
+      <c r="I100" s="5">
+        <f>SUM($B$98:I98)</f>
+        <v>3</v>
+      </c>
+      <c r="J100" s="5">
+        <f>SUM($B$98:J98)</f>
+        <v>3</v>
+      </c>
+      <c r="K100" s="5">
+        <f>SUM($B$98:K98)</f>
+        <v>5</v>
+      </c>
+      <c r="L100" s="5">
+        <f>SUM($B$98:L98)</f>
+        <v>5</v>
+      </c>
+      <c r="M100" s="5">
+        <f>SUM($B$98:M98)</f>
+        <v>5</v>
+      </c>
+      <c r="N100" s="5">
+        <f>SUM($B$98:N98)</f>
+        <v>5</v>
+      </c>
+      <c r="O100" s="5">
+        <f>SUM($B$98:O98)</f>
+        <v>6</v>
+      </c>
+      <c r="P100" s="5">
+        <f>SUM($B$98:P98)</f>
+        <v>6</v>
+      </c>
+      <c r="Q100" s="5">
+        <f>SUM($B$98:Q98)</f>
+        <v>6</v>
+      </c>
+      <c r="R100" s="5">
+        <f>SUM($B$98:R98)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="3">
-        <v>44054</v>
-      </c>
-      <c r="C101" s="3">
-        <v>44068</v>
+      <c r="S100" s="5">
+        <f>SUM($B$98:S98)</f>
+        <v>7</v>
+      </c>
+      <c r="T100" s="5">
+        <f>SUM($B$98:T98)</f>
+        <v>7</v>
+      </c>
+      <c r="U100" s="5">
+        <f>SUM($B$98:U98)</f>
+        <v>7</v>
+      </c>
+      <c r="V100" s="5">
+        <f>SUM($B$98:V98)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102">
-        <v>10244</v>
-      </c>
-      <c r="C102" s="10">
-        <v>13623</v>
+        <v>46</v>
+      </c>
+      <c r="B102" s="3">
+        <v>44054</v>
+      </c>
+      <c r="C102" s="3">
+        <v>44068</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>10244</v>
+      </c>
+      <c r="C103" s="10">
+        <v>13623</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>224</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="3">
+        <v>44046</v>
+      </c>
+      <c r="C106" s="3">
+        <f>B106+1</f>
+        <v>44047</v>
+      </c>
+      <c r="D106" s="3">
+        <f>C106+1</f>
+        <v>44048</v>
+      </c>
+      <c r="E106" s="3">
+        <f>D106+1</f>
+        <v>44049</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" ref="F106:V106" si="12">E106+1</f>
+        <v>44050</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="12"/>
+        <v>44051</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="12"/>
+        <v>44052</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="12"/>
+        <v>44053</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="12"/>
+        <v>44054</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="12"/>
+        <v>44055</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="12"/>
+        <v>44056</v>
+      </c>
+      <c r="M106" s="3">
+        <f t="shared" si="12"/>
+        <v>44057</v>
+      </c>
+      <c r="N106" s="3">
+        <f t="shared" si="12"/>
+        <v>44058</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="12"/>
+        <v>44059</v>
+      </c>
+      <c r="P106" s="3">
+        <f t="shared" si="12"/>
+        <v>44060</v>
+      </c>
+      <c r="Q106" s="3">
+        <f t="shared" si="12"/>
+        <v>44061</v>
+      </c>
+      <c r="R106" s="3">
+        <f t="shared" si="12"/>
+        <v>44062</v>
+      </c>
+      <c r="S106" s="3">
+        <f t="shared" si="12"/>
+        <v>44063</v>
+      </c>
+      <c r="T106" s="3">
+        <f t="shared" si="12"/>
+        <v>44064</v>
+      </c>
+      <c r="U106" s="3">
+        <f t="shared" si="12"/>
+        <v>44065</v>
+      </c>
+      <c r="V106" s="3">
+        <f t="shared" si="12"/>
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107">
+        <v>340</v>
+      </c>
+      <c r="C107">
+        <v>220</v>
+      </c>
+      <c r="D107">
+        <v>270</v>
+      </c>
+      <c r="E107">
+        <v>310</v>
+      </c>
+      <c r="F107">
+        <v>290</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>480</v>
+      </c>
+      <c r="J107">
+        <v>500</v>
+      </c>
+      <c r="K107">
+        <v>220</v>
+      </c>
+      <c r="L107">
+        <v>230</v>
+      </c>
+      <c r="M107">
+        <v>280</v>
+      </c>
+      <c r="N107">
+        <v>410</v>
+      </c>
+      <c r="O107">
+        <v>410</v>
+      </c>
+      <c r="P107">
+        <v>290</v>
+      </c>
+      <c r="Q107">
+        <v>490</v>
+      </c>
+      <c r="R107">
+        <v>480</v>
+      </c>
+      <c r="S107">
+        <v>480</v>
+      </c>
+      <c r="T107">
+        <v>960</v>
+      </c>
+      <c r="U107">
+        <v>410</v>
+      </c>
+      <c r="V107">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>2</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="5">
+        <f>SUM($B$107:B107)</f>
+        <v>340</v>
+      </c>
+      <c r="C109">
+        <f>SUM($B$107:C107)</f>
+        <v>560</v>
+      </c>
+      <c r="D109" s="5">
+        <f>SUM($B$107:D107)</f>
+        <v>830</v>
+      </c>
+      <c r="E109" s="5">
+        <f>SUM($B$107:E107)</f>
+        <v>1140</v>
+      </c>
+      <c r="F109" s="5">
+        <f>SUM($B$107:F107)</f>
+        <v>1430</v>
+      </c>
+      <c r="G109" s="5">
+        <f>SUM($B$107:G107)</f>
+        <v>1430</v>
+      </c>
+      <c r="H109" s="5">
+        <f>SUM($B$107:H107)</f>
+        <v>1430</v>
+      </c>
+      <c r="I109" s="5">
+        <f>SUM($B$107:I107)</f>
+        <v>1910</v>
+      </c>
+      <c r="J109" s="5">
+        <f>SUM($B$107:J107)</f>
+        <v>2410</v>
+      </c>
+      <c r="K109" s="5">
+        <f>SUM($B$107:K107)</f>
+        <v>2630</v>
+      </c>
+      <c r="L109" s="5">
+        <f>SUM($B$107:L107)</f>
+        <v>2860</v>
+      </c>
+      <c r="M109" s="5">
+        <f>SUM($B$107:M107)</f>
+        <v>3140</v>
+      </c>
+      <c r="N109" s="5">
+        <f>SUM($B$107:N107)</f>
+        <v>3550</v>
+      </c>
+      <c r="O109" s="5">
+        <f>SUM($B$107:O107)</f>
+        <v>3960</v>
+      </c>
+      <c r="P109" s="5">
+        <f>SUM($B$107:P107)</f>
+        <v>4250</v>
+      </c>
+      <c r="Q109" s="5">
+        <f>SUM($B$107:Q107)</f>
+        <v>4740</v>
+      </c>
+      <c r="R109" s="5">
+        <f>SUM($B$107:R107)</f>
+        <v>5220</v>
+      </c>
+      <c r="S109" s="5">
+        <f>SUM($B$107:S107)</f>
+        <v>5700</v>
+      </c>
+      <c r="T109" s="5">
+        <f>SUM($B$107:T107)</f>
+        <v>6660</v>
+      </c>
+      <c r="U109" s="5">
+        <f>SUM($B$107:U107)</f>
+        <v>7070</v>
+      </c>
+      <c r="V109" s="5">
+        <f>SUM($B$107:V107)</f>
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="5">
+        <f>SUM($B$108:B108)</f>
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f>SUM($B$108:C108)</f>
+        <v>1</v>
+      </c>
+      <c r="D110" s="5">
+        <f>SUM($B$108:D108)</f>
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <f>SUM($B$108:E108)</f>
+        <v>2</v>
+      </c>
+      <c r="F110" s="5">
+        <f>SUM($B$108:F108)</f>
+        <v>2</v>
+      </c>
+      <c r="G110" s="5">
+        <f>SUM($B$108:G108)</f>
+        <v>2</v>
+      </c>
+      <c r="H110" s="5">
+        <f>SUM($B$108:H108)</f>
+        <v>2</v>
+      </c>
+      <c r="I110" s="5">
+        <f>SUM($B$108:I108)</f>
+        <v>2</v>
+      </c>
+      <c r="J110" s="5">
+        <f>SUM($B$108:J108)</f>
+        <v>2</v>
+      </c>
+      <c r="K110" s="5">
+        <f>SUM($B$108:K108)</f>
+        <v>3</v>
+      </c>
+      <c r="L110" s="5">
+        <f>SUM($B$108:L108)</f>
+        <v>5</v>
+      </c>
+      <c r="M110" s="5">
+        <f>SUM($B$108:M108)</f>
+        <v>6</v>
+      </c>
+      <c r="N110" s="5">
+        <f>SUM($B$108:N108)</f>
+        <v>8</v>
+      </c>
+      <c r="O110" s="5">
+        <f>SUM($B$108:O108)</f>
+        <v>9</v>
+      </c>
+      <c r="P110" s="5">
+        <f>SUM($B$108:P108)</f>
+        <v>11</v>
+      </c>
+      <c r="Q110" s="5">
+        <f>SUM($B$108:Q108)</f>
+        <v>11</v>
+      </c>
+      <c r="R110" s="5">
+        <f>SUM($B$108:R108)</f>
+        <v>11</v>
+      </c>
+      <c r="S110" s="5">
+        <f>SUM($B$108:S108)</f>
+        <v>12</v>
+      </c>
+      <c r="T110" s="5">
+        <f>SUM($B$108:T108)</f>
+        <v>14</v>
+      </c>
+      <c r="U110" s="5">
+        <f>SUM($B$108:U108)</f>
+        <v>14</v>
+      </c>
+      <c r="V110" s="5">
+        <f>SUM($B$108:V108)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4179,8 +4595,9 @@
     <hyperlink ref="G14" r:id="rId13" xr:uid="{39421381-8674-4DBE-B778-3493660F7B3C}"/>
     <hyperlink ref="G15" r:id="rId14" xr:uid="{A06A454C-B5AD-4DC5-9973-C867FA993589}"/>
     <hyperlink ref="G17" r:id="rId15" location="yale-testing-data" display="https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables - yale-testing-data" xr:uid="{8C65D6E3-9BD9-42E1-9069-B5660638BB35}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{AEC76AB5-A45A-4194-BA34-9CA00E3F430E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8218F00C-B07D-44FB-9089-9FE84DE2CF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019ECA13-A6C3-4A57-9008-2F4D7BF09F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:V110"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +937,9 @@
       <c r="E24" s="3">
         <v>44059</v>
       </c>
+      <c r="F24" s="3">
+        <v>44066</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -954,6 +957,9 @@
       <c r="E25">
         <v>954</v>
       </c>
+      <c r="F25">
+        <v>1568</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -971,6 +977,9 @@
       <c r="E26">
         <v>130</v>
       </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -992,6 +1001,10 @@
         <f>SUM(B25:E25)</f>
         <v>1583</v>
       </c>
+      <c r="F27" s="5">
+        <f>SUM(C25:F25)</f>
+        <v>3034</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1012,6 +1025,10 @@
       <c r="E28">
         <f>SUM(B26:E26)</f>
         <v>166</v>
+      </c>
+      <c r="F28" s="5">
+        <f>SUM(C26:F26)</f>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019ECA13-A6C3-4A57-9008-2F4D7BF09F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE20D7D-95CF-444B-BD12-B78C02632E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>https://coronavirus.rice.edu/</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>https://fall2020.fsu.edu/</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ110"/>
+  <dimension ref="A1:CQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,1249 +858,1201 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>44061</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>44062</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>44063</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>44064</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>44065</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>1566</v>
-      </c>
-      <c r="C21">
-        <v>1705</v>
-      </c>
-      <c r="D21">
-        <v>2211</v>
-      </c>
-      <c r="E21">
-        <v>2510</v>
-      </c>
-      <c r="F21">
-        <v>2510</v>
-      </c>
-      <c r="G21">
-        <v>3031</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1566</v>
+      </c>
+      <c r="C22">
+        <v>1705</v>
+      </c>
+      <c r="D22">
+        <v>2211</v>
+      </c>
+      <c r="E22">
+        <v>2510</v>
+      </c>
+      <c r="F22">
+        <v>2510</v>
+      </c>
+      <c r="G22">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>78</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>78</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
         <v>44038</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>44045</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>44052</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>44059</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>117</v>
-      </c>
-      <c r="C25">
-        <v>158</v>
-      </c>
-      <c r="D25">
-        <v>354</v>
-      </c>
-      <c r="E25">
-        <v>954</v>
-      </c>
-      <c r="F25">
-        <v>1568</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E26">
-        <v>130</v>
+        <v>954</v>
       </c>
       <c r="F26">
-        <v>505</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <f>SUM(B25)</f>
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <f>SUM(B25:C25)</f>
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <f>SUM(B25:D25)</f>
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <f>SUM(B25:E25)</f>
-        <v>1583</v>
-      </c>
-      <c r="F27" s="5">
-        <f>SUM(C25:F25)</f>
-        <v>3034</v>
+        <v>130</v>
+      </c>
+      <c r="F27">
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <f>SUM(B26)</f>
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <f>SUM(B26:C26)</f>
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="D28">
         <f>SUM(B26:D26)</f>
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="E28">
         <f>SUM(B26:E26)</f>
-        <v>166</v>
+        <v>1583</v>
       </c>
       <c r="F28" s="5">
         <f>SUM(C26:F26)</f>
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B27)</f>
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <f>SUM(B27:C27)</f>
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <f>SUM(B27:D27)</f>
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <f>SUM(B27:E27)</f>
+        <v>166</v>
+      </c>
+      <c r="F29" s="5">
+        <f>SUM(C27:F27)</f>
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>44046</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>44047</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>44048</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>44049</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>44050</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>44051</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>44052</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>44053</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="3">
         <v>44054</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <v>44055</v>
       </c>
-      <c r="L30" s="3">
-        <f t="shared" ref="L30:T30" si="0">K30+1</f>
+      <c r="L31" s="3">
+        <f t="shared" ref="L31:T31" si="0">K31+1</f>
         <v>44056</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M31" s="3">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="3">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="3">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R31" s="3">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S31" s="3">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T31" s="3">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U31" s="3">
         <v>44065</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V31" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>198</v>
-      </c>
-      <c r="J31">
-        <v>18</v>
-      </c>
-      <c r="K31">
-        <v>41</v>
-      </c>
-      <c r="L31">
-        <v>42</v>
-      </c>
-      <c r="M31">
-        <v>123</v>
-      </c>
-      <c r="N31">
-        <v>11</v>
-      </c>
-      <c r="O31">
-        <v>30</v>
-      </c>
-      <c r="P31">
-        <v>420</v>
-      </c>
-      <c r="Q31">
-        <v>355</v>
-      </c>
-      <c r="R31">
-        <v>493</v>
-      </c>
-      <c r="S31">
-        <v>256</v>
-      </c>
-      <c r="T31">
-        <v>202</v>
-      </c>
-      <c r="U31">
-        <v>104</v>
-      </c>
-      <c r="V31">
-        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O32">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P32">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="Q32">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="R32">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="S32">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="T32">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="U32">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="V32">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
         <v>14</v>
       </c>
-      <c r="B33" s="5">
-        <f>SUM(B31)</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="5">
-        <f>SUM(B31:C31)</f>
-        <v>13</v>
-      </c>
-      <c r="D33" s="5">
-        <f>SUM($B$31:D31)</f>
-        <v>20</v>
-      </c>
-      <c r="E33" s="5">
-        <f>SUM($B$31:E31)</f>
-        <v>26</v>
-      </c>
-      <c r="F33" s="5">
-        <f>SUM($B$31:F31)</f>
-        <v>29</v>
-      </c>
-      <c r="G33" s="5">
-        <f>SUM($B$31:G31)</f>
-        <v>39</v>
-      </c>
-      <c r="H33" s="5">
-        <f>SUM($B$31:H31)</f>
-        <v>46</v>
-      </c>
-      <c r="I33" s="5">
-        <f>SUM($B$31:I31)</f>
-        <v>244</v>
-      </c>
-      <c r="J33" s="5">
-        <f>SUM($B$31:J31)</f>
-        <v>262</v>
-      </c>
-      <c r="K33" s="5">
-        <f>SUM($B$31:K31)</f>
-        <v>303</v>
-      </c>
-      <c r="L33" s="5">
-        <f>SUM($B$31:L31)</f>
-        <v>345</v>
-      </c>
-      <c r="M33" s="5">
-        <f>SUM($B$31:M31)</f>
-        <v>468</v>
-      </c>
-      <c r="N33" s="5">
-        <f>SUM($B$31:N31)</f>
-        <v>479</v>
-      </c>
-      <c r="O33" s="5">
-        <f>SUM($B$31:O31)</f>
-        <v>509</v>
-      </c>
-      <c r="P33" s="5">
-        <f>SUM($B$31:P31)</f>
-        <v>929</v>
-      </c>
-      <c r="Q33" s="5">
-        <f>SUM($B$31:Q31)</f>
-        <v>1284</v>
-      </c>
-      <c r="R33" s="5">
-        <f>SUM($B$31:R31)</f>
-        <v>1777</v>
-      </c>
-      <c r="S33" s="5">
-        <f>SUM($B$31:S31)</f>
-        <v>2033</v>
-      </c>
-      <c r="T33" s="5">
-        <f>SUM($B$31:T31)</f>
-        <v>2235</v>
-      </c>
-      <c r="U33" s="5">
-        <f>SUM($B$31:U31)</f>
-        <v>2339</v>
-      </c>
-      <c r="V33" s="5">
-        <f>SUM($B$31:V31)</f>
-        <v>2698</v>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>98</v>
+      </c>
+      <c r="Q33">
+        <v>80</v>
+      </c>
+      <c r="R33">
+        <v>76</v>
+      </c>
+      <c r="S33">
+        <v>23</v>
+      </c>
+      <c r="T33">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <v>19</v>
+      </c>
+      <c r="V33">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="5">
         <f>SUM(B32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5">
-        <f>SUM($B$32:C32)</f>
-        <v>0</v>
+        <f>SUM(B32:C32)</f>
+        <v>13</v>
       </c>
       <c r="D34" s="5">
         <f>SUM($B$32:D32)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5">
         <f>SUM($B$32:E32)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F34" s="5">
         <f>SUM($B$32:F32)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G34" s="5">
         <f>SUM($B$32:G32)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H34" s="5">
         <f>SUM($B$32:H32)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I34" s="5">
         <f>SUM($B$32:I32)</f>
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="J34" s="5">
         <f>SUM($B$32:J32)</f>
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K34" s="5">
         <f>SUM($B$32:K32)</f>
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="L34" s="5">
         <f>SUM($B$32:L32)</f>
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="M34" s="5">
         <f>SUM($B$32:M32)</f>
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="N34" s="5">
         <f>SUM($B$32:N32)</f>
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="O34" s="5">
         <f>SUM($B$32:O32)</f>
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="P34" s="5">
         <f>SUM($B$32:P32)</f>
-        <v>169</v>
+        <v>929</v>
       </c>
       <c r="Q34" s="5">
         <f>SUM($B$32:Q32)</f>
-        <v>249</v>
+        <v>1284</v>
       </c>
       <c r="R34" s="5">
         <f>SUM($B$32:R32)</f>
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="S34" s="5">
         <f>SUM($B$32:S32)</f>
-        <v>348</v>
+        <v>2033</v>
       </c>
       <c r="T34" s="5">
         <f>SUM($B$32:T32)</f>
-        <v>372</v>
+        <v>2235</v>
       </c>
       <c r="U34" s="5">
         <f>SUM($B$32:U32)</f>
-        <v>391</v>
+        <v>2339</v>
       </c>
       <c r="V34" s="5">
         <f>SUM($B$32:V32)</f>
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5">
+        <f>SUM(B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <f>SUM($B$33:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <f>SUM($B$33:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f>SUM($B$33:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <f>SUM($B$33:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <f>SUM($B$33:G33)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <f>SUM($B$33:H33)</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="5">
+        <f>SUM($B$33:I33)</f>
+        <v>9</v>
+      </c>
+      <c r="J35" s="5">
+        <f>SUM($B$33:J33)</f>
+        <v>14</v>
+      </c>
+      <c r="K35" s="5">
+        <f>SUM($B$33:K33)</f>
+        <v>23</v>
+      </c>
+      <c r="L35" s="5">
+        <f>SUM($B$33:L33)</f>
+        <v>37</v>
+      </c>
+      <c r="M35" s="5">
+        <f>SUM($B$33:M33)</f>
+        <v>51</v>
+      </c>
+      <c r="N35" s="5">
+        <f>SUM($B$33:N33)</f>
+        <v>55</v>
+      </c>
+      <c r="O35" s="5">
+        <f>SUM($B$33:O33)</f>
+        <v>71</v>
+      </c>
+      <c r="P35" s="5">
+        <f>SUM($B$33:P33)</f>
+        <v>169</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>SUM($B$33:Q33)</f>
+        <v>249</v>
+      </c>
+      <c r="R35" s="5">
+        <f>SUM($B$33:R33)</f>
+        <v>325</v>
+      </c>
+      <c r="S35" s="5">
+        <f>SUM($B$33:S33)</f>
+        <v>348</v>
+      </c>
+      <c r="T35" s="5">
+        <f>SUM($B$33:T33)</f>
+        <v>372</v>
+      </c>
+      <c r="U35" s="5">
+        <f>SUM($B$33:U33)</f>
+        <v>391</v>
+      </c>
+      <c r="V35" s="5">
+        <f>SUM($B$33:V33)</f>
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>44056</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="3">
         <v>44063</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>236</v>
-      </c>
-      <c r="C37">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <f>SUM(B37)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>SUM($B$37:C37)</f>
-        <v>319</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <f>SUM(B38)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C40">
         <f>SUM($B$38:C38)</f>
+        <v>319</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <f>SUM(B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>SUM($B$39:C39)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>44044</v>
       </c>
-      <c r="C42" s="3">
-        <f t="shared" ref="C42:T42" si="1">B42+1</f>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:T43" si="1">B43+1</f>
         <v>44045</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="3">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L43" s="3">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M43" s="3">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="3">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O43" s="3">
         <f t="shared" si="1"/>
         <v>44057</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P43" s="3">
         <f t="shared" si="1"/>
         <v>44058</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q43" s="3">
         <f t="shared" si="1"/>
         <v>44059</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R43" s="3">
         <f t="shared" si="1"/>
         <v>44060</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S43" s="3">
         <f t="shared" si="1"/>
         <v>44061</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T43" s="3">
         <f t="shared" si="1"/>
         <v>44062</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U43" s="3">
         <v>44063</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V43" s="3">
         <v>44064</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W43" s="3">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>27</v>
-      </c>
-      <c r="E43">
-        <v>299</v>
-      </c>
-      <c r="F43">
-        <v>55</v>
-      </c>
-      <c r="G43">
-        <v>45</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>11</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>103</v>
-      </c>
-      <c r="M43">
-        <v>276</v>
-      </c>
-      <c r="N43">
-        <v>114</v>
-      </c>
-      <c r="O43">
-        <v>202</v>
-      </c>
-      <c r="P43">
-        <v>133</v>
-      </c>
-      <c r="Q43">
-        <v>98</v>
-      </c>
-      <c r="R43">
-        <v>211</v>
-      </c>
-      <c r="S43">
-        <v>213</v>
-      </c>
-      <c r="T43">
-        <v>367</v>
-      </c>
-      <c r="U43">
-        <v>257</v>
-      </c>
-      <c r="V43">
-        <v>347</v>
-      </c>
-      <c r="W43">
-        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="F44">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>45</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R44">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="U44">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="V44">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="W44">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>9</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>9</v>
+      </c>
+      <c r="V45">
         <v>14</v>
       </c>
-      <c r="B45">
-        <f>SUM(B43)</f>
+      <c r="W45">
         <v>3</v>
-      </c>
-      <c r="C45">
-        <f>SUM($B$43:C43)</f>
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <f>SUM($B$43:D43)</f>
-        <v>47</v>
-      </c>
-      <c r="E45">
-        <f>SUM($B$43:E43)</f>
-        <v>346</v>
-      </c>
-      <c r="F45">
-        <f>SUM($B$43:F43)</f>
-        <v>401</v>
-      </c>
-      <c r="G45">
-        <f>SUM($B$43:G43)</f>
-        <v>446</v>
-      </c>
-      <c r="H45">
-        <f>SUM($B$43:H43)</f>
-        <v>447</v>
-      </c>
-      <c r="I45">
-        <f>SUM($B$43:I43)</f>
-        <v>447</v>
-      </c>
-      <c r="J45">
-        <f>SUM($B$43:J43)</f>
-        <v>458</v>
-      </c>
-      <c r="K45">
-        <f>SUM($B$43:K43)</f>
-        <v>458</v>
-      </c>
-      <c r="L45">
-        <f>SUM($B$43:L43)</f>
-        <v>561</v>
-      </c>
-      <c r="M45">
-        <f>SUM($B$43:M43)</f>
-        <v>837</v>
-      </c>
-      <c r="N45">
-        <f>SUM($B$43:N43)</f>
-        <v>951</v>
-      </c>
-      <c r="O45">
-        <f>SUM($B$43:O43)</f>
-        <v>1153</v>
-      </c>
-      <c r="P45">
-        <f>SUM($B$43:P43)</f>
-        <v>1286</v>
-      </c>
-      <c r="Q45">
-        <f>SUM($B$43:Q43)</f>
-        <v>1384</v>
-      </c>
-      <c r="R45">
-        <f>SUM($B$43:R43)</f>
-        <v>1595</v>
-      </c>
-      <c r="S45">
-        <f>SUM($B$43:S43)</f>
-        <v>1808</v>
-      </c>
-      <c r="T45">
-        <f>SUM($B$43:T43)</f>
-        <v>2175</v>
-      </c>
-      <c r="U45" s="5">
-        <f>SUM($B$43:U43)</f>
-        <v>2432</v>
-      </c>
-      <c r="V45" s="5">
-        <f>SUM($B$43:V43)</f>
-        <v>2779</v>
-      </c>
-      <c r="W45" s="5">
-        <f>SUM($B$43:W43)</f>
-        <v>2947</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <f>SUM(B44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <f>SUM($B$44:C44)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <f>SUM($B$44:D44)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <f>SUM($B$44:E44)</f>
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F46">
         <f>SUM($B$44:F44)</f>
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="G46">
         <f>SUM($B$44:G44)</f>
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="H46">
         <f>SUM($B$44:H44)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="I46">
         <f>SUM($B$44:I44)</f>
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="J46">
         <f>SUM($B$44:J44)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="K46">
         <f>SUM($B$44:K44)</f>
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="L46">
         <f>SUM($B$44:L44)</f>
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M46">
         <f>SUM($B$44:M44)</f>
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="N46">
         <f>SUM($B$44:N44)</f>
-        <v>6</v>
+        <v>951</v>
       </c>
       <c r="O46">
         <f>SUM($B$44:O44)</f>
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="P46">
         <f>SUM($B$44:P44)</f>
-        <v>11</v>
+        <v>1286</v>
       </c>
       <c r="Q46">
         <f>SUM($B$44:Q44)</f>
-        <v>13</v>
+        <v>1384</v>
       </c>
       <c r="R46">
         <f>SUM($B$44:R44)</f>
-        <v>22</v>
+        <v>1595</v>
       </c>
       <c r="S46">
         <f>SUM($B$44:S44)</f>
-        <v>22</v>
+        <v>1808</v>
       </c>
       <c r="T46">
         <f>SUM($B$44:T44)</f>
-        <v>26</v>
+        <v>2175</v>
       </c>
       <c r="U46" s="5">
         <f>SUM($B$44:U44)</f>
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="V46" s="5">
         <f>SUM($B$44:V44)</f>
-        <v>49</v>
+        <v>2779</v>
       </c>
       <c r="W46" s="5">
         <f>SUM($B$44:W44)</f>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>SUM($B$45:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>SUM($B$45:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>SUM($B$45:E45)</f>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f>SUM($B$45:F45)</f>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f>SUM($B$45:G45)</f>
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <f>SUM($B$45:H45)</f>
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <f>SUM($B$45:I45)</f>
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <f>SUM($B$45:J45)</f>
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <f>SUM($B$45:K45)</f>
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <f>SUM($B$45:L45)</f>
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <f>SUM($B$45:M45)</f>
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <f>SUM($B$45:N45)</f>
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <f>SUM($B$45:O45)</f>
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <f>SUM($B$45:P45)</f>
+        <v>11</v>
+      </c>
+      <c r="Q47">
+        <f>SUM($B$45:Q45)</f>
+        <v>13</v>
+      </c>
+      <c r="R47">
+        <f>SUM($B$45:R45)</f>
+        <v>22</v>
+      </c>
+      <c r="S47">
+        <f>SUM($B$45:S45)</f>
+        <v>22</v>
+      </c>
+      <c r="T47">
+        <f>SUM($B$45:T45)</f>
+        <v>26</v>
+      </c>
+      <c r="U47" s="5">
+        <f>SUM($B$45:U45)</f>
+        <v>35</v>
+      </c>
+      <c r="V47" s="5">
+        <f>SUM($B$45:V45)</f>
+        <v>49</v>
+      </c>
+      <c r="W47" s="5">
+        <f>SUM($B$45:W45)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3">
         <v>44058</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="3">
         <v>44064</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f>5854+516</f>
         <v>6370</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>5028</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <f>B49</f>
-        <v>6370</v>
-      </c>
-      <c r="C51">
-        <f>SUM($B$49:C49)</f>
-        <v>11398</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <f>B50</f>
-        <v>15</v>
+        <v>6370</v>
       </c>
       <c r="C52">
         <f>SUM($B$50:C50)</f>
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <f>B51</f>
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <f>SUM($B$51:C51)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>44050</v>
       </c>
-      <c r="C54" s="3">
-        <f t="shared" ref="C54:P54" si="2">B54+1</f>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:P55" si="2">B55+1</f>
         <v>44051</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="3">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="3">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="3">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J55" s="3">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K55" s="3">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L55" s="3">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="2"/>
         <v>44061</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N55" s="3">
         <f t="shared" si="2"/>
         <v>44062</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O55" s="3">
         <f t="shared" si="2"/>
         <v>44063</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P55" s="3">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q55" s="3">
         <v>44065</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R55" s="3">
         <v>44066</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55">
-        <v>210</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>219</v>
-      </c>
-      <c r="G55">
-        <v>48</v>
-      </c>
-      <c r="H55">
-        <v>246</v>
-      </c>
-      <c r="I55">
-        <v>578</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>645</v>
-      </c>
-      <c r="N55">
-        <v>582</v>
-      </c>
-      <c r="O55">
-        <v>831</v>
-      </c>
-      <c r="P55">
-        <v>1016</v>
-      </c>
-      <c r="Q55">
-        <v>1002</v>
-      </c>
-      <c r="R55">
-        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2103,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2124,2249 +2082,2237 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <f>SUM(B55)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <f>SUM($B$55:C55)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <f>SUM($B$55:D55)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <f>SUM($B$55:E55)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <f>SUM($B$55:F55)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <f>SUM($B$55:G55)</f>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <f>SUM($B$55:H55)</f>
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <f>SUM($B$55:I55)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <f>SUM($B$55:J55)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <f>SUM($B$55:K55)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <f>SUM($B$55:L55)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <f>SUM($B$55:M55)</f>
-        <v>1955</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <f>SUM($B$55:N55)</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <f>SUM($B$55:O55)</f>
-        <v>3368</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <f>SUM($B$55:P55)</f>
-        <v>4384</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <f>SUM($B$55:Q55)</f>
-        <v>5386</v>
-      </c>
-      <c r="R57" s="5">
-        <f>SUM($B$55:R55)</f>
-        <v>6053</v>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <f>SUM(B56)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C58">
         <f>SUM($B$56:C56)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D58">
         <f>SUM($B$56:D56)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E58">
         <f>SUM($B$56:E56)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F58">
         <f>SUM($B$56:F56)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G58">
         <f>SUM($B$56:G56)</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H58">
         <f>SUM($B$56:H56)</f>
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="I58">
         <f>SUM($B$56:I56)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="J58">
         <f>SUM($B$56:J56)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="K58">
         <f>SUM($B$56:K56)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="L58">
         <f>SUM($B$56:L56)</f>
-        <v>1</v>
+        <v>1310</v>
       </c>
       <c r="M58">
         <f>SUM($B$56:M56)</f>
-        <v>2</v>
+        <v>1955</v>
       </c>
       <c r="N58">
         <f>SUM($B$56:N56)</f>
-        <v>2</v>
+        <v>2537</v>
       </c>
       <c r="O58">
         <f>SUM($B$56:O56)</f>
-        <v>3</v>
+        <v>3368</v>
       </c>
       <c r="P58">
         <f>SUM($B$56:P56)</f>
-        <v>5</v>
+        <v>4384</v>
       </c>
       <c r="Q58">
         <f>SUM($B$56:Q56)</f>
-        <v>5</v>
+        <v>5386</v>
       </c>
       <c r="R58" s="5">
         <f>SUM($B$56:R56)</f>
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <f>SUM(B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>SUM($B$57:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>SUM($B$57:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>SUM($B$57:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>SUM($B$57:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>SUM($B$57:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>SUM($B$57:H57)</f>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f>SUM($B$57:I57)</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>SUM($B$57:J57)</f>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f>SUM($B$57:K57)</f>
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f>SUM($B$57:L57)</f>
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f>SUM($B$57:M57)</f>
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <f>SUM($B$57:N57)</f>
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <f>SUM($B$57:O57)</f>
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <f>SUM($B$57:P57)</f>
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <f>SUM($B$57:Q57)</f>
+        <v>5</v>
+      </c>
+      <c r="R59" s="5">
+        <f>SUM($B$57:R57)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="3">
-        <v>44049</v>
-      </c>
-      <c r="C60" s="3">
-        <v>44054</v>
-      </c>
-      <c r="D60" s="3">
-        <v>44061</v>
-      </c>
-      <c r="E60" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F60" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44054</v>
+      </c>
+      <c r="D61" s="3">
+        <v>44061</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="5">
-        <f>SUM($B$61:B61)</f>
+        <v>17</v>
+      </c>
+      <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <f>SUM($B$61:C61)</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <f>SUM($B$61:D61)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
-        <f>SUM($B$61:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="5">
-        <f>SUM($B$61:F61)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="5">
+        <f>SUM($B$62:B62)</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$62:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f>SUM($B$62:D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <f>SUM($B$62:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <f>SUM($B$62:F62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="5">
-        <f>SUM($B$61:B62)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="5">
-        <f>SUM($B$61:C62)</f>
+      <c r="B65" s="5">
+        <f>SUM($B$62:B63)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <f>SUM($B$62:C63)</f>
         <v>3</v>
       </c>
-      <c r="D64" s="5">
-        <f>SUM($B$61:D62)</f>
+      <c r="D65" s="5">
+        <f>SUM($B$62:D63)</f>
         <v>5</v>
       </c>
-      <c r="E64" s="5">
-        <f>SUM($B$61:E62)</f>
+      <c r="E65" s="5">
+        <f>SUM($B$62:E63)</f>
         <v>10</v>
       </c>
-      <c r="F64" s="5">
-        <f>SUM($B$61:F62)</f>
+      <c r="F65" s="5">
+        <f>SUM($B$62:F63)</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="3">
-        <v>44052</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44062</v>
-      </c>
-      <c r="D66" s="3">
-        <v>44063</v>
-      </c>
-      <c r="E66" s="3">
-        <v>44064</v>
-      </c>
-      <c r="F66" s="3">
-        <v>44065</v>
-      </c>
-      <c r="G66" s="3">
-        <v>44066</v>
-      </c>
-      <c r="H66" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67">
-        <v>333</v>
-      </c>
-      <c r="C67">
-        <v>809</v>
-      </c>
-      <c r="D67">
-        <v>1408</v>
-      </c>
-      <c r="E67">
-        <v>852</v>
-      </c>
-      <c r="F67">
-        <v>763</v>
-      </c>
-      <c r="G67">
-        <v>518</v>
-      </c>
-      <c r="H67">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44062</v>
+      </c>
+      <c r="D67" s="3">
+        <v>44063</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44065</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44066</v>
+      </c>
+      <c r="H67" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1408</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>763</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="5">
-        <f>SUM($B$67:B67)</f>
-        <v>333</v>
-      </c>
-      <c r="C69" s="5">
-        <f>SUM($B$67:C67)</f>
-        <v>1142</v>
-      </c>
-      <c r="D69" s="5">
-        <f>SUM($B$67:D67)</f>
-        <v>2550</v>
-      </c>
-      <c r="E69" s="5">
-        <f>SUM($B$67:E67)</f>
-        <v>3402</v>
-      </c>
-      <c r="F69" s="5">
-        <f>SUM($B$67:F67)</f>
-        <v>4165</v>
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
       </c>
       <c r="G69">
-        <f>SUM($B$67:G67)</f>
-        <v>4683</v>
-      </c>
-      <c r="H69" s="5">
-        <f>SUM($B$67:H67)</f>
-        <v>4689</v>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="5">
         <f>SUM($B$68:B68)</f>
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C70" s="5">
         <f>SUM($B$68:C68)</f>
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D70" s="5">
         <f>SUM($B$68:D68)</f>
-        <v>5</v>
+        <v>2550</v>
       </c>
       <c r="E70" s="5">
         <f>SUM($B$68:E68)</f>
-        <v>5</v>
+        <v>3402</v>
       </c>
       <c r="F70" s="5">
         <f>SUM($B$68:F68)</f>
-        <v>6</v>
-      </c>
-      <c r="G70" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G70">
         <f>SUM($B$68:G68)</f>
-        <v>7</v>
+        <v>4683</v>
       </c>
       <c r="H70" s="5">
         <f>SUM($B$68:H68)</f>
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="5">
+        <f>SUM($B$69:B69)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <f>SUM($B$69:C69)</f>
+        <v>3</v>
+      </c>
+      <c r="D71" s="5">
+        <f>SUM($B$69:D69)</f>
+        <v>5</v>
+      </c>
+      <c r="E71" s="5">
+        <f>SUM($B$69:E69)</f>
+        <v>5</v>
+      </c>
+      <c r="F71" s="5">
+        <f>SUM($B$69:F69)</f>
+        <v>6</v>
+      </c>
+      <c r="G71" s="5">
+        <f>SUM($B$69:G69)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="H71" s="5">
+        <f>SUM($B$69:H69)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>43898</v>
       </c>
-      <c r="C72" s="3">
-        <f t="shared" ref="C72:Z72" si="3">B72+7</f>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73:Z73" si="3">B73+7</f>
         <v>43905</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <f t="shared" si="3"/>
         <v>43912</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <f t="shared" si="3"/>
         <v>43919</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <f t="shared" si="3"/>
         <v>43926</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <f t="shared" si="3"/>
         <v>43933</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H73" s="3">
         <f t="shared" si="3"/>
         <v>43940</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I73" s="3">
         <f t="shared" si="3"/>
         <v>43947</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <f t="shared" si="3"/>
         <v>43954</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <f t="shared" si="3"/>
         <v>43961</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <f t="shared" si="3"/>
         <v>43968</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M73" s="3">
         <f t="shared" si="3"/>
         <v>43975</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N73" s="3">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O73" s="3">
         <f t="shared" si="3"/>
         <v>43989</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P73" s="3">
         <f t="shared" si="3"/>
         <v>43996</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q73" s="3">
         <f t="shared" si="3"/>
         <v>44003</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R73" s="3">
         <f t="shared" si="3"/>
         <v>44010</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S73" s="3">
         <f t="shared" si="3"/>
         <v>44017</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T73" s="3">
         <f t="shared" si="3"/>
         <v>44024</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U73" s="3">
         <f t="shared" si="3"/>
         <v>44031</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V73" s="3">
         <f t="shared" si="3"/>
         <v>44038</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W73" s="3">
         <f t="shared" si="3"/>
         <v>44045</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X73" s="3">
         <f t="shared" si="3"/>
         <v>44052</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y73" s="3">
         <f t="shared" si="3"/>
         <v>44059</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z73" s="3">
         <f t="shared" si="3"/>
         <v>44066</v>
       </c>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-    </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73">
-        <v>36</v>
-      </c>
-      <c r="C73">
-        <v>273</v>
-      </c>
-      <c r="D73">
-        <v>179</v>
-      </c>
-      <c r="E73">
-        <v>120</v>
-      </c>
-      <c r="F73">
-        <v>106</v>
-      </c>
-      <c r="G73">
-        <v>86</v>
-      </c>
-      <c r="H73">
-        <v>124</v>
-      </c>
-      <c r="I73">
-        <v>129</v>
-      </c>
-      <c r="J73">
-        <v>163</v>
-      </c>
-      <c r="K73">
-        <v>162</v>
-      </c>
-      <c r="L73">
-        <v>160</v>
-      </c>
-      <c r="M73">
-        <v>156</v>
-      </c>
-      <c r="N73">
-        <v>199</v>
-      </c>
-      <c r="O73">
-        <v>329</v>
-      </c>
-      <c r="P73">
-        <v>439</v>
-      </c>
-      <c r="Q73">
-        <v>346</v>
-      </c>
-      <c r="R73">
-        <v>395</v>
-      </c>
-      <c r="S73">
-        <v>570</v>
-      </c>
-      <c r="T73">
-        <v>521</v>
-      </c>
-      <c r="U73">
-        <v>460</v>
-      </c>
-      <c r="V73">
-        <v>559</v>
-      </c>
-      <c r="W73">
-        <v>1018</v>
-      </c>
-      <c r="X73">
-        <v>865</v>
-      </c>
-      <c r="Y73">
-        <v>846</v>
-      </c>
-      <c r="Z73">
-        <v>11</v>
-      </c>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>0.19400000000000001</v>
+        <v>36</v>
       </c>
       <c r="C74">
-        <v>0.125</v>
+        <v>273</v>
       </c>
       <c r="D74">
-        <v>0.223</v>
+        <v>179</v>
       </c>
       <c r="E74">
-        <v>0.16700000000000001</v>
+        <v>120</v>
       </c>
       <c r="F74">
-        <v>8.5000000000000006E-2</v>
+        <v>106</v>
       </c>
       <c r="G74">
-        <v>4.7E-2</v>
+        <v>86</v>
       </c>
       <c r="H74">
-        <v>0.04</v>
+        <v>124</v>
       </c>
       <c r="I74">
-        <v>8.0000000000000002E-3</v>
+        <v>129</v>
       </c>
       <c r="J74">
-        <v>2.5000000000000001E-2</v>
+        <v>163</v>
       </c>
       <c r="K74">
-        <v>6.0000000000000001E-3</v>
+        <v>162</v>
       </c>
       <c r="L74">
-        <v>1.9E-2</v>
+        <v>160</v>
       </c>
       <c r="M74">
-        <v>6.0000000000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="N74">
-        <v>5.0000000000000001E-3</v>
+        <v>199</v>
       </c>
       <c r="O74">
-        <v>1.4999999999999999E-2</v>
+        <v>329</v>
       </c>
       <c r="P74">
-        <v>4.8000000000000001E-2</v>
+        <v>439</v>
       </c>
       <c r="Q74">
-        <v>2.9000000000000001E-2</v>
+        <v>346</v>
       </c>
       <c r="R74">
-        <v>2.5000000000000001E-2</v>
+        <v>395</v>
       </c>
       <c r="S74">
-        <v>2.3E-2</v>
+        <v>570</v>
       </c>
       <c r="T74">
-        <v>3.1E-2</v>
+        <v>521</v>
       </c>
       <c r="U74">
-        <v>4.5999999999999999E-2</v>
+        <v>460</v>
       </c>
       <c r="V74">
-        <v>3.9E-2</v>
+        <v>559</v>
       </c>
       <c r="W74">
-        <v>1.6E-2</v>
+        <v>1018</v>
       </c>
       <c r="X74">
-        <v>0.01</v>
+        <v>865</v>
       </c>
       <c r="Y74">
-        <v>8.9999999999999993E-3</v>
+        <v>846</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.125</v>
+      </c>
+      <c r="D75">
+        <v>0.223</v>
+      </c>
+      <c r="E75">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F75">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.04</v>
+      </c>
+      <c r="I75">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L75">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P75">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q75">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S75">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T75">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U75">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V75">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W75">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X75">
+        <v>0.01</v>
+      </c>
+      <c r="Y75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B75">
-        <f>ROUND(B74*B73,0)</f>
+      <c r="B76">
+        <f>ROUND(B75*B74,0)</f>
         <v>7</v>
       </c>
-      <c r="C75" s="5">
-        <f t="shared" ref="C75:Z75" si="4">ROUND(C74*C73,0)</f>
+      <c r="C76" s="5">
+        <f t="shared" ref="C76:Z76" si="4">ROUND(C75*C74,0)</f>
         <v>34</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H76" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I76" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J76" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K76" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L76" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M76" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N76" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O76" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P75" s="5">
+      <c r="P76" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q75" s="5">
+      <c r="Q76" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R75" s="5">
+      <c r="R76" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S75" s="5">
+      <c r="S76" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T75" s="5">
+      <c r="T76" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="U75" s="5">
+      <c r="U76" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="V75" s="5">
+      <c r="V76" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W75" s="5">
+      <c r="W76" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X75" s="5">
+      <c r="X76" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Y75" s="5">
+      <c r="Y76" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z75" s="5">
+      <c r="Z76" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="5">
-        <f>SUM($B$73:B73)</f>
-        <v>36</v>
-      </c>
-      <c r="C76">
-        <f>SUM($B$73:C73)</f>
-        <v>309</v>
-      </c>
-      <c r="D76" s="5">
-        <f>SUM($B$73:D73)</f>
-        <v>488</v>
-      </c>
-      <c r="E76" s="5">
-        <f>SUM($B$73:E73)</f>
-        <v>608</v>
-      </c>
-      <c r="F76" s="5">
-        <f>SUM($B$73:F73)</f>
-        <v>714</v>
-      </c>
-      <c r="G76" s="5">
-        <f>SUM($B$73:G73)</f>
-        <v>800</v>
-      </c>
-      <c r="H76" s="5">
-        <f>SUM($B$73:H73)</f>
-        <v>924</v>
-      </c>
-      <c r="I76" s="5">
-        <f>SUM($B$73:I73)</f>
-        <v>1053</v>
-      </c>
-      <c r="J76" s="5">
-        <f>SUM($B$73:J73)</f>
-        <v>1216</v>
-      </c>
-      <c r="K76" s="5">
-        <f>SUM($B$73:K73)</f>
-        <v>1378</v>
-      </c>
-      <c r="L76" s="5">
-        <f>SUM($B$73:L73)</f>
-        <v>1538</v>
-      </c>
-      <c r="M76" s="5">
-        <f>SUM($B$73:M73)</f>
-        <v>1694</v>
-      </c>
-      <c r="N76" s="5">
-        <f>SUM($B$73:N73)</f>
-        <v>1893</v>
-      </c>
-      <c r="O76" s="5">
-        <f>SUM($B$73:O73)</f>
-        <v>2222</v>
-      </c>
-      <c r="P76" s="5">
-        <f>SUM($B$73:P73)</f>
-        <v>2661</v>
-      </c>
-      <c r="Q76" s="5">
-        <f>SUM($B$73:Q73)</f>
-        <v>3007</v>
-      </c>
-      <c r="R76" s="5">
-        <f>SUM($B$73:R73)</f>
-        <v>3402</v>
-      </c>
-      <c r="S76" s="5">
-        <f>SUM($B$73:S73)</f>
-        <v>3972</v>
-      </c>
-      <c r="T76" s="5">
-        <f>SUM($B$73:T73)</f>
-        <v>4493</v>
-      </c>
-      <c r="U76" s="5">
-        <f>SUM($B$73:U73)</f>
-        <v>4953</v>
-      </c>
-      <c r="V76" s="5">
-        <f>SUM($B$73:V73)</f>
-        <v>5512</v>
-      </c>
-      <c r="W76" s="5">
-        <f>SUM($B$73:W73)</f>
-        <v>6530</v>
-      </c>
-      <c r="X76" s="5">
-        <f>SUM($B$73:X73)</f>
-        <v>7395</v>
-      </c>
-      <c r="Y76" s="5">
-        <f>SUM($B$73:Y73)</f>
-        <v>8241</v>
-      </c>
-      <c r="Z76" s="5">
-        <f>SUM($B$73:Z73)</f>
-        <v>8252</v>
       </c>
     </row>
     <row r="77" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" s="5">
         <f>SUM($B$74:B74)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C77" s="5">
+        <v>36</v>
+      </c>
+      <c r="C77">
         <f>SUM($B$74:C74)</f>
-        <v>0.31900000000000001</v>
+        <v>309</v>
       </c>
       <c r="D77" s="5">
         <f>SUM($B$74:D74)</f>
-        <v>0.54200000000000004</v>
+        <v>488</v>
       </c>
       <c r="E77" s="5">
         <f>SUM($B$74:E74)</f>
-        <v>0.70900000000000007</v>
+        <v>608</v>
       </c>
       <c r="F77" s="5">
         <f>SUM($B$74:F74)</f>
-        <v>0.79400000000000004</v>
+        <v>714</v>
       </c>
       <c r="G77" s="5">
         <f>SUM($B$74:G74)</f>
-        <v>0.84100000000000008</v>
+        <v>800</v>
       </c>
       <c r="H77" s="5">
         <f>SUM($B$74:H74)</f>
-        <v>0.88100000000000012</v>
+        <v>924</v>
       </c>
       <c r="I77" s="5">
         <f>SUM($B$74:I74)</f>
-        <v>0.88900000000000012</v>
+        <v>1053</v>
       </c>
       <c r="J77" s="5">
         <f>SUM($B$74:J74)</f>
-        <v>0.91400000000000015</v>
+        <v>1216</v>
       </c>
       <c r="K77" s="5">
         <f>SUM($B$74:K74)</f>
-        <v>0.92000000000000015</v>
+        <v>1378</v>
       </c>
       <c r="L77" s="5">
         <f>SUM($B$74:L74)</f>
-        <v>0.93900000000000017</v>
+        <v>1538</v>
       </c>
       <c r="M77" s="5">
         <f>SUM($B$74:M74)</f>
-        <v>0.94500000000000017</v>
+        <v>1694</v>
       </c>
       <c r="N77" s="5">
         <f>SUM($B$74:N74)</f>
-        <v>0.95000000000000018</v>
+        <v>1893</v>
       </c>
       <c r="O77" s="5">
         <f>SUM($B$74:O74)</f>
-        <v>0.96500000000000019</v>
+        <v>2222</v>
       </c>
       <c r="P77" s="5">
         <f>SUM($B$74:P74)</f>
-        <v>1.0130000000000001</v>
+        <v>2661</v>
       </c>
       <c r="Q77" s="5">
         <f>SUM($B$74:Q74)</f>
-        <v>1.042</v>
+        <v>3007</v>
       </c>
       <c r="R77" s="5">
         <f>SUM($B$74:R74)</f>
-        <v>1.0669999999999999</v>
+        <v>3402</v>
       </c>
       <c r="S77" s="5">
         <f>SUM($B$74:S74)</f>
-        <v>1.0899999999999999</v>
+        <v>3972</v>
       </c>
       <c r="T77" s="5">
         <f>SUM($B$74:T74)</f>
-        <v>1.1209999999999998</v>
+        <v>4493</v>
       </c>
       <c r="U77" s="5">
         <f>SUM($B$74:U74)</f>
-        <v>1.1669999999999998</v>
+        <v>4953</v>
       </c>
       <c r="V77" s="5">
         <f>SUM($B$74:V74)</f>
-        <v>1.2059999999999997</v>
+        <v>5512</v>
       </c>
       <c r="W77" s="5">
         <f>SUM($B$74:W74)</f>
-        <v>1.2219999999999998</v>
+        <v>6530</v>
       </c>
       <c r="X77" s="5">
         <f>SUM($B$74:X74)</f>
-        <v>1.2319999999999998</v>
+        <v>7395</v>
       </c>
       <c r="Y77" s="5">
         <f>SUM($B$74:Y74)</f>
-        <v>1.2409999999999997</v>
+        <v>8241</v>
       </c>
       <c r="Z77" s="5">
         <f>SUM($B$74:Z74)</f>
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="5">
+        <f>SUM($B$75:B75)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C78" s="5">
+        <f>SUM($B$75:C75)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D78" s="5">
+        <f>SUM($B$75:D75)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E78" s="5">
+        <f>SUM($B$75:E75)</f>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F78" s="5">
+        <f>SUM($B$75:F75)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G78" s="5">
+        <f>SUM($B$75:G75)</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H78" s="5">
+        <f>SUM($B$75:H75)</f>
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="I78" s="5">
+        <f>SUM($B$75:I75)</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="J78" s="5">
+        <f>SUM($B$75:J75)</f>
+        <v>0.91400000000000015</v>
+      </c>
+      <c r="K78" s="5">
+        <f>SUM($B$75:K75)</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="L78" s="5">
+        <f>SUM($B$75:L75)</f>
+        <v>0.93900000000000017</v>
+      </c>
+      <c r="M78" s="5">
+        <f>SUM($B$75:M75)</f>
+        <v>0.94500000000000017</v>
+      </c>
+      <c r="N78" s="5">
+        <f>SUM($B$75:N75)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="O78" s="5">
+        <f>SUM($B$75:O75)</f>
+        <v>0.96500000000000019</v>
+      </c>
+      <c r="P78" s="5">
+        <f>SUM($B$75:P75)</f>
+        <v>1.0130000000000001</v>
+      </c>
+      <c r="Q78" s="5">
+        <f>SUM($B$75:Q75)</f>
+        <v>1.042</v>
+      </c>
+      <c r="R78" s="5">
+        <f>SUM($B$75:R75)</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="S78" s="5">
+        <f>SUM($B$75:S75)</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T78" s="5">
+        <f>SUM($B$75:T75)</f>
+        <v>1.1209999999999998</v>
+      </c>
+      <c r="U78" s="5">
+        <f>SUM($B$75:U75)</f>
+        <v>1.1669999999999998</v>
+      </c>
+      <c r="V78" s="5">
+        <f>SUM($B$75:V75)</f>
+        <v>1.2059999999999997</v>
+      </c>
+      <c r="W78" s="5">
+        <f>SUM($B$75:W75)</f>
+        <v>1.2219999999999998</v>
+      </c>
+      <c r="X78" s="5">
+        <f>SUM($B$75:X75)</f>
+        <v>1.2319999999999998</v>
+      </c>
+      <c r="Y78" s="5">
+        <f>SUM($B$75:Y75)</f>
         <v>1.2409999999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="Z78" s="5">
+        <f>SUM($B$75:Z75)</f>
+        <v>1.2409999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B80" s="3">
         <v>43989</v>
       </c>
-      <c r="C79" s="3">
-        <f>B79+7</f>
+      <c r="C80" s="3">
+        <f>B80+7</f>
         <v>43996</v>
       </c>
-      <c r="D79" s="3">
-        <f>C79+7</f>
+      <c r="D80" s="3">
+        <f>C80+7</f>
         <v>44003</v>
       </c>
-      <c r="E79" s="3">
-        <f>D79+7</f>
+      <c r="E80" s="3">
+        <f>D80+7</f>
         <v>44010</v>
       </c>
-      <c r="F79" s="3">
-        <f>E79+7</f>
+      <c r="F80" s="3">
+        <f>E80+7</f>
         <v>44017</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="3">
         <v>44031</v>
       </c>
-      <c r="H79" s="3">
-        <f t="shared" ref="H79:K79" si="5">G79+7</f>
+      <c r="H80" s="3">
+        <f t="shared" ref="H80:K80" si="5">G80+7</f>
         <v>44038</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I80" s="3">
         <f t="shared" si="5"/>
         <v>44045</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J80" s="3">
         <f t="shared" si="5"/>
         <v>44052</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K80" s="3">
         <f t="shared" si="5"/>
         <v>44059</v>
       </c>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
-      <c r="AH79" s="3"/>
-      <c r="AI79" s="3"/>
-      <c r="AJ79" s="3"/>
-      <c r="AK79" s="3"/>
-      <c r="AL79" s="3"/>
-      <c r="AM79" s="3"/>
-      <c r="AN79" s="3"/>
-      <c r="AO79" s="3"/>
-      <c r="AP79" s="3"/>
-      <c r="AQ79" s="3"/>
-      <c r="AR79" s="3"/>
-      <c r="AS79" s="3"/>
-      <c r="AT79" s="3"/>
-      <c r="AU79" s="3"/>
-      <c r="AV79" s="3"/>
-      <c r="AW79" s="3"/>
-      <c r="AX79" s="3"/>
-      <c r="AY79" s="3"/>
-      <c r="AZ79" s="3"/>
-      <c r="BA79" s="3"/>
-      <c r="BB79" s="3"/>
-      <c r="BC79" s="3"/>
-      <c r="BD79" s="3"/>
-      <c r="BE79" s="3"/>
-      <c r="BF79" s="3"/>
-      <c r="BG79" s="3"/>
-      <c r="BH79" s="3"/>
-      <c r="BI79" s="3"/>
-      <c r="BJ79" s="3"/>
-      <c r="BK79" s="3"/>
-      <c r="BL79" s="3"/>
-      <c r="BM79" s="3"/>
-      <c r="BN79" s="3"/>
-      <c r="BO79" s="3"/>
-      <c r="BP79" s="3"/>
-      <c r="BQ79" s="3"/>
-      <c r="BR79" s="3"/>
-      <c r="BS79" s="3"/>
-      <c r="BT79" s="3"/>
-      <c r="BU79" s="3"/>
-      <c r="BV79" s="3"/>
-      <c r="BW79" s="3"/>
-      <c r="BX79" s="3"/>
-      <c r="BY79" s="3"/>
-      <c r="BZ79" s="3"/>
-      <c r="CA79" s="3"/>
-      <c r="CB79" s="3"/>
-      <c r="CC79" s="3"/>
-      <c r="CD79" s="3"/>
-      <c r="CE79" s="3"/>
-      <c r="CF79" s="3"/>
-      <c r="CG79" s="3"/>
-      <c r="CH79" s="3"/>
-      <c r="CI79" s="3"/>
-      <c r="CJ79" s="3"/>
-      <c r="CK79" s="3"/>
-      <c r="CL79" s="3"/>
-      <c r="CM79" s="3"/>
-      <c r="CN79" s="3"/>
-      <c r="CO79" s="3"/>
-      <c r="CP79" s="3"/>
-      <c r="CQ79" s="3"/>
-    </row>
-    <row r="80" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80">
-        <v>85</v>
-      </c>
-      <c r="C80">
-        <v>168</v>
-      </c>
-      <c r="D80">
-        <v>51</v>
-      </c>
-      <c r="E80">
-        <v>42</v>
-      </c>
-      <c r="F80">
-        <v>46</v>
-      </c>
-      <c r="G80">
-        <v>82</v>
-      </c>
-      <c r="H80">
-        <v>319</v>
-      </c>
-      <c r="I80">
-        <v>78</v>
-      </c>
-      <c r="J80">
-        <v>210</v>
-      </c>
-      <c r="K80">
-        <v>222</v>
-      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
+      <c r="AV80" s="3"/>
+      <c r="AW80" s="3"/>
+      <c r="AX80" s="3"/>
+      <c r="AY80" s="3"/>
+      <c r="AZ80" s="3"/>
+      <c r="BA80" s="3"/>
+      <c r="BB80" s="3"/>
+      <c r="BC80" s="3"/>
+      <c r="BD80" s="3"/>
+      <c r="BE80" s="3"/>
+      <c r="BF80" s="3"/>
+      <c r="BG80" s="3"/>
+      <c r="BH80" s="3"/>
+      <c r="BI80" s="3"/>
+      <c r="BJ80" s="3"/>
+      <c r="BK80" s="3"/>
+      <c r="BL80" s="3"/>
+      <c r="BM80" s="3"/>
+      <c r="BN80" s="3"/>
+      <c r="BO80" s="3"/>
+      <c r="BP80" s="3"/>
+      <c r="BQ80" s="3"/>
+      <c r="BR80" s="3"/>
+      <c r="BS80" s="3"/>
+      <c r="BT80" s="3"/>
+      <c r="BU80" s="3"/>
+      <c r="BV80" s="3"/>
+      <c r="BW80" s="3"/>
+      <c r="BX80" s="3"/>
+      <c r="BY80" s="3"/>
+      <c r="BZ80" s="3"/>
+      <c r="CA80" s="3"/>
+      <c r="CB80" s="3"/>
+      <c r="CC80" s="3"/>
+      <c r="CD80" s="3"/>
+      <c r="CE80" s="3"/>
+      <c r="CF80" s="3"/>
+      <c r="CG80" s="3"/>
+      <c r="CH80" s="3"/>
+      <c r="CI80" s="3"/>
+      <c r="CJ80" s="3"/>
+      <c r="CK80" s="3"/>
+      <c r="CL80" s="3"/>
+      <c r="CM80" s="3"/>
+      <c r="CN80" s="3"/>
+      <c r="CO80" s="3"/>
+      <c r="CP80" s="3"/>
+      <c r="CQ80" s="3"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="5">
-        <f>SUM($B80:B80)</f>
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82">
-        <f>SUM($B80:C80)</f>
-        <v>253</v>
-      </c>
-      <c r="D82" s="5">
-        <f>SUM($B80:D80)</f>
-        <v>304</v>
-      </c>
-      <c r="E82" s="5">
-        <f>SUM($B80:E80)</f>
-        <v>346</v>
-      </c>
-      <c r="F82" s="5">
-        <f>SUM($B80:F80)</f>
-        <v>392</v>
-      </c>
-      <c r="G82" s="5">
-        <f>SUM($B80:G80)</f>
-        <v>474</v>
-      </c>
-      <c r="H82" s="5">
-        <f>SUM($B80:H80)</f>
-        <v>793</v>
-      </c>
-      <c r="I82" s="5">
-        <f>SUM($B80:I80)</f>
-        <v>871</v>
-      </c>
-      <c r="J82" s="5">
-        <f>SUM($B80:J80)</f>
-        <v>1081</v>
-      </c>
-      <c r="K82" s="5">
-        <f>SUM($B80:K80)</f>
-        <v>1303</v>
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B83" s="5">
         <f>SUM($B81:B81)</f>
-        <v>3</v>
-      </c>
-      <c r="C83" s="5">
+        <v>85</v>
+      </c>
+      <c r="C83">
         <f>SUM($B81:C81)</f>
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D83" s="5">
         <f>SUM($B81:D81)</f>
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="E83" s="5">
         <f>SUM($B81:E81)</f>
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="F83" s="5">
         <f>SUM($B81:F81)</f>
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="G83" s="5">
         <f>SUM($B81:G81)</f>
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="H83" s="5">
         <f>SUM($B81:H81)</f>
-        <v>21</v>
+        <v>793</v>
       </c>
       <c r="I83" s="5">
         <f>SUM($B81:I81)</f>
-        <v>21</v>
+        <v>871</v>
       </c>
       <c r="J83" s="5">
         <f>SUM($B81:J81)</f>
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="K83" s="5">
         <f>SUM($B81:K81)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="5">
+        <f>SUM($B82:B82)</f>
+        <v>3</v>
+      </c>
+      <c r="C84" s="5">
+        <f>SUM($B82:C82)</f>
+        <v>17</v>
+      </c>
+      <c r="D84" s="5">
+        <f>SUM($B82:D82)</f>
+        <v>20</v>
+      </c>
+      <c r="E84" s="5">
+        <f>SUM($B82:E82)</f>
+        <v>20</v>
+      </c>
+      <c r="F84" s="5">
+        <f>SUM($B82:F82)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="G84" s="5">
+        <f>SUM($B82:G82)</f>
+        <v>21</v>
+      </c>
+      <c r="H84" s="5">
+        <f>SUM($B82:H82)</f>
+        <v>21</v>
+      </c>
+      <c r="I84" s="5">
+        <f>SUM($B82:I82)</f>
+        <v>21</v>
+      </c>
+      <c r="J84" s="5">
+        <f>SUM($B82:J82)</f>
+        <v>21</v>
+      </c>
+      <c r="K84" s="5">
+        <f>SUM($B82:K82)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B86" s="3">
         <v>44052</v>
       </c>
-      <c r="C85" s="3">
-        <f>B85+1</f>
+      <c r="C86" s="3">
+        <f>B86+1</f>
         <v>44053</v>
       </c>
-      <c r="D85" s="3">
-        <f t="shared" ref="D85:P85" si="6">C85+1</f>
+      <c r="D86" s="3">
+        <f t="shared" ref="D86:P86" si="6">C86+1</f>
         <v>44054</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E86" s="3">
         <f t="shared" si="6"/>
         <v>44055</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="3">
         <f t="shared" si="6"/>
         <v>44056</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="3">
         <f t="shared" si="6"/>
         <v>44057</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H86" s="3">
         <f t="shared" si="6"/>
         <v>44058</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I86" s="3">
         <f t="shared" si="6"/>
         <v>44059</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J86" s="3">
         <f t="shared" si="6"/>
         <v>44060</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K86" s="3">
         <f t="shared" si="6"/>
         <v>44061</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L86" s="3">
         <f t="shared" si="6"/>
         <v>44062</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M86" s="3">
         <f t="shared" si="6"/>
         <v>44063</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N86" s="3">
         <f t="shared" si="6"/>
         <v>44064</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O86" s="3">
         <f t="shared" si="6"/>
         <v>44065</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P86" s="3">
         <f t="shared" si="6"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86">
-        <v>487.5</v>
-      </c>
-      <c r="C86">
-        <v>487.5</v>
-      </c>
-      <c r="D86">
-        <v>487.5</v>
-      </c>
-      <c r="E86">
-        <v>487.5</v>
-      </c>
-      <c r="F86">
-        <v>487.5</v>
-      </c>
-      <c r="G86">
-        <v>487.5</v>
-      </c>
-      <c r="H86">
-        <v>450</v>
-      </c>
-      <c r="I86">
-        <v>675</v>
-      </c>
-      <c r="J86">
-        <v>900</v>
-      </c>
-      <c r="K86">
-        <v>900</v>
-      </c>
-      <c r="L86">
-        <v>675</v>
-      </c>
-      <c r="M86">
-        <v>1125</v>
-      </c>
-      <c r="N86">
-        <v>1800</v>
-      </c>
-      <c r="O86">
-        <v>1350</v>
-      </c>
-      <c r="P86">
-        <v>225</v>
-      </c>
-    </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87">
+        <v>487.5</v>
+      </c>
+      <c r="C87">
+        <v>487.5</v>
+      </c>
+      <c r="D87">
+        <v>487.5</v>
+      </c>
+      <c r="E87">
+        <v>487.5</v>
+      </c>
+      <c r="F87">
+        <v>487.5</v>
+      </c>
+      <c r="G87">
+        <v>487.5</v>
+      </c>
+      <c r="H87">
+        <v>450</v>
+      </c>
+      <c r="I87">
+        <v>675</v>
+      </c>
+      <c r="J87">
+        <v>900</v>
+      </c>
+      <c r="K87">
+        <v>900</v>
+      </c>
+      <c r="L87">
+        <v>675</v>
+      </c>
+      <c r="M87">
+        <v>1125</v>
+      </c>
+      <c r="N87">
+        <v>1800</v>
+      </c>
+      <c r="O87">
+        <v>1350</v>
+      </c>
+      <c r="P87">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B87">
-        <f t="shared" ref="B87:G87" si="7">16/6</f>
+      <c r="B88">
+        <f t="shared" ref="B88:G88" si="7">16/6</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C88" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D88" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E88" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F88" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G88" s="5">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="I87">
+      <c r="I88">
         <v>2</v>
       </c>
-      <c r="J87">
+      <c r="J88">
         <v>2</v>
       </c>
-      <c r="K87">
+      <c r="K88">
         <v>3</v>
       </c>
-      <c r="L87">
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="M87">
+      <c r="M88">
         <v>30</v>
       </c>
-      <c r="N87">
+      <c r="N88">
         <v>30</v>
       </c>
-      <c r="O87">
+      <c r="O88">
         <v>39</v>
       </c>
-      <c r="P87">
+      <c r="P88">
         <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="5">
-        <f>SUM($B$86:B86)</f>
-        <v>487.5</v>
-      </c>
-      <c r="C88">
-        <f>SUM($B$86:C86)</f>
-        <v>975</v>
-      </c>
-      <c r="D88" s="5">
-        <f>SUM($B$86:D86)</f>
-        <v>1462.5</v>
-      </c>
-      <c r="E88" s="5">
-        <f>SUM($B$86:E86)</f>
-        <v>1950</v>
-      </c>
-      <c r="F88" s="5">
-        <f>SUM($B$86:F86)</f>
-        <v>2437.5</v>
-      </c>
-      <c r="G88" s="5">
-        <f>SUM($B$86:G86)</f>
-        <v>2925</v>
-      </c>
-      <c r="H88" s="5">
-        <f>SUM($B$86:H86)</f>
-        <v>3375</v>
-      </c>
-      <c r="I88" s="5">
-        <f>SUM($B$86:I86)</f>
-        <v>4050</v>
-      </c>
-      <c r="J88" s="5">
-        <f>SUM($B$86:J86)</f>
-        <v>4950</v>
-      </c>
-      <c r="K88" s="5">
-        <f>SUM($B$86:K86)</f>
-        <v>5850</v>
-      </c>
-      <c r="L88" s="5">
-        <f>SUM($B$86:L86)</f>
-        <v>6525</v>
-      </c>
-      <c r="M88" s="5">
-        <f>SUM($B$86:M86)</f>
-        <v>7650</v>
-      </c>
-      <c r="N88" s="5">
-        <f>SUM($B$86:N86)</f>
-        <v>9450</v>
-      </c>
-      <c r="O88" s="5">
-        <f>SUM($B$86:O86)</f>
-        <v>10800</v>
-      </c>
-      <c r="P88" s="5">
-        <f>SUM($B$86:P86)</f>
-        <v>11025</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="5">
         <f>SUM($B$87:B87)</f>
-        <v>2.6666666666666665</v>
+        <v>487.5</v>
       </c>
       <c r="C89">
         <f>SUM($B$87:C87)</f>
-        <v>5.333333333333333</v>
+        <v>975</v>
       </c>
       <c r="D89" s="5">
         <f>SUM($B$87:D87)</f>
-        <v>8</v>
+        <v>1462.5</v>
       </c>
       <c r="E89" s="5">
         <f>SUM($B$87:E87)</f>
-        <v>10.666666666666666</v>
+        <v>1950</v>
       </c>
       <c r="F89" s="5">
         <f>SUM($B$87:F87)</f>
-        <v>13.333333333333332</v>
+        <v>2437.5</v>
       </c>
       <c r="G89" s="5">
         <f>SUM($B$87:G87)</f>
-        <v>15.999999999999998</v>
+        <v>2925</v>
       </c>
       <c r="H89" s="5">
         <f>SUM($B$87:H87)</f>
-        <v>17</v>
+        <v>3375</v>
       </c>
       <c r="I89" s="5">
         <f>SUM($B$87:I87)</f>
-        <v>19</v>
+        <v>4050</v>
       </c>
       <c r="J89" s="5">
         <f>SUM($B$87:J87)</f>
-        <v>21</v>
+        <v>4950</v>
       </c>
       <c r="K89" s="5">
         <f>SUM($B$87:K87)</f>
-        <v>24</v>
+        <v>5850</v>
       </c>
       <c r="L89" s="5">
         <f>SUM($B$87:L87)</f>
-        <v>28</v>
+        <v>6525</v>
       </c>
       <c r="M89" s="5">
         <f>SUM($B$87:M87)</f>
-        <v>58</v>
+        <v>7650</v>
       </c>
       <c r="N89" s="5">
         <f>SUM($B$87:N87)</f>
-        <v>88</v>
+        <v>9450</v>
       </c>
       <c r="O89" s="5">
         <f>SUM($B$87:O87)</f>
-        <v>127</v>
+        <v>10800</v>
       </c>
       <c r="P89" s="5">
         <f>SUM($B$87:P87)</f>
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="5">
+        <f>SUM($B$88:B88)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C90">
+        <f>SUM($B$88:C88)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D90" s="5">
+        <f>SUM($B$88:D88)</f>
+        <v>8</v>
+      </c>
+      <c r="E90" s="5">
+        <f>SUM($B$88:E88)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F90" s="5">
+        <f>SUM($B$88:F88)</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="G90" s="5">
+        <f>SUM($B$88:G88)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="H90" s="5">
+        <f>SUM($B$88:H88)</f>
+        <v>17</v>
+      </c>
+      <c r="I90" s="5">
+        <f>SUM($B$88:I88)</f>
+        <v>19</v>
+      </c>
+      <c r="J90" s="5">
+        <f>SUM($B$88:J88)</f>
+        <v>21</v>
+      </c>
+      <c r="K90" s="5">
+        <f>SUM($B$88:K88)</f>
+        <v>24</v>
+      </c>
+      <c r="L90" s="5">
+        <f>SUM($B$88:L88)</f>
+        <v>28</v>
+      </c>
+      <c r="M90" s="5">
+        <f>SUM($B$88:M88)</f>
+        <v>58</v>
+      </c>
+      <c r="N90" s="5">
+        <f>SUM($B$88:N88)</f>
+        <v>88</v>
+      </c>
+      <c r="O90" s="5">
+        <f>SUM($B$88:O88)</f>
+        <v>127</v>
+      </c>
+      <c r="P90" s="5">
+        <f>SUM($B$88:P88)</f>
         <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="3">
-        <v>44067</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92">
-        <v>5333</v>
+        <v>40</v>
+      </c>
+      <c r="B92" s="3">
+        <v>44067</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B96" s="3">
         <v>44045</v>
       </c>
-      <c r="C95" s="3">
-        <f t="shared" ref="C95:V95" si="8">B95+1</f>
+      <c r="C96" s="3">
+        <f t="shared" ref="C96:V96" si="8">B96+1</f>
         <v>44046</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D96" s="3">
         <f t="shared" si="8"/>
         <v>44047</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E96" s="3">
         <f t="shared" si="8"/>
         <v>44048</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F96" s="3">
         <f t="shared" si="8"/>
         <v>44049</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G96" s="3">
         <f t="shared" si="8"/>
         <v>44050</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H96" s="3">
         <f t="shared" si="8"/>
         <v>44051</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I96" s="3">
         <f t="shared" si="8"/>
         <v>44052</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J96" s="3">
         <f t="shared" si="8"/>
         <v>44053</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K96" s="3">
         <f t="shared" si="8"/>
         <v>44054</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L96" s="3">
         <f t="shared" si="8"/>
         <v>44055</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M96" s="3">
         <f t="shared" si="8"/>
         <v>44056</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N96" s="3">
         <f t="shared" si="8"/>
         <v>44057</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O96" s="3">
         <f t="shared" si="8"/>
         <v>44058</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P96" s="3">
         <f t="shared" si="8"/>
         <v>44059</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q96" s="3">
         <f t="shared" si="8"/>
         <v>44060</v>
       </c>
-      <c r="R95" s="3">
+      <c r="R96" s="3">
         <f t="shared" si="8"/>
         <v>44061</v>
       </c>
-      <c r="S95" s="3">
+      <c r="S96" s="3">
         <f t="shared" si="8"/>
         <v>44062</v>
       </c>
-      <c r="T95" s="3">
+      <c r="T96" s="3">
         <f t="shared" si="8"/>
         <v>44063</v>
       </c>
-      <c r="U95" s="3">
+      <c r="U96" s="3">
         <f t="shared" si="8"/>
         <v>44064</v>
       </c>
-      <c r="V95" s="3">
+      <c r="V96" s="3">
         <f t="shared" si="8"/>
         <v>44065</v>
       </c>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H96">
+      <c r="H97">
         <f>341+101</f>
         <v>442</v>
       </c>
-      <c r="O96">
+      <c r="O97">
         <f>101+128</f>
         <v>229</v>
       </c>
-      <c r="V96">
+      <c r="V97">
         <f>79+48</f>
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B97">
-        <f t="shared" ref="B97:H97" si="9">$H$96/7</f>
+      <c r="B98">
+        <f t="shared" ref="B98:H98" si="9">$H$97/7</f>
         <v>63.142857142857146</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H98" s="5">
         <f t="shared" si="9"/>
         <v>63.142857142857146</v>
       </c>
-      <c r="I97">
-        <f t="shared" ref="I97:O97" si="10">$O$96/7</f>
+      <c r="I98">
+        <f t="shared" ref="I98:O98" si="10">$O$97/7</f>
         <v>32.714285714285715</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O98" s="5">
         <f t="shared" si="10"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="P97">
-        <f t="shared" ref="P97:V97" si="11">$V$96/7</f>
+      <c r="P98">
+        <f t="shared" ref="P98:V98" si="11">$V$97/7</f>
         <v>18.142857142857142</v>
       </c>
-      <c r="Q97" s="5">
+      <c r="Q98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="R97" s="5">
+      <c r="R98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="S97" s="5">
+      <c r="S98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="T97" s="5">
+      <c r="T98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="U97" s="5">
+      <c r="U98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
-      <c r="V97" s="5">
+      <c r="V98" s="5">
         <f t="shared" si="11"/>
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>2</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-    </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="5">
-        <f>SUM($B$97:B97)</f>
-        <v>63.142857142857146</v>
+        <v>21</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99">
-        <f>SUM($B$97:C97)</f>
-        <v>126.28571428571429</v>
-      </c>
-      <c r="D99" s="5">
-        <f>SUM($B$97:D97)</f>
-        <v>189.42857142857144</v>
-      </c>
-      <c r="E99" s="5">
-        <f>SUM($B$97:E97)</f>
-        <v>252.57142857142858</v>
-      </c>
-      <c r="F99" s="5">
-        <f>SUM($B$97:F97)</f>
-        <v>315.71428571428572</v>
-      </c>
-      <c r="G99" s="5">
-        <f>SUM($B$97:G97)</f>
-        <v>378.85714285714289</v>
-      </c>
-      <c r="H99" s="5">
-        <f>SUM($B$97:H97)</f>
-        <v>442.00000000000006</v>
-      </c>
-      <c r="I99" s="5">
-        <f>SUM($B$97:I97)</f>
-        <v>474.71428571428578</v>
-      </c>
-      <c r="J99" s="5">
-        <f>SUM($B$97:J97)</f>
-        <v>507.4285714285715</v>
-      </c>
-      <c r="K99" s="5">
-        <f>SUM($B$97:K97)</f>
-        <v>540.14285714285722</v>
-      </c>
-      <c r="L99" s="5">
-        <f>SUM($B$97:L97)</f>
-        <v>572.85714285714289</v>
-      </c>
-      <c r="M99" s="5">
-        <f>SUM($B$97:M97)</f>
-        <v>605.57142857142856</v>
-      </c>
-      <c r="N99" s="5">
-        <f>SUM($B$97:N97)</f>
-        <v>638.28571428571422</v>
-      </c>
-      <c r="O99" s="5">
-        <f>SUM($B$97:O97)</f>
-        <v>670.99999999999989</v>
-      </c>
-      <c r="P99" s="5">
-        <f>SUM($B$97:P97)</f>
-        <v>689.142857142857</v>
-      </c>
-      <c r="Q99" s="5">
-        <f>SUM($B$97:Q97)</f>
-        <v>707.28571428571411</v>
-      </c>
-      <c r="R99" s="5">
-        <f>SUM($B$97:R97)</f>
-        <v>725.42857142857122</v>
-      </c>
-      <c r="S99" s="5">
-        <f>SUM($B$97:S97)</f>
-        <v>743.57142857142833</v>
-      </c>
-      <c r="T99" s="5">
-        <f>SUM($B$97:T97)</f>
-        <v>761.71428571428544</v>
-      </c>
-      <c r="U99" s="5">
-        <f>SUM($B$97:U97)</f>
-        <v>779.85714285714255</v>
-      </c>
-      <c r="V99" s="5">
-        <f>SUM($B$97:V97)</f>
-        <v>797.99999999999966</v>
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" s="5">
         <f>SUM($B$98:B98)</f>
-        <v>0</v>
+        <v>63.142857142857146</v>
       </c>
       <c r="C100">
         <f>SUM($B$98:C98)</f>
-        <v>1</v>
+        <v>126.28571428571429</v>
       </c>
       <c r="D100" s="5">
         <f>SUM($B$98:D98)</f>
-        <v>1</v>
+        <v>189.42857142857144</v>
       </c>
       <c r="E100" s="5">
         <f>SUM($B$98:E98)</f>
-        <v>1</v>
+        <v>252.57142857142858</v>
       </c>
       <c r="F100" s="5">
         <f>SUM($B$98:F98)</f>
-        <v>1</v>
+        <v>315.71428571428572</v>
       </c>
       <c r="G100" s="5">
         <f>SUM($B$98:G98)</f>
-        <v>2</v>
+        <v>378.85714285714289</v>
       </c>
       <c r="H100" s="5">
         <f>SUM($B$98:H98)</f>
-        <v>2</v>
+        <v>442.00000000000006</v>
       </c>
       <c r="I100" s="5">
         <f>SUM($B$98:I98)</f>
-        <v>3</v>
+        <v>474.71428571428578</v>
       </c>
       <c r="J100" s="5">
         <f>SUM($B$98:J98)</f>
-        <v>3</v>
+        <v>507.4285714285715</v>
       </c>
       <c r="K100" s="5">
         <f>SUM($B$98:K98)</f>
-        <v>5</v>
+        <v>540.14285714285722</v>
       </c>
       <c r="L100" s="5">
         <f>SUM($B$98:L98)</f>
-        <v>5</v>
+        <v>572.85714285714289</v>
       </c>
       <c r="M100" s="5">
         <f>SUM($B$98:M98)</f>
-        <v>5</v>
+        <v>605.57142857142856</v>
       </c>
       <c r="N100" s="5">
         <f>SUM($B$98:N98)</f>
-        <v>5</v>
+        <v>638.28571428571422</v>
       </c>
       <c r="O100" s="5">
         <f>SUM($B$98:O98)</f>
-        <v>6</v>
+        <v>670.99999999999989</v>
       </c>
       <c r="P100" s="5">
         <f>SUM($B$98:P98)</f>
-        <v>6</v>
+        <v>689.142857142857</v>
       </c>
       <c r="Q100" s="5">
         <f>SUM($B$98:Q98)</f>
-        <v>6</v>
+        <v>707.28571428571411</v>
       </c>
       <c r="R100" s="5">
         <f>SUM($B$98:R98)</f>
-        <v>7</v>
+        <v>725.42857142857122</v>
       </c>
       <c r="S100" s="5">
         <f>SUM($B$98:S98)</f>
-        <v>7</v>
+        <v>743.57142857142833</v>
       </c>
       <c r="T100" s="5">
         <f>SUM($B$98:T98)</f>
-        <v>7</v>
+        <v>761.71428571428544</v>
       </c>
       <c r="U100" s="5">
         <f>SUM($B$98:U98)</f>
-        <v>7</v>
+        <v>779.85714285714255</v>
       </c>
       <c r="V100" s="5">
         <f>SUM($B$98:V98)</f>
+        <v>797.99999999999966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="5">
+        <f>SUM($B$99:B99)</f>
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f>SUM($B$99:C99)</f>
+        <v>1</v>
+      </c>
+      <c r="D101" s="5">
+        <f>SUM($B$99:D99)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <f>SUM($B$99:E99)</f>
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <f>SUM($B$99:F99)</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="5">
+        <f>SUM($B$99:G99)</f>
+        <v>2</v>
+      </c>
+      <c r="H101" s="5">
+        <f>SUM($B$99:H99)</f>
+        <v>2</v>
+      </c>
+      <c r="I101" s="5">
+        <f>SUM($B$99:I99)</f>
+        <v>3</v>
+      </c>
+      <c r="J101" s="5">
+        <f>SUM($B$99:J99)</f>
+        <v>3</v>
+      </c>
+      <c r="K101" s="5">
+        <f>SUM($B$99:K99)</f>
+        <v>5</v>
+      </c>
+      <c r="L101" s="5">
+        <f>SUM($B$99:L99)</f>
+        <v>5</v>
+      </c>
+      <c r="M101" s="5">
+        <f>SUM($B$99:M99)</f>
+        <v>5</v>
+      </c>
+      <c r="N101" s="5">
+        <f>SUM($B$99:N99)</f>
+        <v>5</v>
+      </c>
+      <c r="O101" s="5">
+        <f>SUM($B$99:O99)</f>
+        <v>6</v>
+      </c>
+      <c r="P101" s="5">
+        <f>SUM($B$99:P99)</f>
+        <v>6</v>
+      </c>
+      <c r="Q101" s="5">
+        <f>SUM($B$99:Q99)</f>
+        <v>6</v>
+      </c>
+      <c r="R101" s="5">
+        <f>SUM($B$99:R99)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="3">
-        <v>44054</v>
-      </c>
-      <c r="C102" s="3">
-        <v>44068</v>
+      <c r="S101" s="5">
+        <f>SUM($B$99:S99)</f>
+        <v>7</v>
+      </c>
+      <c r="T101" s="5">
+        <f>SUM($B$99:T99)</f>
+        <v>7</v>
+      </c>
+      <c r="U101" s="5">
+        <f>SUM($B$99:U99)</f>
+        <v>7</v>
+      </c>
+      <c r="V101" s="5">
+        <f>SUM($B$99:V99)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103">
-        <v>10244</v>
-      </c>
-      <c r="C103" s="10">
-        <v>13623</v>
+        <v>46</v>
+      </c>
+      <c r="B103" s="3">
+        <v>44054</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44068</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>10244</v>
+      </c>
+      <c r="C104" s="10">
+        <v>13623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>224</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B107" s="3">
         <v>44046</v>
       </c>
-      <c r="C106" s="3">
-        <f>B106+1</f>
+      <c r="C107" s="3">
+        <f>B107+1</f>
         <v>44047</v>
       </c>
-      <c r="D106" s="3">
-        <f>C106+1</f>
+      <c r="D107" s="3">
+        <f>C107+1</f>
         <v>44048</v>
       </c>
-      <c r="E106" s="3">
-        <f>D106+1</f>
+      <c r="E107" s="3">
+        <f>D107+1</f>
         <v>44049</v>
       </c>
-      <c r="F106" s="3">
-        <f t="shared" ref="F106:V106" si="12">E106+1</f>
+      <c r="F107" s="3">
+        <f t="shared" ref="F107:V107" si="12">E107+1</f>
         <v>44050</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G107" s="3">
         <f t="shared" si="12"/>
         <v>44051</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H107" s="3">
         <f t="shared" si="12"/>
         <v>44052</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I107" s="3">
         <f t="shared" si="12"/>
         <v>44053</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J107" s="3">
         <f t="shared" si="12"/>
         <v>44054</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K107" s="3">
         <f t="shared" si="12"/>
         <v>44055</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L107" s="3">
         <f t="shared" si="12"/>
         <v>44056</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M107" s="3">
         <f t="shared" si="12"/>
         <v>44057</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N107" s="3">
         <f t="shared" si="12"/>
         <v>44058</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O107" s="3">
         <f t="shared" si="12"/>
         <v>44059</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P107" s="3">
         <f t="shared" si="12"/>
         <v>44060</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="Q107" s="3">
         <f t="shared" si="12"/>
         <v>44061</v>
       </c>
-      <c r="R106" s="3">
+      <c r="R107" s="3">
         <f t="shared" si="12"/>
         <v>44062</v>
       </c>
-      <c r="S106" s="3">
+      <c r="S107" s="3">
         <f t="shared" si="12"/>
         <v>44063</v>
       </c>
-      <c r="T106" s="3">
+      <c r="T107" s="3">
         <f t="shared" si="12"/>
         <v>44064</v>
       </c>
-      <c r="U106" s="3">
+      <c r="U107" s="3">
         <f t="shared" si="12"/>
         <v>44065</v>
       </c>
-      <c r="V106" s="3">
+      <c r="V107" s="3">
         <f t="shared" si="12"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B107">
-        <v>340</v>
-      </c>
-      <c r="C107">
-        <v>220</v>
-      </c>
-      <c r="D107">
-        <v>270</v>
-      </c>
-      <c r="E107">
-        <v>310</v>
-      </c>
-      <c r="F107">
-        <v>290</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>480</v>
-      </c>
-      <c r="J107">
-        <v>500</v>
-      </c>
-      <c r="K107">
-        <v>220</v>
-      </c>
-      <c r="L107">
-        <v>230</v>
-      </c>
-      <c r="M107">
-        <v>280</v>
-      </c>
-      <c r="N107">
-        <v>410</v>
-      </c>
-      <c r="O107">
-        <v>410</v>
-      </c>
-      <c r="P107">
-        <v>290</v>
-      </c>
-      <c r="Q107">
-        <v>490</v>
-      </c>
-      <c r="R107">
-        <v>480</v>
-      </c>
-      <c r="S107">
-        <v>480</v>
-      </c>
-      <c r="T107">
-        <v>960</v>
-      </c>
-      <c r="U107">
-        <v>410</v>
-      </c>
-      <c r="V107">
-        <v>160</v>
-      </c>
-    </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4375,224 +4321,316 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="P108">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="R108">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S108">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="V108">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="5">
-        <f>SUM($B$107:B107)</f>
-        <v>340</v>
+        <v>21</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
       </c>
       <c r="C109">
-        <f>SUM($B$107:C107)</f>
-        <v>560</v>
-      </c>
-      <c r="D109" s="5">
-        <f>SUM($B$107:D107)</f>
-        <v>830</v>
-      </c>
-      <c r="E109" s="5">
-        <f>SUM($B$107:E107)</f>
-        <v>1140</v>
-      </c>
-      <c r="F109" s="5">
-        <f>SUM($B$107:F107)</f>
-        <v>1430</v>
-      </c>
-      <c r="G109" s="5">
-        <f>SUM($B$107:G107)</f>
-        <v>1430</v>
-      </c>
-      <c r="H109" s="5">
-        <f>SUM($B$107:H107)</f>
-        <v>1430</v>
-      </c>
-      <c r="I109" s="5">
-        <f>SUM($B$107:I107)</f>
-        <v>1910</v>
-      </c>
-      <c r="J109" s="5">
-        <f>SUM($B$107:J107)</f>
-        <v>2410</v>
-      </c>
-      <c r="K109" s="5">
-        <f>SUM($B$107:K107)</f>
-        <v>2630</v>
-      </c>
-      <c r="L109" s="5">
-        <f>SUM($B$107:L107)</f>
-        <v>2860</v>
-      </c>
-      <c r="M109" s="5">
-        <f>SUM($B$107:M107)</f>
-        <v>3140</v>
-      </c>
-      <c r="N109" s="5">
-        <f>SUM($B$107:N107)</f>
-        <v>3550</v>
-      </c>
-      <c r="O109" s="5">
-        <f>SUM($B$107:O107)</f>
-        <v>3960</v>
-      </c>
-      <c r="P109" s="5">
-        <f>SUM($B$107:P107)</f>
-        <v>4250</v>
-      </c>
-      <c r="Q109" s="5">
-        <f>SUM($B$107:Q107)</f>
-        <v>4740</v>
-      </c>
-      <c r="R109" s="5">
-        <f>SUM($B$107:R107)</f>
-        <v>5220</v>
-      </c>
-      <c r="S109" s="5">
-        <f>SUM($B$107:S107)</f>
-        <v>5700</v>
-      </c>
-      <c r="T109" s="5">
-        <f>SUM($B$107:T107)</f>
-        <v>6660</v>
-      </c>
-      <c r="U109" s="5">
-        <f>SUM($B$107:U107)</f>
-        <v>7070</v>
-      </c>
-      <c r="V109" s="5">
-        <f>SUM($B$107:V107)</f>
-        <v>7230</v>
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>2</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" s="5">
         <f>SUM($B$108:B108)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C110">
         <f>SUM($B$108:C108)</f>
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="D110" s="5">
         <f>SUM($B$108:D108)</f>
-        <v>1</v>
+        <v>830</v>
       </c>
       <c r="E110" s="5">
         <f>SUM($B$108:E108)</f>
-        <v>2</v>
+        <v>1140</v>
       </c>
       <c r="F110" s="5">
         <f>SUM($B$108:F108)</f>
-        <v>2</v>
+        <v>1430</v>
       </c>
       <c r="G110" s="5">
         <f>SUM($B$108:G108)</f>
-        <v>2</v>
+        <v>1430</v>
       </c>
       <c r="H110" s="5">
         <f>SUM($B$108:H108)</f>
-        <v>2</v>
+        <v>1430</v>
       </c>
       <c r="I110" s="5">
         <f>SUM($B$108:I108)</f>
-        <v>2</v>
+        <v>1910</v>
       </c>
       <c r="J110" s="5">
         <f>SUM($B$108:J108)</f>
-        <v>2</v>
+        <v>2410</v>
       </c>
       <c r="K110" s="5">
         <f>SUM($B$108:K108)</f>
-        <v>3</v>
+        <v>2630</v>
       </c>
       <c r="L110" s="5">
         <f>SUM($B$108:L108)</f>
-        <v>5</v>
+        <v>2860</v>
       </c>
       <c r="M110" s="5">
         <f>SUM($B$108:M108)</f>
-        <v>6</v>
+        <v>3140</v>
       </c>
       <c r="N110" s="5">
         <f>SUM($B$108:N108)</f>
-        <v>8</v>
+        <v>3550</v>
       </c>
       <c r="O110" s="5">
         <f>SUM($B$108:O108)</f>
-        <v>9</v>
+        <v>3960</v>
       </c>
       <c r="P110" s="5">
         <f>SUM($B$108:P108)</f>
-        <v>11</v>
+        <v>4250</v>
       </c>
       <c r="Q110" s="5">
         <f>SUM($B$108:Q108)</f>
-        <v>11</v>
+        <v>4740</v>
       </c>
       <c r="R110" s="5">
         <f>SUM($B$108:R108)</f>
-        <v>11</v>
+        <v>5220</v>
       </c>
       <c r="S110" s="5">
         <f>SUM($B$108:S108)</f>
-        <v>12</v>
+        <v>5700</v>
       </c>
       <c r="T110" s="5">
         <f>SUM($B$108:T108)</f>
-        <v>14</v>
+        <v>6660</v>
       </c>
       <c r="U110" s="5">
         <f>SUM($B$108:U108)</f>
-        <v>14</v>
+        <v>7070</v>
       </c>
       <c r="V110" s="5">
         <f>SUM($B$108:V108)</f>
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="5">
+        <f>SUM($B$109:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f>SUM($B$109:C109)</f>
+        <v>1</v>
+      </c>
+      <c r="D111" s="5">
+        <f>SUM($B$109:D109)</f>
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <f>SUM($B$109:E109)</f>
+        <v>2</v>
+      </c>
+      <c r="F111" s="5">
+        <f>SUM($B$109:F109)</f>
+        <v>2</v>
+      </c>
+      <c r="G111" s="5">
+        <f>SUM($B$109:G109)</f>
+        <v>2</v>
+      </c>
+      <c r="H111" s="5">
+        <f>SUM($B$109:H109)</f>
+        <v>2</v>
+      </c>
+      <c r="I111" s="5">
+        <f>SUM($B$109:I109)</f>
+        <v>2</v>
+      </c>
+      <c r="J111" s="5">
+        <f>SUM($B$109:J109)</f>
+        <v>2</v>
+      </c>
+      <c r="K111" s="5">
+        <f>SUM($B$109:K109)</f>
+        <v>3</v>
+      </c>
+      <c r="L111" s="5">
+        <f>SUM($B$109:L109)</f>
+        <v>5</v>
+      </c>
+      <c r="M111" s="5">
+        <f>SUM($B$109:M109)</f>
+        <v>6</v>
+      </c>
+      <c r="N111" s="5">
+        <f>SUM($B$109:N109)</f>
+        <v>8</v>
+      </c>
+      <c r="O111" s="5">
+        <f>SUM($B$109:O109)</f>
+        <v>9</v>
+      </c>
+      <c r="P111" s="5">
+        <f>SUM($B$109:P109)</f>
+        <v>11</v>
+      </c>
+      <c r="Q111" s="5">
+        <f>SUM($B$109:Q109)</f>
+        <v>11</v>
+      </c>
+      <c r="R111" s="5">
+        <f>SUM($B$109:R109)</f>
+        <v>11</v>
+      </c>
+      <c r="S111" s="5">
+        <f>SUM($B$109:S109)</f>
+        <v>12</v>
+      </c>
+      <c r="T111" s="5">
+        <f>SUM($B$109:T109)</f>
         <v>14</v>
+      </c>
+      <c r="U111" s="5">
+        <f>SUM($B$109:U109)</f>
+        <v>14</v>
+      </c>
+      <c r="V111" s="5">
+        <f>SUM($B$109:V109)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="3">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4613,8 +4651,9 @@
     <hyperlink ref="G15" r:id="rId14" xr:uid="{A06A454C-B5AD-4DC5-9973-C867FA993589}"/>
     <hyperlink ref="G17" r:id="rId15" location="yale-testing-data" display="https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables - yale-testing-data" xr:uid="{8C65D6E3-9BD9-42E1-9069-B5660638BB35}"/>
     <hyperlink ref="G18" r:id="rId16" xr:uid="{AEC76AB5-A45A-4194-BA34-9CA00E3F430E}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{6F64FE69-BE34-43CC-93A1-536C513EC8A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neang/Documents/university-covid19-tracking/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE20D7D-95CF-444B-BD12-B78C02632E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47E205-FACF-B14C-AD52-C86E9333039B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29200" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,33 +651,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="8" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="20" width="9.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="22" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="39" width="8.77734375" customWidth="1"/>
-    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="8.77734375" customWidth="1"/>
-    <col min="72" max="83" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="8.77734375" customWidth="1"/>
-    <col min="87" max="88" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="8.77734375" customWidth="1"/>
-    <col min="91" max="91" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="1025" width="8.77734375" customWidth="1"/>
+    <col min="17" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
+    <col min="22" max="31" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="39" width="8.83203125" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="62" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="71" width="8.83203125" customWidth="1"/>
+    <col min="72" max="83" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="8.83203125" customWidth="1"/>
+    <col min="87" max="88" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="8.83203125" customWidth="1"/>
+    <col min="91" max="91" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -700,20 +700,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>36304</v>
+      </c>
+      <c r="E2" s="5">
+        <f>2336+6773</f>
+        <v>9109</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2" si="0">B2*D2+C2*E2</f>
+        <v>45413</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -738,135 +750,398 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>8731+3950</f>
+        <v>12681</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1396</v>
+      </c>
+      <c r="F4" s="5">
+        <f>B4*D4+C4*E4</f>
+        <v>14077</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>96408</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8864</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F19" si="1">B5*D5+C5*E5</f>
+        <v>105272</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43411</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3055</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>46466</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15634</v>
+      </c>
+      <c r="E7" s="5">
+        <v>41206</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>56840</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30593</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>31893</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>22850</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1563</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>24413</v>
+      </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>41200</v>
+      </c>
+      <c r="E10" s="5">
+        <f>4610+5481</f>
+        <v>10091</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>51291</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>46002</v>
+      </c>
+      <c r="E11" s="5">
+        <f>6771+18986</f>
+        <v>25757</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>71759</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>51090</v>
+      </c>
+      <c r="E12" s="5">
+        <f>3722+11645</f>
+        <v>15367</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>66457</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36489</v>
+      </c>
+      <c r="E13" s="5">
+        <f>-1740+5923</f>
+        <v>4183</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>40672</v>
+      </c>
       <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11878</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3498</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>15376</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>39126</v>
+      </c>
+      <c r="E15" s="5">
+        <f>1063</f>
+        <v>1063</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>40189</v>
+      </c>
       <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>37677</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2497</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>40174</v>
+      </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>13609</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4410</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>18019</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7170</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2832</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>10002</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>41551</v>
+      </c>
+      <c r="E19" s="5">
+        <f>5966+8133</f>
+        <v>14099</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>55650</v>
+      </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -889,7 +1164,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -912,7 +1187,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -935,7 +1210,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1230,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -975,7 +1250,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1270,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1295,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1320,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1080,39 +1355,39 @@
         <v>44055</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" ref="L31:T31" si="0">K31+1</f>
+        <f t="shared" ref="L31:T31" si="2">K31+1</f>
         <v>44056</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44057</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44058</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44059</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44060</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44061</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44062</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44063</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44064</v>
       </c>
       <c r="U31" s="3">
@@ -1122,7 +1397,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1465,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1622,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1722,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1733,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1758,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1496,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1504,75 +1779,75 @@
         <v>44044</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ref="C43:T43" si="1">B43+1</f>
+        <f t="shared" ref="C43:T43" si="3">B43+1</f>
         <v>44045</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44046</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44047</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44048</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44049</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44050</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44051</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44052</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44053</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44054</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44055</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44057</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44058</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44059</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44060</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44061</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44062</v>
       </c>
       <c r="U43" s="3">
@@ -1585,7 +1860,7 @@
         <v>44065</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -1727,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +2095,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -1913,7 +2188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +2199,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +2211,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +2223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +2236,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
@@ -1974,7 +2249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -1982,59 +2257,59 @@
         <v>44050</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:P55" si="2">B55+1</f>
+        <f t="shared" ref="C55:P55" si="4">B55+1</f>
         <v>44051</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44052</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44053</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44054</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44055</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44056</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44057</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44058</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44059</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44060</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44061</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44062</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44063</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="Q55" s="3">
@@ -2044,7 +2319,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2375,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2156,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2229,7 +2504,7 @@
         <v>6053</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -2322,12 +2597,12 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2372,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2397,7 +2672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>24</v>
       </c>
@@ -2423,7 +2698,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="68" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>20</v>
       </c>
@@ -2449,7 +2724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -2475,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -2508,7 +2783,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>15</v>
       </c>
@@ -2541,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
@@ -2549,105 +2824,105 @@
         <v>43898</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:Z73" si="3">B73+7</f>
+        <f t="shared" ref="C73:Z73" si="5">B73+7</f>
         <v>43905</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43912</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43919</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43926</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43933</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43940</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43947</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43954</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43961</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43968</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43975</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43982</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43989</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43996</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44003</v>
       </c>
       <c r="R73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44010</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44017</v>
       </c>
       <c r="T73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44024</v>
       </c>
       <c r="U73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44031</v>
       </c>
       <c r="V73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44038</v>
       </c>
       <c r="W73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44045</v>
       </c>
       <c r="X73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44052</v>
       </c>
       <c r="Y73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44059</v>
       </c>
       <c r="Z73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44066</v>
       </c>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -2807,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
@@ -2816,103 +3091,103 @@
         <v>7</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" ref="C76:Z76" si="4">ROUND(C75*C74,0)</f>
+        <f t="shared" ref="C76:Z76" si="6">ROUND(C75*C74,0)</f>
         <v>34</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="T76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="X76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Z76" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:95" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>18</v>
       </c>
@@ -3017,7 +3292,7 @@
         <v>8252</v>
       </c>
     </row>
-    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
@@ -3122,7 +3397,7 @@
         <v>1.2409999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -3149,19 +3424,19 @@
         <v>44031</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" ref="H80:K80" si="5">G80+7</f>
+        <f t="shared" ref="H80:K80" si="7">G80+7</f>
         <v>44038</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44045</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44052</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44059</v>
       </c>
       <c r="M80" s="3"/>
@@ -3248,7 +3523,7 @@
       <c r="CP80" s="3"/>
       <c r="CQ80" s="3"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -3283,7 +3558,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3638,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
@@ -3420,59 +3695,59 @@
         <v>44053</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" ref="D86:P86" si="6">C86+1</f>
+        <f t="shared" ref="D86:P86" si="8">C86+1</f>
         <v>44054</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44055</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44056</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44057</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44058</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44059</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44060</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44061</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44062</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44063</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44064</v>
       </c>
       <c r="O86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44065</v>
       </c>
       <c r="P86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>20</v>
       </c>
@@ -3522,32 +3797,32 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:G88" si="7">16/6</f>
+        <f t="shared" ref="B88:G88" si="9">16/6</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="H88">
@@ -3578,7 +3853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3918,7 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>15</v>
       </c>
@@ -3708,7 +3983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +3991,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -3724,7 +3999,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>15</v>
       </c>
@@ -3732,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>44</v>
       </c>
@@ -3740,89 +4015,89 @@
         <v>44045</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" ref="C96:V96" si="8">B96+1</f>
+        <f t="shared" ref="C96:V96" si="10">B96+1</f>
         <v>44046</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44047</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44048</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44049</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44050</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44051</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44052</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44053</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44054</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44055</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44056</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44057</v>
       </c>
       <c r="O96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44058</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44059</v>
       </c>
       <c r="Q96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44060</v>
       </c>
       <c r="R96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44061</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44062</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44063</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44064</v>
       </c>
       <c r="V96" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44065</v>
       </c>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -3839,96 +4114,96 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:H98" si="9">$H$97/7</f>
+        <f t="shared" ref="B98:H98" si="11">$H$97/7</f>
         <v>63.142857142857146</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.142857142857146</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:O98" si="10">$O$97/7</f>
+        <f t="shared" ref="I98:O98" si="12">$O$97/7</f>
         <v>32.714285714285715</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.714285714285715</v>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:V98" si="11">$V$97/7</f>
+        <f t="shared" ref="P98:V98" si="13">$V$97/7</f>
         <v>18.142857142857142</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -3996,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -4085,7 +4360,7 @@
         <v>797.99999999999966</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -4174,7 +4449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>46</v>
       </c>
@@ -4185,7 +4460,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4471,7 @@
         <v>13623</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4482,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>48</v>
       </c>
@@ -4227,75 +4502,75 @@
         <v>44049</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" ref="F107:V107" si="12">E107+1</f>
+        <f t="shared" ref="F107:V107" si="14">E107+1</f>
         <v>44050</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44051</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44052</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44053</v>
       </c>
       <c r="J107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44054</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44055</v>
       </c>
       <c r="L107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44056</v>
       </c>
       <c r="M107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44057</v>
       </c>
       <c r="N107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44058</v>
       </c>
       <c r="O107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44059</v>
       </c>
       <c r="P107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44060</v>
       </c>
       <c r="Q107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44061</v>
       </c>
       <c r="R107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44062</v>
       </c>
       <c r="S107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44063</v>
       </c>
       <c r="T107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44064</v>
       </c>
       <c r="U107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44065</v>
       </c>
       <c r="V107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44066</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>20</v>
       </c>
@@ -4363,7 +4638,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>21</v>
       </c>
@@ -4431,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4795,7 @@
         <v>7230</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -4609,7 +4884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>50</v>
       </c>
@@ -4617,7 +4892,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -4625,7 +4900,7 @@
         <v>6630</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>15</v>
       </c>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neang/Documents/university-covid19-tracking/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47E205-FACF-B14C-AD52-C86E9333039B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61329A41-5F15-564E-9DC6-20C102A8A7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29200" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16060" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1163,8 +1163,11 @@
       <c r="G21" s="3">
         <v>44066</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H21" s="3">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1186,8 +1189,11 @@
       <c r="G22">
         <v>3031</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1209,8 +1215,11 @@
       <c r="G23">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1396,8 +1405,11 @@
       <c r="V31" s="3">
         <v>44066</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1464,8 +1476,11 @@
       <c r="V32">
         <v>359</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1532,8 +1547,11 @@
       <c r="V33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1621,8 +1639,12 @@
         <f>SUM($B$32:V32)</f>
         <v>2698</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W34" s="5">
+        <f>SUM($B$32:W32)</f>
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1710,8 +1732,12 @@
         <f>SUM($B$33:V33)</f>
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W35" s="5">
+        <f>SUM($B$33:W33)</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1748,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1784,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1859,8 +1885,11 @@
       <c r="W43" s="3">
         <v>44065</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1930,8 +1959,11 @@
       <c r="W44">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2001,8 +2033,11 @@
       <c r="W45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2094,8 +2129,12 @@
         <f>SUM($B$44:W44)</f>
         <v>2947</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="5">
+        <f>SUM($B$44:X44)</f>
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2187,8 +2226,12 @@
         <f>SUM($B$45:W45)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X47" s="5">
+        <f>SUM($B$45:X45)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2199,7 +2242,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -2211,7 +2254,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -2223,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2279,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
@@ -2249,7 +2292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2318,8 +2361,11 @@
       <c r="R55" s="3">
         <v>44066</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -2374,8 +2420,11 @@
       <c r="R56">
         <v>667</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2430,8 +2479,11 @@
       <c r="R57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2503,8 +2555,12 @@
         <f>SUM($B$56:R56)</f>
         <v>6053</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="5">
+        <f>SUM($B$56:S56)</f>
+        <v>6934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
@@ -2576,8 +2632,12 @@
         <f>SUM($B$57:R57)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="5">
+        <f>SUM($B$57:S57)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -2597,12 +2657,12 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2622,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neang/Documents/university-covid19-tracking/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61329A41-5F15-564E-9DC6-20C102A8A7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4A9955-409D-4208-AE86-B9A9A10434D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16060" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,33 +651,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="8" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="8" width="9.44140625" customWidth="1"/>
     <col min="9" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="20" width="9.5" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" customWidth="1"/>
-    <col min="22" max="31" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="39" width="8.83203125" customWidth="1"/>
-    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="8.83203125" customWidth="1"/>
-    <col min="72" max="83" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="8.83203125" customWidth="1"/>
-    <col min="87" max="88" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="8.83203125" customWidth="1"/>
-    <col min="91" max="91" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="92" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="17" max="20" width="9.44140625" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" customWidth="1"/>
+    <col min="22" max="31" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="39" width="8.77734375" customWidth="1"/>
+    <col min="40" max="40" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="62" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="71" width="8.77734375" customWidth="1"/>
+    <col min="72" max="83" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="8.77734375" customWidth="1"/>
+    <col min="87" max="88" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="8.77734375" customWidth="1"/>
+    <col min="91" max="91" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -725,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -920,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -1141,85 +1141,173 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3">
+        <v>44054</v>
+      </c>
+      <c r="C21" s="3">
+        <f>B21+1</f>
+        <v>44055</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21+1</f>
+        <v>44056</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21+1</f>
+        <v>44057</v>
+      </c>
+      <c r="F21" s="3">
+        <f>E21+1</f>
+        <v>44058</v>
+      </c>
+      <c r="G21" s="3">
+        <f>F21+1</f>
+        <v>44059</v>
+      </c>
+      <c r="H21" s="3">
+        <f>G21+1</f>
+        <v>44060</v>
+      </c>
+      <c r="I21" s="3">
+        <f>H21+1</f>
         <v>44061</v>
       </c>
-      <c r="C21" s="3">
+      <c r="J21" s="3">
         <v>44062</v>
       </c>
-      <c r="D21" s="3">
+      <c r="K21" s="3">
         <v>44063</v>
       </c>
-      <c r="E21" s="3">
+      <c r="L21" s="3">
         <v>44064</v>
       </c>
-      <c r="F21" s="3">
+      <c r="M21" s="3">
         <v>44065</v>
       </c>
-      <c r="G21" s="3">
+      <c r="N21" s="3">
         <v>44066</v>
       </c>
-      <c r="H21" s="3">
+      <c r="O21" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>44068</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B22">
+        <v>1268</v>
+      </c>
+      <c r="C22">
+        <v>1478</v>
+      </c>
+      <c r="D22">
+        <v>1512</v>
+      </c>
+      <c r="E22">
+        <v>1628</v>
+      </c>
+      <c r="F22">
+        <v>1632</v>
+      </c>
+      <c r="G22">
+        <v>1632</v>
+      </c>
+      <c r="H22">
+        <v>1719</v>
+      </c>
+      <c r="I22">
         <v>1566</v>
       </c>
-      <c r="C22">
+      <c r="J22">
         <v>1705</v>
       </c>
-      <c r="D22">
+      <c r="K22">
         <v>2211</v>
       </c>
-      <c r="E22">
+      <c r="L22">
         <v>2510</v>
       </c>
-      <c r="F22">
+      <c r="M22">
         <v>2510</v>
       </c>
-      <c r="G22">
+      <c r="N22">
         <v>3031</v>
       </c>
-      <c r="H22">
+      <c r="O22">
         <v>3350</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>3918</v>
+      </c>
+      <c r="Q22">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
       <c r="E23">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="H23">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>89</v>
+      </c>
+      <c r="L23">
+        <v>118</v>
+      </c>
+      <c r="M23">
+        <v>206</v>
+      </c>
+      <c r="N23">
+        <v>237</v>
+      </c>
+      <c r="O23">
+        <v>279</v>
+      </c>
+      <c r="P23">
+        <v>302</v>
+      </c>
+      <c r="Q23">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1327,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1347,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1367,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1392,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1417,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1408,8 +1496,17 @@
       <c r="W31" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>44068</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>44069</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1479,8 +1576,17 @@
       <c r="W32">
         <v>683</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X32">
+        <v>414</v>
+      </c>
+      <c r="Y32">
+        <v>409</v>
+      </c>
+      <c r="Z32">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1550,8 +1656,17 @@
       <c r="W33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>19</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1643,8 +1758,20 @@
         <f>SUM($B$32:W32)</f>
         <v>3381</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X34" s="5">
+        <f>SUM($B$32:X32)</f>
+        <v>3795</v>
+      </c>
+      <c r="Y34" s="5">
+        <f>SUM($B$32:Y32)</f>
+        <v>4204</v>
+      </c>
+      <c r="Z34" s="5">
+        <f>SUM($B$32:Z32)</f>
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1863,20 @@
         <f>SUM($B$33:W33)</f>
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="5">
+        <f>SUM($B$33:X33)</f>
+        <v>470</v>
+      </c>
+      <c r="Y35" s="5">
+        <f>SUM($B$33:Y33)</f>
+        <v>488</v>
+      </c>
+      <c r="Z35" s="5">
+        <f>SUM($B$33:Z33)</f>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1887,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1923,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1888,8 +2027,14 @@
       <c r="X43" s="3">
         <v>44066</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>44067</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1948,22 +2093,28 @@
         <v>213</v>
       </c>
       <c r="T44">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U44">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V44">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="W44">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="X44">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="Y44">
+        <v>566</v>
+      </c>
+      <c r="Z44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2031,13 +2182,19 @@
         <v>14</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="Y45">
+        <v>16</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2115,26 +2272,34 @@
       </c>
       <c r="T46">
         <f>SUM($B$44:T44)</f>
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="U46" s="5">
         <f>SUM($B$44:U44)</f>
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="V46" s="5">
         <f>SUM($B$44:V44)</f>
-        <v>2779</v>
+        <v>2785</v>
       </c>
       <c r="W46" s="5">
         <f>SUM($B$44:W44)</f>
-        <v>2947</v>
+        <v>3016</v>
       </c>
       <c r="X46" s="5">
         <f>SUM($B$44:X44)</f>
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+        <v>3265</v>
+      </c>
+      <c r="Y46" s="5">
+        <f>SUM($B$44:Y44)</f>
+        <v>3831</v>
+      </c>
+      <c r="Z46" s="5">
+        <f>SUM($B$44:Z44)</f>
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2224,14 +2389,22 @@
       </c>
       <c r="W47" s="5">
         <f>SUM($B$45:W45)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X47" s="5">
         <f>SUM($B$45:X45)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>SUM($B$45:Y45)</f>
+        <v>79</v>
+      </c>
+      <c r="Z47" s="5">
+        <f>SUM($B$45:Z45)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2415,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2427,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2452,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
@@ -2292,88 +2465,100 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C55" s="3">
         <v>44050</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" ref="C55:P55" si="4">B55+1</f>
+      <c r="D55" s="3">
+        <f t="shared" ref="D55:Q55" si="4">C55+1</f>
         <v>44051</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <f t="shared" si="4"/>
         <v>44052</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <f t="shared" si="4"/>
         <v>44053</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <f t="shared" si="4"/>
         <v>44054</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <f t="shared" si="4"/>
         <v>44055</v>
       </c>
-      <c r="H55" s="3">
+      <c r="I55" s="3">
         <f t="shared" si="4"/>
         <v>44056</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <f t="shared" si="4"/>
         <v>44057</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <f t="shared" si="4"/>
         <v>44058</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <f t="shared" si="4"/>
         <v>44059</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="4"/>
         <v>44060</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <f t="shared" si="4"/>
         <v>44061</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <f t="shared" si="4"/>
         <v>44062</v>
       </c>
-      <c r="O55" s="3">
+      <c r="P55" s="3">
         <f t="shared" si="4"/>
         <v>44063</v>
       </c>
-      <c r="P55" s="3">
+      <c r="Q55" s="3">
         <f t="shared" si="4"/>
         <v>44064</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>44065</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>44066</v>
       </c>
-      <c r="S55" s="3">
+      <c r="T55" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U55" s="3">
+        <v>44068</v>
+      </c>
+      <c r="V55" s="3">
+        <v>44069</v>
+      </c>
+      <c r="W55" s="3">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B56">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2382,19 +2567,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="G56">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="H56">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I56">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2403,28 +2588,40 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="N56">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="O56">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="P56">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="Q56">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="R56">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="S56">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+      <c r="T56">
+        <v>1460</v>
+      </c>
+      <c r="U56">
+        <v>1778</v>
+      </c>
+      <c r="V56">
+        <v>1350</v>
+      </c>
+      <c r="W56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2444,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2468,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -2480,151 +2677,179 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B58">
-        <f>SUM(B56)</f>
-        <v>210</v>
+      <c r="B58" s="5">
+        <f>SUM($B$56:B56)</f>
+        <v>145</v>
       </c>
       <c r="C58">
         <f>SUM($B$56:C56)</f>
-        <v>219</v>
-      </c>
-      <c r="D58">
+        <v>260</v>
+      </c>
+      <c r="D58" s="5">
         <f>SUM($B$56:D56)</f>
-        <v>219</v>
-      </c>
-      <c r="E58">
+        <v>260</v>
+      </c>
+      <c r="E58" s="5">
         <f>SUM($B$56:E56)</f>
-        <v>219</v>
-      </c>
-      <c r="F58">
+        <v>260</v>
+      </c>
+      <c r="F58" s="5">
         <f>SUM($B$56:F56)</f>
-        <v>438</v>
-      </c>
-      <c r="G58">
+        <v>345</v>
+      </c>
+      <c r="G58" s="5">
         <f>SUM($B$56:G56)</f>
-        <v>486</v>
-      </c>
-      <c r="H58">
+        <v>428</v>
+      </c>
+      <c r="H58" s="5">
         <f>SUM($B$56:H56)</f>
-        <v>732</v>
-      </c>
-      <c r="I58">
+        <v>662</v>
+      </c>
+      <c r="I58" s="5">
         <f>SUM($B$56:I56)</f>
-        <v>1310</v>
-      </c>
-      <c r="J58">
+        <v>1235</v>
+      </c>
+      <c r="J58" s="5">
         <f>SUM($B$56:J56)</f>
-        <v>1310</v>
-      </c>
-      <c r="K58">
+        <v>1245</v>
+      </c>
+      <c r="K58" s="5">
         <f>SUM($B$56:K56)</f>
-        <v>1310</v>
-      </c>
-      <c r="L58">
+        <v>1245</v>
+      </c>
+      <c r="L58" s="5">
         <f>SUM($B$56:L56)</f>
-        <v>1310</v>
-      </c>
-      <c r="M58">
+        <v>1245</v>
+      </c>
+      <c r="M58" s="5">
         <f>SUM($B$56:M56)</f>
-        <v>1955</v>
-      </c>
-      <c r="N58">
+        <v>1904</v>
+      </c>
+      <c r="N58" s="5">
         <f>SUM($B$56:N56)</f>
-        <v>2537</v>
-      </c>
-      <c r="O58">
+        <v>2501</v>
+      </c>
+      <c r="O58" s="5">
         <f>SUM($B$56:O56)</f>
-        <v>3368</v>
-      </c>
-      <c r="P58">
+        <v>3312</v>
+      </c>
+      <c r="P58" s="5">
         <f>SUM($B$56:P56)</f>
-        <v>4384</v>
-      </c>
-      <c r="Q58">
+        <v>4341</v>
+      </c>
+      <c r="Q58" s="5">
         <f>SUM($B$56:Q56)</f>
-        <v>5386</v>
+        <v>5354</v>
       </c>
       <c r="R58" s="5">
         <f>SUM($B$56:R56)</f>
-        <v>6053</v>
+        <v>6025</v>
       </c>
       <c r="S58" s="5">
         <f>SUM($B$56:S56)</f>
-        <v>6934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <v>6876</v>
+      </c>
+      <c r="T58" s="5">
+        <f>SUM($B$56:T56)</f>
+        <v>8336</v>
+      </c>
+      <c r="U58" s="5">
+        <f>SUM($B$56:U56)</f>
+        <v>10114</v>
+      </c>
+      <c r="V58" s="5">
+        <f>SUM($B$56:V56)</f>
+        <v>11464</v>
+      </c>
+      <c r="W58" s="5">
+        <f>SUM($B$56:W56)</f>
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B59">
-        <f>SUM(B57)</f>
+      <c r="B59" s="5">
+        <f>SUM($B$57:B57)</f>
         <v>0</v>
       </c>
       <c r="C59">
         <f>SUM($B$57:C57)</f>
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <f>SUM($B$57:D57)</f>
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <f>SUM($B$57:E57)</f>
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <f>SUM($B$57:F57)</f>
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="5">
         <f>SUM($B$57:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
         <f>SUM($B$57:H57)</f>
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="5">
         <f>SUM($B$57:I57)</f>
         <v>1</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="5">
         <f>SUM($B$57:J57)</f>
         <v>1</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="5">
         <f>SUM($B$57:K57)</f>
         <v>1</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="5">
         <f>SUM($B$57:L57)</f>
         <v>1</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="5">
         <f>SUM($B$57:M57)</f>
         <v>2</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="5">
         <f>SUM($B$57:N57)</f>
         <v>2</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="5">
         <f>SUM($B$57:O57)</f>
-        <v>3</v>
-      </c>
-      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="P59" s="5">
         <f>SUM($B$57:P57)</f>
         <v>5</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="5">
         <f>SUM($B$57:Q57)</f>
         <v>5</v>
       </c>
@@ -2634,10 +2859,26 @@
       </c>
       <c r="S59" s="5">
         <f>SUM($B$57:S57)</f>
+        <v>7</v>
+      </c>
+      <c r="T59" s="5">
+        <f>SUM($B$57:T57)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="5">
+        <f>SUM($B$57:U57)</f>
+        <v>8</v>
+      </c>
+      <c r="V59" s="5">
+        <f>SUM($B$57:V57)</f>
+        <v>9</v>
+      </c>
+      <c r="W59" s="5">
+        <f>SUM($B$57:W57)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -2656,13 +2897,16 @@
       <c r="F61" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G61" s="3">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2681,8 +2925,11 @@
       <c r="F63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2706,8 +2953,12 @@
         <f>SUM($B$62:F62)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="G64" s="5">
+        <f>SUM($B$62:G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2731,8 +2982,12 @@
         <f>SUM($B$62:F63)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="G65" s="5">
+        <f>SUM($B$62:G63)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>24</v>
       </c>
@@ -2757,8 +3012,20 @@
       <c r="H67" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="68" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="I67" s="3">
+        <v>44068</v>
+      </c>
+      <c r="J67" s="3">
+        <v>44069</v>
+      </c>
+      <c r="K67" s="3">
+        <v>44070</v>
+      </c>
+      <c r="L67" s="3">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>20</v>
       </c>
@@ -2766,25 +3033,37 @@
         <v>333</v>
       </c>
       <c r="C68">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D68">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="E68">
         <v>852</v>
       </c>
       <c r="F68">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G68">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>270</v>
+      </c>
+      <c r="J68">
+        <v>1319</v>
+      </c>
+      <c r="K68">
+        <v>856</v>
+      </c>
+      <c r="L68">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -2809,8 +3088,20 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -2820,30 +3111,46 @@
       </c>
       <c r="C70" s="5">
         <f>SUM($B$68:C68)</f>
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D70" s="5">
         <f>SUM($B$68:D68)</f>
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="E70" s="5">
         <f>SUM($B$68:E68)</f>
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="F70" s="5">
         <f>SUM($B$68:F68)</f>
-        <v>4165</v>
+        <v>4170</v>
       </c>
       <c r="G70">
         <f>SUM($B$68:G68)</f>
-        <v>4683</v>
+        <v>4689</v>
       </c>
       <c r="H70" s="5">
         <f>SUM($B$68:H68)</f>
-        <v>4689</v>
-      </c>
-    </row>
-    <row r="71" spans="1:95" x14ac:dyDescent="0.2">
+        <v>4695</v>
+      </c>
+      <c r="I70" s="5">
+        <f>SUM($B$68:I68)</f>
+        <v>4965</v>
+      </c>
+      <c r="J70" s="5">
+        <f>SUM($B$68:J68)</f>
+        <v>6284</v>
+      </c>
+      <c r="K70" s="5">
+        <f>SUM($B$68:K68)</f>
+        <v>7140</v>
+      </c>
+      <c r="L70" s="5">
+        <f>SUM($B$68:L68)</f>
+        <v>7267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>15</v>
       </c>
@@ -2875,8 +3182,24 @@
         <f>SUM($B$69:H69)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="I71" s="5">
+        <f>SUM($B$69:I69)</f>
+        <v>8</v>
+      </c>
+      <c r="J71" s="5">
+        <f>SUM($B$69:J69)</f>
+        <v>13</v>
+      </c>
+      <c r="K71" s="5">
+        <f>SUM($B$69:K69)</f>
+        <v>16</v>
+      </c>
+      <c r="L71" s="5">
+        <f>SUM($B$69:L69)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
@@ -2982,7 +3305,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -3062,7 +3385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -3142,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>18</v>
       </c>
@@ -3352,7 +3675,7 @@
         <v>8252</v>
       </c>
     </row>
-    <row r="78" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3780,7 @@
         <v>1.2409999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -3498,6 +3821,9 @@
       <c r="K80" s="3">
         <f t="shared" si="7"/>
         <v>44059</v>
+      </c>
+      <c r="L80" s="3">
+        <v>44066</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -3583,7 +3909,7 @@
       <c r="CP80" s="3"/>
       <c r="CQ80" s="3"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -3617,8 +3943,11 @@
       <c r="K81">
         <v>222</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
@@ -3652,8 +3981,11 @@
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -3697,8 +4029,12 @@
         <f>SUM($B81:K81)</f>
         <v>1303</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L83" s="5">
+        <f>SUM($B81:L81)</f>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
@@ -3742,8 +4078,12 @@
         <f>SUM($B82:K82)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L84" s="5">
+        <f>SUM($B82:L82)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
@@ -3806,8 +4146,17 @@
         <f t="shared" si="8"/>
         <v>44066</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>44067</v>
+      </c>
+      <c r="R86" s="3">
+        <v>44068</v>
+      </c>
+      <c r="S86" s="3">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>20</v>
       </c>
@@ -3856,8 +4205,17 @@
       <c r="P87">
         <v>225</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>2025</v>
+      </c>
+      <c r="S87">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
@@ -3912,8 +4270,17 @@
       <c r="P88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>82</v>
+      </c>
+      <c r="S88">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -3977,8 +4344,20 @@
         <f>SUM($B$87:P87)</f>
         <v>11025</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q89" s="5">
+        <f>SUM($B$87:Q87)</f>
+        <v>11025</v>
+      </c>
+      <c r="R89" s="5">
+        <f>SUM($B$87:R87)</f>
+        <v>13050</v>
+      </c>
+      <c r="S89" s="5">
+        <f>SUM($B$87:S87)</f>
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>15</v>
       </c>
@@ -4042,32 +4421,53 @@
         <f>SUM($B$88:P88)</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q90" s="5">
+        <f>SUM($B$88:Q88)</f>
+        <v>135</v>
+      </c>
+      <c r="R90" s="5">
+        <f>SUM($B$88:R88)</f>
+        <v>217</v>
+      </c>
+      <c r="S90" s="5">
+        <f>SUM($B$88:S88)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C92" s="3">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B93">
         <v>5333</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>7298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>44</v>
       </c>
@@ -4157,7 +4557,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
@@ -4263,7 +4663,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -4331,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -4420,7 +4820,7 @@
         <v>797.99999999999966</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -4509,7 +4909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>46</v>
       </c>
@@ -4520,7 +4920,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -4531,7 +4931,7 @@
         <v>13623</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
@@ -4542,7 +4942,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>48</v>
       </c>
@@ -4629,8 +5029,17 @@
         <f t="shared" si="14"/>
         <v>44066</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107" s="3">
+        <v>44067</v>
+      </c>
+      <c r="X107" s="3">
+        <v>44068</v>
+      </c>
+      <c r="Y107" s="3">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>20</v>
       </c>
@@ -4697,8 +5106,17 @@
       <c r="V108">
         <v>160</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>930</v>
+      </c>
+      <c r="X108">
+        <v>90</v>
+      </c>
+      <c r="Y108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>21</v>
       </c>
@@ -4765,8 +5183,17 @@
       <c r="V109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -4854,8 +5281,20 @@
         <f>SUM($B$108:V108)</f>
         <v>7230</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W110" s="5">
+        <f>SUM($B$108:W108)</f>
+        <v>8160</v>
+      </c>
+      <c r="X110" s="5">
+        <f>SUM($B$108:X108)</f>
+        <v>8250</v>
+      </c>
+      <c r="Y110" s="5">
+        <f>SUM($B$108:Y108)</f>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -4943,8 +5382,20 @@
         <f>SUM($B$109:V109)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="W111" s="5">
+        <f>SUM($B$109:W109)</f>
+        <v>14</v>
+      </c>
+      <c r="X111" s="5">
+        <f>SUM($B$109:X109)</f>
+        <v>14</v>
+      </c>
+      <c r="Y111" s="5">
+        <f>SUM($B$109:Y109)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>50</v>
       </c>
@@ -4952,7 +5403,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -4960,7 +5411,7 @@
         <v>6630</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>15</v>
       </c>

--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4A9955-409D-4208-AE86-B9A9A10434D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02895DAF-2A59-49B8-9987-B3FDCAAF8278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>UNC Chapel Hill</t>
   </si>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,12 +226,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,18 +248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ115"/>
+  <dimension ref="A1:CQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,25 +670,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -867,7 +859,7 @@
         <f t="shared" si="1"/>
         <v>31893</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -891,7 +883,7 @@
         <f t="shared" si="1"/>
         <v>24413</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -916,7 +908,7 @@
         <f t="shared" si="1"/>
         <v>51291</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -941,7 +933,7 @@
         <f t="shared" si="1"/>
         <v>71759</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -966,7 +958,7 @@
         <f t="shared" si="1"/>
         <v>66457</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -991,7 +983,7 @@
         <f t="shared" si="1"/>
         <v>40672</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1015,7 +1007,7 @@
         <f t="shared" si="1"/>
         <v>15376</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1040,7 +1032,7 @@
         <f t="shared" si="1"/>
         <v>40189</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1064,11 +1056,11 @@
         <f t="shared" si="1"/>
         <v>40174</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1088,11 +1080,11 @@
         <f t="shared" si="1"/>
         <v>18019</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1112,11 +1104,11 @@
         <f t="shared" si="1"/>
         <v>10002</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -1137,11 +1129,11 @@
         <f t="shared" si="1"/>
         <v>55650</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1149,31 +1141,31 @@
         <v>44054</v>
       </c>
       <c r="C21" s="3">
-        <f>B21+1</f>
+        <f t="shared" ref="C21:I21" si="2">B21+1</f>
         <v>44055</v>
       </c>
       <c r="D21" s="3">
-        <f>C21+1</f>
+        <f t="shared" si="2"/>
         <v>44056</v>
       </c>
       <c r="E21" s="3">
-        <f>D21+1</f>
+        <f t="shared" si="2"/>
         <v>44057</v>
       </c>
       <c r="F21" s="3">
-        <f>E21+1</f>
+        <f t="shared" si="2"/>
         <v>44058</v>
       </c>
       <c r="G21" s="3">
-        <f>F21+1</f>
+        <f t="shared" si="2"/>
         <v>44059</v>
       </c>
       <c r="H21" s="3">
-        <f>G21+1</f>
+        <f t="shared" si="2"/>
         <v>44060</v>
       </c>
       <c r="I21" s="3">
-        <f>H21+1</f>
+        <f t="shared" si="2"/>
         <v>44061</v>
       </c>
       <c r="J21" s="3">
@@ -1200,8 +1192,17 @@
       <c r="Q21" s="3">
         <v>44069</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R21" s="3">
+        <v>44070</v>
+      </c>
+      <c r="S21" s="3">
+        <v>44071</v>
+      </c>
+      <c r="T21" s="3">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1251,10 +1252,19 @@
         <v>3918</v>
       </c>
       <c r="Q22">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <v>5807</v>
+      </c>
+      <c r="R22">
+        <v>6486</v>
+      </c>
+      <c r="S22">
+        <v>7428</v>
+      </c>
+      <c r="T22">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1304,10 +1314,19 @@
         <v>302</v>
       </c>
       <c r="Q23">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="R23">
+        <v>408</v>
+      </c>
+      <c r="S23">
+        <v>430</v>
+      </c>
+      <c r="T23">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1326,8 +1345,11 @@
       <c r="F25" s="3">
         <v>44066</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1368,11 @@
       <c r="F26">
         <v>1568</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1366,8 +1391,11 @@
       <c r="F27">
         <v>505</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1391,8 +1419,12 @@
         <f>SUM(C26:F26)</f>
         <v>3034</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G28" s="5">
+        <f>SUM(D26:G26)</f>
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1416,8 +1448,12 @@
         <f>SUM(C27:F27)</f>
         <v>658</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="5">
+        <f>SUM(D27:G27)</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1452,39 +1488,39 @@
         <v>44055</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" ref="L31:T31" si="2">K31+1</f>
+        <f t="shared" ref="L31:T31" si="3">K31+1</f>
         <v>44056</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44057</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44058</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44059</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44060</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44061</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44062</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44063</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44064</v>
       </c>
       <c r="U31" s="3">
@@ -1505,8 +1541,20 @@
       <c r="Z31" s="3">
         <v>44070</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31" s="3">
+        <v>44071</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>44072</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>44073</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1585,8 +1633,20 @@
       <c r="Z32">
         <v>632</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>517</v>
+      </c>
+      <c r="AB32">
+        <v>380</v>
+      </c>
+      <c r="AC32">
+        <v>369</v>
+      </c>
+      <c r="AD32">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1665,8 +1725,20 @@
       <c r="Z33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>17</v>
+      </c>
+      <c r="AB33">
+        <v>10</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1770,8 +1842,24 @@
         <f>SUM($B$32:Z32)</f>
         <v>4836</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34" s="5">
+        <f>SUM($B$32:AA32)</f>
+        <v>5353</v>
+      </c>
+      <c r="AB34" s="5">
+        <f>SUM($B$32:AB32)</f>
+        <v>5733</v>
+      </c>
+      <c r="AC34" s="5">
+        <f>SUM($B$32:AC32)</f>
+        <v>6102</v>
+      </c>
+      <c r="AD34" s="5">
+        <f>SUM($B$32:AD32)</f>
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1875,8 +1963,24 @@
         <f>SUM($B$33:Z33)</f>
         <v>503</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA35" s="5">
+        <f>SUM($B$33:AA33)</f>
+        <v>520</v>
+      </c>
+      <c r="AB35" s="5">
+        <f>SUM($B$33:AB33)</f>
+        <v>530</v>
+      </c>
+      <c r="AC35" s="5">
+        <f>SUM($B$33:AC33)</f>
+        <v>533</v>
+      </c>
+      <c r="AD35" s="5">
+        <f>SUM($B$33:AD33)</f>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1886,19 +1990,25 @@
       <c r="C37" s="3">
         <v>44063</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D37" s="3">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B38">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C38">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="D38">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -1906,24 +2016,31 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <f>D38-3940</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B40">
         <f>SUM(B38)</f>
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40">
         <f>SUM($B$38:C38)</f>
-        <v>319</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D40" s="5">
+        <f>SUM($B$38:D38)</f>
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1933,10 +2050,14 @@
       </c>
       <c r="C41">
         <f>SUM($B$39:C39)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5">
+        <f>SUM($B$39:D39)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1944,75 +2065,75 @@
         <v>44044</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ref="C43:T43" si="3">B43+1</f>
+        <f t="shared" ref="C43:T43" si="4">B43+1</f>
         <v>44045</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44046</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44047</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44048</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44049</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44050</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44051</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44052</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44053</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44054</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44055</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44056</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44057</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44058</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44059</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44060</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44061</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44062</v>
       </c>
       <c r="U43" s="3">
@@ -2033,8 +2154,23 @@
       <c r="Z43" s="3">
         <v>44068</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43" s="3">
+        <v>44069</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>44070</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>44071</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>44072</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -2078,43 +2214,58 @@
         <v>114</v>
       </c>
       <c r="O44">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P44">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R44">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="S44">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="T44">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="U44">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="V44">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="W44">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="X44">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Y44">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="Z44">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="AA44">
+        <v>615</v>
+      </c>
+      <c r="AB44">
+        <v>188</v>
+      </c>
+      <c r="AC44">
+        <v>645</v>
+      </c>
+      <c r="AD44">
+        <v>169</v>
+      </c>
+      <c r="AE44">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2167,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="R45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -2185,16 +2336,31 @@
         <v>5</v>
       </c>
       <c r="X45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y45">
         <v>16</v>
       </c>
       <c r="Z45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
+        <v>10</v>
+      </c>
+      <c r="AC45">
+        <v>27</v>
+      </c>
+      <c r="AD45">
+        <v>3</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2252,54 +2418,74 @@
       </c>
       <c r="O46">
         <f>SUM($B$44:O44)</f>
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="P46">
         <f>SUM($B$44:P44)</f>
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="Q46">
         <f>SUM($B$44:Q44)</f>
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="R46">
         <f>SUM($B$44:R44)</f>
-        <v>1595</v>
+        <v>1620</v>
       </c>
       <c r="S46">
         <f>SUM($B$44:S44)</f>
-        <v>1808</v>
+        <v>1853</v>
       </c>
       <c r="T46">
         <f>SUM($B$44:T44)</f>
-        <v>2176</v>
+        <v>2251</v>
       </c>
       <c r="U46" s="5">
         <f>SUM($B$44:U44)</f>
-        <v>2434</v>
+        <v>2521</v>
       </c>
       <c r="V46" s="5">
         <f>SUM($B$44:V44)</f>
-        <v>2785</v>
+        <v>2898</v>
       </c>
       <c r="W46" s="5">
         <f>SUM($B$44:W44)</f>
-        <v>3016</v>
+        <v>3138</v>
       </c>
       <c r="X46" s="5">
         <f>SUM($B$44:X44)</f>
-        <v>3265</v>
+        <v>3397</v>
       </c>
       <c r="Y46" s="5">
         <f>SUM($B$44:Y44)</f>
-        <v>3831</v>
+        <v>3986</v>
       </c>
       <c r="Z46" s="5">
         <f>SUM($B$44:Z44)</f>
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+        <v>4234</v>
+      </c>
+      <c r="AA46" s="5">
+        <f>SUM($B$44:AA44)</f>
+        <v>4849</v>
+      </c>
+      <c r="AB46" s="5">
+        <f>SUM($B$44:AB44)</f>
+        <v>5037</v>
+      </c>
+      <c r="AC46" s="5">
+        <f>SUM($B$44:AC44)</f>
+        <v>5682</v>
+      </c>
+      <c r="AD46" s="5">
+        <f>SUM($B$44:AD44)</f>
+        <v>5851</v>
+      </c>
+      <c r="AE46" s="5">
+        <f>SUM($B$44:AE44)</f>
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2369,42 +2555,62 @@
       </c>
       <c r="R47">
         <f>SUM($B$45:R45)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S47">
         <f>SUM($B$45:S45)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T47">
         <f>SUM($B$45:T45)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U47" s="5">
         <f>SUM($B$45:U45)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V47" s="5">
         <f>SUM($B$45:V45)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W47" s="5">
         <f>SUM($B$45:W45)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X47" s="5">
         <f>SUM($B$45:X45)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y47" s="5">
         <f>SUM($B$45:Y45)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z47" s="5">
         <f>SUM($B$45:Z45)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="AA47" s="5">
+        <f>SUM($B$45:AA45)</f>
+        <v>97</v>
+      </c>
+      <c r="AB47" s="5">
+        <f>SUM($B$45:AB45)</f>
+        <v>107</v>
+      </c>
+      <c r="AC47" s="5">
+        <f>SUM($B$45:AC45)</f>
+        <v>134</v>
+      </c>
+      <c r="AD47" s="5">
+        <f>SUM($B$45:AD45)</f>
+        <v>137</v>
+      </c>
+      <c r="AE47" s="5">
+        <f>SUM($B$45:AE45)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2414,8 +2620,11 @@
       <c r="C49" s="3">
         <v>44064</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D49" s="3">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -2426,8 +2635,11 @@
       <c r="C50">
         <v>5028</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -2438,8 +2650,11 @@
       <c r="C51">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -2451,8 +2666,12 @@
         <f>SUM($B$50:C50)</f>
         <v>11398</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D52" s="5">
+        <f>SUM($B$50:D50)</f>
+        <v>17040</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
@@ -2464,8 +2683,12 @@
         <f>SUM($B$51:C51)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="5">
+        <f>SUM($B$51:D51)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2476,59 +2699,59 @@
         <v>44050</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:Q55" si="4">C55+1</f>
+        <f t="shared" ref="D55:Q55" si="5">C55+1</f>
         <v>44051</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44052</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44053</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44054</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44055</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44056</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44057</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44058</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44059</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44060</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44061</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44062</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44063</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44064</v>
       </c>
       <c r="R55" s="3">
@@ -2549,8 +2772,20 @@
       <c r="W55" s="3">
         <v>44070</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X55" s="3">
+        <v>44071</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>44072</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>44073</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -2615,13 +2850,25 @@
         <v>1778</v>
       </c>
       <c r="V56">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="W56">
+        <v>1505</v>
+      </c>
+      <c r="X56">
+        <v>2056</v>
+      </c>
+      <c r="Y56">
+        <v>11</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2691,8 +2938,20 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2778,14 +3037,30 @@
       </c>
       <c r="V58" s="5">
         <f>SUM($B$56:V56)</f>
-        <v>11464</v>
+        <v>11465</v>
       </c>
       <c r="W58" s="5">
         <f>SUM($B$56:W56)</f>
-        <v>11468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12970</v>
+      </c>
+      <c r="X58" s="5">
+        <f>SUM($B$56:X56)</f>
+        <v>15026</v>
+      </c>
+      <c r="Y58" s="5">
+        <f>SUM($B$56:Y56)</f>
+        <v>15037</v>
+      </c>
+      <c r="Z58" s="5">
+        <f>SUM($B$56:Z56)</f>
+        <v>15040</v>
+      </c>
+      <c r="AA58" s="5">
+        <f>SUM($B$56:AA56)</f>
+        <v>15044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
@@ -2877,8 +3152,24 @@
         <f>SUM($B$57:W57)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X59" s="5">
+        <f>SUM($B$57:X57)</f>
+        <v>9</v>
+      </c>
+      <c r="Y59" s="5">
+        <f>SUM($B$57:Y57)</f>
+        <v>9</v>
+      </c>
+      <c r="Z59" s="5">
+        <f>SUM($B$57:Z57)</f>
+        <v>9</v>
+      </c>
+      <c r="AA59" s="5">
+        <f>SUM($B$57:AA57)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -2900,13 +3191,19 @@
       <c r="G61" s="3">
         <v>44069</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H61" s="3">
+        <v>44071</v>
+      </c>
+      <c r="I61" s="3">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="G63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2955,6 +3258,12 @@
       </c>
       <c r="G64" s="5">
         <f>SUM($B$62:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
     </row>
@@ -2986,6 +3295,14 @@
         <f>SUM($B$62:G63)</f>
         <v>19</v>
       </c>
+      <c r="H65" s="5">
+        <f>SUM($B$62:H63)</f>
+        <v>20</v>
+      </c>
+      <c r="I65" s="5">
+        <f>SUM($B$62:I63)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -3024,6 +3341,15 @@
       <c r="L67" s="3">
         <v>44071</v>
       </c>
+      <c r="M67" s="3">
+        <v>44072</v>
+      </c>
+      <c r="N67" s="3">
+        <v>44073</v>
+      </c>
+      <c r="O67" s="3">
+        <v>44074</v>
+      </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
@@ -3060,7 +3386,16 @@
         <v>856</v>
       </c>
       <c r="L68">
-        <v>127</v>
+        <v>246</v>
+      </c>
+      <c r="M68">
+        <v>1766</v>
+      </c>
+      <c r="N68">
+        <v>2507</v>
+      </c>
+      <c r="O68">
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:95" x14ac:dyDescent="0.3">
@@ -3100,6 +3435,15 @@
       <c r="L69">
         <v>1</v>
       </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
@@ -3147,7 +3491,19 @@
       </c>
       <c r="L70" s="5">
         <f>SUM($B$68:L68)</f>
-        <v>7267</v>
+        <v>7386</v>
+      </c>
+      <c r="M70" s="5">
+        <f>SUM($B$68:M68)</f>
+        <v>9152</v>
+      </c>
+      <c r="N70" s="5">
+        <f>SUM($B$68:N68)</f>
+        <v>11659</v>
+      </c>
+      <c r="O70" s="5">
+        <f>SUM($B$68:O68)</f>
+        <v>11959</v>
       </c>
     </row>
     <row r="71" spans="1:95" x14ac:dyDescent="0.3">
@@ -3198,6 +3554,18 @@
         <f>SUM($B$69:L69)</f>
         <v>17</v>
       </c>
+      <c r="M71" s="5">
+        <f>SUM($B$69:M69)</f>
+        <v>21</v>
+      </c>
+      <c r="N71" s="5">
+        <f>SUM($B$69:N69)</f>
+        <v>21</v>
+      </c>
+      <c r="O71" s="5">
+        <f>SUM($B$69:O69)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
@@ -3207,99 +3575,99 @@
         <v>43898</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:Z73" si="5">B73+7</f>
+        <f t="shared" ref="C73:Z73" si="6">B73+7</f>
         <v>43905</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43912</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43919</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43926</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43933</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43940</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43947</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43954</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43961</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43968</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43975</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43982</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43989</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43996</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44003</v>
       </c>
       <c r="R73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44010</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44017</v>
       </c>
       <c r="T73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44024</v>
       </c>
       <c r="U73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44031</v>
       </c>
       <c r="V73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44038</v>
       </c>
       <c r="W73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44045</v>
       </c>
       <c r="X73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44052</v>
       </c>
       <c r="Y73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44059</v>
       </c>
       <c r="Z73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44066</v>
       </c>
       <c r="AA73" s="3"/>
@@ -3373,16 +3741,16 @@
         <v>559</v>
       </c>
       <c r="W74">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="X74">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Y74">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="Z74">
-        <v>11</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
@@ -3474,99 +3842,99 @@
         <v>7</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" ref="C76:Z76" si="6">ROUND(C75*C74,0)</f>
+        <f t="shared" ref="C76:Z76" si="7">ROUND(C75*C74,0)</f>
         <v>34</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="R76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="T76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="X76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Z76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3660,19 +4028,19 @@
       </c>
       <c r="W77" s="5">
         <f>SUM($B$74:W74)</f>
-        <v>6530</v>
+        <v>6531</v>
       </c>
       <c r="X77" s="5">
         <f>SUM($B$74:X74)</f>
-        <v>7395</v>
+        <v>7397</v>
       </c>
       <c r="Y77" s="5">
         <f>SUM($B$74:Y74)</f>
-        <v>8241</v>
+        <v>8267</v>
       </c>
       <c r="Z77" s="5">
         <f>SUM($B$74:Z74)</f>
-        <v>8252</v>
+        <v>9811</v>
       </c>
     </row>
     <row r="78" spans="1:95" x14ac:dyDescent="0.3">
@@ -3807,19 +4175,19 @@
         <v>44031</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" ref="H80:K80" si="7">G80+7</f>
+        <f t="shared" ref="H80:K80" si="8">G80+7</f>
         <v>44038</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44045</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44052</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44059</v>
       </c>
       <c r="L80" s="3">
@@ -3909,7 +4277,7 @@
       <c r="CP80" s="3"/>
       <c r="CQ80" s="3"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -3944,10 +4312,10 @@
         <v>222</v>
       </c>
       <c r="L81">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
@@ -3982,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -4031,10 +4399,10 @@
       </c>
       <c r="L83" s="5">
         <f>SUM($B81:L81)</f>
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
@@ -4080,10 +4448,10 @@
       </c>
       <c r="L84" s="5">
         <f>SUM($B82:L82)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
@@ -4095,55 +4463,55 @@
         <v>44053</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" ref="D86:P86" si="8">C86+1</f>
+        <f t="shared" ref="D86:P86" si="9">C86+1</f>
         <v>44054</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44055</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44056</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44057</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44058</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44059</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44060</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44061</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44062</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44063</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44064</v>
       </c>
       <c r="O86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44065</v>
       </c>
       <c r="P86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44066</v>
       </c>
       <c r="Q86" s="3">
@@ -4155,8 +4523,17 @@
       <c r="S86" s="3">
         <v>44069</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T86" s="3">
+        <v>44070</v>
+      </c>
+      <c r="U86" s="3">
+        <v>44071</v>
+      </c>
+      <c r="V86" s="3">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>20</v>
       </c>
@@ -4214,33 +4591,42 @@
       <c r="S87">
         <v>1800</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>2475</v>
+      </c>
+      <c r="U87">
+        <v>2025</v>
+      </c>
+      <c r="V87">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:G88" si="9">16/6</f>
+        <f t="shared" ref="B88:G88" si="10">16/6</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="H88">
@@ -4279,8 +4665,17 @@
       <c r="S88">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>45</v>
+      </c>
+      <c r="U88">
+        <v>32</v>
+      </c>
+      <c r="V88">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -4356,8 +4751,20 @@
         <f>SUM($B$87:S87)</f>
         <v>14850</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T89" s="5">
+        <f>SUM($B$87:T87)</f>
+        <v>17325</v>
+      </c>
+      <c r="U89" s="5">
+        <f>SUM($B$87:U87)</f>
+        <v>19350</v>
+      </c>
+      <c r="V89" s="5">
+        <f>SUM($B$87:V87)</f>
+        <v>21105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>15</v>
       </c>
@@ -4433,8 +4840,20 @@
         <f>SUM($B$88:S88)</f>
         <v>282</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T90" s="5">
+        <f>SUM($B$88:T88)</f>
+        <v>327</v>
+      </c>
+      <c r="U90" s="5">
+        <f>SUM($B$88:U88)</f>
+        <v>359</v>
+      </c>
+      <c r="V90" s="5">
+        <f>SUM($B$88:V88)</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -4444,10 +4863,13 @@
       <c r="C92" s="3">
         <v>44068</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D92" s="3">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B93">
         <v>5333</v>
@@ -4455,10 +4877,13 @@
       <c r="C93">
         <v>7298</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>10939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -4466,8 +4891,11 @@
       <c r="C94">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>44</v>
       </c>
@@ -4475,89 +4903,115 @@
         <v>44045</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" ref="C96:V96" si="10">B96+1</f>
+        <f t="shared" ref="C96:V96" si="11">B96+1</f>
         <v>44046</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44047</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44048</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44049</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44050</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44051</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44052</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44053</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44054</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44055</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44056</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44057</v>
       </c>
       <c r="O96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44058</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44059</v>
       </c>
       <c r="Q96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44060</v>
       </c>
       <c r="R96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44061</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44062</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44063</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44064</v>
       </c>
       <c r="V96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44065</v>
       </c>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W96" s="3">
+        <f>V96+1</f>
+        <v>44066</v>
+      </c>
+      <c r="X96" s="3">
+        <f t="shared" ref="X96:AC96" si="12">W96+1</f>
+        <v>44067</v>
+      </c>
+      <c r="Y96" s="3">
+        <f t="shared" si="12"/>
+        <v>44068</v>
+      </c>
+      <c r="Z96" s="3">
+        <f t="shared" si="12"/>
+        <v>44069</v>
+      </c>
+      <c r="AA96" s="3">
+        <f t="shared" si="12"/>
+        <v>44070</v>
+      </c>
+      <c r="AB96" s="3">
+        <f t="shared" si="12"/>
+        <v>44071</v>
+      </c>
+      <c r="AC96" s="3">
+        <f t="shared" si="12"/>
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -4566,104 +5020,133 @@
         <v>442</v>
       </c>
       <c r="O97">
-        <f>101+128</f>
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="V97">
-        <f>79+48</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="AC97">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:H98" si="11">$H$97/7</f>
+        <f t="shared" ref="B98:H98" si="13">$H$97/7</f>
         <v>63.142857142857146</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.142857142857146</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:O98" si="12">$O$97/7</f>
-        <v>32.714285714285715</v>
+        <f t="shared" ref="I98:O98" si="14">$O$97/7</f>
+        <v>38.142857142857146</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="12"/>
-        <v>32.714285714285715</v>
+        <f t="shared" si="14"/>
+        <v>38.142857142857146</v>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:V98" si="13">$V$97/7</f>
-        <v>18.142857142857142</v>
+        <f t="shared" ref="P98:V98" si="15">$V$97/7</f>
+        <v>12.142857142857142</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="13"/>
-        <v>18.142857142857142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
+      </c>
+      <c r="W98">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="X98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="Y98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="Z98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="AA98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="AB98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="AC98" s="5">
+        <f>$AC$97/7</f>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -4695,28 +5178,28 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -4728,10 +5211,31 @@
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -4765,62 +5269,90 @@
       </c>
       <c r="I100" s="5">
         <f>SUM($B$98:I98)</f>
-        <v>474.71428571428578</v>
+        <v>480.14285714285722</v>
       </c>
       <c r="J100" s="5">
         <f>SUM($B$98:J98)</f>
-        <v>507.4285714285715</v>
+        <v>518.28571428571433</v>
       </c>
       <c r="K100" s="5">
         <f>SUM($B$98:K98)</f>
-        <v>540.14285714285722</v>
+        <v>556.42857142857144</v>
       </c>
       <c r="L100" s="5">
         <f>SUM($B$98:L98)</f>
-        <v>572.85714285714289</v>
+        <v>594.57142857142856</v>
       </c>
       <c r="M100" s="5">
         <f>SUM($B$98:M98)</f>
-        <v>605.57142857142856</v>
+        <v>632.71428571428567</v>
       </c>
       <c r="N100" s="5">
         <f>SUM($B$98:N98)</f>
-        <v>638.28571428571422</v>
+        <v>670.85714285714278</v>
       </c>
       <c r="O100" s="5">
         <f>SUM($B$98:O98)</f>
-        <v>670.99999999999989</v>
+        <v>708.99999999999989</v>
       </c>
       <c r="P100" s="5">
         <f>SUM($B$98:P98)</f>
-        <v>689.142857142857</v>
+        <v>721.142857142857</v>
       </c>
       <c r="Q100" s="5">
         <f>SUM($B$98:Q98)</f>
-        <v>707.28571428571411</v>
+        <v>733.28571428571411</v>
       </c>
       <c r="R100" s="5">
         <f>SUM($B$98:R98)</f>
-        <v>725.42857142857122</v>
+        <v>745.42857142857122</v>
       </c>
       <c r="S100" s="5">
         <f>SUM($B$98:S98)</f>
-        <v>743.57142857142833</v>
+        <v>757.57142857142833</v>
       </c>
       <c r="T100" s="5">
         <f>SUM($B$98:T98)</f>
-        <v>761.71428571428544</v>
+        <v>769.71428571428544</v>
       </c>
       <c r="U100" s="5">
         <f>SUM($B$98:U98)</f>
-        <v>779.85714285714255</v>
+        <v>781.85714285714255</v>
       </c>
       <c r="V100" s="5">
         <f>SUM($B$98:V98)</f>
-        <v>797.99999999999966</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+        <v>793.99999999999966</v>
+      </c>
+      <c r="W100" s="5">
+        <f>SUM($B$98:W98)</f>
+        <v>827.71428571428532</v>
+      </c>
+      <c r="X100" s="5">
+        <f>SUM($B$98:X98)</f>
+        <v>861.42857142857099</v>
+      </c>
+      <c r="Y100" s="5">
+        <f>SUM($B$98:Y98)</f>
+        <v>895.14285714285666</v>
+      </c>
+      <c r="Z100" s="5">
+        <f>SUM($B$98:Z98)</f>
+        <v>928.85714285714232</v>
+      </c>
+      <c r="AA100" s="5">
+        <f>SUM($B$98:AA98)</f>
+        <v>962.57142857142799</v>
+      </c>
+      <c r="AB100" s="5">
+        <f>SUM($B$98:AB98)</f>
+        <v>996.28571428571365</v>
+      </c>
+      <c r="AC100" s="5">
+        <f>SUM($B$98:AC98)</f>
+        <v>1029.9999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -4862,561 +5394,599 @@
       </c>
       <c r="K101" s="5">
         <f>SUM($B$99:K99)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L101" s="5">
         <f>SUM($B$99:L99)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M101" s="5">
         <f>SUM($B$99:M99)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N101" s="5">
         <f>SUM($B$99:N99)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O101" s="5">
         <f>SUM($B$99:O99)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P101" s="5">
         <f>SUM($B$99:P99)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q101" s="5">
         <f>SUM($B$99:Q99)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R101" s="5">
         <f>SUM($B$99:R99)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S101" s="5">
         <f>SUM($B$99:S99)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T101" s="5">
         <f>SUM($B$99:T99)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U101" s="5">
         <f>SUM($B$99:U99)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V101" s="5">
         <f>SUM($B$99:V99)</f>
+        <v>6</v>
+      </c>
+      <c r="W101" s="5">
+        <f>SUM($B$99:W99)</f>
+        <v>6</v>
+      </c>
+      <c r="X101" s="5">
+        <f>SUM($B$99:X99)</f>
+        <v>6</v>
+      </c>
+      <c r="Y101" s="5">
+        <f>SUM($B$99:Y99)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z101" s="5">
+        <f>SUM($B$99:Z99)</f>
+        <v>7</v>
+      </c>
+      <c r="AA101" s="5">
+        <f>SUM($B$99:AA99)</f>
+        <v>7</v>
+      </c>
+      <c r="AB101" s="5">
+        <f>SUM($B$99:AB99)</f>
+        <v>7</v>
+      </c>
+      <c r="AC101" s="5">
+        <f>SUM($B$99:AC99)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" s="3">
+        <v>44046</v>
+      </c>
+      <c r="C103" s="3">
+        <f>B103+1</f>
+        <v>44047</v>
+      </c>
+      <c r="D103" s="3">
+        <f>C103+1</f>
+        <v>44048</v>
+      </c>
+      <c r="E103" s="3">
+        <f>D103+1</f>
+        <v>44049</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" ref="F103:V103" si="16">E103+1</f>
+        <v>44050</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="16"/>
+        <v>44051</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="16"/>
+        <v>44052</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="16"/>
+        <v>44053</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="16"/>
         <v>44054</v>
       </c>
-      <c r="C103" s="3">
+      <c r="K103" s="3">
+        <f t="shared" si="16"/>
+        <v>44055</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="16"/>
+        <v>44056</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="16"/>
+        <v>44057</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="16"/>
+        <v>44058</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="16"/>
+        <v>44059</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="16"/>
+        <v>44060</v>
+      </c>
+      <c r="Q103" s="3">
+        <f t="shared" si="16"/>
+        <v>44061</v>
+      </c>
+      <c r="R103" s="3">
+        <f t="shared" si="16"/>
+        <v>44062</v>
+      </c>
+      <c r="S103" s="3">
+        <f t="shared" si="16"/>
+        <v>44063</v>
+      </c>
+      <c r="T103" s="3">
+        <f t="shared" si="16"/>
+        <v>44064</v>
+      </c>
+      <c r="U103" s="3">
+        <f t="shared" si="16"/>
+        <v>44065</v>
+      </c>
+      <c r="V103" s="3">
+        <f t="shared" si="16"/>
+        <v>44066</v>
+      </c>
+      <c r="W103" s="3">
+        <v>44067</v>
+      </c>
+      <c r="X103" s="3">
         <v>44068</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y103" s="3">
+        <v>44069</v>
+      </c>
+      <c r="Z103" s="3">
+        <v>44070</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>340</v>
+      </c>
+      <c r="C104">
+        <v>220</v>
+      </c>
+      <c r="D104">
+        <v>270</v>
+      </c>
+      <c r="E104">
+        <v>310</v>
+      </c>
+      <c r="F104">
+        <v>290</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>480</v>
+      </c>
+      <c r="J104">
+        <v>500</v>
+      </c>
+      <c r="K104">
+        <v>220</v>
+      </c>
+      <c r="L104">
+        <v>230</v>
+      </c>
+      <c r="M104">
+        <v>280</v>
+      </c>
+      <c r="N104">
+        <v>410</v>
+      </c>
+      <c r="O104">
+        <v>410</v>
+      </c>
+      <c r="P104">
+        <v>290</v>
+      </c>
+      <c r="Q104">
+        <v>490</v>
+      </c>
+      <c r="R104">
+        <v>480</v>
+      </c>
+      <c r="S104">
+        <v>480</v>
+      </c>
+      <c r="T104">
+        <v>960</v>
+      </c>
+      <c r="U104">
+        <v>410</v>
+      </c>
+      <c r="V104">
+        <v>160</v>
+      </c>
+      <c r="W104">
+        <v>930</v>
+      </c>
+      <c r="X104">
+        <v>90</v>
+      </c>
+      <c r="Y104">
+        <v>50</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>2</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B104">
-        <v>10244</v>
-      </c>
-      <c r="C104" s="10">
-        <v>13623</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="B106" s="5">
+        <f>SUM($B$104:B104)</f>
+        <v>340</v>
+      </c>
+      <c r="C106">
+        <f>SUM($B$104:C104)</f>
+        <v>560</v>
+      </c>
+      <c r="D106" s="5">
+        <f>SUM($B$104:D104)</f>
+        <v>830</v>
+      </c>
+      <c r="E106" s="5">
+        <f>SUM($B$104:E104)</f>
+        <v>1140</v>
+      </c>
+      <c r="F106" s="5">
+        <f>SUM($B$104:F104)</f>
+        <v>1430</v>
+      </c>
+      <c r="G106" s="5">
+        <f>SUM($B$104:G104)</f>
+        <v>1430</v>
+      </c>
+      <c r="H106" s="5">
+        <f>SUM($B$104:H104)</f>
+        <v>1430</v>
+      </c>
+      <c r="I106" s="5">
+        <f>SUM($B$104:I104)</f>
+        <v>1910</v>
+      </c>
+      <c r="J106" s="5">
+        <f>SUM($B$104:J104)</f>
+        <v>2410</v>
+      </c>
+      <c r="K106" s="5">
+        <f>SUM($B$104:K104)</f>
+        <v>2630</v>
+      </c>
+      <c r="L106" s="5">
+        <f>SUM($B$104:L104)</f>
+        <v>2860</v>
+      </c>
+      <c r="M106" s="5">
+        <f>SUM($B$104:M104)</f>
+        <v>3140</v>
+      </c>
+      <c r="N106" s="5">
+        <f>SUM($B$104:N104)</f>
+        <v>3550</v>
+      </c>
+      <c r="O106" s="5">
+        <f>SUM($B$104:O104)</f>
+        <v>3960</v>
+      </c>
+      <c r="P106" s="5">
+        <f>SUM($B$104:P104)</f>
+        <v>4250</v>
+      </c>
+      <c r="Q106" s="5">
+        <f>SUM($B$104:Q104)</f>
+        <v>4740</v>
+      </c>
+      <c r="R106" s="5">
+        <f>SUM($B$104:R104)</f>
+        <v>5220</v>
+      </c>
+      <c r="S106" s="5">
+        <f>SUM($B$104:S104)</f>
+        <v>5700</v>
+      </c>
+      <c r="T106" s="5">
+        <f>SUM($B$104:T104)</f>
+        <v>6660</v>
+      </c>
+      <c r="U106" s="5">
+        <f>SUM($B$104:U104)</f>
+        <v>7070</v>
+      </c>
+      <c r="V106" s="5">
+        <f>SUM($B$104:V104)</f>
+        <v>7230</v>
+      </c>
+      <c r="W106" s="5">
+        <f>SUM($B$104:W104)</f>
+        <v>8160</v>
+      </c>
+      <c r="X106" s="5">
+        <f>SUM($B$104:X104)</f>
+        <v>8250</v>
+      </c>
+      <c r="Y106" s="5">
+        <f>SUM($B$104:Y104)</f>
+        <v>8300</v>
+      </c>
+      <c r="Z106" s="5">
+        <f>SUM($B$104:Z104)</f>
+        <v>8300</v>
+      </c>
+      <c r="AA106" s="5">
+        <f>SUM($B$104:AA104)</f>
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B105">
-        <v>224</v>
-      </c>
-      <c r="C105">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="3">
-        <v>44046</v>
-      </c>
-      <c r="C107" s="3">
-        <f>B107+1</f>
-        <v>44047</v>
-      </c>
-      <c r="D107" s="3">
-        <f>C107+1</f>
-        <v>44048</v>
-      </c>
-      <c r="E107" s="3">
-        <f>D107+1</f>
-        <v>44049</v>
-      </c>
-      <c r="F107" s="3">
-        <f t="shared" ref="F107:V107" si="14">E107+1</f>
-        <v>44050</v>
-      </c>
-      <c r="G107" s="3">
-        <f t="shared" si="14"/>
-        <v>44051</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="14"/>
-        <v>44052</v>
-      </c>
-      <c r="I107" s="3">
-        <f t="shared" si="14"/>
-        <v>44053</v>
-      </c>
-      <c r="J107" s="3">
-        <f t="shared" si="14"/>
-        <v>44054</v>
-      </c>
-      <c r="K107" s="3">
-        <f t="shared" si="14"/>
-        <v>44055</v>
-      </c>
-      <c r="L107" s="3">
-        <f t="shared" si="14"/>
-        <v>44056</v>
-      </c>
-      <c r="M107" s="3">
-        <f t="shared" si="14"/>
-        <v>44057</v>
-      </c>
-      <c r="N107" s="3">
-        <f t="shared" si="14"/>
-        <v>44058</v>
-      </c>
-      <c r="O107" s="3">
-        <f t="shared" si="14"/>
-        <v>44059</v>
-      </c>
-      <c r="P107" s="3">
-        <f t="shared" si="14"/>
-        <v>44060</v>
-      </c>
-      <c r="Q107" s="3">
-        <f t="shared" si="14"/>
-        <v>44061</v>
-      </c>
-      <c r="R107" s="3">
-        <f t="shared" si="14"/>
-        <v>44062</v>
-      </c>
-      <c r="S107" s="3">
-        <f t="shared" si="14"/>
-        <v>44063</v>
-      </c>
-      <c r="T107" s="3">
-        <f t="shared" si="14"/>
-        <v>44064</v>
-      </c>
-      <c r="U107" s="3">
-        <f t="shared" si="14"/>
-        <v>44065</v>
-      </c>
-      <c r="V107" s="3">
-        <f t="shared" si="14"/>
+      <c r="B107" s="5">
+        <f>SUM($B$105:B105)</f>
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f>SUM($B$105:C105)</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="5">
+        <f>SUM($B$105:D105)</f>
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <f>SUM($B$105:E105)</f>
+        <v>2</v>
+      </c>
+      <c r="F107" s="5">
+        <f>SUM($B$105:F105)</f>
+        <v>2</v>
+      </c>
+      <c r="G107" s="5">
+        <f>SUM($B$105:G105)</f>
+        <v>2</v>
+      </c>
+      <c r="H107" s="5">
+        <f>SUM($B$105:H105)</f>
+        <v>2</v>
+      </c>
+      <c r="I107" s="5">
+        <f>SUM($B$105:I105)</f>
+        <v>2</v>
+      </c>
+      <c r="J107" s="5">
+        <f>SUM($B$105:J105)</f>
+        <v>2</v>
+      </c>
+      <c r="K107" s="5">
+        <f>SUM($B$105:K105)</f>
+        <v>3</v>
+      </c>
+      <c r="L107" s="5">
+        <f>SUM($B$105:L105)</f>
+        <v>5</v>
+      </c>
+      <c r="M107" s="5">
+        <f>SUM($B$105:M105)</f>
+        <v>6</v>
+      </c>
+      <c r="N107" s="5">
+        <f>SUM($B$105:N105)</f>
+        <v>8</v>
+      </c>
+      <c r="O107" s="5">
+        <f>SUM($B$105:O105)</f>
+        <v>9</v>
+      </c>
+      <c r="P107" s="5">
+        <f>SUM($B$105:P105)</f>
+        <v>11</v>
+      </c>
+      <c r="Q107" s="5">
+        <f>SUM($B$105:Q105)</f>
+        <v>11</v>
+      </c>
+      <c r="R107" s="5">
+        <f>SUM($B$105:R105)</f>
+        <v>11</v>
+      </c>
+      <c r="S107" s="5">
+        <f>SUM($B$105:S105)</f>
+        <v>12</v>
+      </c>
+      <c r="T107" s="5">
+        <f>SUM($B$105:T105)</f>
+        <v>14</v>
+      </c>
+      <c r="U107" s="5">
+        <f>SUM($B$105:U105)</f>
+        <v>14</v>
+      </c>
+      <c r="V107" s="5">
+        <f>SUM($B$105:V105)</f>
+        <v>14</v>
+      </c>
+      <c r="W107" s="5">
+        <f>SUM($B$105:W105)</f>
+        <v>14</v>
+      </c>
+      <c r="X107" s="5">
+        <f>SUM($B$105:X105)</f>
+        <v>14</v>
+      </c>
+      <c r="Y107" s="5">
+        <f>SUM($B$105:Y105)</f>
+        <v>14</v>
+      </c>
+      <c r="Z107" s="5">
+        <f>SUM($B$105:Z105)</f>
+        <v>14</v>
+      </c>
+      <c r="AA107" s="5">
+        <f>SUM($B$105:AA105)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="3">
         <v>44066</v>
       </c>
-      <c r="W107" s="3">
-        <v>44067</v>
-      </c>
-      <c r="X107" s="3">
-        <v>44068</v>
-      </c>
-      <c r="Y107" s="3">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B108">
-        <v>340</v>
-      </c>
-      <c r="C108">
-        <v>220</v>
-      </c>
-      <c r="D108">
-        <v>270</v>
-      </c>
-      <c r="E108">
-        <v>310</v>
-      </c>
-      <c r="F108">
-        <v>290</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>480</v>
-      </c>
-      <c r="J108">
-        <v>500</v>
-      </c>
-      <c r="K108">
-        <v>220</v>
-      </c>
-      <c r="L108">
-        <v>230</v>
-      </c>
-      <c r="M108">
-        <v>280</v>
-      </c>
-      <c r="N108">
-        <v>410</v>
-      </c>
-      <c r="O108">
-        <v>410</v>
-      </c>
-      <c r="P108">
-        <v>290</v>
-      </c>
-      <c r="Q108">
-        <v>490</v>
-      </c>
-      <c r="R108">
-        <v>480</v>
-      </c>
-      <c r="S108">
-        <v>480</v>
-      </c>
-      <c r="T108">
-        <v>960</v>
-      </c>
-      <c r="U108">
-        <v>410</v>
-      </c>
-      <c r="V108">
-        <v>160</v>
-      </c>
-      <c r="W108">
-        <v>930</v>
-      </c>
-      <c r="X108">
-        <v>90</v>
-      </c>
-      <c r="Y108">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>2</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>2</v>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109">
-        <v>2</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>1</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C109" s="3">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="5">
-        <f>SUM($B$108:B108)</f>
-        <v>340</v>
+      <c r="B110">
+        <v>6630</v>
       </c>
       <c r="C110">
-        <f>SUM($B$108:C108)</f>
-        <v>560</v>
-      </c>
-      <c r="D110" s="5">
-        <f>SUM($B$108:D108)</f>
-        <v>830</v>
-      </c>
-      <c r="E110" s="5">
-        <f>SUM($B$108:E108)</f>
-        <v>1140</v>
-      </c>
-      <c r="F110" s="5">
-        <f>SUM($B$108:F108)</f>
-        <v>1430</v>
-      </c>
-      <c r="G110" s="5">
-        <f>SUM($B$108:G108)</f>
-        <v>1430</v>
-      </c>
-      <c r="H110" s="5">
-        <f>SUM($B$108:H108)</f>
-        <v>1430</v>
-      </c>
-      <c r="I110" s="5">
-        <f>SUM($B$108:I108)</f>
-        <v>1910</v>
-      </c>
-      <c r="J110" s="5">
-        <f>SUM($B$108:J108)</f>
-        <v>2410</v>
-      </c>
-      <c r="K110" s="5">
-        <f>SUM($B$108:K108)</f>
-        <v>2630</v>
-      </c>
-      <c r="L110" s="5">
-        <f>SUM($B$108:L108)</f>
-        <v>2860</v>
-      </c>
-      <c r="M110" s="5">
-        <f>SUM($B$108:M108)</f>
-        <v>3140</v>
-      </c>
-      <c r="N110" s="5">
-        <f>SUM($B$108:N108)</f>
-        <v>3550</v>
-      </c>
-      <c r="O110" s="5">
-        <f>SUM($B$108:O108)</f>
-        <v>3960</v>
-      </c>
-      <c r="P110" s="5">
-        <f>SUM($B$108:P108)</f>
-        <v>4250</v>
-      </c>
-      <c r="Q110" s="5">
-        <f>SUM($B$108:Q108)</f>
-        <v>4740</v>
-      </c>
-      <c r="R110" s="5">
-        <f>SUM($B$108:R108)</f>
-        <v>5220</v>
-      </c>
-      <c r="S110" s="5">
-        <f>SUM($B$108:S108)</f>
-        <v>5700</v>
-      </c>
-      <c r="T110" s="5">
-        <f>SUM($B$108:T108)</f>
-        <v>6660</v>
-      </c>
-      <c r="U110" s="5">
-        <f>SUM($B$108:U108)</f>
-        <v>7070</v>
-      </c>
-      <c r="V110" s="5">
-        <f>SUM($B$108:V108)</f>
-        <v>7230</v>
-      </c>
-      <c r="W110" s="5">
-        <f>SUM($B$108:W108)</f>
-        <v>8160</v>
-      </c>
-      <c r="X110" s="5">
-        <f>SUM($B$108:X108)</f>
-        <v>8250</v>
-      </c>
-      <c r="Y110" s="5">
-        <f>SUM($B$108:Y108)</f>
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="5">
-        <f>SUM($B$109:B109)</f>
-        <v>0</v>
+      <c r="B111">
+        <v>68</v>
       </c>
       <c r="C111">
-        <f>SUM($B$109:C109)</f>
-        <v>1</v>
-      </c>
-      <c r="D111" s="5">
-        <f>SUM($B$109:D109)</f>
-        <v>1</v>
-      </c>
-      <c r="E111" s="5">
-        <f>SUM($B$109:E109)</f>
-        <v>2</v>
-      </c>
-      <c r="F111" s="5">
-        <f>SUM($B$109:F109)</f>
-        <v>2</v>
-      </c>
-      <c r="G111" s="5">
-        <f>SUM($B$109:G109)</f>
-        <v>2</v>
-      </c>
-      <c r="H111" s="5">
-        <f>SUM($B$109:H109)</f>
-        <v>2</v>
-      </c>
-      <c r="I111" s="5">
-        <f>SUM($B$109:I109)</f>
-        <v>2</v>
-      </c>
-      <c r="J111" s="5">
-        <f>SUM($B$109:J109)</f>
-        <v>2</v>
-      </c>
-      <c r="K111" s="5">
-        <f>SUM($B$109:K109)</f>
-        <v>3</v>
-      </c>
-      <c r="L111" s="5">
-        <f>SUM($B$109:L109)</f>
-        <v>5</v>
-      </c>
-      <c r="M111" s="5">
-        <f>SUM($B$109:M109)</f>
-        <v>6</v>
-      </c>
-      <c r="N111" s="5">
-        <f>SUM($B$109:N109)</f>
-        <v>8</v>
-      </c>
-      <c r="O111" s="5">
-        <f>SUM($B$109:O109)</f>
-        <v>9</v>
-      </c>
-      <c r="P111" s="5">
-        <f>SUM($B$109:P109)</f>
-        <v>11</v>
-      </c>
-      <c r="Q111" s="5">
-        <f>SUM($B$109:Q109)</f>
-        <v>11</v>
-      </c>
-      <c r="R111" s="5">
-        <f>SUM($B$109:R109)</f>
-        <v>11</v>
-      </c>
-      <c r="S111" s="5">
-        <f>SUM($B$109:S109)</f>
-        <v>12</v>
-      </c>
-      <c r="T111" s="5">
-        <f>SUM($B$109:T109)</f>
-        <v>14</v>
-      </c>
-      <c r="U111" s="5">
-        <f>SUM($B$109:U109)</f>
-        <v>14</v>
-      </c>
-      <c r="V111" s="5">
-        <f>SUM($B$109:V109)</f>
-        <v>14</v>
-      </c>
-      <c r="W111" s="5">
-        <f>SUM($B$109:W109)</f>
-        <v>14</v>
-      </c>
-      <c r="X111" s="5">
-        <f>SUM($B$109:X109)</f>
-        <v>14</v>
-      </c>
-      <c r="Y111" s="5">
-        <f>SUM($B$109:Y109)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="3">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114">
-        <v>6630</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5438,8 +6008,9 @@
     <hyperlink ref="G17" r:id="rId15" location="yale-testing-data" display="https://covid19.yale.edu/yale-statistics/yale-covid-19-statistics-data-tables - yale-testing-data" xr:uid="{8C65D6E3-9BD9-42E1-9069-B5660638BB35}"/>
     <hyperlink ref="G18" r:id="rId16" xr:uid="{AEC76AB5-A45A-4194-BA34-9CA00E3F430E}"/>
     <hyperlink ref="G19" r:id="rId17" xr:uid="{6F64FE69-BE34-43CC-93A1-536C513EC8A9}"/>
+    <hyperlink ref="G16" r:id="rId18" xr:uid="{32874EEE-A734-463C-AEDE-6674CB4FD559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/data/UniversityCovidData.xlsx
+++ b/data/UniversityCovidData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02895DAF-2A59-49B8-9987-B3FDCAAF8278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FAA335-AC05-4E5E-A7CF-7170D1814E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -643,8 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="19" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +658,8 @@
     <col min="17" max="20" width="9.44140625" customWidth="1"/>
     <col min="21" max="21" width="10.109375" customWidth="1"/>
     <col min="22" max="31" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="39" width="8.77734375" customWidth="1"/>
+    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="8.77734375" customWidth="1"/>
     <col min="40" max="40" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="41" max="62" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="63" max="71" width="8.77734375" customWidth="1"/>
@@ -738,7 +740,7 @@
         <f>B3*D3+C3*E3</f>
         <v>42084</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +765,7 @@
         <f>B4*D4+C4*E4</f>
         <v>14077</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -835,7 +837,7 @@
         <f t="shared" si="1"/>
         <v>56840</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1060,7 +1062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +1203,36 @@
       <c r="T21" s="3">
         <v>44072</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U21" s="3">
+        <f>T21+1</f>
+        <v>44073</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" ref="V21:Z21" si="3">U21+1</f>
+        <v>44074</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="3"/>
+        <v>44075</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="3"/>
+        <v>44076</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="3"/>
+        <v>44077</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="3"/>
+        <v>44078</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>Z21+1</f>
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1252,19 +1282,40 @@
         <v>3918</v>
       </c>
       <c r="Q22">
-        <v>5807</v>
+        <v>5496</v>
       </c>
       <c r="R22">
-        <v>6486</v>
+        <v>5975</v>
       </c>
       <c r="S22">
-        <v>7428</v>
+        <v>6425</v>
       </c>
       <c r="T22">
-        <v>7568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+        <v>6559</v>
+      </c>
+      <c r="U22">
+        <v>6677</v>
+      </c>
+      <c r="V22">
+        <v>6879</v>
+      </c>
+      <c r="W22">
+        <v>7225</v>
+      </c>
+      <c r="X22">
+        <v>7430</v>
+      </c>
+      <c r="Y22">
+        <v>7604</v>
+      </c>
+      <c r="Z22">
+        <v>7756</v>
+      </c>
+      <c r="AA22">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1314,19 +1365,40 @@
         <v>302</v>
       </c>
       <c r="Q23">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="R23">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="S23">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="T23">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="U23">
+        <v>483</v>
+      </c>
+      <c r="V23">
+        <v>492</v>
+      </c>
+      <c r="W23">
+        <v>502</v>
+      </c>
+      <c r="X23">
+        <v>511</v>
+      </c>
+      <c r="Y23">
+        <v>513</v>
+      </c>
+      <c r="Z23">
+        <v>517</v>
+      </c>
+      <c r="AA23">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1348,8 +1420,11 @@
       <c r="G25" s="3">
         <v>44073</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1363,16 +1438,19 @@
         <v>354</v>
       </c>
       <c r="E26">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="F26">
-        <v>1568</v>
+        <v>1744</v>
       </c>
       <c r="G26">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="H26">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1386,16 +1464,19 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F27">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="G27">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1412,19 +1493,23 @@
         <v>629</v>
       </c>
       <c r="E28">
-        <f>SUM(B26:E26)</f>
-        <v>1583</v>
+        <f t="shared" ref="E28:H29" si="4">SUM(B26:E26)</f>
+        <v>1573</v>
       </c>
       <c r="F28" s="5">
-        <f>SUM(C26:F26)</f>
-        <v>3034</v>
+        <f t="shared" si="4"/>
+        <v>3200</v>
       </c>
       <c r="G28" s="5">
-        <f>SUM(D26:G26)</f>
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>3691</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="4"/>
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1441,19 +1526,23 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <f>SUM(B27:E27)</f>
-        <v>166</v>
+        <f t="shared" si="4"/>
+        <v>202</v>
       </c>
       <c r="F29" s="5">
-        <f>SUM(C27:F27)</f>
-        <v>658</v>
+        <f t="shared" si="4"/>
+        <v>526</v>
       </c>
       <c r="G29" s="5">
-        <f>SUM(D27:G27)</f>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>591</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="4"/>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1488,39 +1577,39 @@
         <v>44055</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" ref="L31:T31" si="3">K31+1</f>
+        <f t="shared" ref="L31:T31" si="5">K31+1</f>
         <v>44056</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44057</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44058</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44059</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44060</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44061</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44062</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44063</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44064</v>
       </c>
       <c r="U31" s="3">
@@ -1553,8 +1642,40 @@
       <c r="AD31" s="3">
         <v>44074</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE31" s="3">
+        <f>AD31+1</f>
+        <v>44075</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" ref="AF31:AQ31" si="6">AE31+1</f>
+        <v>44076</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="6"/>
+        <v>44077</v>
+      </c>
+      <c r="AH31" s="3">
+        <f t="shared" si="6"/>
+        <v>44078</v>
+      </c>
+      <c r="AI31" s="3">
+        <f t="shared" si="6"/>
+        <v>44079</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="6"/>
+        <v>44080</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" si="6"/>
+        <v>44081</v>
+      </c>
+      <c r="AL31" s="3">
+        <f t="shared" si="6"/>
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1645,8 +1766,32 @@
       <c r="AD32">
         <v>561</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE32">
+        <v>429</v>
+      </c>
+      <c r="AF32">
+        <v>311</v>
+      </c>
+      <c r="AG32">
+        <v>501</v>
+      </c>
+      <c r="AH32">
+        <v>312</v>
+      </c>
+      <c r="AI32">
+        <v>200</v>
+      </c>
+      <c r="AJ32">
+        <v>185</v>
+      </c>
+      <c r="AK32">
+        <v>248</v>
+      </c>
+      <c r="AL32">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1737,8 +1882,32 @@
       <c r="AD33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE33">
+        <v>9</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>2</v>
+      </c>
+      <c r="AH33">
+        <v>4</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>7</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1858,8 +2027,40 @@
         <f>SUM($B$32:AD32)</f>
         <v>6663</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE34" s="5">
+        <f>SUM($B$32:AE32)</f>
+        <v>7092</v>
+      </c>
+      <c r="AF34" s="5">
+        <f>SUM($B$32:AF32)</f>
+        <v>7403</v>
+      </c>
+      <c r="AG34" s="5">
+        <f>SUM($B$32:AG32)</f>
+        <v>7904</v>
+      </c>
+      <c r="AH34" s="5">
+        <f>SUM($B$32:AH32)</f>
+        <v>8216</v>
+      </c>
+      <c r="AI34" s="5">
+        <f>SUM($B$32:AI32)</f>
+        <v>8416</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f>SUM($B$32:AJ32)</f>
+        <v>8601</v>
+      </c>
+      <c r="AK34" s="5">
+        <f>SUM($B$32:AK32)</f>
+        <v>8849</v>
+      </c>
+      <c r="AL34" s="5">
+        <f>SUM($B$32:AL32)</f>
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1979,8 +2180,40 @@
         <f>SUM($B$33:AD33)</f>
         <v>539</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE35" s="5">
+        <f>SUM($B$33:AE33)</f>
+        <v>548</v>
+      </c>
+      <c r="AF35" s="5">
+        <f>SUM($B$33:AF33)</f>
+        <v>551</v>
+      </c>
+      <c r="AG35" s="5">
+        <f>SUM($B$33:AG33)</f>
+        <v>553</v>
+      </c>
+      <c r="AH35" s="5">
+        <f>SUM($B$33:AH33)</f>
+        <v>557</v>
+      </c>
+      <c r="AI35" s="5">
+        <f>SUM($B$33:AI33)</f>
+        <v>558</v>
+      </c>
+      <c r="AJ35" s="5">
+        <f>SUM($B$33:AJ33)</f>
+        <v>565</v>
+      </c>
+      <c r="AK35" s="5">
+        <f>SUM($B$33:AK33)</f>
+        <v>566</v>
+      </c>
+      <c r="AL35" s="5">
+        <f>SUM($B$33:AL33)</f>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1993,8 +2226,14 @@
       <c r="D37" s="3">
         <v>44070</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E37" s="3">
+        <v>44077</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -2007,8 +2246,14 @@
       <c r="D38">
         <v>4020</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>3435</v>
+      </c>
+      <c r="F38">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -2022,8 +2267,14 @@
         <f>D38-3940</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -2039,8 +2290,16 @@
         <f>SUM($B$38:D38)</f>
         <v>4534</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E40" s="5">
+        <f>SUM($B$38:E38)</f>
+        <v>7969</v>
+      </c>
+      <c r="F40" s="5">
+        <f>SUM($B$38:F38)</f>
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -2056,8 +2315,16 @@
         <f>SUM($B$39:D39)</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="5">
+        <f>SUM($B$39:E39)</f>
+        <v>200</v>
+      </c>
+      <c r="F41" s="5">
+        <f>SUM($B$39:F39)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -2065,75 +2332,75 @@
         <v>44044</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ref="C43:T43" si="4">B43+1</f>
+        <f t="shared" ref="C43:T43" si="7">B43+1</f>
         <v>44045</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44046</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44047</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44048</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44049</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44050</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44051</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44052</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44053</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44054</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44055</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44056</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44057</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44058</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44059</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44060</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44061</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44062</v>
       </c>
       <c r="U43" s="3">
@@ -2169,8 +2436,40 @@
       <c r="AE43" s="3">
         <v>44073</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF43" s="3">
+        <f>AE43+1</f>
+        <v>44074</v>
+      </c>
+      <c r="AG43" s="3">
+        <f t="shared" ref="AG43:AL43" si="8">AF43+1</f>
+        <v>44075</v>
+      </c>
+      <c r="AH43" s="3">
+        <f t="shared" si="8"/>
+        <v>44076</v>
+      </c>
+      <c r="AI43" s="3">
+        <f t="shared" si="8"/>
+        <v>44077</v>
+      </c>
+      <c r="AJ43" s="3">
+        <f t="shared" si="8"/>
+        <v>44078</v>
+      </c>
+      <c r="AK43" s="3">
+        <f t="shared" si="8"/>
+        <v>44079</v>
+      </c>
+      <c r="AL43" s="3">
+        <f t="shared" si="8"/>
+        <v>44080</v>
+      </c>
+      <c r="AM43" s="3">
+        <f>AL43+1</f>
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -2264,8 +2563,32 @@
       <c r="AE44">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF44">
+        <v>1240</v>
+      </c>
+      <c r="AG44">
+        <v>795</v>
+      </c>
+      <c r="AH44">
+        <v>1923</v>
+      </c>
+      <c r="AI44">
+        <v>924</v>
+      </c>
+      <c r="AJ44">
+        <v>642</v>
+      </c>
+      <c r="AK44">
+        <v>278</v>
+      </c>
+      <c r="AL44">
+        <v>218</v>
+      </c>
+      <c r="AM44">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2359,8 +2682,32 @@
       <c r="AE45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF45">
+        <v>34</v>
+      </c>
+      <c r="AG45">
+        <v>27</v>
+      </c>
+      <c r="AH45">
+        <v>18</v>
+      </c>
+      <c r="AI45">
+        <v>48</v>
+      </c>
+      <c r="AJ45">
+        <v>12</v>
+      </c>
+      <c r="AK45">
+        <v>25</v>
+      </c>
+      <c r="AL45">
+        <v>12</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2484,8 +2831,40 @@
         <f>SUM($B$44:AE44)</f>
         <v>5988</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF46" s="5">
+        <f>SUM($B$44:AF44)</f>
+        <v>7228</v>
+      </c>
+      <c r="AG46" s="5">
+        <f>SUM($B$44:AG44)</f>
+        <v>8023</v>
+      </c>
+      <c r="AH46" s="5">
+        <f>SUM($B$44:AH44)</f>
+        <v>9946</v>
+      </c>
+      <c r="AI46" s="5">
+        <f>SUM($B$44:AI44)</f>
+        <v>10870</v>
+      </c>
+      <c r="AJ46" s="5">
+        <f>SUM($B$44:AJ44)</f>
+        <v>11512</v>
+      </c>
+      <c r="AK46" s="5">
+        <f>SUM($B$44:AK44)</f>
+        <v>11790</v>
+      </c>
+      <c r="AL46" s="5">
+        <f>SUM($B$44:AL44)</f>
+        <v>12008</v>
+      </c>
+      <c r="AM46" s="5">
+        <f>SUM($B$44:AM44)</f>
+        <v>12196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2609,8 +2988,40 @@
         <f>SUM($B$45:AE45)</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF47" s="5">
+        <f>SUM($B$45:AF45)</f>
+        <v>174</v>
+      </c>
+      <c r="AG47" s="5">
+        <f>SUM($B$45:AG45)</f>
+        <v>201</v>
+      </c>
+      <c r="AH47" s="5">
+        <f>SUM($B$45:AH45)</f>
+        <v>219</v>
+      </c>
+      <c r="AI47" s="5">
+        <f>SUM($B$45:AI45)</f>
+        <v>267</v>
+      </c>
+      <c r="AJ47" s="5">
+        <f>SUM($B$45:AJ45)</f>
+        <v>279</v>
+      </c>
+      <c r="AK47" s="5">
+        <f>SUM($B$45:AK45)</f>
+        <v>304</v>
+      </c>
+      <c r="AL47" s="5">
+        <f>SUM($B$45:AL45)</f>
+        <v>316</v>
+      </c>
+      <c r="AM47" s="5">
+        <f>SUM($B$45:AM45)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2623,8 +3034,11 @@
       <c r="D49" s="3">
         <v>44071</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E49" s="3">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -2638,8 +3052,11 @@
       <c r="D50">
         <v>5642</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -2653,8 +3070,11 @@
       <c r="D51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -2670,8 +3090,12 @@
         <f>SUM($B$50:D50)</f>
         <v>17040</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E52" s="5">
+        <f>SUM($B$50:E50)</f>
+        <v>23880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
@@ -2687,8 +3111,12 @@
         <f>SUM($B$51:D51)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="5">
+        <f>SUM($B$51:E51)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2699,59 +3127,59 @@
         <v>44050</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:Q55" si="5">C55+1</f>
+        <f t="shared" ref="D55:Q55" si="9">C55+1</f>
         <v>44051</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44052</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44053</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44054</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44055</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44056</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44057</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44058</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44059</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44060</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44061</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44062</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44063</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44064</v>
       </c>
       <c r="R55" s="3">
@@ -2784,8 +3212,36 @@
       <c r="AA55" s="3">
         <v>44074</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB55" s="3">
+        <f>AA55+1</f>
+        <v>44075</v>
+      </c>
+      <c r="AC55" s="3">
+        <f t="shared" ref="AC55:AG55" si="10">AB55+1</f>
+        <v>44076</v>
+      </c>
+      <c r="AD55" s="3">
+        <f t="shared" si="10"/>
+        <v>44077</v>
+      </c>
+      <c r="AE55" s="3">
+        <f t="shared" si="10"/>
+        <v>44078</v>
+      </c>
+      <c r="AF55" s="3">
+        <f t="shared" si="10"/>
+        <v>44079</v>
+      </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="10"/>
+        <v>44080</v>
+      </c>
+      <c r="AH55" s="3">
+        <f>AG55+1</f>
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -2865,10 +3321,31 @@
         <v>3</v>
       </c>
       <c r="AA56">
+        <v>2163</v>
+      </c>
+      <c r="AB56">
+        <v>2185</v>
+      </c>
+      <c r="AC56">
+        <v>1299</v>
+      </c>
+      <c r="AD56">
+        <v>2051</v>
+      </c>
+      <c r="AE56">
+        <v>2367</v>
+      </c>
+      <c r="AF56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AG56">
+        <v>2</v>
+      </c>
+      <c r="AH56">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2950,8 +3427,29 @@
       <c r="AA57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>2</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -3057,10 +3555,38 @@
       </c>
       <c r="AA58" s="5">
         <f>SUM($B$56:AA56)</f>
-        <v>15044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+        <v>17203</v>
+      </c>
+      <c r="AB58" s="5">
+        <f>SUM($B$56:AB56)</f>
+        <v>19388</v>
+      </c>
+      <c r="AC58" s="5">
+        <f>SUM($B$56:AC56)</f>
+        <v>20687</v>
+      </c>
+      <c r="AD58" s="5">
+        <f>SUM($B$56:AD56)</f>
+        <v>22738</v>
+      </c>
+      <c r="AE58" s="5">
+        <f>SUM($B$56:AE56)</f>
+        <v>25105</v>
+      </c>
+      <c r="AF58" s="5">
+        <f>SUM($B$56:AF56)</f>
+        <v>25109</v>
+      </c>
+      <c r="AG58" s="5">
+        <f>SUM($B$56:AG56)</f>
+        <v>25111</v>
+      </c>
+      <c r="AH58" s="5">
+        <f>SUM($B$56:AH56)</f>
+        <v>27194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
@@ -3168,8 +3694,36 @@
         <f>SUM($B$57:AA57)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB59" s="5">
+        <f>SUM($B$57:AB57)</f>
+        <v>9</v>
+      </c>
+      <c r="AC59" s="5">
+        <f>SUM($B$57:AC57)</f>
+        <v>10</v>
+      </c>
+      <c r="AD59" s="5">
+        <f>SUM($B$57:AD57)</f>
+        <v>11</v>
+      </c>
+      <c r="AE59" s="5">
+        <f>SUM($B$57:AE57)</f>
+        <v>13</v>
+      </c>
+      <c r="AF59" s="5">
+        <f>SUM($B$57:AF57)</f>
+        <v>13</v>
+      </c>
+      <c r="AG59" s="5">
+        <f>SUM($B$57:AG57)</f>
+        <v>13</v>
+      </c>
+      <c r="AH59" s="5">
+        <f>SUM($B$57:AH57)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -3197,13 +3751,25 @@
       <c r="I61" s="3">
         <v>44074</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="J61" s="3">
+        <v>44076</v>
+      </c>
+      <c r="K61" s="3">
+        <v>44078</v>
+      </c>
+      <c r="L61" s="3">
+        <v>44081</v>
+      </c>
+      <c r="M61" s="3">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
@@ -3231,8 +3797,20 @@
       <c r="I63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -3264,6 +3842,18 @@
         <v>0</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3303,6 +3893,22 @@
         <f>SUM($B$62:I63)</f>
         <v>24</v>
       </c>
+      <c r="J65" s="5">
+        <f>SUM($B$62:J63)</f>
+        <v>25</v>
+      </c>
+      <c r="K65" s="5">
+        <f>SUM($B$62:K63)</f>
+        <v>25</v>
+      </c>
+      <c r="L65" s="5">
+        <f>SUM($B$62:L63)</f>
+        <v>26</v>
+      </c>
+      <c r="M65" s="5">
+        <f>SUM($B$62:M63)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -3350,6 +3956,38 @@
       <c r="O67" s="3">
         <v>44074</v>
       </c>
+      <c r="P67" s="3">
+        <f>O67+1</f>
+        <v>44075</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" ref="Q67:W67" si="11">P67+1</f>
+        <v>44076</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" si="11"/>
+        <v>44077</v>
+      </c>
+      <c r="S67" s="3">
+        <f t="shared" si="11"/>
+        <v>44078</v>
+      </c>
+      <c r="T67" s="3">
+        <f t="shared" si="11"/>
+        <v>44079</v>
+      </c>
+      <c r="U67" s="3">
+        <f t="shared" si="11"/>
+        <v>44080</v>
+      </c>
+      <c r="V67" s="3">
+        <f t="shared" si="11"/>
+        <v>44081</v>
+      </c>
+      <c r="W67" s="3">
+        <f t="shared" si="11"/>
+        <v>44082</v>
+      </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
@@ -3397,6 +4035,30 @@
       <c r="O68">
         <v>300</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>1259</v>
+      </c>
+      <c r="R68">
+        <v>261</v>
+      </c>
+      <c r="S68">
+        <v>1437</v>
+      </c>
+      <c r="T68">
+        <v>2374</v>
+      </c>
+      <c r="U68">
+        <v>1284</v>
+      </c>
+      <c r="V68">
+        <v>19</v>
+      </c>
+      <c r="W68">
+        <v>456</v>
+      </c>
     </row>
     <row r="69" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -3444,6 +4106,30 @@
       <c r="O69">
         <v>4</v>
       </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>9</v>
+      </c>
+      <c r="R69">
+        <v>56</v>
+      </c>
+      <c r="S69">
+        <v>9</v>
+      </c>
+      <c r="T69">
+        <v>7</v>
+      </c>
+      <c r="U69">
+        <v>28</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
@@ -3505,6 +4191,38 @@
         <f>SUM($B$68:O68)</f>
         <v>11959</v>
       </c>
+      <c r="P70" s="5">
+        <f>SUM($B$68:P68)</f>
+        <v>11959</v>
+      </c>
+      <c r="Q70" s="5">
+        <f>SUM($B$68:Q68)</f>
+        <v>13218</v>
+      </c>
+      <c r="R70" s="5">
+        <f>SUM($B$68:R68)</f>
+        <v>13479</v>
+      </c>
+      <c r="S70" s="5">
+        <f>SUM($B$68:S68)</f>
+        <v>14916</v>
+      </c>
+      <c r="T70" s="5">
+        <f>SUM($B$68:T68)</f>
+        <v>17290</v>
+      </c>
+      <c r="U70" s="5">
+        <f>SUM($B$68:U68)</f>
+        <v>18574</v>
+      </c>
+      <c r="V70" s="5">
+        <f>SUM($B$68:V68)</f>
+        <v>18593</v>
+      </c>
+      <c r="W70" s="5">
+        <f>SUM($B$68:W68)</f>
+        <v>19049</v>
+      </c>
     </row>
     <row r="71" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
@@ -3566,111 +4284,146 @@
         <f>SUM($B$69:O69)</f>
         <v>25</v>
       </c>
+      <c r="P71" s="5">
+        <f>SUM($B$69:P69)</f>
+        <v>25</v>
+      </c>
+      <c r="Q71" s="5">
+        <f>SUM($B$69:Q69)</f>
+        <v>34</v>
+      </c>
+      <c r="R71" s="5">
+        <f>SUM($B$69:R69)</f>
+        <v>90</v>
+      </c>
+      <c r="S71" s="5">
+        <f>SUM($B$69:S69)</f>
+        <v>99</v>
+      </c>
+      <c r="T71" s="5">
+        <f>SUM($B$69:T69)</f>
+        <v>106</v>
+      </c>
+      <c r="U71" s="5">
+        <f>SUM($B$69:U69)</f>
+        <v>134</v>
+      </c>
+      <c r="V71" s="5">
+        <f>SUM($B$69:V69)</f>
+        <v>134</v>
+      </c>
+      <c r="W71" s="5">
+        <f>SUM($B$69:W69)</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B73" s="3">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:Z73" si="6">B73+7</f>
-        <v>43905</v>
+        <f>B73+7</f>
+        <v>43912</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="6"/>
-        <v>43912</v>
+        <f t="shared" ref="D73:AB73" si="12">C73+7</f>
+        <v>43919</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="6"/>
-        <v>43919</v>
+        <f t="shared" si="12"/>
+        <v>43926</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="6"/>
-        <v>43926</v>
+        <f t="shared" si="12"/>
+        <v>43933</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="6"/>
-        <v>43933</v>
+        <f t="shared" si="12"/>
+        <v>43940</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="6"/>
-        <v>43940</v>
+        <f t="shared" si="12"/>
+        <v>43947</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="6"/>
-        <v>43947</v>
+        <f t="shared" si="12"/>
+        <v>43954</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="6"/>
-        <v>43954</v>
+        <f t="shared" si="12"/>
+        <v>43961</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="6"/>
-        <v>43961</v>
+        <f t="shared" si="12"/>
+        <v>43968</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="6"/>
-        <v>43968</v>
+        <f t="shared" si="12"/>
+        <v>43975</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="6"/>
-        <v>43975</v>
+        <f t="shared" si="12"/>
+        <v>43982</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="6"/>
-        <v>43982</v>
+        <f t="shared" si="12"/>
+        <v>43989</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="6"/>
-        <v>43989</v>
+        <f t="shared" si="12"/>
+        <v>43996</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="6"/>
-        <v>43996</v>
+        <f t="shared" si="12"/>
+        <v>44003</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="6"/>
-        <v>44003</v>
+        <f t="shared" si="12"/>
+        <v>44010</v>
       </c>
       <c r="R73" s="3">
-        <f t="shared" si="6"/>
-        <v>44010</v>
+        <f t="shared" si="12"/>
+        <v>44017</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="6"/>
-        <v>44017</v>
+        <f t="shared" si="12"/>
+        <v>44024</v>
       </c>
       <c r="T73" s="3">
-        <f t="shared" si="6"/>
-        <v>44024</v>
+        <f t="shared" si="12"/>
+        <v>44031</v>
       </c>
       <c r="U73" s="3">
-        <f t="shared" si="6"/>
-        <v>44031</v>
+        <f t="shared" si="12"/>
+        <v>44038</v>
       </c>
       <c r="V73" s="3">
-        <f t="shared" si="6"/>
-        <v>44038</v>
+        <f t="shared" si="12"/>
+        <v>44045</v>
       </c>
       <c r="W73" s="3">
-        <f t="shared" si="6"/>
-        <v>44045</v>
+        <f t="shared" si="12"/>
+        <v>44052</v>
       </c>
       <c r="X73" s="3">
-        <f t="shared" si="6"/>
-        <v>44052</v>
+        <f t="shared" si="12"/>
+        <v>44059</v>
       </c>
       <c r="Y73" s="3">
-        <f t="shared" si="6"/>
-        <v>44059</v>
+        <f t="shared" si="12"/>
+        <v>44066</v>
       </c>
       <c r="Z73" s="3">
-        <f t="shared" si="6"/>
-        <v>44066</v>
-      </c>
-      <c r="AA73" s="3"/>
+        <f t="shared" si="12"/>
+        <v>44073</v>
+      </c>
+      <c r="AA73" s="3">
+        <f t="shared" si="12"/>
+        <v>44080</v>
+      </c>
       <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:95" x14ac:dyDescent="0.3">
@@ -3752,6 +4505,9 @@
       <c r="Z74">
         <v>1544</v>
       </c>
+      <c r="AA74">
+        <v>996</v>
+      </c>
     </row>
     <row r="75" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
@@ -3832,6 +4588,9 @@
       <c r="Z75">
         <v>0</v>
       </c>
+      <c r="AA75">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
@@ -3842,100 +4601,104 @@
         <v>7</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" ref="C76:Z76" si="7">ROUND(C75*C74,0)</f>
+        <f t="shared" ref="C76:AA76" si="13">ROUND(C75*C74,0)</f>
         <v>34</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="R76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="T76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="X76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Z76" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="5">
+        <f t="shared" si="13"/>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:95" x14ac:dyDescent="0.3">
@@ -4042,6 +4805,10 @@
         <f>SUM($B$74:Z74)</f>
         <v>9811</v>
       </c>
+      <c r="AA77" s="5">
+        <f>SUM($B$74:AA74)</f>
+        <v>10807</v>
+      </c>
     </row>
     <row r="78" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
@@ -4147,53 +4914,61 @@
         <f>SUM($B$75:Z75)</f>
         <v>1.2409999999999997</v>
       </c>
+      <c r="AA78" s="5">
+        <f>SUM($B$75:AA75)</f>
+        <v>1.2739999999999996</v>
+      </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B80" s="3">
-        <v>43989</v>
+        <v>43995</v>
       </c>
       <c r="C80" s="3">
         <f>B80+7</f>
-        <v>43996</v>
+        <v>44002</v>
       </c>
       <c r="D80" s="3">
-        <f>C80+7</f>
-        <v>44003</v>
+        <f t="shared" ref="D80:M80" si="14">C80+7</f>
+        <v>44009</v>
       </c>
       <c r="E80" s="3">
-        <f>D80+7</f>
-        <v>44010</v>
+        <f t="shared" si="14"/>
+        <v>44016</v>
       </c>
       <c r="F80" s="3">
-        <f>E80+7</f>
-        <v>44017</v>
+        <f t="shared" si="14"/>
+        <v>44023</v>
       </c>
       <c r="G80" s="3">
-        <v>44031</v>
+        <v>44037</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" ref="H80:K80" si="8">G80+7</f>
-        <v>44038</v>
+        <f t="shared" si="14"/>
+        <v>44044</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="8"/>
-        <v>44045</v>
+        <f t="shared" si="14"/>
+        <v>44051</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="8"/>
-        <v>44052</v>
+        <f t="shared" si="14"/>
+        <v>44058</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="8"/>
-        <v>44059</v>
+        <f t="shared" si="14"/>
+        <v>44065</v>
       </c>
       <c r="L80" s="3">
-        <v>44066</v>
-      </c>
-      <c r="M80" s="3"/>
+        <f t="shared" si="14"/>
+        <v>44072</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="14"/>
+        <v>44079</v>
+      </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -4277,7 +5052,7 @@
       <c r="CP80" s="3"/>
       <c r="CQ80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +5081,7 @@
         <v>78</v>
       </c>
       <c r="J81">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K81">
         <v>222</v>
@@ -4314,8 +5089,11 @@
       <c r="L81">
         <v>1247</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
@@ -4352,8 +5130,11 @@
       <c r="L82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -4391,18 +5172,22 @@
       </c>
       <c r="J83" s="5">
         <f>SUM($B81:J81)</f>
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K83" s="5">
         <f>SUM($B81:K81)</f>
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="L83" s="5">
         <f>SUM($B81:L81)</f>
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+        <v>2551</v>
+      </c>
+      <c r="M83" s="5">
+        <f>SUM($B81:M81)</f>
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
@@ -4450,8 +5235,12 @@
         <f>SUM($B82:L82)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M84" s="5">
+        <f>SUM($B82:M82)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
@@ -4463,55 +5252,55 @@
         <v>44053</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" ref="D86:P86" si="9">C86+1</f>
+        <f t="shared" ref="D86:P86" si="15">C86+1</f>
         <v>44054</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44055</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44056</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44057</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44058</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44059</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44060</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44061</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44062</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44063</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44064</v>
       </c>
       <c r="O86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44065</v>
       </c>
       <c r="P86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44066</v>
       </c>
       <c r="Q86" s="3">
@@ -4532,8 +5321,44 @@
       <c r="V86" s="3">
         <v>44072</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W86" s="3">
+        <f>V86+1</f>
+        <v>44073</v>
+      </c>
+      <c r="X86" s="3">
+        <f t="shared" ref="X86:AC86" si="16">W86+1</f>
+        <v>44074</v>
+      </c>
+      <c r="Y86" s="3">
+        <f t="shared" si="16"/>
+        <v>44075</v>
+      </c>
+      <c r="Z86" s="3">
+        <f t="shared" si="16"/>
+        <v>44076</v>
+      </c>
+      <c r="AA86" s="3">
+        <f t="shared" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="AB86" s="3">
+        <f t="shared" si="16"/>
+        <v>44078</v>
+      </c>
+      <c r="AC86" s="3">
+        <f t="shared" si="16"/>
+        <v>44079</v>
+      </c>
+      <c r="AD86" s="3">
+        <f>AC86+1</f>
+        <v>44080</v>
+      </c>
+      <c r="AE86" s="3">
+        <f>AD86+1</f>
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>20</v>
       </c>
@@ -4600,33 +5425,60 @@
       <c r="V87">
         <v>1755</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>2475</v>
+      </c>
+      <c r="Z87">
+        <v>2025</v>
+      </c>
+      <c r="AA87">
+        <v>2025</v>
+      </c>
+      <c r="AB87">
+        <v>1800</v>
+      </c>
+      <c r="AC87">
+        <v>900</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:G88" si="10">16/6</f>
+        <f t="shared" ref="B88:G88" si="17">16/6</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="H88">
@@ -4674,8 +5526,35 @@
       <c r="V88">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>59</v>
+      </c>
+      <c r="Z88">
+        <v>23</v>
+      </c>
+      <c r="AA88">
+        <v>22</v>
+      </c>
+      <c r="AB88">
+        <v>18</v>
+      </c>
+      <c r="AC88">
+        <v>8</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -4763,8 +5642,44 @@
         <f>SUM($B$87:V87)</f>
         <v>21105</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W89" s="5">
+        <f>SUM($B$87:W87)</f>
+        <v>21105</v>
+      </c>
+      <c r="X89" s="5">
+        <f>SUM($B$87:X87)</f>
+        <v>21105</v>
+      </c>
+      <c r="Y89" s="5">
+        <f>SUM($B$87:Y87)</f>
+        <v>23580</v>
+      </c>
+      <c r="Z89" s="5">
+        <f>SUM($B$87:Z87)</f>
+        <v>25605</v>
+      </c>
+      <c r="AA89" s="5">
+        <f>SUM($B$87:AA87)</f>
+        <v>27630</v>
+      </c>
+      <c r="AB89" s="5">
+        <f>SUM($B$87:AB87)</f>
+        <v>29430</v>
+      </c>
+      <c r="AC89" s="5">
+        <f>SUM($B$87:AC87)</f>
+        <v>30330</v>
+      </c>
+      <c r="AD89" s="5">
+        <f>SUM($B$87:AD87)</f>
+        <v>30330</v>
+      </c>
+      <c r="AE89" s="5">
+        <f>SUM($B$87:AE87)</f>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>15</v>
       </c>
@@ -4852,8 +5767,44 @@
         <f>SUM($B$88:V88)</f>
         <v>395</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W90" s="5">
+        <f>SUM($B$88:W88)</f>
+        <v>395</v>
+      </c>
+      <c r="X90" s="5">
+        <f>SUM($B$88:X88)</f>
+        <v>395</v>
+      </c>
+      <c r="Y90" s="5">
+        <f>SUM($B$88:Y88)</f>
+        <v>454</v>
+      </c>
+      <c r="Z90" s="5">
+        <f>SUM($B$88:Z88)</f>
+        <v>477</v>
+      </c>
+      <c r="AA90" s="5">
+        <f>SUM($B$88:AA88)</f>
+        <v>499</v>
+      </c>
+      <c r="AB90" s="5">
+        <f>SUM($B$88:AB88)</f>
+        <v>517</v>
+      </c>
+      <c r="AC90" s="5">
+        <f>SUM($B$88:AC88)</f>
+        <v>525</v>
+      </c>
+      <c r="AD90" s="5">
+        <f>SUM($B$88:AD88)</f>
+        <v>525</v>
+      </c>
+      <c r="AE90" s="5">
+        <f>SUM($B$88:AE88)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -4866,8 +5817,11 @@
       <c r="D92" s="3">
         <v>44072</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E92" s="3">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>18</v>
       </c>
@@ -4880,8 +5834,11 @@
       <c r="D93">
         <v>10939</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>21261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>19</v>
       </c>
@@ -4894,8 +5851,11 @@
       <c r="D94">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>44</v>
       </c>
@@ -4903,83 +5863,83 @@
         <v>44045</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" ref="C96:V96" si="11">B96+1</f>
+        <f t="shared" ref="C96:V96" si="18">B96+1</f>
         <v>44046</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44047</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44048</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44049</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44050</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44051</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44052</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44053</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44054</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44055</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44056</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44057</v>
       </c>
       <c r="O96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44058</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44059</v>
       </c>
       <c r="Q96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44060</v>
       </c>
       <c r="R96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44061</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44062</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44063</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44064</v>
       </c>
       <c r="V96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>44065</v>
       </c>
       <c r="W96" s="3">
@@ -4987,31 +5947,64 @@
         <v>44066</v>
       </c>
       <c r="X96" s="3">
-        <f t="shared" ref="X96:AC96" si="12">W96+1</f>
+        <f t="shared" ref="X96:AC96" si="19">W96+1</f>
         <v>44067</v>
       </c>
       <c r="Y96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44068</v>
       </c>
       <c r="Z96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44069</v>
       </c>
       <c r="AA96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44070</v>
       </c>
       <c r="AB96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44071</v>
       </c>
       <c r="AC96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44072</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD96" s="3">
+        <f>AC96+1</f>
+        <v>44073</v>
+      </c>
+      <c r="AE96" s="3">
+        <f t="shared" ref="AE96:AO96" si="20">AD96+1</f>
+        <v>44074</v>
+      </c>
+      <c r="AF96" s="3">
+        <f t="shared" si="20"/>
+        <v>44075</v>
+      </c>
+      <c r="AG96" s="3">
+        <f t="shared" si="20"/>
+        <v>44076</v>
+      </c>
+      <c r="AH96" s="3">
+        <f t="shared" si="20"/>
+        <v>44077</v>
+      </c>
+      <c r="AI96" s="3">
+        <f t="shared" si="20"/>
+        <v>44078</v>
+      </c>
+      <c r="AJ96" s="3">
+        <f t="shared" si="20"/>
+        <v>44079</v>
+      </c>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+    </row>
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -5026,127 +6019,158 @@
         <v>85</v>
       </c>
       <c r="AC97">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="AJ97">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:H98" si="13">$H$97/7</f>
+        <f t="shared" ref="B98:H98" si="21">$H$97/7</f>
         <v>63.142857142857146</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>63.142857142857146</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:O98" si="14">$O$97/7</f>
+        <f t="shared" ref="I98:O98" si="22">$O$97/7</f>
         <v>38.142857142857146</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.142857142857146</v>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:V98" si="15">$V$97/7</f>
+        <f t="shared" ref="P98:V98" si="23">$V$97/7</f>
         <v>12.142857142857142</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>12.142857142857142</v>
       </c>
       <c r="W98">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" ref="W98:AC98" si="24">$AC$97/7</f>
+        <v>77.714285714285708</v>
       </c>
       <c r="X98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
       </c>
       <c r="Y98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
       </c>
       <c r="Z98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
       </c>
       <c r="AA98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
       </c>
       <c r="AB98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
       </c>
       <c r="AC98" s="5">
-        <f>$AC$97/7</f>
-        <v>33.714285714285715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AD98">
+        <f>$AJ$97/7</f>
+        <v>61</v>
+      </c>
+      <c r="AE98" s="5">
+        <f t="shared" ref="AE98:AJ98" si="25">$AJ$97/7</f>
+        <v>61</v>
+      </c>
+      <c r="AF98" s="5">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="AG98" s="5">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="AH98" s="5">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="AI98" s="5">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="AJ98" s="5">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -5234,8 +6258,29 @@
       <c r="AC99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>1</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -5325,34 +6370,62 @@
       </c>
       <c r="W100" s="5">
         <f>SUM($B$98:W98)</f>
-        <v>827.71428571428532</v>
+        <v>871.71428571428532</v>
       </c>
       <c r="X100" s="5">
         <f>SUM($B$98:X98)</f>
-        <v>861.42857142857099</v>
+        <v>949.42857142857099</v>
       </c>
       <c r="Y100" s="5">
         <f>SUM($B$98:Y98)</f>
-        <v>895.14285714285666</v>
+        <v>1027.1428571428567</v>
       </c>
       <c r="Z100" s="5">
         <f>SUM($B$98:Z98)</f>
-        <v>928.85714285714232</v>
+        <v>1104.8571428571424</v>
       </c>
       <c r="AA100" s="5">
         <f>SUM($B$98:AA98)</f>
-        <v>962.57142857142799</v>
+        <v>1182.5714285714282</v>
       </c>
       <c r="AB100" s="5">
         <f>SUM($B$98:AB98)</f>
-        <v>996.28571428571365</v>
+        <v>1260.285714285714</v>
       </c>
       <c r="AC100" s="5">
         <f>SUM($B$98:AC98)</f>
-        <v>1029.9999999999993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1337.9999999999998</v>
+      </c>
+      <c r="AD100" s="5">
+        <f>SUM($B$98:AD98)</f>
+        <v>1398.9999999999998</v>
+      </c>
+      <c r="AE100" s="5">
+        <f>SUM($B$98:AE98)</f>
+        <v>1459.9999999999998</v>
+      </c>
+      <c r="AF100" s="5">
+        <f>SUM($B$98:AF98)</f>
+        <v>1520.9999999999998</v>
+      </c>
+      <c r="AG100" s="5">
+        <f>SUM($B$98:AG98)</f>
+        <v>1581.9999999999998</v>
+      </c>
+      <c r="AH100" s="5">
+        <f>SUM($B$98:AH98)</f>
+        <v>1642.9999999999998</v>
+      </c>
+      <c r="AI100" s="5">
+        <f>SUM($B$98:AI98)</f>
+        <v>1703.9999999999998</v>
+      </c>
+      <c r="AJ100" s="5">
+        <f>SUM($B$98:AJ98)</f>
+        <v>1764.9999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -5468,8 +6541,36 @@
         <f>SUM($B$99:AC99)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD101" s="5">
+        <f>SUM($B$99:AD99)</f>
+        <v>7</v>
+      </c>
+      <c r="AE101" s="5">
+        <f>SUM($B$99:AE99)</f>
+        <v>7</v>
+      </c>
+      <c r="AF101" s="5">
+        <f>SUM($B$99:AF99)</f>
+        <v>8</v>
+      </c>
+      <c r="AG101" s="5">
+        <f>SUM($B$99:AG99)</f>
+        <v>8</v>
+      </c>
+      <c r="AH101" s="5">
+        <f>SUM($B$99:AH99)</f>
+        <v>8</v>
+      </c>
+      <c r="AI101" s="5">
+        <f>SUM($B$99:AI99)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ101" s="5">
+        <f>SUM($B$99:AJ99)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>48</v>
       </c>
@@ -5489,90 +6590,135 @@
         <v>44049</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" ref="F103:V103" si="16">E103+1</f>
+        <f t="shared" ref="F103:V103" si="26">E103+1</f>
         <v>44050</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44051</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44052</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44053</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44054</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44055</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44056</v>
       </c>
       <c r="M103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44057</v>
       </c>
       <c r="N103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44058</v>
       </c>
       <c r="O103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44059</v>
       </c>
       <c r="P103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44060</v>
       </c>
       <c r="Q103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44061</v>
       </c>
       <c r="R103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44062</v>
       </c>
       <c r="S103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44063</v>
       </c>
       <c r="T103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44064</v>
       </c>
       <c r="U103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44065</v>
       </c>
       <c r="V103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>44066</v>
       </c>
       <c r="W103" s="3">
+        <f t="shared" ref="W103" si="27">V103+1</f>
         <v>44067</v>
       </c>
       <c r="X103" s="3">
+        <f t="shared" ref="X103" si="28">W103+1</f>
         <v>44068</v>
       </c>
       <c r="Y103" s="3">
+        <f t="shared" ref="Y103" si="29">X103+1</f>
         <v>44069</v>
       </c>
       <c r="Z103" s="3">
+        <f t="shared" ref="Z103" si="30">Y103+1</f>
         <v>44070</v>
       </c>
       <c r="AA103" s="3">
+        <f t="shared" ref="AA103" si="31">Z103+1</f>
         <v>44071</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB103" s="3">
+        <f t="shared" ref="AB103" si="32">AA103+1</f>
+        <v>44072</v>
+      </c>
+      <c r="AC103" s="3">
+        <f t="shared" ref="AC103" si="33">AB103+1</f>
+        <v>44073</v>
+      </c>
+      <c r="AD103" s="3">
+        <f t="shared" ref="AD103" si="34">AC103+1</f>
+        <v>44074</v>
+      </c>
+      <c r="AE103" s="3">
+        <f t="shared" ref="AE103" si="35">AD103+1</f>
+        <v>44075</v>
+      </c>
+      <c r="AF103" s="3">
+        <f t="shared" ref="AF103" si="36">AE103+1</f>
+        <v>44076</v>
+      </c>
+      <c r="AG103" s="3">
+        <f t="shared" ref="AG103:AK103" si="37">AF103+1</f>
+        <v>44077</v>
+      </c>
+      <c r="AH103" s="3">
+        <f t="shared" si="37"/>
+        <v>44078</v>
+      </c>
+      <c r="AI103" s="3">
+        <f t="shared" si="37"/>
+        <v>44079</v>
+      </c>
+      <c r="AJ103" s="3">
+        <f t="shared" si="37"/>
+        <v>44080</v>
+      </c>
+      <c r="AK103" s="3">
+        <f t="shared" si="37"/>
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>20</v>
       </c>
@@ -5654,8 +6800,38 @@
       <c r="AA104">
         <v>690</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>805</v>
+      </c>
+      <c r="AE104">
+        <v>760</v>
+      </c>
+      <c r="AF104">
+        <v>850</v>
+      </c>
+      <c r="AG104">
+        <v>860</v>
+      </c>
+      <c r="AH104">
+        <v>750</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>21</v>
       </c>
@@ -5737,8 +6913,38 @@
       <c r="AA105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>2</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -5846,8 +7052,48 @@
         <f>SUM($B$104:AA104)</f>
         <v>8990</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB106" s="5">
+        <f>SUM($B$104:AB104)</f>
+        <v>8990</v>
+      </c>
+      <c r="AC106" s="5">
+        <f>SUM($B$104:AC104)</f>
+        <v>8990</v>
+      </c>
+      <c r="AD106" s="5">
+        <f>SUM($B$104:AD104)</f>
+        <v>9795</v>
+      </c>
+      <c r="AE106" s="5">
+        <f>SUM($B$104:AE104)</f>
+        <v>10555</v>
+      </c>
+      <c r="AF106" s="5">
+        <f>SUM($B$104:AF104)</f>
+        <v>11405</v>
+      </c>
+      <c r="AG106" s="5">
+        <f>SUM($B$104:AG104)</f>
+        <v>12265</v>
+      </c>
+      <c r="AH106" s="5">
+        <f>SUM($B$104:AH104)</f>
+        <v>13015</v>
+      </c>
+      <c r="AI106" s="5">
+        <f>SUM($B$104:AI104)</f>
+        <v>13015</v>
+      </c>
+      <c r="AJ106" s="5">
+        <f>SUM($B$104:AJ104)</f>
+        <v>13015</v>
+      </c>
+      <c r="AK106" s="5">
+        <f>SUM($B$104:AK104)</f>
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>15</v>
       </c>
@@ -5955,8 +7201,48 @@
         <f>SUM($B$105:AA105)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB107" s="5">
+        <f>SUM($B$105:AB105)</f>
+        <v>14</v>
+      </c>
+      <c r="AC107" s="5">
+        <f>SUM($B$105:AC105)</f>
+        <v>14</v>
+      </c>
+      <c r="AD107" s="5">
+        <f>SUM($B$105:AD105)</f>
+        <v>14</v>
+      </c>
+      <c r="AE107" s="5">
+        <f>SUM($B$105:AE105)</f>
+        <v>16</v>
+      </c>
+      <c r="AF107" s="5">
+        <f>SUM($B$105:AF105)</f>
+        <v>16</v>
+      </c>
+      <c r="AG107" s="5">
+        <f>SUM($B$105:AG105)</f>
+        <v>17</v>
+      </c>
+      <c r="AH107" s="5">
+        <f>SUM($B$105:AH105)</f>
+        <v>17</v>
+      </c>
+      <c r="AI107" s="5">
+        <f>SUM($B$105:AI105)</f>
+        <v>17</v>
+      </c>
+      <c r="AJ107" s="5">
+        <f>SUM($B$105:AJ105)</f>
+        <v>17</v>
+      </c>
+      <c r="AK107" s="5">
+        <f>SUM($B$105:AK105)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>50</v>
       </c>
@@ -5966,8 +7252,11 @@
       <c r="C109" s="3">
         <v>44073</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D109" s="3">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -5977,8 +7266,11 @@
       <c r="C110">
         <v>8224</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>11653</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -5987,6 +7279,9 @@
       </c>
       <c r="C111">
         <v>129</v>
+      </c>
+      <c r="D111">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
